--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F883A38A-26AB-48DB-BB35-AA7C73FDA06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A076EB0-7701-49AC-B3A9-DAEE54CEF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26115" yWindow="2430" windowWidth="25080" windowHeight="12270" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-25770" yWindow="2775" windowWidth="25080" windowHeight="12270" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -9521,7 +9521,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="B2:V486"/>
+  <dimension ref="B2:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
@@ -18574,74 +18574,6 @@
       <c r="P482" s="118"/>
       <c r="Q482" s="118"/>
       <c r="R482" s="118"/>
-    </row>
-    <row r="483" spans="4:18">
-      <c r="D483" s="115"/>
-      <c r="E483" s="115"/>
-      <c r="F483" s="115"/>
-      <c r="G483" s="115"/>
-      <c r="H483" s="115"/>
-      <c r="I483" s="115"/>
-      <c r="J483" s="115"/>
-      <c r="K483" s="115"/>
-      <c r="L483" s="115"/>
-      <c r="M483" s="115"/>
-      <c r="N483" s="115"/>
-      <c r="O483" s="115"/>
-      <c r="P483" s="115"/>
-      <c r="Q483" s="115"/>
-      <c r="R483" s="115"/>
-    </row>
-    <row r="484" spans="4:18" ht="39.75">
-      <c r="D484" s="116"/>
-      <c r="E484" s="116"/>
-      <c r="F484" s="116"/>
-      <c r="G484" s="116"/>
-      <c r="H484" s="116"/>
-      <c r="I484" s="116"/>
-      <c r="J484" s="116"/>
-      <c r="K484" s="116"/>
-      <c r="L484" s="116"/>
-      <c r="M484" s="116"/>
-      <c r="N484" s="116"/>
-      <c r="O484" s="116"/>
-      <c r="P484" s="116"/>
-      <c r="Q484" s="116"/>
-      <c r="R484" s="116"/>
-    </row>
-    <row r="485" spans="4:18" ht="58.5">
-      <c r="D485" s="117"/>
-      <c r="E485" s="117"/>
-      <c r="F485" s="117"/>
-      <c r="G485" s="117"/>
-      <c r="H485" s="117"/>
-      <c r="I485" s="117"/>
-      <c r="J485" s="117"/>
-      <c r="K485" s="117"/>
-      <c r="L485" s="117"/>
-      <c r="M485" s="117"/>
-      <c r="N485" s="117"/>
-      <c r="O485" s="117"/>
-      <c r="P485" s="117"/>
-      <c r="Q485" s="117"/>
-      <c r="R485" s="117"/>
-    </row>
-    <row r="486" spans="4:18">
-      <c r="D486" s="118"/>
-      <c r="E486" s="118"/>
-      <c r="F486" s="118"/>
-      <c r="G486" s="118"/>
-      <c r="H486" s="118"/>
-      <c r="I486" s="118"/>
-      <c r="J486" s="118"/>
-      <c r="K486" s="118"/>
-      <c r="L486" s="118"/>
-      <c r="M486" s="118"/>
-      <c r="N486" s="118"/>
-      <c r="O486" s="118"/>
-      <c r="P486" s="118"/>
-      <c r="Q486" s="118"/>
-      <c r="R486" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD46479-633F-40C6-83AE-7AF088C29238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF615193-24DD-471B-A11D-8A8B8D6687EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="1965" windowWidth="25080" windowHeight="12270" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="人工標音字庫" sheetId="280" r:id="rId2"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId3"/>
-    <sheet name="漢字注音 (2)" sheetId="275" r:id="rId4"/>
-    <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId5"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId8"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
+    <sheet name="漢字注音 (2)" sheetId="275" r:id="rId3"/>
+    <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId4"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -41,7 +40,7 @@
     <definedName name="語音類型">env!$C$13</definedName>
     <definedName name="標音方式">env!$C$17</definedName>
     <definedName name="標音方法">env!$C$15</definedName>
-    <definedName name="覩9" localSheetId="3">'漢字注音 (2)'!$A$5</definedName>
+    <definedName name="覩9" localSheetId="2">'漢字注音 (2)'!$A$5</definedName>
     <definedName name="覩9">漢字注音!$A$5</definedName>
     <definedName name="顯示注音輸入">env!$C$10</definedName>
   </definedNames>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="1605">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4683,392 +4682,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永</t>
-  </si>
-  <si>
-    <t>九</t>
-  </si>
-  <si>
-    <t>歲</t>
-  </si>
-  <si>
-    <t>癸</t>
-  </si>
-  <si>
-    <t>丑</t>
-  </si>
-  <si>
-    <t>初</t>
-  </si>
-  <si>
-    <t>稽</t>
-  </si>
-  <si>
-    <t>亭</t>
-  </si>
-  <si>
-    <t>禊</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>羣</t>
-  </si>
-  <si>
-    <t>畢</t>
-  </si>
-  <si>
-    <t>少</t>
-  </si>
-  <si>
-    <t>咸</t>
-  </si>
-  <si>
-    <t>地</t>
-  </si>
-  <si>
-    <t>崇</t>
-  </si>
-  <si>
-    <t>峻</t>
-  </si>
-  <si>
-    <t>嶺</t>
-  </si>
-  <si>
-    <t>茂</t>
-  </si>
-  <si>
-    <t>又</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>流</t>
-  </si>
-  <si>
-    <t>激</t>
-  </si>
-  <si>
-    <t>湍</t>
-  </si>
-  <si>
-    <t>映</t>
-  </si>
-  <si>
-    <t>帶</t>
-  </si>
-  <si>
-    <t>左</t>
-  </si>
-  <si>
-    <t>右</t>
-  </si>
-  <si>
-    <t>引</t>
-  </si>
-  <si>
-    <t>觴</t>
-  </si>
-  <si>
-    <t>曲</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>列</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>次</t>
-  </si>
-  <si>
-    <t>雖</t>
-  </si>
-  <si>
-    <t>絲</t>
-  </si>
-  <si>
-    <t>管</t>
-  </si>
-  <si>
-    <t>弦</t>
-  </si>
-  <si>
-    <t>盛</t>
-  </si>
-  <si>
-    <t>詠</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>暢</t>
-  </si>
-  <si>
-    <t>敘</t>
-  </si>
-  <si>
-    <t>幽</t>
-  </si>
-  <si>
-    <t>朗</t>
-  </si>
-  <si>
-    <t>惠</t>
-  </si>
-  <si>
-    <t>仰</t>
-  </si>
-  <si>
-    <t>宇</t>
-  </si>
-  <si>
-    <t>宙</t>
-  </si>
-  <si>
-    <t>俯</t>
-  </si>
-  <si>
-    <t>察</t>
-  </si>
-  <si>
-    <t>品</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>遊</t>
-  </si>
-  <si>
-    <t>騁</t>
-  </si>
-  <si>
-    <t>視</t>
-  </si>
-  <si>
-    <t>娛</t>
-  </si>
-  <si>
-    <t>信</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>取</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>抱</t>
-  </si>
-  <si>
-    <t>悟</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>室</t>
-  </si>
-  <si>
-    <t>內</t>
-  </si>
-  <si>
-    <t>因</t>
-  </si>
-  <si>
-    <t>寄</t>
-  </si>
-  <si>
-    <t>託</t>
-  </si>
-  <si>
-    <t>放</t>
-  </si>
-  <si>
-    <t>骸</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>舍</t>
-  </si>
-  <si>
-    <t>殊</t>
-  </si>
-  <si>
-    <t>躁</t>
-  </si>
-  <si>
-    <t>當</t>
-  </si>
-  <si>
-    <t>欣</t>
-  </si>
-  <si>
-    <t>蹔</t>
-  </si>
-  <si>
-    <t>怏</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>老</t>
-  </si>
-  <si>
-    <t>將</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>既</t>
-  </si>
-  <si>
-    <t>倦</t>
-  </si>
-  <si>
-    <t>隨</t>
-  </si>
-  <si>
-    <t>慨</t>
-  </si>
-  <si>
-    <t>係</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>陳</t>
-  </si>
-  <si>
-    <t>跡</t>
-  </si>
-  <si>
-    <t>猶</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>況</t>
-  </si>
-  <si>
-    <t>脩</t>
-  </si>
-  <si>
-    <t>短</t>
-  </si>
-  <si>
-    <t>化</t>
-  </si>
-  <si>
-    <t>終</t>
-  </si>
-  <si>
-    <t>期</t>
-  </si>
-  <si>
-    <t>盡</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>死</t>
-  </si>
-  <si>
-    <t>豈</t>
-  </si>
-  <si>
-    <t>痛</t>
-  </si>
-  <si>
-    <t>每</t>
-  </si>
-  <si>
-    <t>昔</t>
-  </si>
-  <si>
-    <t>由</t>
-  </si>
-  <si>
-    <t>合</t>
-  </si>
-  <si>
-    <t>契</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>悼</t>
-  </si>
-  <si>
-    <t>喻</t>
-  </si>
-  <si>
-    <t>固</t>
-  </si>
-  <si>
-    <t>虛</t>
-  </si>
-  <si>
-    <t>誕</t>
-  </si>
-  <si>
-    <t>齊</t>
-  </si>
-  <si>
-    <t>彭</t>
-  </si>
-  <si>
-    <t>殤</t>
-  </si>
-  <si>
-    <t>妄</t>
-  </si>
-  <si>
-    <t>錄</t>
-  </si>
-  <si>
-    <t>致</t>
-  </si>
-  <si>
-    <t>(89, 15); (89, 15)</t>
+    <t>文讀音</t>
   </si>
   <si>
     <t>https://imgs.guwendianji.com/wp-content/uploads/2017/06/1-32.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白話音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>閩拼調號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5079,1152 +4699,6 @@
   <si>
     <t>方音符號</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經二英</t>
-  </si>
-  <si>
-    <t>ㄧㄥˋ</t>
-  </si>
-  <si>
-    <t>高五喜</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>交二求</t>
-  </si>
-  <si>
-    <t>ㄍㄠˋ</t>
-  </si>
-  <si>
-    <t>居五耐</t>
-  </si>
-  <si>
-    <t>ㄋㄧˊ</t>
-  </si>
-  <si>
-    <t>檜三喜</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆤ˪</t>
-  </si>
-  <si>
-    <t>居七地</t>
-  </si>
-  <si>
-    <t>ㄉㄧ˫</t>
-  </si>
-  <si>
-    <t>規二求</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄧˋ</t>
-  </si>
-  <si>
-    <t>丩二他</t>
-  </si>
-  <si>
-    <t>ㄊㄧㄨˋ</t>
-  </si>
-  <si>
-    <t>沽七門</t>
-  </si>
-  <si>
-    <t>ㆠㆦ˫</t>
-  </si>
-  <si>
-    <t>君一出</t>
-  </si>
-  <si>
-    <t>ㄘㄨㄣ</t>
-  </si>
-  <si>
-    <t>居一曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧ</t>
-  </si>
-  <si>
-    <t>沽一出</t>
-  </si>
-  <si>
-    <t>ㄘㆦ</t>
-  </si>
-  <si>
-    <t>伽七英</t>
-  </si>
-  <si>
-    <t>ㆤ˫</t>
-  </si>
-  <si>
-    <t>艍一英</t>
-  </si>
-  <si>
-    <t>ㄨ</t>
-  </si>
-  <si>
-    <t>伽一去</t>
-  </si>
-  <si>
-    <t>ㄎㆤ</t>
-  </si>
-  <si>
-    <t>官一時</t>
-  </si>
-  <si>
-    <t>ㄙㄨㆩ</t>
-  </si>
-  <si>
-    <t>金一英</t>
-  </si>
-  <si>
-    <t>ㄧㆬ</t>
-  </si>
-  <si>
-    <t>干五柳</t>
-  </si>
-  <si>
-    <t>ㄌㄢˊ</t>
-  </si>
-  <si>
-    <t>經五地</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>丩一時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ</t>
-  </si>
-  <si>
-    <t>堅四去</t>
-  </si>
-  <si>
-    <t>ㄎㄧㄚㆵ</t>
-  </si>
-  <si>
-    <t>皆七地</t>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-  </si>
-  <si>
-    <t>膠二英</t>
-  </si>
-  <si>
-    <t>ㄚˋ</t>
-  </si>
-  <si>
-    <t>君五求</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>堅五喜</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>巾四邊</t>
-  </si>
-  <si>
-    <t>ㄅㄧㆵ</t>
-  </si>
-  <si>
-    <t>居三曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧ˪</t>
-  </si>
-  <si>
-    <t>茄二曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄜˋ</t>
-  </si>
-  <si>
-    <t>牛二地</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆫˋ</t>
-  </si>
-  <si>
-    <t>甘五喜</t>
-  </si>
-  <si>
-    <t>ㄏㆰˊ</t>
-  </si>
-  <si>
-    <t>金八曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆴ˙</t>
-  </si>
-  <si>
-    <t>艍二出</t>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-  </si>
-  <si>
-    <t>伽七地</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>艍七英</t>
-  </si>
-  <si>
-    <t>ㄨ˫</t>
-  </si>
-  <si>
-    <t>公五曾</t>
-  </si>
-  <si>
-    <t>ㄗㆲˊ</t>
-  </si>
-  <si>
-    <t>君三曾</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˪</t>
-  </si>
-  <si>
-    <t>經二柳</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˋ</t>
-  </si>
-  <si>
-    <t>膠五耐</t>
-  </si>
-  <si>
-    <t>ㄋㄚˊ</t>
-  </si>
-  <si>
-    <t>經四地</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-  </si>
-  <si>
-    <t>丩七英</t>
-  </si>
-  <si>
-    <t>ㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>梔一出</t>
-  </si>
-  <si>
-    <t>ㄘㆪ</t>
-  </si>
-  <si>
-    <t>交五柳</t>
-  </si>
-  <si>
-    <t>ㄌㄠˊ</t>
-  </si>
-  <si>
-    <t>經四求</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ</t>
-  </si>
-  <si>
-    <t>觀一他</t>
-  </si>
-  <si>
-    <t>ㄊㄨㄢ</t>
-  </si>
-  <si>
-    <t>驚三英</t>
-  </si>
-  <si>
-    <t>ㄧㆩ˪</t>
-  </si>
-  <si>
-    <t>瓜三地</t>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˪</t>
-  </si>
-  <si>
-    <t>高二曾</t>
-  </si>
-  <si>
-    <t>ㄗㄜˋ</t>
-  </si>
-  <si>
-    <t>巾二英</t>
-  </si>
-  <si>
-    <t>ㄧㄣˋ</t>
-  </si>
-  <si>
-    <t>居二英</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>規七英</t>
-  </si>
-  <si>
-    <t>ㄨㄧ˫</t>
-  </si>
-  <si>
-    <t>恭一時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲ</t>
-  </si>
-  <si>
-    <t>嬌一去</t>
-  </si>
-  <si>
-    <t>ㄎㄧㄠ</t>
-  </si>
-  <si>
-    <t>規二曾</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄧˋ</t>
-  </si>
-  <si>
-    <t>堅八柳</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄚㆵ˙</t>
-  </si>
-  <si>
-    <t>伽七曾</t>
-  </si>
-  <si>
-    <t>ㄗㆤ˫</t>
-  </si>
-  <si>
-    <t>居五求</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>艍三時</t>
-  </si>
-  <si>
-    <t>ㄙㄨ˪</t>
-  </si>
-  <si>
-    <t>規一時</t>
-  </si>
-  <si>
-    <t>ㄙㄨㄧ</t>
-  </si>
-  <si>
-    <t>高五門</t>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-  </si>
-  <si>
-    <t>居一時</t>
-  </si>
-  <si>
-    <t>ㄒㄧ</t>
-  </si>
-  <si>
-    <t>公二求</t>
-  </si>
-  <si>
-    <t>ㄍㆲˋ</t>
-  </si>
-  <si>
-    <t>經七時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˫</t>
-  </si>
-  <si>
-    <t>巾八曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>經七英</t>
-  </si>
-  <si>
-    <t>ㄧㄥ˫</t>
-  </si>
-  <si>
-    <t>迦七英</t>
-  </si>
-  <si>
-    <t>ㄧㄚ˫</t>
-  </si>
-  <si>
-    <t>恭四曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆦㆻ</t>
-  </si>
-  <si>
-    <t>恭三他</t>
-  </si>
-  <si>
-    <t>ㄊㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>艍七時</t>
-  </si>
-  <si>
-    <t>ㄙㄨ˫</t>
-  </si>
-  <si>
-    <t>丩一英</t>
-  </si>
-  <si>
-    <t>ㄧㄨ</t>
-  </si>
-  <si>
-    <t>經五曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>居七時</t>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-  </si>
-  <si>
-    <t>巾八柳</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>梔一他</t>
-  </si>
-  <si>
-    <t>ㄊㆪ</t>
-  </si>
-  <si>
-    <t>公二柳</t>
-  </si>
-  <si>
-    <t>ㄌㆲˋ</t>
-  </si>
-  <si>
-    <t>居三去</t>
-  </si>
-  <si>
-    <t>ㄎㄧ˪</t>
-  </si>
-  <si>
-    <t>規七喜</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ˫</t>
-  </si>
-  <si>
-    <t>公一喜</t>
-  </si>
-  <si>
-    <t>ㄏㆲ</t>
-  </si>
-  <si>
-    <t>恭二語</t>
-  </si>
-  <si>
-    <t>ㆣㄧㆲˋ</t>
-  </si>
-  <si>
-    <t>觀一求</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄢ</t>
-  </si>
-  <si>
-    <t>艍二英</t>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-  </si>
-  <si>
-    <t>丩七地</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>瓜七地</t>
-  </si>
-  <si>
-    <t>ㄉㄨㄚ˫</t>
-  </si>
-  <si>
-    <t>艍二喜</t>
-  </si>
-  <si>
-    <t>ㄏㄨˋ</t>
-  </si>
-  <si>
-    <t>干四出</t>
-  </si>
-  <si>
-    <t>ㄘㄚㆵ</t>
-  </si>
-  <si>
-    <t>巾二頗</t>
-  </si>
-  <si>
-    <t>ㄆㄧㄣˋ</t>
-  </si>
-  <si>
-    <t>規七柳</t>
-  </si>
-  <si>
-    <t>ㄌㄨㄧ˫</t>
-  </si>
-  <si>
-    <t>沽二時</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>丩五英</t>
-  </si>
-  <si>
-    <t>ㄧㄨˊ</t>
-  </si>
-  <si>
-    <t>公八門</t>
-  </si>
-  <si>
-    <t>ㆠㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>經三頗</t>
-  </si>
-  <si>
-    <t>ㄆㄧㄥ˪</t>
-  </si>
-  <si>
-    <t>乖五喜</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄞˊ</t>
-  </si>
-  <si>
-    <t>經八求</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆻ˙</t>
-  </si>
-  <si>
-    <t>驚一他</t>
-  </si>
-  <si>
-    <t>ㄊㄧㆩ</t>
-  </si>
-  <si>
-    <t>艍五語</t>
-  </si>
-  <si>
-    <t>ㆣㄨˊ</t>
-  </si>
-  <si>
-    <t>巾三時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>高二去</t>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-  </si>
-  <si>
-    <t>高八柳</t>
-  </si>
-  <si>
-    <t>ㄌㄜㆷ˙</t>
-  </si>
-  <si>
-    <t>艍一喜</t>
-  </si>
-  <si>
-    <t>ㄏㄨ</t>
-  </si>
-  <si>
-    <t>江五柳</t>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-  </si>
-  <si>
-    <t>牛一時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆫ</t>
-  </si>
-  <si>
-    <t>甘四語</t>
-  </si>
-  <si>
-    <t>ㆣㄚㆴ</t>
-  </si>
-  <si>
-    <t>伽三時</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>迦八英</t>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ˙</t>
-  </si>
-  <si>
-    <t>艍一曾</t>
-  </si>
-  <si>
-    <t>ㄗㄨ</t>
-  </si>
-  <si>
-    <t>高七頗</t>
-  </si>
-  <si>
-    <t>ㄆㄜ˫</t>
-  </si>
-  <si>
-    <t>沽七語</t>
-  </si>
-  <si>
-    <t>ㆣㆦ˫</t>
-  </si>
-  <si>
-    <t>干五語</t>
-  </si>
-  <si>
-    <t>ㆣㄢˊ</t>
-  </si>
-  <si>
-    <t>經四時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-  </si>
-  <si>
-    <t>皆七柳</t>
-  </si>
-  <si>
-    <t>ㄌㄞ˫</t>
-  </si>
-  <si>
-    <t>巾一英</t>
-  </si>
-  <si>
-    <t>ㄧㄣ</t>
-  </si>
-  <si>
-    <t>迦三求</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄚ˪</t>
-  </si>
-  <si>
-    <t>公四他</t>
-  </si>
-  <si>
-    <t>ㄊㆦㆻ</t>
-  </si>
-  <si>
-    <t>江三邊</t>
-  </si>
-  <si>
-    <t>ㄅㄤ˪</t>
-  </si>
-  <si>
-    <t>公七柳</t>
-  </si>
-  <si>
-    <t>ㄌㆲ˫</t>
-  </si>
-  <si>
-    <t>經五喜</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>皆五喜</t>
-  </si>
-  <si>
-    <t>ㄏㄞˊ</t>
-  </si>
-  <si>
-    <t>瓜七語</t>
-  </si>
-  <si>
-    <t>ㆣㄨㄚ˫</t>
-  </si>
-  <si>
-    <t>迦二時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>干七門</t>
-  </si>
-  <si>
-    <t>ㆠㄢ˫</t>
-  </si>
-  <si>
-    <t>經七曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˫</t>
-  </si>
-  <si>
-    <t>高三時</t>
-  </si>
-  <si>
-    <t>ㄙㄜ˪</t>
-  </si>
-  <si>
-    <t>姆七英</t>
-  </si>
-  <si>
-    <t>ㆬ˫</t>
-  </si>
-  <si>
-    <t>江五地</t>
-  </si>
-  <si>
-    <t>ㄉㄤˊ</t>
-  </si>
-  <si>
-    <t>鋼一地</t>
-  </si>
-  <si>
-    <t>ㄉㆭ</t>
-  </si>
-  <si>
-    <t>金一喜</t>
-  </si>
-  <si>
-    <t>ㄏㄧㆬ</t>
-  </si>
-  <si>
-    <t>艍七語</t>
-  </si>
-  <si>
-    <t>ㆣㄨ˫</t>
-  </si>
-  <si>
-    <t>甘三曾</t>
-  </si>
-  <si>
-    <t>ㄗㆰ˪</t>
-  </si>
-  <si>
-    <t>巾四地</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-  </si>
-  <si>
-    <t>居七求</t>
-  </si>
-  <si>
-    <t>ㄍㄧ˫</t>
-  </si>
-  <si>
-    <t>恭三英</t>
-  </si>
-  <si>
-    <t>ㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>堅五柳</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>艍七曾</t>
-  </si>
-  <si>
-    <t>ㄗㄨ˫</t>
-  </si>
-  <si>
-    <t>皆一曾</t>
-  </si>
-  <si>
-    <t>ㄗㄞ</t>
-  </si>
-  <si>
-    <t>交七柳</t>
-  </si>
-  <si>
-    <t>ㄌㄠ˫</t>
-  </si>
-  <si>
-    <t>姜三曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄤ˪</t>
-  </si>
-  <si>
-    <t>金八求</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆴ˙</t>
-  </si>
-  <si>
-    <t>居三求</t>
-  </si>
-  <si>
-    <t>ㄍㄧ˪</t>
-  </si>
-  <si>
-    <t>觀七求</t>
-  </si>
-  <si>
-    <t>ㄍㄨㄢ˫</t>
-  </si>
-  <si>
-    <t>規五時</t>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˊ</t>
-  </si>
-  <si>
-    <t>堅一出</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄢ</t>
-  </si>
-  <si>
-    <t>甘二求</t>
-  </si>
-  <si>
-    <t>ㄍㆰˋ</t>
-  </si>
-  <si>
-    <t>皆三去</t>
-  </si>
-  <si>
-    <t>ㄎㄞ˪</t>
-  </si>
-  <si>
-    <t>伽七喜</t>
-  </si>
-  <si>
-    <t>ㄏㆤ˫</t>
-  </si>
-  <si>
-    <t>恭三喜</t>
-  </si>
-  <si>
-    <t>ㄏㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>干一求</t>
-  </si>
-  <si>
-    <t>ㄍㄢ</t>
-  </si>
-  <si>
-    <t>干五地</t>
-  </si>
-  <si>
-    <t>ㄉㄢˊ</t>
-  </si>
-  <si>
-    <t>迦四入</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄚㆷ</t>
-  </si>
-  <si>
-    <t>嬌二英</t>
-  </si>
-  <si>
-    <t>ㄧㄠˋ</t>
-  </si>
-  <si>
-    <t>經五柳</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>經一喜</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄥ</t>
-  </si>
-  <si>
-    <t>公二喜</t>
-  </si>
-  <si>
-    <t>ㄏㆲˋ</t>
-  </si>
-  <si>
-    <t>伽二地</t>
-  </si>
-  <si>
-    <t>ㄉㆤˋ</t>
-  </si>
-  <si>
-    <t>瓜三喜</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚ˪</t>
-  </si>
-  <si>
-    <t>恭一曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ</t>
-  </si>
-  <si>
-    <t>巾七曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄣ˫</t>
-  </si>
-  <si>
-    <t>沽二求</t>
-  </si>
-  <si>
-    <t>ㄍㆦˋ</t>
-  </si>
-  <si>
-    <t>君五英</t>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>居二時</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>梔一時</t>
-  </si>
-  <si>
-    <t>ㄙㆪ</t>
-  </si>
-  <si>
-    <t>居二去</t>
-  </si>
-  <si>
-    <t>ㄎㄧˋ</t>
-  </si>
-  <si>
-    <t>驚三他</t>
-  </si>
-  <si>
-    <t>ㄊㄧㆩ˪</t>
-  </si>
-  <si>
-    <t>規二毛</t>
-  </si>
-  <si>
-    <t>ㄇㄨㄧˋ</t>
-  </si>
-  <si>
-    <t>甘二柳</t>
-  </si>
-  <si>
-    <t>ㄌㆰˋ</t>
-  </si>
-  <si>
-    <t>膠七耐</t>
-  </si>
-  <si>
-    <t>ㄋㄚ˫</t>
-  </si>
-  <si>
-    <t>膠八喜</t>
-  </si>
-  <si>
-    <t>ㄏㄚㆷ˙</t>
-  </si>
-  <si>
-    <t>檜三去</t>
-  </si>
-  <si>
-    <t>ㄎㄨㆤ˪</t>
-  </si>
-  <si>
-    <t>居七門</t>
-  </si>
-  <si>
-    <t>ㆠㄧ˫</t>
-  </si>
-  <si>
-    <t>恭五時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆲˊ</t>
-  </si>
-  <si>
-    <t>金五柳</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆬˊ</t>
-  </si>
-  <si>
-    <t>君五門</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>迦一曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚ</t>
-  </si>
-  <si>
-    <t>高七地</t>
-  </si>
-  <si>
-    <t>ㄉㄜ˫</t>
-  </si>
-  <si>
-    <t>艍七入</t>
-  </si>
-  <si>
-    <t>ㆡㄨ˫</t>
-  </si>
-  <si>
-    <t>沽三求</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>居一喜</t>
-  </si>
-  <si>
-    <t>ㄏㄧ</t>
-  </si>
-  <si>
-    <t>干三地</t>
-  </si>
-  <si>
-    <t>ㄉㄢ˪</t>
-  </si>
-  <si>
-    <t>伽五曾</t>
-  </si>
-  <si>
-    <t>ㄗㆤˊ</t>
-  </si>
-  <si>
-    <t>梔五頗</t>
-  </si>
-  <si>
-    <t>ㄆㆪˊ</t>
-  </si>
-  <si>
-    <t>姜一時</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ</t>
-  </si>
-  <si>
-    <t>公七門</t>
-  </si>
-  <si>
-    <t>ㆠㆲ˫</t>
-  </si>
-  <si>
-    <t>高四曾</t>
-  </si>
-  <si>
-    <t>ㄗㄜㆷ</t>
-  </si>
-  <si>
-    <t>交七英</t>
-  </si>
-  <si>
-    <t>ㄠ˫</t>
-  </si>
-  <si>
-    <t>巾一求</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄣ</t>
-  </si>
-  <si>
-    <t>居一邊</t>
-  </si>
-  <si>
-    <t>ㄅㄧ</t>
-  </si>
-  <si>
-    <t>居五時</t>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-  </si>
-  <si>
-    <t>公八柳</t>
-  </si>
-  <si>
-    <t>ㄌㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>君八時</t>
-  </si>
-  <si>
-    <t>ㄙㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>居七英</t>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-  </si>
-  <si>
-    <t>居三地</t>
-  </si>
-  <si>
-    <t>ㄉㄧ˪</t>
-  </si>
-  <si>
-    <t>迦二曾</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>艍一時</t>
-  </si>
-  <si>
-    <t>ㄙㄨ</t>
   </si>
   <si>
     <t xml:space="preserve">永和九年，歲在癸丑，暮春之初，會於會稽山陰之蘭亭，修禊事也。羣賢畢至，少長咸集。此地有崇山峻嶺，茂林修竹；又有清流激湍，映帶左右，引以為流觴曲水，列坐其次。雖無絲竹管弦之盛，一觴一詠，亦足以暢敘幽情。
@@ -6232,6 +4706,854 @@
 夫人之相與，俯仰一世，或取諸懷抱，悟言一室之內；或因寄所託，放浪形骸之外。雖取舍萬殊，靜躁不同，當其欣於所遇，蹔得於己，怏然自足，不知老之將至；及其所之既倦，情隨事遷，感慨係之矣。向之所欣，俯仰之間，已為陳跡，猶不能不以之興懷；況脩短隨化，終期於盡。古人云：「死生亦大矣。」豈不痛哉！
 每覽昔人興感之由，若合一契，未嘗不臨文嗟悼，不能喻之於懷。固知一死生為虛誕，齊彭殤為妄作。後之視今，亦猶今之視昔，悲夫！故列敘時人，錄其所述，雖世殊事異，所以興懷，其致一也。後之覽者，亦將有感於斯文。
 </t>
+  </si>
+  <si>
+    <t>永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嶺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>託</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>興</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6687,7 +6009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6903,6 +6225,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10274,7 +9603,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -10336,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1513</v>
+        <v>1388</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -10392,7 +9721,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1514</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -10408,7 +9737,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1515</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -10432,7 +9761,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1516</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -10440,7 +9769,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1517</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -10478,59 +9807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999127B-8F77-411B-8CF1-EC6B2132DF25}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -10646,67 +9927,43 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
       <c r="T3" s="16"/>
       <c r="V3" s="63" t="s">
-        <v>1900</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="70" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>1530</v>
-      </c>
-      <c r="L4" s="70" t="s">
-        <v>1532</v>
-      </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70" t="s">
-        <v>1534</v>
-      </c>
-      <c r="O4" s="70" t="s">
-        <v>1536</v>
-      </c>
-      <c r="P4" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Q4" s="70" t="s">
-        <v>1540</v>
-      </c>
-      <c r="R4" s="70"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
       <c r="S4" s="19"/>
       <c r="V4" s="64"/>
     </row>
@@ -10715,49 +9972,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>29</v>
+        <v>1394</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>70</v>
+        <v>1396</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>113</v>
+        <v>1399</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>1391</v>
+        <v>1401</v>
       </c>
       <c r="M5" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="N5" s="68" t="s">
-        <v>191</v>
+        <v>1402</v>
       </c>
       <c r="O5" s="68" t="s">
-        <v>71</v>
+        <v>1403</v>
       </c>
       <c r="P5" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="R5" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="S5" s="21"/>
       <c r="V5" s="64"/>
@@ -10765,44 +10022,20 @@
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="71" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>1525</v>
-      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="71" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>1531</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>1533</v>
-      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="71"/>
-      <c r="N6" s="71" t="s">
-        <v>1535</v>
-      </c>
-      <c r="O6" s="71" t="s">
-        <v>1537</v>
-      </c>
-      <c r="P6" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>1541</v>
-      </c>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
       <c r="R6" s="71"/>
       <c r="S6" s="25"/>
       <c r="V6" s="64"/>
@@ -10810,67 +10043,41 @@
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="29"/>
       <c r="V7" s="64"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="70" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>1546</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>1550</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L8" s="70" t="s">
-        <v>1554</v>
-      </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70" t="s">
-        <v>1556</v>
-      </c>
-      <c r="O8" s="70" t="s">
-        <v>1558</v>
-      </c>
-      <c r="P8" s="70" t="s">
-        <v>1560</v>
-      </c>
-      <c r="Q8" s="70" t="s">
-        <v>1562</v>
-      </c>
-      <c r="R8" s="70"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
       <c r="S8" s="19"/>
       <c r="V8" s="64"/>
     </row>
@@ -10880,49 +10087,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>154</v>
+        <v>1406</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>102</v>
+        <v>1407</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>154</v>
+        <v>1406</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>119</v>
+        <v>1409</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>131</v>
+        <v>1410</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>233</v>
+        <v>1411</v>
       </c>
       <c r="L9" s="68" t="s">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="M9" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>88</v>
+        <v>1413</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>1396</v>
+        <v>1415</v>
       </c>
       <c r="Q9" s="68" t="s">
-        <v>138</v>
+        <v>1416</v>
       </c>
       <c r="R9" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
@@ -10930,46 +10137,20 @@
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
-      <c r="D10" s="71" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I10" s="71" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="K10" s="71" t="s">
-        <v>1553</v>
-      </c>
-      <c r="L10" s="71" t="s">
-        <v>1555</v>
-      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="71"/>
-      <c r="N10" s="71" t="s">
-        <v>1557</v>
-      </c>
-      <c r="O10" s="71" t="s">
-        <v>1559</v>
-      </c>
-      <c r="P10" s="71" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Q10" s="71" t="s">
-        <v>1563</v>
-      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
       <c r="R10" s="71"/>
       <c r="S10" s="31"/>
       <c r="V10" s="64"/>
@@ -10977,66 +10158,40 @@
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
       <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="70" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>1570</v>
-      </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70" t="s">
-        <v>1572</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K12" s="70" t="s">
-        <v>1576</v>
-      </c>
-      <c r="L12" s="70" t="s">
-        <v>1578</v>
-      </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70" t="s">
-        <v>1580</v>
-      </c>
-      <c r="O12" s="70" t="s">
-        <v>1582</v>
-      </c>
-      <c r="P12" s="70" t="s">
-        <v>1584</v>
-      </c>
-      <c r="Q12" s="70" t="s">
-        <v>1586</v>
-      </c>
-      <c r="R12" s="70" t="s">
-        <v>1548</v>
-      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="19"/>
       <c r="V12" s="64"/>
     </row>
@@ -11046,160 +10201,110 @@
         <v>3</v>
       </c>
       <c r="D13" s="68" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H13" s="68" t="s">
         <v>1397</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>1398</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>23</v>
-      </c>
       <c r="I13" s="68" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>121</v>
+        <v>1423</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>1400</v>
+        <v>1424</v>
       </c>
       <c r="L13" s="68" t="s">
-        <v>225</v>
+        <v>1425</v>
       </c>
       <c r="M13" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="N13" s="68" t="s">
-        <v>136</v>
+        <v>1426</v>
       </c>
       <c r="O13" s="68" t="s">
-        <v>1401</v>
+        <v>1427</v>
       </c>
       <c r="P13" s="68" t="s">
-        <v>19</v>
+        <v>1428</v>
       </c>
       <c r="Q13" s="68" t="s">
-        <v>1402</v>
+        <v>1429</v>
       </c>
       <c r="R13" s="68" t="s">
-        <v>119</v>
+        <v>1409</v>
       </c>
       <c r="S13" s="21"/>
       <c r="V13" s="64"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
-      <c r="D14" s="71" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G14" s="71" t="s">
-        <v>1571</v>
-      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="71"/>
-      <c r="I14" s="71" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J14" s="71" t="s">
-        <v>1575</v>
-      </c>
-      <c r="K14" s="71" t="s">
-        <v>1577</v>
-      </c>
-      <c r="L14" s="71" t="s">
-        <v>1579</v>
-      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="71"/>
-      <c r="N14" s="71" t="s">
-        <v>1581</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>1583</v>
-      </c>
-      <c r="P14" s="71" t="s">
-        <v>1585</v>
-      </c>
-      <c r="Q14" s="71" t="s">
-        <v>1587</v>
-      </c>
-      <c r="R14" s="71" t="s">
-        <v>1549</v>
-      </c>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
       <c r="S14" s="31"/>
       <c r="V14" s="64"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
       <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="70" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>1556</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70" t="s">
-        <v>1596</v>
-      </c>
-      <c r="M16" s="70" t="s">
-        <v>1584</v>
-      </c>
-      <c r="N16" s="70" t="s">
-        <v>1598</v>
-      </c>
-      <c r="O16" s="70" t="s">
-        <v>1600</v>
-      </c>
-      <c r="P16" s="70" t="s">
-        <v>1602</v>
-      </c>
-      <c r="Q16" s="70" t="s">
-        <v>1604</v>
-      </c>
-      <c r="R16" s="70"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="19"/>
       <c r="V16" s="64"/>
     </row>
@@ -11209,93 +10314,69 @@
         <v>4</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>1403</v>
+        <v>1430</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>1404</v>
+        <v>1431</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>1405</v>
+        <v>1432</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>1185</v>
+        <v>1433</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>88</v>
+        <v>1413</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>1214</v>
+        <v>1434</v>
       </c>
       <c r="K17" s="68" t="s">
-        <v>103</v>
+        <v>1435</v>
       </c>
       <c r="L17" s="68" t="s">
-        <v>1406</v>
+        <v>1436</v>
       </c>
       <c r="M17" s="68" t="s">
-        <v>19</v>
+        <v>1428</v>
       </c>
       <c r="N17" s="68" t="s">
-        <v>1407</v>
+        <v>1437</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>1408</v>
+        <v>1438</v>
       </c>
       <c r="P17" s="68" t="s">
-        <v>1409</v>
+        <v>1439</v>
       </c>
       <c r="Q17" s="68" t="s">
-        <v>1410</v>
+        <v>1440</v>
       </c>
       <c r="R17" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="S17" s="21"/>
       <c r="V17" s="64"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
-      <c r="D18" s="71" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>1591</v>
-      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="71" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>1593</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>1557</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>1595</v>
-      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="71"/>
-      <c r="L18" s="71" t="s">
-        <v>1597</v>
-      </c>
-      <c r="M18" s="71" t="s">
-        <v>1585</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>1599</v>
-      </c>
-      <c r="O18" s="71" t="s">
-        <v>1601</v>
-      </c>
-      <c r="P18" s="71" t="s">
-        <v>1603</v>
-      </c>
-      <c r="Q18" s="71" t="s">
-        <v>1605</v>
-      </c>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
       <c r="R18" s="71"/>
       <c r="S18" s="31"/>
       <c r="V18" s="64"/>
@@ -11303,66 +10384,40 @@
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
       <c r="V19" s="64"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="70" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>1610</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>1596</v>
-      </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="K20" s="70" t="s">
-        <v>1616</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="70" t="s">
-        <v>1618</v>
-      </c>
-      <c r="N20" s="70" t="s">
-        <v>1620</v>
-      </c>
-      <c r="O20" s="70" t="s">
-        <v>1622</v>
-      </c>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70" t="s">
-        <v>1624</v>
-      </c>
-      <c r="R20" s="70" t="s">
-        <v>1626</v>
-      </c>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
       <c r="S20" s="19"/>
       <c r="V20" s="64"/>
     </row>
@@ -11372,162 +10427,110 @@
         <v>5</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>1411</v>
+        <v>1441</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>1412</v>
+        <v>1442</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>1413</v>
+        <v>1443</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>1414</v>
+        <v>1444</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="I21" s="68" t="s">
-        <v>1415</v>
+        <v>1445</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>106</v>
+        <v>1446</v>
       </c>
       <c r="K21" s="68" t="s">
-        <v>273</v>
+        <v>1447</v>
       </c>
       <c r="L21" s="68" t="s">
-        <v>1408</v>
+        <v>1438</v>
       </c>
       <c r="M21" s="68" t="s">
-        <v>1416</v>
+        <v>1448</v>
       </c>
       <c r="N21" s="68" t="s">
-        <v>1417</v>
+        <v>1449</v>
       </c>
       <c r="O21" s="68" t="s">
-        <v>1418</v>
+        <v>1450</v>
       </c>
       <c r="P21" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="Q21" s="68" t="s">
-        <v>1419</v>
+        <v>1451</v>
       </c>
       <c r="R21" s="68" t="s">
-        <v>1420</v>
+        <v>1452</v>
       </c>
       <c r="S21" s="21"/>
       <c r="V21" s="64"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
-      <c r="D22" s="71" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G22" s="71" t="s">
-        <v>1597</v>
-      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="71" t="s">
-        <v>1613</v>
-      </c>
-      <c r="J22" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="K22" s="71" t="s">
-        <v>1617</v>
-      </c>
-      <c r="L22" s="71" t="s">
-        <v>1601</v>
-      </c>
-      <c r="M22" s="71" t="s">
-        <v>1619</v>
-      </c>
-      <c r="N22" s="71" t="s">
-        <v>1621</v>
-      </c>
-      <c r="O22" s="71" t="s">
-        <v>1623</v>
-      </c>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="71"/>
-      <c r="Q22" s="71" t="s">
-        <v>1625</v>
-      </c>
-      <c r="R22" s="71" t="s">
-        <v>1627</v>
-      </c>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="31"/>
       <c r="V22" s="64"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
       <c r="V23" s="64"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="70" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>1636</v>
-      </c>
-      <c r="J24" s="70" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K24" s="70" t="s">
-        <v>1638</v>
-      </c>
-      <c r="L24" s="70" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M24" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70" t="s">
-        <v>1642</v>
-      </c>
-      <c r="Q24" s="70" t="s">
-        <v>1618</v>
-      </c>
-      <c r="R24" s="70" t="s">
-        <v>1642</v>
-      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
       <c r="S24" s="19"/>
       <c r="V24" s="64"/>
     </row>
@@ -11537,152 +10540,110 @@
         <v>6</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>93</v>
+        <v>1453</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>1421</v>
+        <v>1454</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>1422</v>
+        <v>1455</v>
       </c>
       <c r="H25" s="68" t="s">
-        <v>26</v>
+        <v>1456</v>
       </c>
       <c r="I25" s="68" t="s">
-        <v>1423</v>
+        <v>1457</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>1214</v>
+        <v>1434</v>
       </c>
       <c r="K25" s="68" t="s">
-        <v>1424</v>
+        <v>1458</v>
       </c>
       <c r="L25" s="68" t="s">
-        <v>1425</v>
+        <v>1459</v>
       </c>
       <c r="M25" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="N25" s="68" t="s">
-        <v>1426</v>
+        <v>1460</v>
       </c>
       <c r="O25" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="P25" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="Q25" s="68" t="s">
-        <v>1416</v>
+        <v>1448</v>
       </c>
       <c r="R25" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="S25" s="21"/>
       <c r="V25" s="64"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
-      <c r="D26" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>1631</v>
-      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="71"/>
-      <c r="G26" s="71" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H26" s="71" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I26" s="71" t="s">
-        <v>1637</v>
-      </c>
-      <c r="J26" s="71" t="s">
-        <v>1595</v>
-      </c>
-      <c r="K26" s="71" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L26" s="71" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M26" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="N26" s="71" t="s">
-        <v>1641</v>
-      </c>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
       <c r="O26" s="71"/>
-      <c r="P26" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="Q26" s="71" t="s">
-        <v>1619</v>
-      </c>
-      <c r="R26" s="71" t="s">
-        <v>1643</v>
-      </c>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
       <c r="S26" s="31"/>
       <c r="V26" s="64"/>
     </row>
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="U27" s="35" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v>˫</v>
+        <v/>
       </c>
       <c r="V27" s="64"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="70" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G28" s="70" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>1650</v>
-      </c>
-      <c r="J28" s="70" t="s">
-        <v>1652</v>
-      </c>
-      <c r="K28" s="70" t="s">
-        <v>1654</v>
-      </c>
-      <c r="L28" s="70" t="s">
-        <v>1656</v>
-      </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
       <c r="Q28" s="70"/>
@@ -11690,7 +10651,7 @@
       <c r="S28" s="19"/>
       <c r="U28" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>˫</v>
+        <v/>
       </c>
       <c r="V28" s="64"/>
     </row>
@@ -11700,34 +10661,34 @@
         <v>7</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>1427</v>
+        <v>1462</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>283</v>
+        <v>1463</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>1428</v>
+        <v>1464</v>
       </c>
       <c r="H29" s="68" t="s">
-        <v>106</v>
+        <v>1446</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>1429</v>
+        <v>1465</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>1430</v>
+        <v>1466</v>
       </c>
       <c r="K29" s="68" t="s">
-        <v>1431</v>
+        <v>1467</v>
       </c>
       <c r="L29" s="68" t="s">
-        <v>157</v>
+        <v>1468</v>
       </c>
       <c r="M29" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="N29" s="68" t="str">
         <f>CHAR(10)</f>
@@ -11741,37 +10702,21 @@
       <c r="S29" s="21"/>
       <c r="U29" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>˫</v>
+        <v/>
       </c>
       <c r="V29" s="64"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
-      <c r="D30" s="71" t="s">
-        <v>1645</v>
-      </c>
+      <c r="D30" s="71"/>
       <c r="E30" s="71"/>
-      <c r="F30" s="71" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>1653</v>
-      </c>
-      <c r="K30" s="71" t="s">
-        <v>1655</v>
-      </c>
-      <c r="L30" s="71" t="s">
-        <v>1657</v>
-      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
       <c r="O30" s="71"/>
@@ -11781,14 +10726,14 @@
       <c r="S30" s="31"/>
       <c r="U30" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>˫</v>
+        <v/>
       </c>
       <c r="V30" s="64"/>
     </row>
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="62"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
@@ -11805,13 +10750,13 @@
       <c r="R31" s="62"/>
       <c r="U31" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>˫</v>
+        <v/>
       </c>
       <c r="V31" s="64"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="70"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
@@ -11829,7 +10774,7 @@
       <c r="S32" s="19"/>
       <c r="U32" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>˫</v>
+        <v/>
       </c>
       <c r="V32" s="64"/>
     </row>
@@ -11883,64 +10828,40 @@
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
       <c r="V35" s="64"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="70" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>1562</v>
-      </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I36" s="70" t="s">
-        <v>1664</v>
-      </c>
-      <c r="J36" s="70" t="s">
-        <v>1666</v>
-      </c>
-      <c r="K36" s="70" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70" t="s">
-        <v>1668</v>
-      </c>
-      <c r="N36" s="70" t="s">
-        <v>1670</v>
-      </c>
-      <c r="O36" s="70" t="s">
-        <v>1520</v>
-      </c>
-      <c r="P36" s="70" t="s">
-        <v>1650</v>
-      </c>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70" t="s">
-        <v>1672</v>
-      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
       <c r="S36" s="19"/>
       <c r="V36" s="64"/>
     </row>
@@ -11950,160 +10871,110 @@
         <v>9</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>33</v>
+        <v>1469</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>20</v>
+        <v>1470</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>138</v>
+        <v>1416</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="H37" s="68" t="s">
-        <v>218</v>
+        <v>1471</v>
       </c>
       <c r="I37" s="68" t="s">
-        <v>1432</v>
+        <v>1472</v>
       </c>
       <c r="J37" s="68" t="s">
-        <v>132</v>
+        <v>1473</v>
       </c>
       <c r="K37" s="68" t="s">
-        <v>1407</v>
+        <v>1437</v>
       </c>
       <c r="L37" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>1433</v>
+        <v>1474</v>
       </c>
       <c r="N37" s="68" t="s">
-        <v>170</v>
+        <v>1475</v>
       </c>
       <c r="O37" s="68" t="s">
-        <v>29</v>
+        <v>1394</v>
       </c>
       <c r="P37" s="68" t="s">
-        <v>1429</v>
+        <v>1465</v>
       </c>
       <c r="Q37" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="R37" s="68" t="s">
-        <v>1434</v>
+        <v>1476</v>
       </c>
       <c r="S37" s="21"/>
       <c r="V37" s="64"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
-      <c r="D38" s="71" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E38" s="71" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F38" s="71" t="s">
-        <v>1563</v>
-      </c>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="71"/>
-      <c r="H38" s="71" t="s">
-        <v>1663</v>
-      </c>
-      <c r="I38" s="71" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>1599</v>
-      </c>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
       <c r="L38" s="71"/>
-      <c r="M38" s="71" t="s">
-        <v>1669</v>
-      </c>
-      <c r="N38" s="71" t="s">
-        <v>1671</v>
-      </c>
-      <c r="O38" s="71" t="s">
-        <v>1521</v>
-      </c>
-      <c r="P38" s="71" t="s">
-        <v>1651</v>
-      </c>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
       <c r="Q38" s="71"/>
-      <c r="R38" s="71" t="s">
-        <v>1673</v>
-      </c>
+      <c r="R38" s="71"/>
       <c r="S38" s="31"/>
       <c r="V38" s="64"/>
     </row>
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
       <c r="V39" s="64"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="70" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E40" s="70" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F40" s="70" t="s">
-        <v>1678</v>
-      </c>
-      <c r="G40" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H40" s="70" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70" t="s">
-        <v>1682</v>
-      </c>
-      <c r="K40" s="70" t="s">
-        <v>1684</v>
-      </c>
-      <c r="L40" s="70" t="s">
-        <v>1686</v>
-      </c>
-      <c r="M40" s="70" t="s">
-        <v>1688</v>
-      </c>
-      <c r="N40" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="O40" s="70" t="s">
-        <v>1640</v>
-      </c>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="R40" s="70" t="s">
-        <v>1614</v>
-      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
       <c r="S40" s="19"/>
       <c r="V40" s="64"/>
     </row>
@@ -12113,162 +10984,110 @@
         <v>10</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>109</v>
+        <v>1477</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>1435</v>
+        <v>1478</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>1436</v>
+        <v>1479</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>27</v>
+        <v>1480</v>
       </c>
       <c r="I41" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="J41" s="68" t="s">
-        <v>1437</v>
+        <v>1481</v>
       </c>
       <c r="K41" s="68" t="s">
-        <v>1438</v>
+        <v>1482</v>
       </c>
       <c r="L41" s="68" t="s">
-        <v>1439</v>
+        <v>1483</v>
       </c>
       <c r="M41" s="68" t="s">
-        <v>1440</v>
+        <v>1484</v>
       </c>
       <c r="N41" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="O41" s="68" t="s">
-        <v>1426</v>
+        <v>1460</v>
       </c>
       <c r="P41" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="Q41" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="R41" s="68" t="s">
-        <v>106</v>
+        <v>1446</v>
       </c>
       <c r="S41" s="21"/>
       <c r="V41" s="64"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
-      <c r="D42" s="71" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E42" s="71" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F42" s="71" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G42" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="H42" s="71" t="s">
-        <v>1681</v>
-      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="71"/>
-      <c r="J42" s="71" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K42" s="71" t="s">
-        <v>1685</v>
-      </c>
-      <c r="L42" s="71" t="s">
-        <v>1687</v>
-      </c>
-      <c r="M42" s="71" t="s">
-        <v>1689</v>
-      </c>
-      <c r="N42" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="O42" s="71" t="s">
-        <v>1641</v>
-      </c>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
       <c r="P42" s="71"/>
-      <c r="Q42" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="R42" s="71" t="s">
-        <v>1615</v>
-      </c>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
       <c r="S42" s="31"/>
       <c r="V42" s="64"/>
     </row>
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="34"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
       <c r="V43" s="64"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="70" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E44" s="70" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F44" s="70" t="s">
-        <v>1696</v>
-      </c>
-      <c r="G44" s="70" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70" t="s">
-        <v>1648</v>
-      </c>
-      <c r="J44" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="K44" s="70" t="s">
-        <v>1700</v>
-      </c>
-      <c r="L44" s="70" t="s">
-        <v>1658</v>
-      </c>
-      <c r="M44" s="70" t="s">
-        <v>1702</v>
-      </c>
-      <c r="N44" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="O44" s="70" t="s">
-        <v>1704</v>
-      </c>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70" t="s">
-        <v>1706</v>
-      </c>
-      <c r="R44" s="70" t="s">
-        <v>1708</v>
-      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
       <c r="S44" s="19"/>
       <c r="V44" s="64"/>
     </row>
@@ -12278,106 +11097,80 @@
         <v>11</v>
       </c>
       <c r="D45" s="68" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>208</v>
+        <v>1487</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>1443</v>
+        <v>1488</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>201</v>
+        <v>1489</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="I45" s="68" t="s">
-        <v>1428</v>
+        <v>1464</v>
       </c>
       <c r="J45" s="68" t="s">
-        <v>106</v>
+        <v>1446</v>
       </c>
       <c r="K45" s="68" t="s">
-        <v>34</v>
+        <v>1490</v>
       </c>
       <c r="L45" s="68" t="s">
-        <v>1444</v>
+        <v>1491</v>
       </c>
       <c r="M45" s="68" t="s">
-        <v>1202</v>
+        <v>1492</v>
       </c>
       <c r="N45" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="O45" s="68" t="s">
-        <v>1445</v>
+        <v>1493</v>
       </c>
       <c r="P45" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="Q45" s="68" t="s">
-        <v>1446</v>
+        <v>1494</v>
       </c>
       <c r="R45" s="68" t="s">
-        <v>1447</v>
+        <v>1495</v>
       </c>
       <c r="S45" s="21"/>
       <c r="V45" s="64"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
-      <c r="D46" s="71" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E46" s="71" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F46" s="71" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>1699</v>
-      </c>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="71"/>
-      <c r="I46" s="71" t="s">
-        <v>1649</v>
-      </c>
-      <c r="J46" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="K46" s="71" t="s">
-        <v>1701</v>
-      </c>
-      <c r="L46" s="71" t="s">
-        <v>1659</v>
-      </c>
-      <c r="M46" s="71" t="s">
-        <v>1703</v>
-      </c>
-      <c r="N46" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="O46" s="71" t="s">
-        <v>1705</v>
-      </c>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
       <c r="P46" s="71"/>
-      <c r="Q46" s="71" t="s">
-        <v>1707</v>
-      </c>
-      <c r="R46" s="71" t="s">
-        <v>1709</v>
-      </c>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
       <c r="S46" s="31"/>
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="34"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="62"/>
@@ -12393,14 +11186,10 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="70" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E48" s="70" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="70"/>
       <c r="I48" s="70"/>
       <c r="J48" s="70"/>
@@ -12421,13 +11210,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>251</v>
+        <v>1496</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>138</v>
+        <v>1416</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="G49" s="68" t="str">
         <f>CHAR(10)</f>
@@ -12450,12 +11239,8 @@
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
-      <c r="D50" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E50" s="71" t="s">
-        <v>1563</v>
-      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
       <c r="H50" s="71"/>
@@ -12475,7 +11260,7 @@
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="34"/>
-      <c r="D51" s="62"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="62"/>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
@@ -12494,7 +11279,7 @@
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="70"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="70"/>
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
@@ -12562,66 +11347,40 @@
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
       <c r="V55" s="64"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="70" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G56" s="70" t="s">
-        <v>1716</v>
-      </c>
-      <c r="H56" s="70" t="s">
-        <v>1718</v>
-      </c>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70" t="s">
-        <v>1682</v>
-      </c>
-      <c r="K56" s="70" t="s">
-        <v>1672</v>
-      </c>
-      <c r="L56" s="70" t="s">
-        <v>1642</v>
-      </c>
-      <c r="M56" s="70" t="s">
-        <v>1720</v>
-      </c>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70" t="s">
-        <v>1722</v>
-      </c>
-      <c r="P56" s="70" t="s">
-        <v>1580</v>
-      </c>
-      <c r="Q56" s="70" t="s">
-        <v>1724</v>
-      </c>
-      <c r="R56" s="70" t="s">
-        <v>1698</v>
-      </c>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
       <c r="S56" s="19"/>
       <c r="V56" s="64"/>
     </row>
@@ -12631,160 +11390,110 @@
         <v>14</v>
       </c>
       <c r="D57" s="68" t="s">
-        <v>110</v>
+        <v>1497</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>37</v>
+        <v>1498</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>1188</v>
+        <v>1499</v>
       </c>
       <c r="H57" s="68" t="s">
-        <v>28</v>
+        <v>1500</v>
       </c>
       <c r="I57" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="J57" s="68" t="s">
-        <v>1437</v>
+        <v>1481</v>
       </c>
       <c r="K57" s="68" t="s">
-        <v>1434</v>
+        <v>1476</v>
       </c>
       <c r="L57" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="M57" s="68" t="s">
-        <v>1448</v>
+        <v>1501</v>
       </c>
       <c r="N57" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="O57" s="68" t="s">
-        <v>236</v>
+        <v>1502</v>
       </c>
       <c r="P57" s="68" t="s">
-        <v>1449</v>
+        <v>1503</v>
       </c>
       <c r="Q57" s="68" t="s">
-        <v>1450</v>
+        <v>1504</v>
       </c>
       <c r="R57" s="68" t="s">
-        <v>201</v>
+        <v>1489</v>
       </c>
       <c r="S57" s="21"/>
       <c r="V57" s="64"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
-      <c r="D58" s="71" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E58" s="71" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F58" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="G58" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="H58" s="71" t="s">
-        <v>1719</v>
-      </c>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
       <c r="I58" s="71"/>
-      <c r="J58" s="71" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>1673</v>
-      </c>
-      <c r="L58" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="M58" s="71" t="s">
-        <v>1721</v>
-      </c>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
       <c r="N58" s="71"/>
-      <c r="O58" s="71" t="s">
-        <v>1723</v>
-      </c>
-      <c r="P58" s="71" t="s">
-        <v>1581</v>
-      </c>
-      <c r="Q58" s="71" t="s">
-        <v>1725</v>
-      </c>
-      <c r="R58" s="71" t="s">
-        <v>1699</v>
-      </c>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
       <c r="S58" s="31"/>
       <c r="V58" s="64"/>
     </row>
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="34"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
       <c r="V59" s="64"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="70" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70" t="s">
-        <v>1728</v>
-      </c>
-      <c r="G60" s="70" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H60" s="70" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I60" s="70" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J60" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K60" s="70" t="s">
-        <v>1734</v>
-      </c>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70" t="s">
-        <v>1722</v>
-      </c>
-      <c r="N60" s="70" t="s">
-        <v>1736</v>
-      </c>
-      <c r="O60" s="70" t="s">
-        <v>1738</v>
-      </c>
-      <c r="P60" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="Q60" s="70" t="s">
-        <v>1740</v>
-      </c>
-      <c r="R60" s="70"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
       <c r="S60" s="19"/>
       <c r="V60" s="64"/>
     </row>
@@ -12794,93 +11503,69 @@
         <v>15</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>1451</v>
+        <v>1505</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="F61" s="68" t="s">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="G61" s="68" t="s">
-        <v>1453</v>
+        <v>1507</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="I61" s="68" t="s">
-        <v>1454</v>
+        <v>1508</v>
       </c>
       <c r="J61" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="K61" s="68" t="s">
-        <v>1455</v>
+        <v>1509</v>
       </c>
       <c r="L61" s="68" t="s">
-        <v>103</v>
+        <v>1435</v>
       </c>
       <c r="M61" s="68" t="s">
-        <v>236</v>
+        <v>1502</v>
       </c>
       <c r="N61" s="68" t="s">
-        <v>1456</v>
+        <v>1510</v>
       </c>
       <c r="O61" s="68" t="s">
-        <v>1457</v>
+        <v>1511</v>
       </c>
       <c r="P61" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="Q61" s="68" t="s">
-        <v>1458</v>
+        <v>1512</v>
       </c>
       <c r="R61" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="S61" s="21"/>
       <c r="V61" s="64"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
-      <c r="D62" s="71" t="s">
-        <v>1727</v>
-      </c>
+      <c r="D62" s="71"/>
       <c r="E62" s="71"/>
-      <c r="F62" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G62" s="71" t="s">
-        <v>1731</v>
-      </c>
-      <c r="H62" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="I62" s="71" t="s">
-        <v>1733</v>
-      </c>
-      <c r="J62" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="K62" s="71" t="s">
-        <v>1735</v>
-      </c>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
       <c r="L62" s="71"/>
-      <c r="M62" s="71" t="s">
-        <v>1723</v>
-      </c>
-      <c r="N62" s="71" t="s">
-        <v>1737</v>
-      </c>
-      <c r="O62" s="71" t="s">
-        <v>1739</v>
-      </c>
-      <c r="P62" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="Q62" s="71" t="s">
-        <v>1741</v>
-      </c>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
       <c r="R62" s="71"/>
       <c r="S62" s="31"/>
       <c r="V62" s="64"/>
@@ -12888,66 +11573,40 @@
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
       <c r="V63" s="64"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="70" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E64" s="70" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F64" s="70" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G64" s="70" t="s">
-        <v>1748</v>
-      </c>
-      <c r="H64" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I64" s="70" t="s">
-        <v>1750</v>
-      </c>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70" t="s">
-        <v>1632</v>
-      </c>
-      <c r="L64" s="70" t="s">
-        <v>1580</v>
-      </c>
-      <c r="M64" s="70" t="s">
-        <v>1752</v>
-      </c>
-      <c r="N64" s="70" t="s">
-        <v>1754</v>
-      </c>
-      <c r="O64" s="70" t="s">
-        <v>1652</v>
-      </c>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70" t="s">
-        <v>1756</v>
-      </c>
-      <c r="R64" s="70" t="s">
-        <v>1758</v>
-      </c>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
       <c r="S64" s="19"/>
       <c r="V64" s="64"/>
     </row>
@@ -12957,160 +11616,110 @@
         <v>16</v>
       </c>
       <c r="D65" s="68" t="s">
-        <v>1459</v>
+        <v>1513</v>
       </c>
       <c r="E65" s="68" t="s">
-        <v>174</v>
+        <v>1514</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>182</v>
+        <v>1515</v>
       </c>
       <c r="G65" s="68" t="s">
-        <v>1460</v>
+        <v>1516</v>
       </c>
       <c r="H65" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="I65" s="68" t="s">
-        <v>1461</v>
+        <v>1517</v>
       </c>
       <c r="J65" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="K65" s="68" t="s">
-        <v>1422</v>
+        <v>1455</v>
       </c>
       <c r="L65" s="68" t="s">
-        <v>1449</v>
+        <v>1503</v>
       </c>
       <c r="M65" s="68" t="s">
-        <v>1462</v>
+        <v>1518</v>
       </c>
       <c r="N65" s="68" t="s">
-        <v>134</v>
+        <v>1519</v>
       </c>
       <c r="O65" s="68" t="s">
-        <v>1463</v>
+        <v>1520</v>
       </c>
       <c r="P65" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="Q65" s="68" t="s">
-        <v>243</v>
+        <v>1521</v>
       </c>
       <c r="R65" s="68" t="s">
-        <v>1464</v>
+        <v>1522</v>
       </c>
       <c r="S65" s="21"/>
       <c r="V65" s="64"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
-      <c r="D66" s="71" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E66" s="71" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F66" s="71" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G66" s="71" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H66" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I66" s="71" t="s">
-        <v>1751</v>
-      </c>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
       <c r="J66" s="71"/>
-      <c r="K66" s="71" t="s">
-        <v>1633</v>
-      </c>
-      <c r="L66" s="71" t="s">
-        <v>1581</v>
-      </c>
-      <c r="M66" s="71" t="s">
-        <v>1753</v>
-      </c>
-      <c r="N66" s="71" t="s">
-        <v>1755</v>
-      </c>
-      <c r="O66" s="71" t="s">
-        <v>1653</v>
-      </c>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
       <c r="P66" s="71"/>
-      <c r="Q66" s="71" t="s">
-        <v>1757</v>
-      </c>
-      <c r="R66" s="71" t="s">
-        <v>1759</v>
-      </c>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
       <c r="S66" s="31"/>
       <c r="V66" s="64"/>
     </row>
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
       <c r="V67" s="64"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E68" s="70" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H68" s="70" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I68" s="70" t="s">
-        <v>1766</v>
-      </c>
-      <c r="J68" s="70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="K68" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="L68" s="70" t="s">
-        <v>1768</v>
-      </c>
-      <c r="M68" s="70"/>
-      <c r="N68" s="70" t="s">
-        <v>1770</v>
-      </c>
-      <c r="O68" s="70" t="s">
-        <v>1772</v>
-      </c>
-      <c r="P68" s="70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="Q68" s="70" t="s">
-        <v>1774</v>
-      </c>
-      <c r="R68" s="70"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
       <c r="S68" s="19"/>
       <c r="V68" s="64"/>
     </row>
@@ -13120,93 +11729,69 @@
         <v>17</v>
       </c>
       <c r="D69" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="E69" s="68" t="s">
-        <v>1176</v>
+        <v>1524</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="G69" s="68" t="s">
-        <v>1465</v>
+        <v>1525</v>
       </c>
       <c r="H69" s="68" t="s">
-        <v>93</v>
+        <v>1453</v>
       </c>
       <c r="I69" s="68" t="s">
-        <v>1466</v>
+        <v>1526</v>
       </c>
       <c r="J69" s="68" t="s">
-        <v>102</v>
+        <v>1407</v>
       </c>
       <c r="K69" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="L69" s="68" t="s">
-        <v>1250</v>
+        <v>1527</v>
       </c>
       <c r="M69" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="N69" s="68" t="s">
-        <v>1467</v>
+        <v>1528</v>
       </c>
       <c r="O69" s="68" t="s">
-        <v>158</v>
+        <v>1529</v>
       </c>
       <c r="P69" s="68" t="s">
-        <v>102</v>
+        <v>1407</v>
       </c>
       <c r="Q69" s="68" t="s">
-        <v>275</v>
+        <v>1530</v>
       </c>
       <c r="R69" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="S69" s="21"/>
       <c r="V69" s="64"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
-      <c r="D70" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E70" s="71" t="s">
-        <v>1763</v>
-      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
       <c r="F70" s="71"/>
-      <c r="G70" s="71" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H70" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I70" s="71" t="s">
-        <v>1767</v>
-      </c>
-      <c r="J70" s="71" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K70" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L70" s="71" t="s">
-        <v>1769</v>
-      </c>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71"/>
       <c r="M70" s="71"/>
-      <c r="N70" s="71" t="s">
-        <v>1771</v>
-      </c>
-      <c r="O70" s="71" t="s">
-        <v>1773</v>
-      </c>
-      <c r="P70" s="71" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Q70" s="71" t="s">
-        <v>1775</v>
-      </c>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
       <c r="R70" s="71"/>
       <c r="S70" s="31"/>
       <c r="V70" s="64"/>
@@ -13214,66 +11799,40 @@
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
       <c r="V71" s="64"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="70" t="s">
-        <v>1776</v>
-      </c>
-      <c r="E72" s="70" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F72" s="70" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G72" s="70" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="J72" s="70" t="s">
-        <v>1782</v>
-      </c>
-      <c r="K72" s="70" t="s">
-        <v>1784</v>
-      </c>
-      <c r="L72" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M72" s="70" t="s">
-        <v>1786</v>
-      </c>
-      <c r="N72" s="70" t="s">
-        <v>1570</v>
-      </c>
-      <c r="O72" s="70"/>
-      <c r="P72" s="70" t="s">
-        <v>1788</v>
-      </c>
-      <c r="Q72" s="70" t="s">
-        <v>1628</v>
-      </c>
-      <c r="R72" s="70" t="s">
-        <v>1690</v>
-      </c>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
       <c r="S72" s="19"/>
       <c r="V72" s="64"/>
     </row>
@@ -13283,160 +11842,110 @@
         <v>18</v>
       </c>
       <c r="D73" s="68" t="s">
-        <v>1468</v>
+        <v>1531</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>143</v>
+        <v>1532</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>1469</v>
+        <v>1533</v>
       </c>
       <c r="G73" s="68" t="s">
-        <v>1428</v>
+        <v>1464</v>
       </c>
       <c r="H73" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="I73" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="J73" s="68" t="s">
-        <v>1470</v>
+        <v>1534</v>
       </c>
       <c r="K73" s="68" t="s">
-        <v>1471</v>
+        <v>1535</v>
       </c>
       <c r="L73" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="M73" s="68" t="s">
-        <v>1472</v>
+        <v>1536</v>
       </c>
       <c r="N73" s="68" t="s">
-        <v>24</v>
+        <v>1421</v>
       </c>
       <c r="O73" s="68" t="s">
-        <v>103</v>
+        <v>1435</v>
       </c>
       <c r="P73" s="68" t="s">
-        <v>1473</v>
+        <v>1537</v>
       </c>
       <c r="Q73" s="68" t="s">
-        <v>93</v>
+        <v>1453</v>
       </c>
       <c r="R73" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="S73" s="21"/>
       <c r="V73" s="64"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
-      <c r="D74" s="71" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E74" s="71" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F74" s="71" t="s">
-        <v>1781</v>
-      </c>
-      <c r="G74" s="71" t="s">
-        <v>1649</v>
-      </c>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
       <c r="H74" s="71"/>
-      <c r="I74" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J74" s="71" t="s">
-        <v>1783</v>
-      </c>
-      <c r="K74" s="71" t="s">
-        <v>1785</v>
-      </c>
-      <c r="L74" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M74" s="71" t="s">
-        <v>1787</v>
-      </c>
-      <c r="N74" s="71" t="s">
-        <v>1571</v>
-      </c>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
       <c r="O74" s="71"/>
-      <c r="P74" s="71" t="s">
-        <v>1789</v>
-      </c>
-      <c r="Q74" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="R74" s="71" t="s">
-        <v>1691</v>
-      </c>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
       <c r="S74" s="31"/>
       <c r="V74" s="64"/>
     </row>
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="62"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
       <c r="V75" s="64"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E76" s="70" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F76" s="70" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I76" s="70" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J76" s="70" t="s">
-        <v>1560</v>
-      </c>
-      <c r="K76" s="70" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L76" s="70"/>
-      <c r="M76" s="70" t="s">
-        <v>1798</v>
-      </c>
-      <c r="N76" s="70" t="s">
-        <v>1800</v>
-      </c>
-      <c r="O76" s="70" t="s">
-        <v>1802</v>
-      </c>
-      <c r="P76" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Q76" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="R76" s="70"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
       <c r="S76" s="19"/>
       <c r="V76" s="64"/>
     </row>
@@ -13446,93 +11955,69 @@
         <v>19</v>
       </c>
       <c r="D77" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="E77" s="68" t="s">
-        <v>1474</v>
+        <v>1538</v>
       </c>
       <c r="F77" s="68" t="s">
-        <v>1475</v>
+        <v>1539</v>
       </c>
       <c r="G77" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="H77" s="68" t="s">
-        <v>157</v>
+        <v>1468</v>
       </c>
       <c r="I77" s="68" t="s">
-        <v>1476</v>
+        <v>1540</v>
       </c>
       <c r="J77" s="68" t="s">
-        <v>1396</v>
+        <v>1415</v>
       </c>
       <c r="K77" s="68" t="s">
-        <v>150</v>
+        <v>1541</v>
       </c>
       <c r="L77" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="M77" s="68" t="s">
-        <v>22</v>
+        <v>1542</v>
       </c>
       <c r="N77" s="68" t="s">
-        <v>1477</v>
+        <v>1543</v>
       </c>
       <c r="O77" s="68" t="s">
-        <v>1478</v>
+        <v>1544</v>
       </c>
       <c r="P77" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="Q77" s="68" t="s">
-        <v>142</v>
+        <v>1545</v>
       </c>
       <c r="R77" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="S77" s="21"/>
       <c r="V77" s="64"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
-      <c r="D78" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E78" s="71" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F78" s="71" t="s">
-        <v>1793</v>
-      </c>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
       <c r="G78" s="71"/>
-      <c r="H78" s="71" t="s">
-        <v>1657</v>
-      </c>
-      <c r="I78" s="71" t="s">
-        <v>1795</v>
-      </c>
-      <c r="J78" s="71" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K78" s="71" t="s">
-        <v>1797</v>
-      </c>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
       <c r="L78" s="71"/>
-      <c r="M78" s="71" t="s">
-        <v>1799</v>
-      </c>
-      <c r="N78" s="71" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O78" s="71" t="s">
-        <v>1803</v>
-      </c>
-      <c r="P78" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Q78" s="71" t="s">
-        <v>1615</v>
-      </c>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
       <c r="R78" s="71"/>
       <c r="S78" s="31"/>
       <c r="V78" s="64"/>
@@ -13540,64 +12025,40 @@
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="62"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="62"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
       <c r="V79" s="64"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="70" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E80" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F80" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G80" s="70" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J80" s="70" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K80" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="L80" s="70" t="s">
-        <v>1806</v>
-      </c>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="O80" s="70" t="s">
-        <v>1616</v>
-      </c>
-      <c r="P80" s="70" t="s">
-        <v>1808</v>
-      </c>
-      <c r="Q80" s="70" t="s">
-        <v>1810</v>
-      </c>
-      <c r="R80" s="70"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
       <c r="S80" s="19"/>
       <c r="V80" s="64"/>
     </row>
@@ -13607,93 +12068,69 @@
         <v>20</v>
       </c>
       <c r="D81" s="68" t="s">
-        <v>1157</v>
+        <v>1546</v>
       </c>
       <c r="E81" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="F81" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="G81" s="68" t="s">
-        <v>1466</v>
+        <v>1526</v>
       </c>
       <c r="H81" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="I81" s="68" t="s">
-        <v>1437</v>
+        <v>1481</v>
       </c>
       <c r="J81" s="68" t="s">
-        <v>1434</v>
+        <v>1476</v>
       </c>
       <c r="K81" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="L81" s="68" t="s">
-        <v>1479</v>
+        <v>1547</v>
       </c>
       <c r="M81" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="N81" s="68" t="s">
-        <v>1208</v>
+        <v>1548</v>
       </c>
       <c r="O81" s="68" t="s">
-        <v>273</v>
+        <v>1447</v>
       </c>
       <c r="P81" s="68" t="s">
-        <v>1480</v>
+        <v>1549</v>
       </c>
       <c r="Q81" s="68" t="s">
-        <v>1481</v>
+        <v>1550</v>
       </c>
       <c r="R81" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="S81" s="21"/>
       <c r="V81" s="64"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
-      <c r="D82" s="71" t="s">
-        <v>1805</v>
-      </c>
-      <c r="E82" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F82" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="G82" s="71" t="s">
-        <v>1767</v>
-      </c>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
       <c r="H82" s="71"/>
-      <c r="I82" s="71" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J82" s="71" t="s">
-        <v>1673</v>
-      </c>
-      <c r="K82" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="L82" s="71" t="s">
-        <v>1807</v>
-      </c>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
       <c r="M82" s="71"/>
-      <c r="N82" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="O82" s="71" t="s">
-        <v>1617</v>
-      </c>
-      <c r="P82" s="71" t="s">
-        <v>1809</v>
-      </c>
-      <c r="Q82" s="71" t="s">
-        <v>1811</v>
-      </c>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
       <c r="R82" s="71"/>
       <c r="S82" s="31"/>
       <c r="V82" s="65"/>
@@ -13701,66 +12138,40 @@
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="62"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="72"/>
       <c r="V83" s="36"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="70" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E84" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F84" s="70" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G84" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="H84" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I84" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J84" s="70" t="s">
-        <v>1816</v>
-      </c>
-      <c r="K84" s="70" t="s">
-        <v>1698</v>
-      </c>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70" t="s">
-        <v>1818</v>
-      </c>
-      <c r="N84" s="70" t="s">
-        <v>1556</v>
-      </c>
-      <c r="O84" s="70" t="s">
-        <v>1820</v>
-      </c>
-      <c r="P84" s="70" t="s">
-        <v>1794</v>
-      </c>
-      <c r="Q84" s="70" t="s">
-        <v>1822</v>
-      </c>
-      <c r="R84" s="70"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="73"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="73"/>
       <c r="S84" s="19"/>
       <c r="V84" s="7"/>
     </row>
@@ -13770,95 +12181,69 @@
         <v>21</v>
       </c>
       <c r="D85" s="68" t="s">
-        <v>1482</v>
+        <v>1551</v>
       </c>
       <c r="E85" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="F85" s="68" t="s">
-        <v>1483</v>
+        <v>1552</v>
       </c>
       <c r="G85" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="H85" s="68" t="s">
-        <v>106</v>
+        <v>1446</v>
       </c>
       <c r="I85" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="J85" s="68" t="s">
-        <v>85</v>
+        <v>1553</v>
       </c>
       <c r="K85" s="68" t="s">
-        <v>201</v>
+        <v>1489</v>
       </c>
       <c r="L85" s="68" t="s">
-        <v>103</v>
+        <v>1435</v>
       </c>
       <c r="M85" s="68" t="s">
-        <v>1484</v>
+        <v>1554</v>
       </c>
       <c r="N85" s="68" t="s">
-        <v>1485</v>
+        <v>1555</v>
       </c>
       <c r="O85" s="68" t="s">
-        <v>1486</v>
+        <v>1556</v>
       </c>
       <c r="P85" s="68" t="s">
-        <v>1476</v>
+        <v>1540</v>
       </c>
       <c r="Q85" s="68" t="s">
-        <v>1487</v>
+        <v>1557</v>
       </c>
       <c r="R85" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="S85" s="21"/>
       <c r="V85" s="7"/>
     </row>
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
-      <c r="D86" s="71" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E86" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F86" s="71" t="s">
-        <v>1815</v>
-      </c>
-      <c r="G86" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H86" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I86" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J86" s="71" t="s">
-        <v>1817</v>
-      </c>
-      <c r="K86" s="71" t="s">
-        <v>1699</v>
-      </c>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
       <c r="L86" s="71"/>
-      <c r="M86" s="71" t="s">
-        <v>1819</v>
-      </c>
-      <c r="N86" s="71" t="s">
-        <v>1557</v>
-      </c>
-      <c r="O86" s="71" t="s">
-        <v>1821</v>
-      </c>
-      <c r="P86" s="71" t="s">
-        <v>1795</v>
-      </c>
-      <c r="Q86" s="71" t="s">
-        <v>1823</v>
-      </c>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
       <c r="R86" s="71"/>
       <c r="S86" s="31"/>
       <c r="V86" s="7"/>
@@ -13866,64 +12251,40 @@
     <row r="87" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
-      <c r="Q87" s="62"/>
-      <c r="R87" s="62"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+      <c r="O87" s="72"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
       <c r="V87" s="36"/>
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="70" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E88" s="70" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F88" s="70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G88" s="70" t="s">
-        <v>1826</v>
-      </c>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70" t="s">
-        <v>1828</v>
-      </c>
-      <c r="J88" s="70" t="s">
-        <v>1714</v>
-      </c>
-      <c r="K88" s="70" t="s">
-        <v>1830</v>
-      </c>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="70" t="s">
-        <v>1832</v>
-      </c>
-      <c r="O88" s="70" t="s">
-        <v>1834</v>
-      </c>
-      <c r="P88" s="70" t="s">
-        <v>1646</v>
-      </c>
-      <c r="Q88" s="70" t="s">
-        <v>1680</v>
-      </c>
-      <c r="R88" s="70" t="s">
-        <v>1614</v>
-      </c>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
+      <c r="P88" s="73"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="73"/>
       <c r="S88" s="19"/>
       <c r="V88" s="7"/>
     </row>
@@ -13933,108 +12294,84 @@
         <v>22</v>
       </c>
       <c r="D89" s="68" t="s">
-        <v>1488</v>
+        <v>1558</v>
       </c>
       <c r="E89" s="68" t="s">
-        <v>1489</v>
+        <v>1559</v>
       </c>
       <c r="F89" s="68" t="s">
-        <v>102</v>
+        <v>1407</v>
       </c>
       <c r="G89" s="68" t="s">
-        <v>1490</v>
+        <v>1560</v>
       </c>
       <c r="H89" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="I89" s="68" t="s">
-        <v>270</v>
+        <v>1561</v>
       </c>
       <c r="J89" s="68" t="s">
-        <v>37</v>
+        <v>1498</v>
       </c>
       <c r="K89" s="68" t="s">
-        <v>1491</v>
+        <v>1562</v>
       </c>
       <c r="L89" s="68" t="s">
-        <v>289</v>
+        <v>1563</v>
       </c>
       <c r="M89" s="68" t="s">
-        <v>290</v>
+        <v>1564</v>
       </c>
       <c r="N89" s="68" t="s">
-        <v>1492</v>
+        <v>1565</v>
       </c>
       <c r="O89" s="68" t="s">
-        <v>1159</v>
+        <v>1566</v>
       </c>
       <c r="P89" s="68" t="s">
-        <v>283</v>
+        <v>1463</v>
       </c>
       <c r="Q89" s="68" t="s">
-        <v>27</v>
+        <v>1480</v>
       </c>
       <c r="R89" s="68" t="s">
-        <v>142</v>
+        <v>1545</v>
       </c>
       <c r="S89" s="21"/>
       <c r="V89" s="7"/>
     </row>
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
-      <c r="D90" s="71" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E90" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F90" s="71" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G90" s="71" t="s">
-        <v>1827</v>
-      </c>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
       <c r="H90" s="71"/>
-      <c r="I90" s="71" t="s">
-        <v>1829</v>
-      </c>
-      <c r="J90" s="71" t="s">
-        <v>1715</v>
-      </c>
-      <c r="K90" s="71" t="s">
-        <v>1831</v>
-      </c>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="71"/>
       <c r="L90" s="71"/>
       <c r="M90" s="71"/>
-      <c r="N90" s="71" t="s">
-        <v>1833</v>
-      </c>
-      <c r="O90" s="71" t="s">
-        <v>1835</v>
-      </c>
-      <c r="P90" s="71" t="s">
-        <v>1647</v>
-      </c>
-      <c r="Q90" s="71" t="s">
-        <v>1681</v>
-      </c>
-      <c r="R90" s="71" t="s">
-        <v>1615</v>
-      </c>
+      <c r="N90" s="71"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="71"/>
+      <c r="Q90" s="71"/>
+      <c r="R90" s="71"/>
       <c r="S90" s="31"/>
       <c r="V90" s="7"/>
     </row>
     <row r="91" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
       <c r="L91" s="62"/>
       <c r="M91" s="62"/>
       <c r="N91" s="62"/>
@@ -14046,22 +12383,14 @@
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G92" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="H92" s="70" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I92" s="70" t="s">
-        <v>1782</v>
-      </c>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73"/>
       <c r="L92" s="70"/>
       <c r="M92" s="70"/>
       <c r="N92" s="70"/>
@@ -14078,25 +12407,25 @@
         <v>23</v>
       </c>
       <c r="D93" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="E93" s="68" t="s">
-        <v>293</v>
+        <v>1567</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>1493</v>
+        <v>1568</v>
       </c>
       <c r="G93" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="H93" s="68" t="s">
-        <v>1494</v>
+        <v>1569</v>
       </c>
       <c r="I93" s="68" t="s">
-        <v>274</v>
+        <v>1570</v>
       </c>
       <c r="J93" s="68" t="s">
-        <v>267</v>
+        <v>1571</v>
       </c>
       <c r="K93" s="68" t="str">
         <f>CHAR(10)</f>
@@ -14117,18 +12446,10 @@
       <c r="B94" s="22"/>
       <c r="D94" s="71"/>
       <c r="E94" s="71"/>
-      <c r="F94" s="71" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G94" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H94" s="71" t="s">
-        <v>1839</v>
-      </c>
-      <c r="I94" s="71" t="s">
-        <v>1783</v>
-      </c>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
       <c r="J94" s="71"/>
       <c r="K94" s="71"/>
       <c r="L94" s="71"/>
@@ -14144,7 +12465,7 @@
     <row r="95" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="62"/>
+      <c r="D95" s="72"/>
       <c r="E95" s="62"/>
       <c r="F95" s="62"/>
       <c r="G95" s="62"/>
@@ -14163,7 +12484,7 @@
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
-      <c r="D96" s="70"/>
+      <c r="D96" s="73"/>
       <c r="E96" s="70"/>
       <c r="F96" s="70"/>
       <c r="G96" s="70"/>
@@ -14231,66 +12552,40 @@
     <row r="99" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="34"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
-      <c r="N99" s="62"/>
-      <c r="O99" s="62"/>
-      <c r="P99" s="62"/>
-      <c r="Q99" s="62"/>
-      <c r="R99" s="62"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
       <c r="V99" s="36"/>
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="70" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E100" s="70" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F100" s="70" t="s">
-        <v>1732</v>
-      </c>
-      <c r="G100" s="70" t="s">
-        <v>1714</v>
-      </c>
-      <c r="H100" s="70" t="s">
-        <v>1816</v>
-      </c>
-      <c r="I100" s="70" t="s">
-        <v>1798</v>
-      </c>
-      <c r="J100" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K100" s="70" t="s">
-        <v>1692</v>
-      </c>
-      <c r="L100" s="70"/>
-      <c r="M100" s="70" t="s">
-        <v>1844</v>
-      </c>
-      <c r="N100" s="70" t="s">
-        <v>1846</v>
-      </c>
-      <c r="O100" s="70" t="s">
-        <v>1642</v>
-      </c>
-      <c r="P100" s="70" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q100" s="70"/>
-      <c r="R100" s="70" t="s">
-        <v>1850</v>
-      </c>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="73"/>
+      <c r="N100" s="73"/>
+      <c r="O100" s="73"/>
+      <c r="P100" s="73"/>
+      <c r="Q100" s="73"/>
+      <c r="R100" s="73"/>
       <c r="S100" s="19"/>
       <c r="V100" s="7"/>
     </row>
@@ -14300,162 +12595,110 @@
         <v>25</v>
       </c>
       <c r="D101" s="68" t="s">
-        <v>1495</v>
+        <v>1572</v>
       </c>
       <c r="E101" s="68" t="s">
-        <v>155</v>
+        <v>1573</v>
       </c>
       <c r="F101" s="68" t="s">
-        <v>1496</v>
+        <v>1574</v>
       </c>
       <c r="G101" s="68" t="s">
-        <v>37</v>
+        <v>1498</v>
       </c>
       <c r="H101" s="68" t="s">
-        <v>85</v>
+        <v>1553</v>
       </c>
       <c r="I101" s="68" t="s">
-        <v>22</v>
+        <v>1542</v>
       </c>
       <c r="J101" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="K101" s="68" t="s">
-        <v>1497</v>
+        <v>1575</v>
       </c>
       <c r="L101" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="M101" s="68" t="s">
-        <v>162</v>
+        <v>1576</v>
       </c>
       <c r="N101" s="68" t="s">
-        <v>1498</v>
+        <v>1577</v>
       </c>
       <c r="O101" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="P101" s="68" t="s">
-        <v>1499</v>
+        <v>1578</v>
       </c>
       <c r="Q101" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="R101" s="68" t="s">
-        <v>1500</v>
+        <v>1579</v>
       </c>
       <c r="S101" s="21"/>
       <c r="V101" s="7"/>
     </row>
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
-      <c r="D102" s="71" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E102" s="71" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F102" s="71" t="s">
-        <v>1733</v>
-      </c>
-      <c r="G102" s="71" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H102" s="71" t="s">
-        <v>1817</v>
-      </c>
-      <c r="I102" s="71" t="s">
-        <v>1799</v>
-      </c>
-      <c r="J102" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="K102" s="71" t="s">
-        <v>1693</v>
-      </c>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
       <c r="L102" s="71"/>
-      <c r="M102" s="71" t="s">
-        <v>1845</v>
-      </c>
-      <c r="N102" s="71" t="s">
-        <v>1847</v>
-      </c>
-      <c r="O102" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="P102" s="71" t="s">
-        <v>1849</v>
-      </c>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
       <c r="Q102" s="71"/>
-      <c r="R102" s="71" t="s">
-        <v>1851</v>
-      </c>
+      <c r="R102" s="71"/>
       <c r="S102" s="31"/>
       <c r="V102" s="7"/>
     </row>
     <row r="103" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="34"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="62"/>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
-      <c r="R103" s="62"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="72"/>
+      <c r="O103" s="72"/>
+      <c r="P103" s="72"/>
+      <c r="Q103" s="72"/>
+      <c r="R103" s="72"/>
       <c r="V103" s="36"/>
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="70" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E104" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F104" s="70" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G104" s="70" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H104" s="70" t="s">
-        <v>1858</v>
-      </c>
-      <c r="I104" s="70" t="s">
-        <v>1860</v>
-      </c>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70" t="s">
-        <v>1760</v>
-      </c>
-      <c r="L104" s="70" t="s">
-        <v>1814</v>
-      </c>
-      <c r="M104" s="70" t="s">
-        <v>1862</v>
-      </c>
-      <c r="N104" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="O104" s="70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="P104" s="70" t="s">
-        <v>1698</v>
-      </c>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="70" t="s">
-        <v>1864</v>
-      </c>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="73"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="73"/>
+      <c r="Q104" s="73"/>
+      <c r="R104" s="73"/>
       <c r="S104" s="19"/>
       <c r="V104" s="7"/>
     </row>
@@ -14465,162 +12708,110 @@
         <v>26</v>
       </c>
       <c r="D105" s="68" t="s">
-        <v>268</v>
+        <v>1580</v>
       </c>
       <c r="E105" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="F105" s="68" t="s">
-        <v>263</v>
+        <v>1581</v>
       </c>
       <c r="G105" s="68" t="s">
-        <v>21</v>
+        <v>1582</v>
       </c>
       <c r="H105" s="68" t="s">
-        <v>266</v>
+        <v>1583</v>
       </c>
       <c r="I105" s="68" t="s">
-        <v>1501</v>
+        <v>1584</v>
       </c>
       <c r="J105" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="K105" s="68" t="s">
-        <v>168</v>
+        <v>1523</v>
       </c>
       <c r="L105" s="68" t="s">
-        <v>1483</v>
+        <v>1552</v>
       </c>
       <c r="M105" s="68" t="s">
-        <v>1502</v>
+        <v>1585</v>
       </c>
       <c r="N105" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="O105" s="68" t="s">
-        <v>102</v>
+        <v>1407</v>
       </c>
       <c r="P105" s="68" t="s">
-        <v>201</v>
+        <v>1489</v>
       </c>
       <c r="Q105" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="R105" s="68" t="s">
-        <v>1503</v>
+        <v>1586</v>
       </c>
       <c r="S105" s="21"/>
       <c r="V105" s="7"/>
     </row>
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
-      <c r="D106" s="71" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F106" s="71" t="s">
-        <v>1855</v>
-      </c>
-      <c r="G106" s="71" t="s">
-        <v>1857</v>
-      </c>
-      <c r="H106" s="71" t="s">
-        <v>1859</v>
-      </c>
-      <c r="I106" s="71" t="s">
-        <v>1861</v>
-      </c>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
       <c r="J106" s="71"/>
-      <c r="K106" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="L106" s="71" t="s">
-        <v>1815</v>
-      </c>
-      <c r="M106" s="71" t="s">
-        <v>1863</v>
-      </c>
-      <c r="N106" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="O106" s="71" t="s">
-        <v>1545</v>
-      </c>
-      <c r="P106" s="71" t="s">
-        <v>1699</v>
-      </c>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
       <c r="Q106" s="71"/>
-      <c r="R106" s="71" t="s">
-        <v>1865</v>
-      </c>
+      <c r="R106" s="71"/>
       <c r="S106" s="31"/>
       <c r="V106" s="7"/>
     </row>
     <row r="107" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="34"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="62"/>
-      <c r="L107" s="62"/>
-      <c r="M107" s="62"/>
-      <c r="N107" s="62"/>
-      <c r="O107" s="62"/>
-      <c r="P107" s="62"/>
-      <c r="Q107" s="62"/>
-      <c r="R107" s="62"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="72"/>
       <c r="V107" s="36"/>
     </row>
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="70" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E108" s="70" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F108" s="70" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G108" s="70" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H108" s="70" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I108" s="70" t="s">
-        <v>1866</v>
-      </c>
-      <c r="J108" s="70" t="s">
-        <v>1868</v>
-      </c>
-      <c r="K108" s="70"/>
-      <c r="L108" s="70" t="s">
-        <v>1870</v>
-      </c>
-      <c r="M108" s="70" t="s">
-        <v>1872</v>
-      </c>
-      <c r="N108" s="70" t="s">
-        <v>1874</v>
-      </c>
-      <c r="O108" s="70" t="s">
-        <v>1616</v>
-      </c>
-      <c r="P108" s="70" t="s">
-        <v>1876</v>
-      </c>
-      <c r="Q108" s="70" t="s">
-        <v>1878</v>
-      </c>
-      <c r="R108" s="70"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
+      <c r="K108" s="73"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="73"/>
+      <c r="N108" s="73"/>
+      <c r="O108" s="73"/>
+      <c r="P108" s="73"/>
+      <c r="Q108" s="73"/>
+      <c r="R108" s="73"/>
       <c r="S108" s="19"/>
       <c r="V108" s="7"/>
     </row>
@@ -14630,95 +12821,69 @@
         <v>27</v>
       </c>
       <c r="D109" s="68" t="s">
-        <v>1470</v>
+        <v>1534</v>
       </c>
       <c r="E109" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="F109" s="68" t="s">
-        <v>1492</v>
+        <v>1565</v>
       </c>
       <c r="G109" s="68" t="s">
-        <v>1159</v>
+        <v>1566</v>
       </c>
       <c r="H109" s="68" t="s">
-        <v>273</v>
+        <v>1447</v>
       </c>
       <c r="I109" s="68" t="s">
-        <v>1504</v>
+        <v>1587</v>
       </c>
       <c r="J109" s="68" t="s">
-        <v>1505</v>
+        <v>1588</v>
       </c>
       <c r="K109" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="L109" s="68" t="s">
-        <v>1506</v>
+        <v>1589</v>
       </c>
       <c r="M109" s="68" t="s">
-        <v>1507</v>
+        <v>1590</v>
       </c>
       <c r="N109" s="68" t="s">
-        <v>1508</v>
+        <v>1591</v>
       </c>
       <c r="O109" s="68" t="s">
-        <v>273</v>
+        <v>1447</v>
       </c>
       <c r="P109" s="68" t="s">
-        <v>1509</v>
+        <v>1592</v>
       </c>
       <c r="Q109" s="68" t="s">
-        <v>105</v>
+        <v>1593</v>
       </c>
       <c r="R109" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="S109" s="21"/>
       <c r="V109" s="7"/>
     </row>
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
-      <c r="D110" s="71" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E110" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F110" s="71" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G110" s="71" t="s">
-        <v>1835</v>
-      </c>
-      <c r="H110" s="71" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I110" s="71" t="s">
-        <v>1867</v>
-      </c>
-      <c r="J110" s="71" t="s">
-        <v>1869</v>
-      </c>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
       <c r="K110" s="71"/>
-      <c r="L110" s="71" t="s">
-        <v>1871</v>
-      </c>
-      <c r="M110" s="71" t="s">
-        <v>1873</v>
-      </c>
-      <c r="N110" s="71" t="s">
-        <v>1875</v>
-      </c>
-      <c r="O110" s="71" t="s">
-        <v>1617</v>
-      </c>
-      <c r="P110" s="71" t="s">
-        <v>1877</v>
-      </c>
-      <c r="Q110" s="71" t="s">
-        <v>1879</v>
-      </c>
+      <c r="L110" s="71"/>
+      <c r="M110" s="71"/>
+      <c r="N110" s="71"/>
+      <c r="O110" s="71"/>
+      <c r="P110" s="71"/>
+      <c r="Q110" s="71"/>
       <c r="R110" s="71"/>
       <c r="S110" s="31"/>
       <c r="V110" s="7"/>
@@ -14726,64 +12891,40 @@
     <row r="111" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="12"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="62"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="62"/>
-      <c r="N111" s="62"/>
-      <c r="O111" s="62"/>
-      <c r="P111" s="62"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="62"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="72"/>
+      <c r="O111" s="72"/>
+      <c r="P111" s="72"/>
+      <c r="Q111" s="72"/>
+      <c r="R111" s="72"/>
       <c r="V111" s="36"/>
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
-      <c r="D112" s="70" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E112" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F112" s="70" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G112" s="70" t="s">
-        <v>1882</v>
-      </c>
-      <c r="H112" s="70"/>
-      <c r="I112" s="70" t="s">
-        <v>1646</v>
-      </c>
-      <c r="J112" s="70" t="s">
-        <v>1812</v>
-      </c>
-      <c r="K112" s="70" t="s">
-        <v>1882</v>
-      </c>
-      <c r="L112" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M112" s="70" t="s">
-        <v>1658</v>
-      </c>
-      <c r="N112" s="70" t="s">
-        <v>1732</v>
-      </c>
-      <c r="O112" s="70"/>
-      <c r="P112" s="70" t="s">
-        <v>1884</v>
-      </c>
-      <c r="Q112" s="70" t="s">
-        <v>1712</v>
-      </c>
-      <c r="R112" s="70"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
+      <c r="K112" s="73"/>
+      <c r="L112" s="73"/>
+      <c r="M112" s="73"/>
+      <c r="N112" s="73"/>
+      <c r="O112" s="73"/>
+      <c r="P112" s="73"/>
+      <c r="Q112" s="73"/>
+      <c r="R112" s="73"/>
       <c r="S112" s="19"/>
       <c r="V112" s="7"/>
     </row>
@@ -14793,93 +12934,69 @@
         <v>28</v>
       </c>
       <c r="D113" s="69" t="s">
-        <v>292</v>
+        <v>1594</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="F113" s="69" t="s">
-        <v>1444</v>
+        <v>1491</v>
       </c>
       <c r="G113" s="69" t="s">
-        <v>99</v>
+        <v>1595</v>
       </c>
       <c r="H113" s="69" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="I113" s="69" t="s">
-        <v>283</v>
+        <v>1463</v>
       </c>
       <c r="J113" s="69" t="s">
-        <v>1482</v>
+        <v>1551</v>
       </c>
       <c r="K113" s="69" t="s">
-        <v>99</v>
+        <v>1595</v>
       </c>
       <c r="L113" s="69" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="M113" s="69" t="s">
-        <v>1444</v>
+        <v>1491</v>
       </c>
       <c r="N113" s="69" t="s">
-        <v>1496</v>
+        <v>1574</v>
       </c>
       <c r="O113" s="69" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="P113" s="69" t="s">
-        <v>211</v>
+        <v>1596</v>
       </c>
       <c r="Q113" s="69" t="s">
-        <v>110</v>
+        <v>1497</v>
       </c>
       <c r="R113" s="69" t="s">
-        <v>267</v>
+        <v>1571</v>
       </c>
       <c r="S113" s="21"/>
       <c r="V113" s="7"/>
     </row>
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
-      <c r="D114" s="71" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E114" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F114" s="71" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G114" s="71" t="s">
-        <v>1883</v>
-      </c>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
       <c r="H114" s="71"/>
-      <c r="I114" s="71" t="s">
-        <v>1647</v>
-      </c>
-      <c r="J114" s="71" t="s">
-        <v>1813</v>
-      </c>
-      <c r="K114" s="71" t="s">
-        <v>1883</v>
-      </c>
-      <c r="L114" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M114" s="71" t="s">
-        <v>1659</v>
-      </c>
-      <c r="N114" s="71" t="s">
-        <v>1733</v>
-      </c>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="71"/>
       <c r="O114" s="71"/>
-      <c r="P114" s="71" t="s">
-        <v>1885</v>
-      </c>
-      <c r="Q114" s="71" t="s">
-        <v>1713</v>
-      </c>
+      <c r="P114" s="71"/>
+      <c r="Q114" s="71"/>
       <c r="R114" s="71"/>
       <c r="S114" s="31"/>
       <c r="V114" s="7"/>
@@ -14887,66 +13004,40 @@
     <row r="115" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="12"/>
       <c r="C115" s="34"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="62"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="62"/>
-      <c r="N115" s="62"/>
-      <c r="O115" s="62"/>
-      <c r="P115" s="62"/>
-      <c r="Q115" s="62"/>
-      <c r="R115" s="62"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="72"/>
+      <c r="O115" s="72"/>
+      <c r="P115" s="72"/>
+      <c r="Q115" s="72"/>
+      <c r="R115" s="72"/>
       <c r="V115" s="36"/>
     </row>
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
-      <c r="D116" s="70" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E116" s="70" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F116" s="70" t="s">
-        <v>1652</v>
-      </c>
-      <c r="G116" s="70" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H116" s="70" t="s">
-        <v>1714</v>
-      </c>
-      <c r="I116" s="70"/>
-      <c r="J116" s="70" t="s">
-        <v>1888</v>
-      </c>
-      <c r="K116" s="70" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L116" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="M116" s="70" t="s">
-        <v>1890</v>
-      </c>
-      <c r="N116" s="70"/>
-      <c r="O116" s="70" t="s">
-        <v>1632</v>
-      </c>
-      <c r="P116" s="70" t="s">
-        <v>1720</v>
-      </c>
-      <c r="Q116" s="70" t="s">
-        <v>1652</v>
-      </c>
-      <c r="R116" s="70" t="s">
-        <v>1560</v>
-      </c>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="73"/>
+      <c r="J116" s="73"/>
+      <c r="K116" s="73"/>
+      <c r="L116" s="73"/>
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="73"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="73"/>
       <c r="S116" s="19"/>
       <c r="V116" s="7"/>
     </row>
@@ -14956,160 +13047,110 @@
         <v>29</v>
       </c>
       <c r="D117" s="68" t="s">
-        <v>1232</v>
+        <v>1597</v>
       </c>
       <c r="E117" s="68" t="s">
-        <v>1419</v>
+        <v>1451</v>
       </c>
       <c r="F117" s="68" t="s">
-        <v>1430</v>
+        <v>1466</v>
       </c>
       <c r="G117" s="68" t="s">
-        <v>285</v>
+        <v>1598</v>
       </c>
       <c r="H117" s="68" t="s">
-        <v>37</v>
+        <v>1498</v>
       </c>
       <c r="I117" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="J117" s="68" t="s">
-        <v>1510</v>
+        <v>1599</v>
       </c>
       <c r="K117" s="68" t="s">
-        <v>93</v>
+        <v>1453</v>
       </c>
       <c r="L117" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="M117" s="68" t="s">
-        <v>140</v>
+        <v>1600</v>
       </c>
       <c r="N117" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="O117" s="68" t="s">
-        <v>1422</v>
+        <v>1455</v>
       </c>
       <c r="P117" s="68" t="s">
-        <v>1448</v>
+        <v>1501</v>
       </c>
       <c r="Q117" s="68" t="s">
-        <v>1463</v>
+        <v>1520</v>
       </c>
       <c r="R117" s="68" t="s">
-        <v>1396</v>
+        <v>1415</v>
       </c>
       <c r="S117" s="21"/>
       <c r="V117" s="7"/>
     </row>
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
-      <c r="D118" s="71" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E118" s="71" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F118" s="71" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G118" s="71" t="s">
-        <v>1887</v>
-      </c>
-      <c r="H118" s="71" t="s">
-        <v>1715</v>
-      </c>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
       <c r="I118" s="71"/>
-      <c r="J118" s="71" t="s">
-        <v>1889</v>
-      </c>
-      <c r="K118" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="L118" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="M118" s="71" t="s">
-        <v>1891</v>
-      </c>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="71"/>
+      <c r="M118" s="71"/>
       <c r="N118" s="71"/>
-      <c r="O118" s="71" t="s">
-        <v>1633</v>
-      </c>
-      <c r="P118" s="71" t="s">
-        <v>1721</v>
-      </c>
-      <c r="Q118" s="71" t="s">
-        <v>1653</v>
-      </c>
-      <c r="R118" s="71" t="s">
-        <v>1561</v>
-      </c>
+      <c r="O118" s="71"/>
+      <c r="P118" s="71"/>
+      <c r="Q118" s="71"/>
+      <c r="R118" s="71"/>
       <c r="S118" s="31"/>
       <c r="V118" s="7"/>
     </row>
     <row r="119" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="34"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
-      <c r="L119" s="62"/>
-      <c r="M119" s="62"/>
-      <c r="N119" s="62"/>
-      <c r="O119" s="62"/>
-      <c r="P119" s="62"/>
-      <c r="Q119" s="62"/>
-      <c r="R119" s="62"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="72"/>
+      <c r="M119" s="72"/>
+      <c r="N119" s="72"/>
+      <c r="O119" s="72"/>
+      <c r="P119" s="72"/>
+      <c r="Q119" s="72"/>
+      <c r="R119" s="72"/>
       <c r="V119" s="36"/>
     </row>
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
-      <c r="D120" s="70" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G120" s="70" t="s">
-        <v>1614</v>
-      </c>
-      <c r="H120" s="70" t="s">
-        <v>1816</v>
-      </c>
-      <c r="I120" s="70" t="s">
-        <v>1698</v>
-      </c>
-      <c r="J120" s="70"/>
-      <c r="K120" s="70" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L120" s="70" t="s">
-        <v>1894</v>
-      </c>
-      <c r="M120" s="70" t="s">
-        <v>1642</v>
-      </c>
-      <c r="N120" s="70" t="s">
-        <v>1562</v>
-      </c>
-      <c r="O120" s="70"/>
-      <c r="P120" s="70" t="s">
-        <v>1880</v>
-      </c>
-      <c r="Q120" s="70" t="s">
-        <v>1538</v>
-      </c>
-      <c r="R120" s="70" t="s">
-        <v>1842</v>
-      </c>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="73"/>
+      <c r="L120" s="73"/>
+      <c r="M120" s="73"/>
+      <c r="N120" s="73"/>
+      <c r="O120" s="73"/>
+      <c r="P120" s="73"/>
+      <c r="Q120" s="73"/>
+      <c r="R120" s="73"/>
       <c r="S120" s="19"/>
       <c r="V120" s="7"/>
     </row>
@@ -15119,111 +13160,87 @@
         <v>30</v>
       </c>
       <c r="D121" s="68" t="s">
-        <v>159</v>
+        <v>1601</v>
       </c>
       <c r="E121" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="F121" s="68" t="s">
-        <v>1441</v>
+        <v>1485</v>
       </c>
       <c r="G121" s="68" t="s">
-        <v>106</v>
+        <v>1446</v>
       </c>
       <c r="H121" s="68" t="s">
-        <v>85</v>
+        <v>1553</v>
       </c>
       <c r="I121" s="68" t="s">
-        <v>201</v>
+        <v>1489</v>
       </c>
       <c r="J121" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="K121" s="68" t="s">
-        <v>93</v>
+        <v>1453</v>
       </c>
       <c r="L121" s="68" t="s">
-        <v>1511</v>
+        <v>1602</v>
       </c>
       <c r="M121" s="68" t="s">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="N121" s="68" t="s">
-        <v>138</v>
+        <v>1416</v>
       </c>
       <c r="O121" s="68" t="s">
-        <v>30</v>
+        <v>1417</v>
       </c>
       <c r="P121" s="68" t="s">
-        <v>292</v>
+        <v>1594</v>
       </c>
       <c r="Q121" s="68" t="s">
-        <v>108</v>
+        <v>1404</v>
       </c>
       <c r="R121" s="68" t="s">
-        <v>155</v>
+        <v>1573</v>
       </c>
       <c r="S121" s="21"/>
       <c r="V121" s="7"/>
     </row>
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="22"/>
-      <c r="D122" s="71" t="s">
-        <v>1893</v>
-      </c>
+      <c r="D122" s="71"/>
       <c r="E122" s="71"/>
-      <c r="F122" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="G122" s="71" t="s">
-        <v>1615</v>
-      </c>
-      <c r="H122" s="71" t="s">
-        <v>1817</v>
-      </c>
-      <c r="I122" s="71" t="s">
-        <v>1699</v>
-      </c>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
       <c r="J122" s="71"/>
-      <c r="K122" s="71" t="s">
-        <v>1629</v>
-      </c>
-      <c r="L122" s="71" t="s">
-        <v>1895</v>
-      </c>
-      <c r="M122" s="71" t="s">
-        <v>1643</v>
-      </c>
-      <c r="N122" s="71" t="s">
-        <v>1563</v>
-      </c>
+      <c r="K122" s="71"/>
+      <c r="L122" s="71"/>
+      <c r="M122" s="71"/>
+      <c r="N122" s="71"/>
       <c r="O122" s="71"/>
-      <c r="P122" s="71" t="s">
-        <v>1881</v>
-      </c>
-      <c r="Q122" s="71" t="s">
-        <v>1539</v>
-      </c>
-      <c r="R122" s="71" t="s">
-        <v>1843</v>
-      </c>
+      <c r="P122" s="71"/>
+      <c r="Q122" s="71"/>
+      <c r="R122" s="71"/>
       <c r="S122" s="31"/>
       <c r="V122" s="7"/>
     </row>
     <row r="123" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="34"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="62"/>
-      <c r="L123" s="62"/>
-      <c r="M123" s="62"/>
-      <c r="N123" s="62"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="72"/>
+      <c r="M123" s="72"/>
+      <c r="N123" s="72"/>
       <c r="O123" s="62"/>
       <c r="P123" s="62"/>
       <c r="Q123" s="62"/>
@@ -15232,33 +13249,17 @@
     </row>
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
-      <c r="D124" s="70" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G124" s="70" t="s">
-        <v>1786</v>
-      </c>
-      <c r="H124" s="70" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I124" s="70" t="s">
-        <v>1798</v>
-      </c>
-      <c r="J124" s="70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="K124" s="70" t="s">
-        <v>1898</v>
-      </c>
-      <c r="L124" s="70" t="s">
-        <v>1856</v>
-      </c>
-      <c r="M124" s="70"/>
-      <c r="N124" s="70"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="73"/>
+      <c r="F124" s="73"/>
+      <c r="G124" s="73"/>
+      <c r="H124" s="73"/>
+      <c r="I124" s="73"/>
+      <c r="J124" s="73"/>
+      <c r="K124" s="73"/>
+      <c r="L124" s="73"/>
+      <c r="M124" s="73"/>
+      <c r="N124" s="73"/>
       <c r="O124" s="70"/>
       <c r="P124" s="70"/>
       <c r="Q124" s="70"/>
@@ -15272,39 +13273,37 @@
         <v>31</v>
       </c>
       <c r="D125" s="68" t="s">
-        <v>212</v>
+        <v>1603</v>
       </c>
       <c r="E125" s="68" t="s">
-        <v>23</v>
+        <v>1397</v>
       </c>
       <c r="F125" s="68" t="s">
-        <v>283</v>
+        <v>1463</v>
       </c>
       <c r="G125" s="68" t="s">
-        <v>1472</v>
+        <v>1536</v>
       </c>
       <c r="H125" s="68" t="s">
-        <v>19</v>
+        <v>1428</v>
       </c>
       <c r="I125" s="68" t="s">
-        <v>22</v>
+        <v>1542</v>
       </c>
       <c r="J125" s="68" t="s">
-        <v>102</v>
+        <v>1407</v>
       </c>
       <c r="K125" s="68" t="s">
-        <v>198</v>
+        <v>1604</v>
       </c>
       <c r="L125" s="68" t="s">
-        <v>21</v>
+        <v>1582</v>
       </c>
       <c r="M125" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="N125" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
+        <v>1417</v>
+      </c>
+      <c r="N125" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="O125" s="68"/>
       <c r="P125" s="68"/>
@@ -15315,31 +13314,15 @@
     </row>
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
-      <c r="D126" s="71" t="s">
-        <v>1897</v>
-      </c>
+      <c r="D126" s="71"/>
       <c r="E126" s="71"/>
-      <c r="F126" s="71" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G126" s="71" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H126" s="71" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I126" s="71" t="s">
-        <v>1799</v>
-      </c>
-      <c r="J126" s="71" t="s">
-        <v>1545</v>
-      </c>
-      <c r="K126" s="71" t="s">
-        <v>1899</v>
-      </c>
-      <c r="L126" s="71" t="s">
-        <v>1857</v>
-      </c>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="71"/>
       <c r="M126" s="71"/>
       <c r="N126" s="71"/>
       <c r="O126" s="71"/>
@@ -15394,9 +13377,7 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="68" t="s">
-        <v>38</v>
-      </c>
+      <c r="D129" s="68"/>
       <c r="E129" s="68"/>
       <c r="F129" s="68"/>
       <c r="G129" s="68"/>
@@ -22840,7 +20821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B312FE-EC53-4DD9-A04B-BC6FC3AE5E1F}">
   <dimension ref="A1:V482"/>
   <sheetViews>
@@ -33761,7 +31742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599EB3AF-39AD-443E-BF4E-41B1F014306B}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -34576,7 +32557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>
@@ -42167,7 +40148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -42336,7 +40317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF615193-24DD-471B-A11D-8A8B8D6687EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D34BCBF-D56F-4646-ABBC-EDF5B94DD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="1379">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4303,30 +4303,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>無預設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上及右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tai_Gi_Zu_Im_Bun.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河洛話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三月七日，沙湖道中遇雨，雨具先去，同行皆狼狽，余獨不覺。已而遂晴，故作此。
 莫聽穿林打葉聲，何妨吟嘯且徐行。
 竹杖芒鞋輕勝馬，誰怕？一蓑煙雨任平生。　　
@@ -4451,10 +4427,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(9, 7); (21, 18)</t>
   </si>
   <si>
@@ -4676,884 +4648,6 @@
   </si>
   <si>
     <t>bbo2</t>
-  </si>
-  <si>
-    <t>蘭亭集序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文讀音</t>
-  </si>
-  <si>
-    <t>https://imgs.guwendianji.com/wp-content/uploads/2017/06/1-32.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閩拼調號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅俗通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方音符號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">永和九年，歲在癸丑，暮春之初，會於會稽山陰之蘭亭，修禊事也。羣賢畢至，少長咸集。此地有崇山峻嶺，茂林修竹；又有清流激湍，映帶左右，引以為流觴曲水，列坐其次。雖無絲竹管弦之盛，一觴一詠，亦足以暢敘幽情。
-是日也，天朗氣清，惠風和暢。仰觀宇宙之大，俯察品類之盛。所以遊目騁懷，足以極視聽之娛，信可樂也。
-夫人之相與，俯仰一世，或取諸懷抱，悟言一室之內；或因寄所託，放浪形骸之外。雖取舍萬殊，靜躁不同，當其欣於所遇，蹔得於己，怏然自足，不知老之將至；及其所之既倦，情隨事遷，感慨係之矣。向之所欣，俯仰之間，已為陳跡，猶不能不以之興懷；況脩短隨化，終期於盡。古人云：「死生亦大矣。」豈不痛哉！
-每覽昔人興感之由，若合一契，未嘗不臨文嗟悼，不能喻之於懷。固知一死生為虛誕，齊彭殤為妄作。後之視今，亦猶今之視昔，悲夫！故列敘時人，錄其所述，雖世殊事異，所以興懷，其致一也。後之覽者，亦將有感於斯文。
-</t>
-  </si>
-  <si>
-    <t>永</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>癸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>於</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>峻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嶺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>絲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>騁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>極</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>視</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>與</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>託</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>當</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>係</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>興</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>終</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>誕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>異</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6009,7 +5103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6225,13 +5319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9602,8 +8689,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -9624,19 +8711,15 @@
     </row>
     <row r="2" spans="2:11" ht="30">
       <c r="B2" s="47" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C2" s="50">
-        <v>1</v>
-      </c>
+        <v>1303</v>
+      </c>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="2:11" ht="30">
       <c r="B3" s="47" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>1311</v>
-      </c>
+        <v>1304</v>
+      </c>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="4" t="s">
@@ -9648,25 +8731,19 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1268</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1386</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>1388</v>
-      </c>
+      <c r="C7" s="54"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -9680,105 +8757,79 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>1269</v>
-      </c>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="2:11" ht="30">
       <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>1271</v>
-      </c>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50" t="b">
-        <v>1</v>
-      </c>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="2:11" ht="30">
       <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="50">
-        <v>120</v>
-      </c>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="2:11" ht="30">
       <c r="B12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="50">
-        <v>15</v>
-      </c>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="2:11" ht="30">
       <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>1387</v>
-      </c>
+      <c r="C13" s="49"/>
     </row>
     <row r="14" spans="2:11" ht="30">
       <c r="B14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>1270</v>
-      </c>
+      <c r="C14" s="49"/>
     </row>
     <row r="15" spans="2:11" ht="30">
       <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>1389</v>
-      </c>
+      <c r="C15" s="49"/>
     </row>
     <row r="16" spans="2:11" ht="30">
       <c r="B16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>1266</v>
-      </c>
+      <c r="C16" s="49"/>
     </row>
     <row r="17" spans="2:3" ht="30">
       <c r="B17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>1267</v>
-      </c>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="2:3" ht="30">
       <c r="B18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>1390</v>
-      </c>
+      <c r="C18" s="49"/>
     </row>
     <row r="19" spans="2:3" ht="30">
       <c r="B19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>1391</v>
-      </c>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="47" t="s">
         <v>1265</v>
       </c>
-      <c r="C20" s="53">
-        <v>7</v>
-      </c>
+      <c r="C20" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9810,9 +8861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -9921,49 +8970,47 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="63" t="s">
-        <v>1392</v>
-      </c>
+      <c r="V3" s="63"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="19"/>
       <c r="V4" s="64"/>
     </row>
@@ -9971,51 +9018,21 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="68" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>1396</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>1398</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>1399</v>
-      </c>
-      <c r="K5" s="68" t="s">
-        <v>1400</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>1401</v>
-      </c>
-      <c r="M5" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O5" s="68" t="s">
-        <v>1403</v>
-      </c>
-      <c r="P5" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="Q5" s="68" t="s">
-        <v>1405</v>
-      </c>
-      <c r="R5" s="68" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
       <c r="S5" s="21"/>
       <c r="V5" s="64"/>
     </row>
@@ -10043,41 +9060,41 @@
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
       <c r="S7" s="29"/>
       <c r="V7" s="64"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
       <c r="S8" s="19"/>
       <c r="V8" s="64"/>
     </row>
@@ -10086,51 +9103,21 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="68" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>1408</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>1409</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>1411</v>
-      </c>
-      <c r="L9" s="68" t="s">
-        <v>1412</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>1413</v>
-      </c>
-      <c r="O9" s="68" t="s">
-        <v>1414</v>
-      </c>
-      <c r="P9" s="68" t="s">
-        <v>1415</v>
-      </c>
-      <c r="Q9" s="68" t="s">
-        <v>1416</v>
-      </c>
-      <c r="R9" s="68" t="s">
-        <v>1417</v>
-      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
       <c r="V9" s="64"/>
@@ -10158,40 +9145,40 @@
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
       <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="19"/>
       <c r="V12" s="64"/>
     </row>
@@ -10200,51 +9187,21 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="68" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>1421</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>1422</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>1423</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>1424</v>
-      </c>
-      <c r="L13" s="68" t="s">
-        <v>1425</v>
-      </c>
-      <c r="M13" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="N13" s="68" t="s">
-        <v>1426</v>
-      </c>
-      <c r="O13" s="68" t="s">
-        <v>1427</v>
-      </c>
-      <c r="P13" s="68" t="s">
-        <v>1428</v>
-      </c>
-      <c r="Q13" s="68" t="s">
-        <v>1429</v>
-      </c>
-      <c r="R13" s="68" t="s">
-        <v>1409</v>
-      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
       <c r="S13" s="21"/>
       <c r="V13" s="64"/>
     </row>
@@ -10271,40 +9228,40 @@
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
       <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
       <c r="S16" s="19"/>
       <c r="V16" s="64"/>
     </row>
@@ -10313,51 +9270,21 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="68" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>1433</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>1413</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>1435</v>
-      </c>
-      <c r="L17" s="68" t="s">
-        <v>1436</v>
-      </c>
-      <c r="M17" s="68" t="s">
-        <v>1428</v>
-      </c>
-      <c r="N17" s="68" t="s">
-        <v>1437</v>
-      </c>
-      <c r="O17" s="68" t="s">
-        <v>1438</v>
-      </c>
-      <c r="P17" s="68" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Q17" s="68" t="s">
-        <v>1440</v>
-      </c>
-      <c r="R17" s="68" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="21"/>
       <c r="V17" s="64"/>
     </row>
@@ -10384,40 +9311,40 @@
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
       <c r="V19" s="64"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
       <c r="S20" s="19"/>
       <c r="V20" s="64"/>
     </row>
@@ -10426,51 +9353,21 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="68" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>1444</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>1445</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>1446</v>
-      </c>
-      <c r="K21" s="68" t="s">
-        <v>1447</v>
-      </c>
-      <c r="L21" s="68" t="s">
-        <v>1438</v>
-      </c>
-      <c r="M21" s="68" t="s">
-        <v>1448</v>
-      </c>
-      <c r="N21" s="68" t="s">
-        <v>1449</v>
-      </c>
-      <c r="O21" s="68" t="s">
-        <v>1450</v>
-      </c>
-      <c r="P21" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="Q21" s="68" t="s">
-        <v>1451</v>
-      </c>
-      <c r="R21" s="68" t="s">
-        <v>1452</v>
-      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="21"/>
       <c r="V21" s="64"/>
     </row>
@@ -10497,40 +9394,40 @@
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
       <c r="V23" s="64"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
       <c r="S24" s="19"/>
       <c r="V24" s="64"/>
     </row>
@@ -10539,51 +9436,21 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>1456</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>1458</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>1459</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="N25" s="68" t="s">
-        <v>1460</v>
-      </c>
-      <c r="O25" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P25" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="Q25" s="68" t="s">
-        <v>1448</v>
-      </c>
-      <c r="R25" s="68" t="s">
-        <v>1461</v>
-      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
       <c r="S25" s="21"/>
       <c r="V25" s="64"/>
     </row>
@@ -10610,17 +9477,17 @@
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
@@ -10633,17 +9500,17 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
       <c r="O28" s="70"/>
       <c r="P28" s="70"/>
       <c r="Q28" s="70"/>
@@ -10660,41 +9527,17 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="68" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G29" s="68" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J29" s="68" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K29" s="68" t="s">
-        <v>1467</v>
-      </c>
-      <c r="L29" s="68" t="s">
-        <v>1468</v>
-      </c>
-      <c r="M29" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="N29" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="68"/>
       <c r="P29" s="68"/>
       <c r="Q29" s="68"/>
@@ -10733,7 +9576,7 @@
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="72"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
@@ -10756,7 +9599,7 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
@@ -10783,11 +9626,7 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D33" s="68"/>
       <c r="E33" s="68"/>
       <c r="F33" s="68"/>
       <c r="G33" s="68"/>
@@ -10828,40 +9667,40 @@
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
       <c r="V35" s="64"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
       <c r="S36" s="19"/>
       <c r="V36" s="64"/>
     </row>
@@ -10870,51 +9709,21 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="68" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E37" s="68" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G37" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>1471</v>
-      </c>
-      <c r="I37" s="68" t="s">
-        <v>1472</v>
-      </c>
-      <c r="J37" s="68" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K37" s="68" t="s">
-        <v>1437</v>
-      </c>
-      <c r="L37" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M37" s="68" t="s">
-        <v>1474</v>
-      </c>
-      <c r="N37" s="68" t="s">
-        <v>1475</v>
-      </c>
-      <c r="O37" s="68" t="s">
-        <v>1394</v>
-      </c>
-      <c r="P37" s="68" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q37" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="R37" s="68" t="s">
-        <v>1476</v>
-      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
       <c r="S37" s="21"/>
       <c r="V37" s="64"/>
     </row>
@@ -10941,40 +9750,40 @@
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
       <c r="V39" s="64"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
       <c r="S40" s="19"/>
       <c r="V40" s="64"/>
     </row>
@@ -10983,51 +9792,21 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="68" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F41" s="68" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G41" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H41" s="68" t="s">
-        <v>1480</v>
-      </c>
-      <c r="I41" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J41" s="68" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>1482</v>
-      </c>
-      <c r="L41" s="68" t="s">
-        <v>1483</v>
-      </c>
-      <c r="M41" s="68" t="s">
-        <v>1484</v>
-      </c>
-      <c r="N41" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="O41" s="68" t="s">
-        <v>1460</v>
-      </c>
-      <c r="P41" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="Q41" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="R41" s="68" t="s">
-        <v>1446</v>
-      </c>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
       <c r="S41" s="21"/>
       <c r="V41" s="64"/>
     </row>
@@ -11054,40 +9833,40 @@
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="34"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
       <c r="V43" s="64"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
       <c r="S44" s="19"/>
       <c r="V44" s="64"/>
     </row>
@@ -11096,51 +9875,21 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="68" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G45" s="68" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H45" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I45" s="68" t="s">
-        <v>1464</v>
-      </c>
-      <c r="J45" s="68" t="s">
-        <v>1446</v>
-      </c>
-      <c r="K45" s="68" t="s">
-        <v>1490</v>
-      </c>
-      <c r="L45" s="68" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M45" s="68" t="s">
-        <v>1492</v>
-      </c>
-      <c r="N45" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="O45" s="68" t="s">
-        <v>1493</v>
-      </c>
-      <c r="P45" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="Q45" s="68" t="s">
-        <v>1494</v>
-      </c>
-      <c r="R45" s="68" t="s">
-        <v>1495</v>
-      </c>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
       <c r="S45" s="21"/>
       <c r="V45" s="64"/>
     </row>
@@ -11167,10 +9916,10 @@
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="34"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
       <c r="J47" s="62"/>
@@ -11186,10 +9935,10 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="70"/>
       <c r="I48" s="70"/>
       <c r="J48" s="70"/>
@@ -11209,20 +9958,10 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="68" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E49" s="68" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F49" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G49" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="68"/>
       <c r="I49" s="68"/>
       <c r="J49" s="68"/>
@@ -11260,7 +9999,7 @@
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="34"/>
-      <c r="D51" s="72"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="62"/>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
@@ -11279,7 +10018,7 @@
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="73"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="70"/>
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
@@ -11302,11 +10041,7 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D53" s="68"/>
       <c r="E53" s="68"/>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -11347,40 +10082,40 @@
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
       <c r="V55" s="64"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
       <c r="S56" s="19"/>
       <c r="V56" s="64"/>
     </row>
@@ -11389,51 +10124,21 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="68" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E57" s="68" t="s">
-        <v>1498</v>
-      </c>
-      <c r="F57" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G57" s="68" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H57" s="68" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I57" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J57" s="68" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K57" s="68" t="s">
-        <v>1476</v>
-      </c>
-      <c r="L57" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="M57" s="68" t="s">
-        <v>1501</v>
-      </c>
-      <c r="N57" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O57" s="68" t="s">
-        <v>1502</v>
-      </c>
-      <c r="P57" s="68" t="s">
-        <v>1503</v>
-      </c>
-      <c r="Q57" s="68" t="s">
-        <v>1504</v>
-      </c>
-      <c r="R57" s="68" t="s">
-        <v>1489</v>
-      </c>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
       <c r="S57" s="21"/>
       <c r="V57" s="64"/>
     </row>
@@ -11460,40 +10165,40 @@
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="34"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
       <c r="V59" s="64"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
       <c r="S60" s="19"/>
       <c r="V60" s="64"/>
     </row>
@@ -11502,51 +10207,21 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="68" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E61" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F61" s="68" t="s">
-        <v>1506</v>
-      </c>
-      <c r="G61" s="68" t="s">
-        <v>1507</v>
-      </c>
-      <c r="H61" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I61" s="68" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J61" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K61" s="68" t="s">
-        <v>1509</v>
-      </c>
-      <c r="L61" s="68" t="s">
-        <v>1435</v>
-      </c>
-      <c r="M61" s="68" t="s">
-        <v>1502</v>
-      </c>
-      <c r="N61" s="68" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O61" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="P61" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="Q61" s="68" t="s">
-        <v>1512</v>
-      </c>
-      <c r="R61" s="68" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
       <c r="S61" s="21"/>
       <c r="V61" s="64"/>
     </row>
@@ -11573,40 +10248,40 @@
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
       <c r="V63" s="64"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="73"/>
-      <c r="R64" s="73"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
       <c r="S64" s="19"/>
       <c r="V64" s="64"/>
     </row>
@@ -11615,51 +10290,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="68" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E65" s="68" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F65" s="68" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G65" s="68" t="s">
-        <v>1516</v>
-      </c>
-      <c r="H65" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I65" s="68" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J65" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="K65" s="68" t="s">
-        <v>1455</v>
-      </c>
-      <c r="L65" s="68" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M65" s="68" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N65" s="68" t="s">
-        <v>1519</v>
-      </c>
-      <c r="O65" s="68" t="s">
-        <v>1520</v>
-      </c>
-      <c r="P65" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="Q65" s="68" t="s">
-        <v>1521</v>
-      </c>
-      <c r="R65" s="68" t="s">
-        <v>1522</v>
-      </c>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
       <c r="S65" s="21"/>
       <c r="V65" s="64"/>
     </row>
@@ -11686,40 +10331,40 @@
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
       <c r="V67" s="64"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="73"/>
-      <c r="Q68" s="73"/>
-      <c r="R68" s="73"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
       <c r="S68" s="19"/>
       <c r="V68" s="64"/>
     </row>
@@ -11728,51 +10373,21 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E69" s="68" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F69" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G69" s="68" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H69" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I69" s="68" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J69" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K69" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="L69" s="68" t="s">
-        <v>1527</v>
-      </c>
-      <c r="M69" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N69" s="68" t="s">
-        <v>1528</v>
-      </c>
-      <c r="O69" s="68" t="s">
-        <v>1529</v>
-      </c>
-      <c r="P69" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="Q69" s="68" t="s">
-        <v>1530</v>
-      </c>
-      <c r="R69" s="68" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
       <c r="S69" s="21"/>
       <c r="V69" s="64"/>
     </row>
@@ -11799,40 +10414,40 @@
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
       <c r="V71" s="64"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="73"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="73"/>
-      <c r="Q72" s="73"/>
-      <c r="R72" s="73"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="70"/>
+      <c r="R72" s="70"/>
       <c r="S72" s="19"/>
       <c r="V72" s="64"/>
     </row>
@@ -11841,51 +10456,21 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="68" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E73" s="68" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F73" s="68" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G73" s="68" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H73" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I73" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J73" s="68" t="s">
-        <v>1534</v>
-      </c>
-      <c r="K73" s="68" t="s">
-        <v>1535</v>
-      </c>
-      <c r="L73" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M73" s="68" t="s">
-        <v>1536</v>
-      </c>
-      <c r="N73" s="68" t="s">
-        <v>1421</v>
-      </c>
-      <c r="O73" s="68" t="s">
-        <v>1435</v>
-      </c>
-      <c r="P73" s="68" t="s">
-        <v>1537</v>
-      </c>
-      <c r="Q73" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="R73" s="68" t="s">
-        <v>1485</v>
-      </c>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="68"/>
+      <c r="R73" s="68"/>
       <c r="S73" s="21"/>
       <c r="V73" s="64"/>
     </row>
@@ -11912,40 +10497,40 @@
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
       <c r="V75" s="64"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="73"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="73"/>
-      <c r="O76" s="73"/>
-      <c r="P76" s="73"/>
-      <c r="Q76" s="73"/>
-      <c r="R76" s="73"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="70"/>
+      <c r="N76" s="70"/>
+      <c r="O76" s="70"/>
+      <c r="P76" s="70"/>
+      <c r="Q76" s="70"/>
+      <c r="R76" s="70"/>
       <c r="S76" s="19"/>
       <c r="V76" s="64"/>
     </row>
@@ -11954,51 +10539,21 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E77" s="68" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F77" s="68" t="s">
-        <v>1539</v>
-      </c>
-      <c r="G77" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H77" s="68" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I77" s="68" t="s">
-        <v>1540</v>
-      </c>
-      <c r="J77" s="68" t="s">
-        <v>1415</v>
-      </c>
-      <c r="K77" s="68" t="s">
-        <v>1541</v>
-      </c>
-      <c r="L77" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M77" s="68" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N77" s="68" t="s">
-        <v>1543</v>
-      </c>
-      <c r="O77" s="68" t="s">
-        <v>1544</v>
-      </c>
-      <c r="P77" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="Q77" s="68" t="s">
-        <v>1545</v>
-      </c>
-      <c r="R77" s="68" t="s">
-        <v>1417</v>
-      </c>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="68"/>
+      <c r="R77" s="68"/>
       <c r="S77" s="21"/>
       <c r="V77" s="64"/>
     </row>
@@ -12025,40 +10580,40 @@
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="72"/>
-      <c r="O79" s="72"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="72"/>
-      <c r="R79" s="72"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
       <c r="V79" s="64"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="73"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="70"/>
       <c r="S80" s="19"/>
       <c r="V80" s="64"/>
     </row>
@@ -12067,51 +10622,21 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="68" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E81" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F81" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G81" s="68" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H81" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I81" s="68" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J81" s="68" t="s">
-        <v>1476</v>
-      </c>
-      <c r="K81" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="L81" s="68" t="s">
-        <v>1547</v>
-      </c>
-      <c r="M81" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N81" s="68" t="s">
-        <v>1548</v>
-      </c>
-      <c r="O81" s="68" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P81" s="68" t="s">
-        <v>1549</v>
-      </c>
-      <c r="Q81" s="68" t="s">
-        <v>1550</v>
-      </c>
-      <c r="R81" s="68" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
       <c r="S81" s="21"/>
       <c r="V81" s="64"/>
     </row>
@@ -12138,40 +10663,40 @@
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
-      <c r="P83" s="72"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
       <c r="V83" s="36"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
-      <c r="K84" s="73"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="73"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="73"/>
-      <c r="R84" s="73"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="70"/>
       <c r="S84" s="19"/>
       <c r="V84" s="7"/>
     </row>
@@ -12180,51 +10705,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="68" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E85" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F85" s="68" t="s">
-        <v>1552</v>
-      </c>
-      <c r="G85" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H85" s="68" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I85" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="J85" s="68" t="s">
-        <v>1553</v>
-      </c>
-      <c r="K85" s="68" t="s">
-        <v>1489</v>
-      </c>
-      <c r="L85" s="68" t="s">
-        <v>1435</v>
-      </c>
-      <c r="M85" s="68" t="s">
-        <v>1554</v>
-      </c>
-      <c r="N85" s="68" t="s">
-        <v>1555</v>
-      </c>
-      <c r="O85" s="68" t="s">
-        <v>1556</v>
-      </c>
-      <c r="P85" s="68" t="s">
-        <v>1540</v>
-      </c>
-      <c r="Q85" s="68" t="s">
-        <v>1557</v>
-      </c>
-      <c r="R85" s="68" t="s">
-        <v>1397</v>
-      </c>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
       <c r="S85" s="21"/>
       <c r="V85" s="7"/>
     </row>
@@ -12251,40 +10746,40 @@
     <row r="87" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="62"/>
       <c r="V87" s="36"/>
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
-      <c r="L88" s="73"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="73"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="73"/>
-      <c r="Q88" s="73"/>
-      <c r="R88" s="73"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
       <c r="S88" s="19"/>
       <c r="V88" s="7"/>
     </row>
@@ -12293,51 +10788,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="68" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F89" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G89" s="68" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H89" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I89" s="68" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J89" s="68" t="s">
-        <v>1498</v>
-      </c>
-      <c r="K89" s="68" t="s">
-        <v>1562</v>
-      </c>
-      <c r="L89" s="68" t="s">
-        <v>1563</v>
-      </c>
-      <c r="M89" s="68" t="s">
-        <v>1564</v>
-      </c>
-      <c r="N89" s="68" t="s">
-        <v>1565</v>
-      </c>
-      <c r="O89" s="68" t="s">
-        <v>1566</v>
-      </c>
-      <c r="P89" s="68" t="s">
-        <v>1463</v>
-      </c>
-      <c r="Q89" s="68" t="s">
-        <v>1480</v>
-      </c>
-      <c r="R89" s="68" t="s">
-        <v>1545</v>
-      </c>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
       <c r="S89" s="21"/>
       <c r="V89" s="7"/>
     </row>
@@ -12364,14 +10829,14 @@
     <row r="91" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="72"/>
-      <c r="K91" s="72"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="62"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="62"/>
       <c r="L91" s="62"/>
       <c r="M91" s="62"/>
       <c r="N91" s="62"/>
@@ -12383,14 +10848,14 @@
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
-      <c r="K92" s="73"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
       <c r="L92" s="70"/>
       <c r="M92" s="70"/>
       <c r="N92" s="70"/>
@@ -12406,32 +10871,14 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E93" s="68" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F93" s="68" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G93" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H93" s="68" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I93" s="68" t="s">
-        <v>1570</v>
-      </c>
-      <c r="J93" s="68" t="s">
-        <v>1571</v>
-      </c>
-      <c r="K93" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
       <c r="L93" s="68"/>
       <c r="M93" s="68"/>
       <c r="N93" s="68"/>
@@ -12465,7 +10912,7 @@
     <row r="95" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="72"/>
+      <c r="D95" s="62"/>
       <c r="E95" s="62"/>
       <c r="F95" s="62"/>
       <c r="G95" s="62"/>
@@ -12484,7 +10931,7 @@
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
-      <c r="D96" s="73"/>
+      <c r="D96" s="70"/>
       <c r="E96" s="70"/>
       <c r="F96" s="70"/>
       <c r="G96" s="70"/>
@@ -12507,11 +10954,7 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="68" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D97" s="68"/>
       <c r="E97" s="68"/>
       <c r="F97" s="68"/>
       <c r="G97" s="68"/>
@@ -12552,40 +10995,40 @@
     <row r="99" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="34"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-      <c r="O99" s="72"/>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
-      <c r="R99" s="72"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="62"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="62"/>
       <c r="V99" s="36"/>
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
-      <c r="K100" s="73"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="73"/>
-      <c r="N100" s="73"/>
-      <c r="O100" s="73"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="73"/>
-      <c r="R100" s="73"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="70"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="70"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="70"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="70"/>
       <c r="S100" s="19"/>
       <c r="V100" s="7"/>
     </row>
@@ -12594,51 +11037,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="68" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E101" s="68" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F101" s="68" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G101" s="68" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H101" s="68" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I101" s="68" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J101" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K101" s="68" t="s">
-        <v>1575</v>
-      </c>
-      <c r="L101" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M101" s="68" t="s">
-        <v>1576</v>
-      </c>
-      <c r="N101" s="68" t="s">
-        <v>1577</v>
-      </c>
-      <c r="O101" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="P101" s="68" t="s">
-        <v>1578</v>
-      </c>
-      <c r="Q101" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="R101" s="68" t="s">
-        <v>1579</v>
-      </c>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
+      <c r="N101" s="68"/>
+      <c r="O101" s="68"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="68"/>
+      <c r="R101" s="68"/>
       <c r="S101" s="21"/>
       <c r="V101" s="7"/>
     </row>
@@ -12665,40 +11078,40 @@
     <row r="103" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="34"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
-      <c r="N103" s="72"/>
-      <c r="O103" s="72"/>
-      <c r="P103" s="72"/>
-      <c r="Q103" s="72"/>
-      <c r="R103" s="72"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="62"/>
       <c r="V103" s="36"/>
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="73"/>
-      <c r="K104" s="73"/>
-      <c r="L104" s="73"/>
-      <c r="M104" s="73"/>
-      <c r="N104" s="73"/>
-      <c r="O104" s="73"/>
-      <c r="P104" s="73"/>
-      <c r="Q104" s="73"/>
-      <c r="R104" s="73"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="70"/>
+      <c r="M104" s="70"/>
+      <c r="N104" s="70"/>
+      <c r="O104" s="70"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="70"/>
+      <c r="R104" s="70"/>
       <c r="S104" s="19"/>
       <c r="V104" s="7"/>
     </row>
@@ -12707,51 +11120,21 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="68" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E105" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F105" s="68" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G105" s="68" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H105" s="68" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I105" s="68" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J105" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K105" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="L105" s="68" t="s">
-        <v>1552</v>
-      </c>
-      <c r="M105" s="68" t="s">
-        <v>1585</v>
-      </c>
-      <c r="N105" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="O105" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="P105" s="68" t="s">
-        <v>1489</v>
-      </c>
-      <c r="Q105" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="R105" s="68" t="s">
-        <v>1586</v>
-      </c>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="68"/>
+      <c r="M105" s="68"/>
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="68"/>
       <c r="S105" s="21"/>
       <c r="V105" s="7"/>
     </row>
@@ -12778,40 +11161,40 @@
     <row r="107" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="34"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="72"/>
-      <c r="K107" s="72"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="72"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
-      <c r="P107" s="72"/>
-      <c r="Q107" s="72"/>
-      <c r="R107" s="72"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="62"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
+      <c r="O107" s="62"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="62"/>
       <c r="V107" s="36"/>
     </row>
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-      <c r="K108" s="73"/>
-      <c r="L108" s="73"/>
-      <c r="M108" s="73"/>
-      <c r="N108" s="73"/>
-      <c r="O108" s="73"/>
-      <c r="P108" s="73"/>
-      <c r="Q108" s="73"/>
-      <c r="R108" s="73"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="70"/>
+      <c r="J108" s="70"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="70"/>
+      <c r="P108" s="70"/>
+      <c r="Q108" s="70"/>
+      <c r="R108" s="70"/>
       <c r="S108" s="19"/>
       <c r="V108" s="7"/>
     </row>
@@ -12820,51 +11203,21 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="68" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E109" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F109" s="68" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G109" s="68" t="s">
-        <v>1566</v>
-      </c>
-      <c r="H109" s="68" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I109" s="68" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J109" s="68" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K109" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="L109" s="68" t="s">
-        <v>1589</v>
-      </c>
-      <c r="M109" s="68" t="s">
-        <v>1590</v>
-      </c>
-      <c r="N109" s="68" t="s">
-        <v>1591</v>
-      </c>
-      <c r="O109" s="68" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P109" s="68" t="s">
-        <v>1592</v>
-      </c>
-      <c r="Q109" s="68" t="s">
-        <v>1593</v>
-      </c>
-      <c r="R109" s="68" t="s">
-        <v>1417</v>
-      </c>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="68"/>
+      <c r="I109" s="68"/>
+      <c r="J109" s="68"/>
+      <c r="K109" s="68"/>
+      <c r="L109" s="68"/>
+      <c r="M109" s="68"/>
+      <c r="N109" s="68"/>
+      <c r="O109" s="68"/>
+      <c r="P109" s="68"/>
+      <c r="Q109" s="68"/>
+      <c r="R109" s="68"/>
       <c r="S109" s="21"/>
       <c r="V109" s="7"/>
     </row>
@@ -12891,40 +11244,40 @@
     <row r="111" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="12"/>
       <c r="C111" s="34"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="72"/>
-      <c r="M111" s="72"/>
-      <c r="N111" s="72"/>
-      <c r="O111" s="72"/>
-      <c r="P111" s="72"/>
-      <c r="Q111" s="72"/>
-      <c r="R111" s="72"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62"/>
+      <c r="K111" s="62"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="62"/>
+      <c r="N111" s="62"/>
+      <c r="O111" s="62"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="62"/>
       <c r="V111" s="36"/>
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="73"/>
-      <c r="I112" s="73"/>
-      <c r="J112" s="73"/>
-      <c r="K112" s="73"/>
-      <c r="L112" s="73"/>
-      <c r="M112" s="73"/>
-      <c r="N112" s="73"/>
-      <c r="O112" s="73"/>
-      <c r="P112" s="73"/>
-      <c r="Q112" s="73"/>
-      <c r="R112" s="73"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="70"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
       <c r="S112" s="19"/>
       <c r="V112" s="7"/>
     </row>
@@ -12933,51 +11286,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="69" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E113" s="69" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F113" s="69" t="s">
-        <v>1491</v>
-      </c>
-      <c r="G113" s="69" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H113" s="69" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I113" s="69" t="s">
-        <v>1463</v>
-      </c>
-      <c r="J113" s="69" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K113" s="69" t="s">
-        <v>1595</v>
-      </c>
-      <c r="L113" s="69" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M113" s="69" t="s">
-        <v>1491</v>
-      </c>
-      <c r="N113" s="69" t="s">
-        <v>1574</v>
-      </c>
-      <c r="O113" s="69" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P113" s="69" t="s">
-        <v>1596</v>
-      </c>
-      <c r="Q113" s="69" t="s">
-        <v>1497</v>
-      </c>
-      <c r="R113" s="69" t="s">
-        <v>1571</v>
-      </c>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
+      <c r="J113" s="69"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="69"/>
+      <c r="M113" s="69"/>
+      <c r="N113" s="69"/>
+      <c r="O113" s="69"/>
+      <c r="P113" s="69"/>
+      <c r="Q113" s="69"/>
+      <c r="R113" s="69"/>
       <c r="S113" s="21"/>
       <c r="V113" s="7"/>
     </row>
@@ -13004,40 +11327,40 @@
     <row r="115" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="12"/>
       <c r="C115" s="34"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72"/>
-      <c r="I115" s="72"/>
-      <c r="J115" s="72"/>
-      <c r="K115" s="72"/>
-      <c r="L115" s="72"/>
-      <c r="M115" s="72"/>
-      <c r="N115" s="72"/>
-      <c r="O115" s="72"/>
-      <c r="P115" s="72"/>
-      <c r="Q115" s="72"/>
-      <c r="R115" s="72"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="62"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="62"/>
+      <c r="O115" s="62"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="62"/>
       <c r="V115" s="36"/>
     </row>
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
-      <c r="I116" s="73"/>
-      <c r="J116" s="73"/>
-      <c r="K116" s="73"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="73"/>
-      <c r="N116" s="73"/>
-      <c r="O116" s="73"/>
-      <c r="P116" s="73"/>
-      <c r="Q116" s="73"/>
-      <c r="R116" s="73"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="70"/>
+      <c r="N116" s="70"/>
+      <c r="O116" s="70"/>
+      <c r="P116" s="70"/>
+      <c r="Q116" s="70"/>
+      <c r="R116" s="70"/>
       <c r="S116" s="19"/>
       <c r="V116" s="7"/>
     </row>
@@ -13046,51 +11369,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="68" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E117" s="68" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F117" s="68" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G117" s="68" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H117" s="68" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I117" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J117" s="68" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K117" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L117" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="M117" s="68" t="s">
-        <v>1600</v>
-      </c>
-      <c r="N117" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O117" s="68" t="s">
-        <v>1455</v>
-      </c>
-      <c r="P117" s="68" t="s">
-        <v>1501</v>
-      </c>
-      <c r="Q117" s="68" t="s">
-        <v>1520</v>
-      </c>
-      <c r="R117" s="68" t="s">
-        <v>1415</v>
-      </c>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="68"/>
+      <c r="L117" s="68"/>
+      <c r="M117" s="68"/>
+      <c r="N117" s="68"/>
+      <c r="O117" s="68"/>
+      <c r="P117" s="68"/>
+      <c r="Q117" s="68"/>
+      <c r="R117" s="68"/>
       <c r="S117" s="21"/>
       <c r="V117" s="7"/>
     </row>
@@ -13117,40 +11410,40 @@
     <row r="119" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="34"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
-      <c r="L119" s="72"/>
-      <c r="M119" s="72"/>
-      <c r="N119" s="72"/>
-      <c r="O119" s="72"/>
-      <c r="P119" s="72"/>
-      <c r="Q119" s="72"/>
-      <c r="R119" s="72"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="62"/>
+      <c r="K119" s="62"/>
+      <c r="L119" s="62"/>
+      <c r="M119" s="62"/>
+      <c r="N119" s="62"/>
+      <c r="O119" s="62"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="62"/>
       <c r="V119" s="36"/>
     </row>
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
-      <c r="L120" s="73"/>
-      <c r="M120" s="73"/>
-      <c r="N120" s="73"/>
-      <c r="O120" s="73"/>
-      <c r="P120" s="73"/>
-      <c r="Q120" s="73"/>
-      <c r="R120" s="73"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="70"/>
+      <c r="P120" s="70"/>
+      <c r="Q120" s="70"/>
+      <c r="R120" s="70"/>
       <c r="S120" s="19"/>
       <c r="V120" s="7"/>
     </row>
@@ -13159,51 +11452,21 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="68" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E121" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F121" s="68" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G121" s="68" t="s">
-        <v>1446</v>
-      </c>
-      <c r="H121" s="68" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I121" s="68" t="s">
-        <v>1489</v>
-      </c>
-      <c r="J121" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K121" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L121" s="68" t="s">
-        <v>1602</v>
-      </c>
-      <c r="M121" s="68" t="s">
-        <v>1461</v>
-      </c>
-      <c r="N121" s="68" t="s">
-        <v>1416</v>
-      </c>
-      <c r="O121" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="P121" s="68" t="s">
-        <v>1594</v>
-      </c>
-      <c r="Q121" s="68" t="s">
-        <v>1404</v>
-      </c>
-      <c r="R121" s="68" t="s">
-        <v>1573</v>
-      </c>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="68"/>
+      <c r="J121" s="68"/>
+      <c r="K121" s="68"/>
+      <c r="L121" s="68"/>
+      <c r="M121" s="68"/>
+      <c r="N121" s="68"/>
+      <c r="O121" s="68"/>
+      <c r="P121" s="68"/>
+      <c r="Q121" s="68"/>
+      <c r="R121" s="68"/>
       <c r="S121" s="21"/>
       <c r="V121" s="7"/>
     </row>
@@ -13230,17 +11493,17 @@
     <row r="123" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="34"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="72"/>
-      <c r="M123" s="72"/>
-      <c r="N123" s="72"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="62"/>
+      <c r="L123" s="62"/>
+      <c r="M123" s="62"/>
+      <c r="N123" s="62"/>
       <c r="O123" s="62"/>
       <c r="P123" s="62"/>
       <c r="Q123" s="62"/>
@@ -13249,17 +11512,17 @@
     </row>
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="73"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="73"/>
-      <c r="K124" s="73"/>
-      <c r="L124" s="73"/>
-      <c r="M124" s="73"/>
-      <c r="N124" s="73"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+      <c r="N124" s="70"/>
       <c r="O124" s="70"/>
       <c r="P124" s="70"/>
       <c r="Q124" s="70"/>
@@ -13272,39 +11535,17 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="68" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E125" s="68" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F125" s="68" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G125" s="68" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H125" s="68" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I125" s="68" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J125" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K125" s="68" t="s">
-        <v>1604</v>
-      </c>
-      <c r="L125" s="68" t="s">
-        <v>1582</v>
-      </c>
-      <c r="M125" s="68" t="s">
-        <v>1417</v>
-      </c>
-      <c r="N125" s="68" t="s">
-        <v>38</v>
-      </c>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="68"/>
+      <c r="K125" s="68"/>
+      <c r="L125" s="68"/>
+      <c r="M125" s="68"/>
+      <c r="N125" s="68"/>
       <c r="O125" s="68"/>
       <c r="P125" s="68"/>
       <c r="Q125" s="68"/>
@@ -20975,7 +19216,7 @@
       </c>
       <c r="T3" s="16"/>
       <c r="V3" s="63" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -20987,7 +19228,7 @@
         <v>386</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>1238</v>
@@ -21080,13 +19321,13 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>1238</v>
@@ -21099,23 +19340,23 @@
         <v>406</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="O6" s="24"/>
       <c r="P6" s="24" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="R6" s="24" t="s">
         <v>62</v>
@@ -21259,36 +19500,36 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24" t="s">
         <v>334</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>399</v>
@@ -21301,12 +19542,12 @@
       <c r="C11" s="33"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -21326,14 +19567,14 @@
         <v>1166</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
         <v>1168</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="I12" s="60" t="s">
         <v>362</v>
@@ -21377,7 +19618,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -21392,20 +19633,20 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="24" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -21465,7 +19706,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -21514,7 +19755,7 @@
         <v>1203</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>1183</v>
@@ -21536,10 +19777,10 @@
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="Q19" s="56" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="R19" s="56" t="s">
         <v>1178</v>
@@ -21549,13 +19790,13 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="60" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>1203</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G20" s="60" t="s">
         <v>1183</v>
@@ -21583,10 +19824,10 @@
         <v>407</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="Q20" s="60" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="R20" s="60" t="s">
         <v>1178</v>
@@ -21650,47 +19891,47 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>1249</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="64"/>
@@ -21744,7 +19985,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -21836,7 +20077,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -21901,7 +20142,7 @@
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
@@ -21910,7 +20151,7 @@
       </c>
       <c r="N31" s="56"/>
       <c r="O31" s="56" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="P31" s="56"/>
       <c r="Q31" s="56" t="s">
@@ -21944,7 +20185,7 @@
         <v>59</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60" t="s">
@@ -21955,7 +20196,7 @@
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="P32" s="60" t="s">
         <v>1169</v>
@@ -22029,36 +20270,36 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
       <c r="D34" s="24" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>1169</v>
@@ -22067,7 +20308,7 @@
         <v>443</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="S34" s="31"/>
       <c r="V34" s="64"/>
@@ -22142,13 +20383,13 @@
         <v>30</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -22164,13 +20405,13 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="24" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -22233,7 +20474,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
@@ -22282,7 +20523,7 @@
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
@@ -22292,10 +20533,10 @@
         <v>1207</v>
       </c>
       <c r="P43" s="56" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="Q43" s="56" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="R43" s="56"/>
       <c r="V43" s="64"/>
@@ -22321,7 +20562,7 @@
         <v>460</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="K44" s="60"/>
       <c r="L44" s="60" t="s">
@@ -22338,10 +20579,10 @@
         <v>1256</v>
       </c>
       <c r="Q44" s="60" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="R44" s="60" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="64"/>
@@ -22402,10 +20643,10 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="24" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>303</v>
@@ -22417,30 +20658,30 @@
         <v>403</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="24" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="24" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="64"/>
@@ -22515,7 +20756,7 @@
         <v>30</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -22533,13 +20774,13 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -22602,7 +20843,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
@@ -22645,11 +20886,11 @@
       <c r="B55" s="12"/>
       <c r="C55" s="34"/>
       <c r="D55" s="56" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56" t="s">
@@ -22775,45 +21016,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>1233</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="24" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="M58" s="24" t="s">
         <v>45</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="24" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="Q58" s="24" t="s">
         <v>389</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="64"/>
@@ -22824,7 +21065,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -22849,7 +21090,7 @@
         <v>1247</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -22902,13 +21143,13 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="24" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
@@ -31817,7 +30058,7 @@
         <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -31834,7 +30075,7 @@
         <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -31902,7 +30143,7 @@
         <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -31936,7 +30177,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -31953,7 +30194,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -31970,7 +30211,7 @@
         <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -31998,13 +30239,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="D15" t="s">
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -32015,13 +30256,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="D16" t="s">
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -32032,7 +30273,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D17" t="s">
         <v>499</v>
@@ -32066,7 +30307,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D19" t="s">
         <v>499</v>
@@ -32123,7 +30364,7 @@
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -32168,13 +30409,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -32185,13 +30426,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D26" t="s">
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -32208,7 +30449,7 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -32225,7 +30466,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -32259,7 +30500,7 @@
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -32270,13 +30511,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="D31" t="s">
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -32293,7 +30534,7 @@
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -32304,13 +30545,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="D33" t="s">
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -32327,7 +30568,7 @@
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -32361,7 +30602,7 @@
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -32389,7 +30630,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="D38" t="s">
         <v>499</v>
@@ -32423,7 +30664,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="D40" t="s">
         <v>499</v>
@@ -32446,7 +30687,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -32480,7 +30721,7 @@
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -32497,7 +30738,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -32514,7 +30755,7 @@
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -32531,7 +30772,7 @@
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -32548,7 +30789,7 @@
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EC8F25-464E-428A-BA8D-9B0FB7BCA971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7810B67-FFD0-4F28-BA10-1B983ACB24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25860" yWindow="2070" windowWidth="25080" windowHeight="12270" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="1425">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4007,12 +4007,792 @@
   <si>
     <t>方音符號</t>
   </si>
+  <si>
+    <t>　　臣亮言：先帝創業未半而中道崩殂，今天下三分，益州疲弊，此誠危急存亡之秋也。然侍衞之臣不懈於內，忠志之士忘身於外者，蓋追先帝之殊遇，欲報之於陛下也。
+　　誠宜開張聖聽，以光先帝遺德，恢弘志士之氣，不宜妄自菲薄，引喻失義，以塞忠諫之路也。
+　　宮中府中，俱爲一體，陟罰臧否，不宜異同。若有作奸犯科及爲忠善者，宜付有司論其刑賞，以昭陛下平明之治，不宜偏私，使內外異法也。
+　　侍中、侍郎郭攸之、費禕、董允等，此皆良實，志慮忠純，是以先帝簡拔以遺陛下。愚以爲宮中之事，事無大小，悉以咨之，然後施行，必能裨補闕漏，有所廣益。
+　　將軍向寵，性行淑均，曉暢軍事，試用之於昔日，先帝稱之曰能，是以衆議舉寵爲督。愚以爲營中之事，悉以咨之，必能使行陣和穆，優劣得所也。
+　　親賢臣，遠小人，此先漢所以興隆也；親小人，遠賢臣，此後漢所以傾頹也。先帝在時，每與臣論此事，未嘗不歎息痛恨於桓、靈也。侍中、尚書、長史、參軍，此悉貞亮死節之臣也，願陛下親之信之，則漢室之隆，可計日而待也。
+　　臣本布衣，躬耕於南陽，苟全性命於亂世，不求聞達於諸侯。先帝不以臣卑鄙，猥自枉屈，三顧臣於草廬之中，諮臣以當世之事，由是感激，遂許先帝以驅馳。後值傾覆，受任於敗軍之際，奉命於危難之間，爾來二十有一年矣。先帝知臣謹慎，故臨崩寄臣以大事也。受命以來，夙夜憂歎，恐託付不效，以傷先帝之明，故五月渡瀘，深入不毛。今南方已定，兵甲已足，當獎率三軍，北定中原，庶竭駑鈍，攘除姦凶，興復漢室，還於舊都，此臣所以報先帝，而忠陛下之職分也。至於斟酌損益，進盡忠言，則攸之、禕、允之任也。
+　　願陛下託臣以討賊興復之效；不效，則治臣之罪，以告先帝之靈。若無興德之言，則責攸之、禕、允等之慢，以彰其咎。陛下亦宜自課，以諮諏善道，察納雅言。深追先帝遺詔，臣不勝受恩感激。
+　　今當遠離，臨表涕泣，不知所云。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣</t>
+  </si>
+  <si>
+    <t>亮</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>創</t>
+  </si>
+  <si>
+    <t>業</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>崩</t>
+  </si>
+  <si>
+    <t>殂</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>益</t>
+  </si>
+  <si>
+    <t>州</t>
+  </si>
+  <si>
+    <t>疲</t>
+  </si>
+  <si>
+    <t>弊</t>
+  </si>
+  <si>
+    <t>誠</t>
+  </si>
+  <si>
+    <t>危</t>
+  </si>
+  <si>
+    <t>急</t>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>亡</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>侍</t>
+  </si>
+  <si>
+    <t>衞</t>
+  </si>
+  <si>
+    <t>懈</t>
+  </si>
+  <si>
+    <t>內</t>
+  </si>
+  <si>
+    <t>忠</t>
+  </si>
+  <si>
+    <t>志</t>
+  </si>
+  <si>
+    <t>士</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>蓋</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>殊</t>
+  </si>
+  <si>
+    <t>遇</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>報</t>
+  </si>
+  <si>
+    <t>陛</t>
+  </si>
+  <si>
+    <t>宜</t>
+  </si>
+  <si>
+    <t>張</t>
+  </si>
+  <si>
+    <t>聖</t>
+  </si>
+  <si>
+    <t>聽</t>
+  </si>
+  <si>
+    <t>遺</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>恢</t>
+  </si>
+  <si>
+    <t>弘</t>
+  </si>
+  <si>
+    <t>妄</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>菲</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>喻</t>
+  </si>
+  <si>
+    <t>失</t>
+  </si>
+  <si>
+    <t>義</t>
+  </si>
+  <si>
+    <t>塞</t>
+  </si>
+  <si>
+    <t>諫</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>宮</t>
+  </si>
+  <si>
+    <t>府</t>
+  </si>
+  <si>
+    <t>俱</t>
+  </si>
+  <si>
+    <t>爲</t>
+  </si>
+  <si>
+    <t>體</t>
+  </si>
+  <si>
+    <t>陟</t>
+  </si>
+  <si>
+    <t>罰</t>
+  </si>
+  <si>
+    <t>臧</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>奸</t>
+  </si>
+  <si>
+    <t>犯</t>
+  </si>
+  <si>
+    <t>科</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>付</t>
+  </si>
+  <si>
+    <t>司</t>
+  </si>
+  <si>
+    <t>論</t>
+  </si>
+  <si>
+    <t>刑</t>
+  </si>
+  <si>
+    <t>賞</t>
+  </si>
+  <si>
+    <t>昭</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>治</t>
+  </si>
+  <si>
+    <t>偏</t>
+  </si>
+  <si>
+    <t>私</t>
+  </si>
+  <si>
+    <t>使</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>郎</t>
+  </si>
+  <si>
+    <t>郭</t>
+  </si>
+  <si>
+    <t>攸</t>
+  </si>
+  <si>
+    <t>費</t>
+  </si>
+  <si>
+    <t>禕</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>允</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>良</t>
+  </si>
+  <si>
+    <t>實</t>
+  </si>
+  <si>
+    <t>慮</t>
+  </si>
+  <si>
+    <t>純</t>
+  </si>
+  <si>
+    <t>簡</t>
+  </si>
+  <si>
+    <t>拔</t>
+  </si>
+  <si>
+    <t>愚</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>悉</t>
+  </si>
+  <si>
+    <t>咨</t>
+  </si>
+  <si>
+    <t>施</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>裨</t>
+  </si>
+  <si>
+    <t>補</t>
+  </si>
+  <si>
+    <t>闕</t>
+  </si>
+  <si>
+    <t>漏</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>廣</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>軍</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>性</t>
+  </si>
+  <si>
+    <t>淑</t>
+  </si>
+  <si>
+    <t>均</t>
+  </si>
+  <si>
+    <t>曉</t>
+  </si>
+  <si>
+    <t>暢</t>
+  </si>
+  <si>
+    <t>試</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>昔</t>
+  </si>
+  <si>
+    <t>稱</t>
+  </si>
+  <si>
+    <t>衆</t>
+  </si>
+  <si>
+    <t>議</t>
+  </si>
+  <si>
+    <t>舉</t>
+  </si>
+  <si>
+    <t>督</t>
+  </si>
+  <si>
+    <t>營</t>
+  </si>
+  <si>
+    <t>陣</t>
+  </si>
+  <si>
+    <t>穆</t>
+  </si>
+  <si>
+    <t>優</t>
+  </si>
+  <si>
+    <t>劣</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>隆</t>
+  </si>
+  <si>
+    <t>頹</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
+    <t>歎</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>痛</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>桓</t>
+  </si>
+  <si>
+    <t>靈</t>
+  </si>
+  <si>
+    <t>尚</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>史</t>
+  </si>
+  <si>
+    <t>參</t>
+  </si>
+  <si>
+    <t>貞</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>節</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>計</t>
+  </si>
+  <si>
+    <t>待</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>躬</t>
+  </si>
+  <si>
+    <t>耕</t>
+  </si>
+  <si>
+    <t>苟</t>
+  </si>
+  <si>
+    <t>全</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>亂</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>達</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>侯</t>
+  </si>
+  <si>
+    <t>卑</t>
+  </si>
+  <si>
+    <t>鄙</t>
+  </si>
+  <si>
+    <t>猥</t>
+  </si>
+  <si>
+    <t>枉</t>
+  </si>
+  <si>
+    <t>屈</t>
+  </si>
+  <si>
+    <t>顧</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>廬</t>
+  </si>
+  <si>
+    <t>諮</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>由</t>
+  </si>
+  <si>
+    <t>激</t>
+  </si>
+  <si>
+    <t>遂</t>
+  </si>
+  <si>
+    <t>許</t>
+  </si>
+  <si>
+    <t>驅</t>
+  </si>
+  <si>
+    <t>馳</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>覆</t>
+  </si>
+  <si>
+    <t>受</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>敗</t>
+  </si>
+  <si>
+    <t>奉</t>
+  </si>
+  <si>
+    <t>難</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>爾</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>謹</t>
+  </si>
+  <si>
+    <t>慎</t>
+  </si>
+  <si>
+    <t>故</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>夙</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>恐</t>
+  </si>
+  <si>
+    <t>託</t>
+  </si>
+  <si>
+    <t>效</t>
+  </si>
+  <si>
+    <t>傷</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>渡</t>
+  </si>
+  <si>
+    <t>瀘</t>
+  </si>
+  <si>
+    <t>深</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>毛</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>定</t>
+  </si>
+  <si>
+    <t>兵</t>
+  </si>
+  <si>
+    <t>甲</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>獎</t>
+  </si>
+  <si>
+    <t>率</t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>庶</t>
+  </si>
+  <si>
+    <t>竭</t>
+  </si>
+  <si>
+    <t>駑</t>
+  </si>
+  <si>
+    <t>鈍</t>
+  </si>
+  <si>
+    <t>攘</t>
+  </si>
+  <si>
+    <t>除</t>
+  </si>
+  <si>
+    <t>姦</t>
+  </si>
+  <si>
+    <t>凶</t>
+  </si>
+  <si>
+    <t>復</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>都</t>
+  </si>
+  <si>
+    <t>職</t>
+  </si>
+  <si>
+    <t>斟</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>損</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>討</t>
+  </si>
+  <si>
+    <t>賊</t>
+  </si>
+  <si>
+    <t>罪</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>責</t>
+  </si>
+  <si>
+    <t>慢</t>
+  </si>
+  <si>
+    <t>彰</t>
+  </si>
+  <si>
+    <t>咎</t>
+  </si>
+  <si>
+    <t>課</t>
+  </si>
+  <si>
+    <t>諏</t>
+  </si>
+  <si>
+    <t>察</t>
+  </si>
+  <si>
+    <t>納</t>
+  </si>
+  <si>
+    <t>雅</t>
+  </si>
+  <si>
+    <t>詔</t>
+  </si>
+  <si>
+    <t>恩</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4303,6 +5083,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF9933"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4407,7 +5198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4598,6 +5389,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7008,7 +7806,7 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7208,7 +8006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A229" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -7317,47 +8117,49 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>0</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55"/>
+      <c r="V3" s="55" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
     </row>
@@ -7365,21 +8167,51 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="D5" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>1180</v>
+      </c>
       <c r="S5" s="20"/>
       <c r="V5" s="56"/>
     </row>
@@ -7407,41 +8239,41 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
     </row>
@@ -7450,21 +8282,51 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
+      <c r="D9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>1188</v>
+      </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
       <c r="V9" s="56"/>
@@ -7492,40 +8354,40 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
       <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
       <c r="S12" s="18"/>
       <c r="V12" s="56"/>
     </row>
@@ -7534,21 +8396,51 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="D13" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>102</v>
+      </c>
       <c r="S13" s="20"/>
       <c r="V13" s="56"/>
     </row>
@@ -7575,40 +8467,40 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
     </row>
@@ -7617,21 +8509,51 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="D17" s="61" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>291</v>
+      </c>
       <c r="S17" s="20"/>
       <c r="V17" s="56"/>
     </row>
@@ -7658,39 +8580,39 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="54"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
       <c r="R20" s="60"/>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
@@ -7700,20 +8622,50 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
+      <c r="D21" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="R21" s="61"/>
       <c r="S21" s="20"/>
       <c r="V21" s="56"/>
@@ -7741,7 +8693,7 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -7760,7 +8712,7 @@
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -7783,7 +8735,11 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="61"/>
@@ -7824,21 +8780,21 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -7847,21 +8803,21 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7874,21 +8830,51 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
+      <c r="D29" s="61" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O29" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P29" s="61" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="61" t="s">
+        <v>1215</v>
+      </c>
       <c r="S29" s="20"/>
       <c r="U29" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7923,21 +8909,21 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7946,21 +8932,21 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7973,21 +8959,51 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
+      <c r="D33" s="61" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M33" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N33" s="61" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O33" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="61" t="s">
+        <v>1220</v>
+      </c>
+      <c r="R33" s="61" t="s">
+        <v>1221</v>
+      </c>
       <c r="S33" s="20"/>
       <c r="V33" s="56"/>
     </row>
@@ -8014,18 +9030,18 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
@@ -8033,18 +9049,18 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="60"/>
       <c r="R36" s="60"/>
@@ -8056,18 +9072,44 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
+      <c r="D37" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="P37" s="61"/>
       <c r="Q37" s="61"/>
       <c r="R37" s="61"/>
@@ -8097,7 +9139,7 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="54"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -8116,7 +9158,7 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="60"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
@@ -8139,7 +9181,11 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
       <c r="G41" s="61"/>
@@ -8180,40 +9226,40 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
       <c r="V43" s="56"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
       <c r="S44" s="18"/>
       <c r="V44" s="56"/>
     </row>
@@ -8222,21 +9268,51 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
+      <c r="D45" s="61" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K45" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Q45" s="61" t="s">
+        <v>1235</v>
+      </c>
+      <c r="R45" s="61" t="s">
+        <v>23</v>
+      </c>
       <c r="S45" s="20"/>
       <c r="V45" s="56"/>
     </row>
@@ -8263,40 +9339,40 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
       <c r="V47" s="56"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
       <c r="S48" s="18"/>
       <c r="V48" s="56"/>
     </row>
@@ -8305,21 +9381,51 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
+      <c r="D49" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P49" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q49" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R49" s="61" t="s">
+        <v>1241</v>
+      </c>
       <c r="S49" s="20"/>
       <c r="V49" s="56"/>
     </row>
@@ -8346,40 +9452,40 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
     </row>
@@ -8388,21 +9494,51 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
+      <c r="D53" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K53" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="M53" s="61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N53" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O53" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53" s="61" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q53" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R53" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="S53" s="20"/>
       <c r="V53" s="56"/>
     </row>
@@ -8429,40 +9565,40 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
       <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
       <c r="S56" s="18"/>
       <c r="V56" s="56"/>
     </row>
@@ -8471,21 +9607,51 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
+      <c r="D57" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H57" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K57" s="61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M57" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="61" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O57" s="61" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P57" s="61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q57" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="R57" s="61" t="s">
+        <v>1253</v>
+      </c>
       <c r="S57" s="20"/>
       <c r="V57" s="56"/>
     </row>
@@ -8512,9 +9678,9 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
       <c r="G59" s="54"/>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
@@ -8531,9 +9697,9 @@
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
       <c r="I60" s="60"/>
@@ -8554,9 +9720,17 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
+      <c r="D61" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="G61" s="61"/>
       <c r="H61" s="61"/>
       <c r="I61" s="61"/>
@@ -8595,7 +9769,7 @@
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="54"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -8614,7 +9788,7 @@
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="60"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="60"/>
       <c r="F64" s="60"/>
       <c r="G64" s="60"/>
@@ -8637,7 +9811,11 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61"/>
+      <c r="D65" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
       <c r="G65" s="61"/>
@@ -8678,40 +9856,40 @@
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
       <c r="V67" s="56"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="65"/>
       <c r="S68" s="18"/>
       <c r="V68" s="56"/>
     </row>
@@ -8720,21 +9898,51 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
+      <c r="D69" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H69" s="61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I69" s="61" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J69" s="61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L69" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M69" s="61" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N69" s="61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O69" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P69" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q69" s="61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R69" s="61" t="s">
+        <v>1262</v>
+      </c>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
     </row>
@@ -8761,40 +9969,40 @@
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
       <c r="V71" s="56"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="65"/>
       <c r="S72" s="18"/>
       <c r="V72" s="56"/>
     </row>
@@ -8803,21 +10011,51 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
+      <c r="D73" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I73" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K73" s="61" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L73" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M73" s="61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N73" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q73" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="R73" s="61" t="s">
+        <v>1172</v>
+      </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
     </row>
@@ -8844,40 +10082,40 @@
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
       <c r="V75" s="56"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60"/>
-      <c r="Q76" s="60"/>
-      <c r="R76" s="60"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
+      <c r="R76" s="65"/>
       <c r="S76" s="18"/>
       <c r="V76" s="56"/>
     </row>
@@ -8886,21 +10124,51 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="61"/>
+      <c r="D77" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E77" s="61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H77" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I77" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="J77" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L77" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M77" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N77" s="61" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O77" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="P77" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q77" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="R77" s="61" t="s">
+        <v>23</v>
+      </c>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
     </row>
@@ -8927,40 +10195,40 @@
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
+      <c r="R79" s="64"/>
       <c r="V79" s="56"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60"/>
-      <c r="Q80" s="60"/>
-      <c r="R80" s="60"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="65"/>
+      <c r="Q80" s="65"/>
+      <c r="R80" s="65"/>
       <c r="S80" s="18"/>
       <c r="V80" s="56"/>
     </row>
@@ -8969,21 +10237,51 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
+      <c r="D81" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E81" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H81" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J81" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L81" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="M81" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="O81" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="P81" s="61" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Q81" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="R81" s="61" t="s">
+        <v>23</v>
+      </c>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
     </row>
@@ -9010,38 +10308,38 @@
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="64"/>
       <c r="Q83" s="54"/>
       <c r="R83" s="54"/>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="60"/>
-      <c r="N84" s="60"/>
-      <c r="O84" s="60"/>
-      <c r="P84" s="60"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="65"/>
       <c r="Q84" s="60"/>
       <c r="R84" s="60"/>
       <c r="S84" s="18"/>
@@ -9052,19 +10350,47 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
+      <c r="D85" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E85" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I85" s="61" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M85" s="61" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N85" s="61" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O85" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P85" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="Q85" s="61"/>
       <c r="R85" s="61"/>
       <c r="S85" s="20"/>
@@ -9093,7 +10419,7 @@
     <row r="87" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="54"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="54"/>
       <c r="F87" s="54"/>
       <c r="G87" s="54"/>
@@ -9112,7 +10438,7 @@
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="60"/>
+      <c r="D88" s="65"/>
       <c r="E88" s="60"/>
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
@@ -9135,7 +10461,11 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61"/>
+      <c r="D89" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E89" s="61"/>
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
@@ -9176,40 +10506,40 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
-      <c r="Q91" s="54"/>
-      <c r="R91" s="54"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="64"/>
+      <c r="O91" s="64"/>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="64"/>
+      <c r="R91" s="64"/>
       <c r="V91" s="34"/>
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="65"/>
       <c r="S92" s="18"/>
       <c r="V92" s="7"/>
     </row>
@@ -9218,21 +10548,51 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="61"/>
-      <c r="P93" s="61"/>
-      <c r="Q93" s="61"/>
-      <c r="R93" s="61"/>
+      <c r="D93" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E93" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G93" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="H93" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J93" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="K93" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L93" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M93" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="O93" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P93" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q93" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="R93" s="61" t="s">
+        <v>23</v>
+      </c>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
     </row>
@@ -9259,40 +10619,40 @@
     <row r="95" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="64"/>
+      <c r="R95" s="64"/>
       <c r="V95" s="34"/>
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="60"/>
-      <c r="N96" s="60"/>
-      <c r="O96" s="60"/>
-      <c r="P96" s="60"/>
-      <c r="Q96" s="60"/>
-      <c r="R96" s="60"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="65"/>
       <c r="S96" s="18"/>
       <c r="V96" s="7"/>
     </row>
@@ -9301,21 +10661,51 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
-      <c r="O97" s="61"/>
-      <c r="P97" s="61"/>
-      <c r="Q97" s="61"/>
-      <c r="R97" s="61"/>
+      <c r="D97" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E97" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G97" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I97" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="L97" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M97" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N97" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O97" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="P97" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Q97" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="R97" s="61" t="s">
+        <v>33</v>
+      </c>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
     </row>
@@ -9342,40 +10732,40 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="64"/>
+      <c r="O99" s="64"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="64"/>
+      <c r="R99" s="64"/>
       <c r="V99" s="34"/>
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
-      <c r="O100" s="60"/>
-      <c r="P100" s="60"/>
-      <c r="Q100" s="60"/>
-      <c r="R100" s="60"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="O100" s="65"/>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="65"/>
+      <c r="R100" s="65"/>
       <c r="S100" s="18"/>
       <c r="V100" s="7"/>
     </row>
@@ -9384,21 +10774,51 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
-      <c r="N101" s="61"/>
-      <c r="O101" s="61"/>
-      <c r="P101" s="61"/>
-      <c r="Q101" s="61"/>
-      <c r="R101" s="61"/>
+      <c r="D101" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F101" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G101" s="61" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H101" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="I101" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J101" s="61" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K101" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M101" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="N101" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O101" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="P101" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Q101" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="R101" s="61" t="s">
+        <v>1270</v>
+      </c>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
     </row>
@@ -9425,40 +10845,40 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
+      <c r="N103" s="64"/>
+      <c r="O103" s="64"/>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="64"/>
+      <c r="R103" s="64"/>
       <c r="V103" s="34"/>
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="60"/>
-      <c r="N104" s="60"/>
-      <c r="O104" s="60"/>
-      <c r="P104" s="60"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="60"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="65"/>
+      <c r="O104" s="65"/>
+      <c r="P104" s="65"/>
+      <c r="Q104" s="65"/>
+      <c r="R104" s="65"/>
       <c r="S104" s="18"/>
       <c r="V104" s="7"/>
     </row>
@@ -9467,21 +10887,51 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="61"/>
-      <c r="L105" s="61"/>
-      <c r="M105" s="61"/>
-      <c r="N105" s="61"/>
-      <c r="O105" s="61"/>
-      <c r="P105" s="61"/>
-      <c r="Q105" s="61"/>
-      <c r="R105" s="61"/>
+      <c r="D105" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F105" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H105" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I105" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="K105" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L105" s="61" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M105" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="N105" s="61" t="s">
+        <v>1299</v>
+      </c>
+      <c r="O105" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Q105" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="R105" s="61" t="s">
+        <v>1301</v>
+      </c>
       <c r="S105" s="20"/>
       <c r="V105" s="7"/>
     </row>
@@ -9508,12 +10958,12 @@
     <row r="107" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="54"/>
       <c r="K107" s="54"/>
       <c r="L107" s="54"/>
@@ -9527,12 +10977,12 @@
     </row>
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="60"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
       <c r="J108" s="60"/>
       <c r="K108" s="60"/>
       <c r="L108" s="60"/>
@@ -9550,12 +11000,26 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
+      <c r="D109" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E109" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G109" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H109" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="J109" s="61"/>
       <c r="K109" s="61"/>
       <c r="L109" s="61"/>
@@ -9591,7 +11055,7 @@
     <row r="111" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="12"/>
       <c r="C111" s="32"/>
-      <c r="D111" s="54"/>
+      <c r="D111" s="64"/>
       <c r="E111" s="54"/>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
@@ -9610,7 +11074,7 @@
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
-      <c r="D112" s="60"/>
+      <c r="D112" s="65"/>
       <c r="E112" s="60"/>
       <c r="F112" s="60"/>
       <c r="G112" s="60"/>
@@ -9633,7 +11097,11 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="63"/>
+      <c r="D113" s="63" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E113" s="63"/>
       <c r="F113" s="63"/>
       <c r="G113" s="63"/>
@@ -9674,40 +11142,40 @@
     <row r="115" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="12"/>
       <c r="C115" s="32"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="54"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="54"/>
-      <c r="O115" s="54"/>
-      <c r="P115" s="54"/>
-      <c r="Q115" s="54"/>
-      <c r="R115" s="54"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="64"/>
+      <c r="L115" s="64"/>
+      <c r="M115" s="64"/>
+      <c r="N115" s="64"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="64"/>
       <c r="V115" s="34"/>
     </row>
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="60"/>
-      <c r="J116" s="60"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
-      <c r="M116" s="60"/>
-      <c r="N116" s="60"/>
-      <c r="O116" s="60"/>
-      <c r="P116" s="60"/>
-      <c r="Q116" s="60"/>
-      <c r="R116" s="60"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="65"/>
+      <c r="M116" s="65"/>
+      <c r="N116" s="65"/>
+      <c r="O116" s="65"/>
+      <c r="P116" s="65"/>
+      <c r="Q116" s="65"/>
+      <c r="R116" s="65"/>
       <c r="S116" s="18"/>
       <c r="V116" s="7"/>
     </row>
@@ -9716,21 +11184,51 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="61"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="61"/>
-      <c r="L117" s="61"/>
-      <c r="M117" s="61"/>
-      <c r="N117" s="61"/>
-      <c r="O117" s="61"/>
-      <c r="P117" s="61"/>
-      <c r="Q117" s="61"/>
-      <c r="R117" s="61"/>
+      <c r="D117" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E117" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G117" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I117" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J117" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L117" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="M117" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="N117" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O117" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="P117" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q117" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="R117" s="61" t="s">
+        <v>1305</v>
+      </c>
       <c r="S117" s="20"/>
       <c r="V117" s="7"/>
     </row>
@@ -9757,40 +11255,40 @@
     <row r="119" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
-      <c r="O119" s="54"/>
-      <c r="P119" s="54"/>
-      <c r="Q119" s="54"/>
-      <c r="R119" s="54"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="64"/>
+      <c r="L119" s="64"/>
+      <c r="M119" s="64"/>
+      <c r="N119" s="64"/>
+      <c r="O119" s="64"/>
+      <c r="P119" s="64"/>
+      <c r="Q119" s="64"/>
+      <c r="R119" s="64"/>
       <c r="V119" s="34"/>
     </row>
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="60"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="60"/>
-      <c r="L120" s="60"/>
-      <c r="M120" s="60"/>
-      <c r="N120" s="60"/>
-      <c r="O120" s="60"/>
-      <c r="P120" s="60"/>
-      <c r="Q120" s="60"/>
-      <c r="R120" s="60"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="65"/>
+      <c r="M120" s="65"/>
+      <c r="N120" s="65"/>
+      <c r="O120" s="65"/>
+      <c r="P120" s="65"/>
+      <c r="Q120" s="65"/>
+      <c r="R120" s="65"/>
       <c r="S120" s="18"/>
       <c r="V120" s="7"/>
     </row>
@@ -9799,21 +11297,51 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="61"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
-      <c r="L121" s="61"/>
-      <c r="M121" s="61"/>
-      <c r="N121" s="61"/>
-      <c r="O121" s="61"/>
-      <c r="P121" s="61"/>
-      <c r="Q121" s="61"/>
-      <c r="R121" s="61"/>
+      <c r="D121" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G121" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H121" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="K121" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="L121" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M121" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="O121" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="P121" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q121" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="R121" s="61" t="s">
+        <v>106</v>
+      </c>
       <c r="S121" s="20"/>
       <c r="V121" s="7"/>
     </row>
@@ -9840,40 +11368,40 @@
     <row r="123" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="32"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="54"/>
-      <c r="P123" s="54"/>
-      <c r="Q123" s="54"/>
-      <c r="R123" s="54"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="64"/>
+      <c r="L123" s="64"/>
+      <c r="M123" s="64"/>
+      <c r="N123" s="64"/>
+      <c r="O123" s="64"/>
+      <c r="P123" s="64"/>
+      <c r="Q123" s="64"/>
+      <c r="R123" s="64"/>
       <c r="V123" s="34"/>
     </row>
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
-      <c r="M124" s="60"/>
-      <c r="N124" s="60"/>
-      <c r="O124" s="60"/>
-      <c r="P124" s="60"/>
-      <c r="Q124" s="60"/>
-      <c r="R124" s="60"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="65"/>
+      <c r="N124" s="65"/>
+      <c r="O124" s="65"/>
+      <c r="P124" s="65"/>
+      <c r="Q124" s="65"/>
+      <c r="R124" s="65"/>
       <c r="S124" s="18"/>
       <c r="V124" s="7"/>
     </row>
@@ -9882,21 +11410,51 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
-      <c r="L125" s="61"/>
-      <c r="M125" s="61"/>
-      <c r="N125" s="61"/>
-      <c r="O125" s="61"/>
-      <c r="P125" s="61"/>
-      <c r="Q125" s="61"/>
-      <c r="R125" s="61"/>
+      <c r="D125" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="61" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F125" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G125" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="I125" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J125" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="K125" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="L125" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M125" s="61" t="s">
+        <v>1307</v>
+      </c>
+      <c r="N125" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="O125" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="P125" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q125" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="R125" s="61" t="s">
+        <v>1270</v>
+      </c>
       <c r="S125" s="20"/>
       <c r="V125" s="7"/>
     </row>
@@ -9923,40 +11481,40 @@
     <row r="127" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="12"/>
       <c r="C127" s="32"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-      <c r="O127" s="54"/>
-      <c r="P127" s="54"/>
-      <c r="Q127" s="54"/>
-      <c r="R127" s="54"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="64"/>
+      <c r="J127" s="64"/>
+      <c r="K127" s="64"/>
+      <c r="L127" s="64"/>
+      <c r="M127" s="64"/>
+      <c r="N127" s="64"/>
+      <c r="O127" s="64"/>
+      <c r="P127" s="64"/>
+      <c r="Q127" s="64"/>
+      <c r="R127" s="64"/>
       <c r="V127" s="34"/>
     </row>
     <row r="128" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="17"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="60"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="60"/>
-      <c r="I128" s="60"/>
-      <c r="J128" s="60"/>
-      <c r="K128" s="60"/>
-      <c r="L128" s="60"/>
-      <c r="M128" s="60"/>
-      <c r="N128" s="60"/>
-      <c r="O128" s="60"/>
-      <c r="P128" s="60"/>
-      <c r="Q128" s="60"/>
-      <c r="R128" s="60"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
+      <c r="L128" s="65"/>
+      <c r="M128" s="65"/>
+      <c r="N128" s="65"/>
+      <c r="O128" s="65"/>
+      <c r="P128" s="65"/>
+      <c r="Q128" s="65"/>
+      <c r="R128" s="65"/>
       <c r="S128" s="18"/>
       <c r="V128" s="7"/>
     </row>
@@ -9965,21 +11523,51 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="61"/>
-      <c r="E129" s="61"/>
-      <c r="F129" s="61"/>
-      <c r="G129" s="61"/>
-      <c r="H129" s="61"/>
-      <c r="I129" s="61"/>
-      <c r="J129" s="61"/>
-      <c r="K129" s="61"/>
-      <c r="L129" s="61"/>
-      <c r="M129" s="61"/>
-      <c r="N129" s="61"/>
-      <c r="O129" s="61"/>
-      <c r="P129" s="61"/>
-      <c r="Q129" s="61"/>
-      <c r="R129" s="61"/>
+      <c r="D129" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F129" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="G129" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H129" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I129" s="61" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J129" s="61" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K129" s="61" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L129" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M129" s="61" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N129" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O129" s="61" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P129" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q129" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R129" s="61" t="s">
+        <v>1193</v>
+      </c>
       <c r="S129" s="20"/>
       <c r="V129" s="7"/>
     </row>
@@ -10006,40 +11594,40 @@
     <row r="131" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="32"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="54"/>
-      <c r="O131" s="54"/>
-      <c r="P131" s="54"/>
-      <c r="Q131" s="54"/>
-      <c r="R131" s="54"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="64"/>
+      <c r="J131" s="64"/>
+      <c r="K131" s="64"/>
+      <c r="L131" s="64"/>
+      <c r="M131" s="64"/>
+      <c r="N131" s="64"/>
+      <c r="O131" s="64"/>
+      <c r="P131" s="64"/>
+      <c r="Q131" s="64"/>
+      <c r="R131" s="64"/>
       <c r="V131" s="34"/>
     </row>
     <row r="132" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="17"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="60"/>
-      <c r="I132" s="60"/>
-      <c r="J132" s="60"/>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
-      <c r="M132" s="60"/>
-      <c r="N132" s="60"/>
-      <c r="O132" s="60"/>
-      <c r="P132" s="60"/>
-      <c r="Q132" s="60"/>
-      <c r="R132" s="60"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65"/>
+      <c r="K132" s="65"/>
+      <c r="L132" s="65"/>
+      <c r="M132" s="65"/>
+      <c r="N132" s="65"/>
+      <c r="O132" s="65"/>
+      <c r="P132" s="65"/>
+      <c r="Q132" s="65"/>
+      <c r="R132" s="65"/>
       <c r="S132" s="18"/>
       <c r="V132" s="7"/>
     </row>
@@ -10048,21 +11636,51 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="61"/>
-      <c r="E133" s="61"/>
-      <c r="F133" s="61"/>
-      <c r="G133" s="61"/>
-      <c r="H133" s="61"/>
-      <c r="I133" s="61"/>
-      <c r="J133" s="61"/>
-      <c r="K133" s="61"/>
-      <c r="L133" s="61"/>
-      <c r="M133" s="61"/>
-      <c r="N133" s="61"/>
-      <c r="O133" s="61"/>
-      <c r="P133" s="61"/>
-      <c r="Q133" s="61"/>
-      <c r="R133" s="61"/>
+      <c r="D133" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E133" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F133" s="61" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G133" s="61" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H133" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I133" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J133" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K133" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L133" s="61" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M133" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N133" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O133" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="P133" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q133" s="61" t="s">
+        <v>1318</v>
+      </c>
+      <c r="R133" s="61" t="s">
+        <v>1170</v>
+      </c>
       <c r="S133" s="20"/>
       <c r="V133" s="7"/>
     </row>
@@ -10089,40 +11707,40 @@
     <row r="135" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B135" s="12"/>
       <c r="C135" s="32"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="54"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="54"/>
-      <c r="N135" s="54"/>
-      <c r="O135" s="54"/>
-      <c r="P135" s="54"/>
-      <c r="Q135" s="54"/>
-      <c r="R135" s="54"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="64"/>
+      <c r="G135" s="64"/>
+      <c r="H135" s="64"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="64"/>
+      <c r="K135" s="64"/>
+      <c r="L135" s="64"/>
+      <c r="M135" s="64"/>
+      <c r="N135" s="64"/>
+      <c r="O135" s="64"/>
+      <c r="P135" s="64"/>
+      <c r="Q135" s="64"/>
+      <c r="R135" s="64"/>
       <c r="V135" s="34"/>
     </row>
     <row r="136" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="17"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="60"/>
-      <c r="I136" s="60"/>
-      <c r="J136" s="60"/>
-      <c r="K136" s="60"/>
-      <c r="L136" s="60"/>
-      <c r="M136" s="60"/>
-      <c r="N136" s="60"/>
-      <c r="O136" s="60"/>
-      <c r="P136" s="60"/>
-      <c r="Q136" s="60"/>
-      <c r="R136" s="60"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="65"/>
+      <c r="K136" s="65"/>
+      <c r="L136" s="65"/>
+      <c r="M136" s="65"/>
+      <c r="N136" s="65"/>
+      <c r="O136" s="65"/>
+      <c r="P136" s="65"/>
+      <c r="Q136" s="65"/>
+      <c r="R136" s="65"/>
       <c r="S136" s="18"/>
       <c r="V136" s="7"/>
     </row>
@@ -10131,21 +11749,51 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="61"/>
-      <c r="I137" s="61"/>
-      <c r="J137" s="61"/>
-      <c r="K137" s="61"/>
-      <c r="L137" s="61"/>
-      <c r="M137" s="61"/>
-      <c r="N137" s="61"/>
-      <c r="O137" s="61"/>
-      <c r="P137" s="61"/>
-      <c r="Q137" s="61"/>
-      <c r="R137" s="61"/>
+      <c r="D137" s="61" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E137" s="61" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F137" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G137" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H137" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I137" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J137" s="61" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K137" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L137" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="M137" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N137" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O137" s="61" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P137" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q137" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="R137" s="61" t="s">
+        <v>137</v>
+      </c>
       <c r="S137" s="20"/>
       <c r="V137" s="7"/>
     </row>
@@ -10172,38 +11820,38 @@
     <row r="139" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B139" s="12"/>
       <c r="C139" s="32"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="K139" s="54"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
-      <c r="O139" s="54"/>
-      <c r="P139" s="54"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="64"/>
+      <c r="G139" s="64"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="64"/>
+      <c r="J139" s="64"/>
+      <c r="K139" s="64"/>
+      <c r="L139" s="64"/>
+      <c r="M139" s="64"/>
+      <c r="N139" s="64"/>
+      <c r="O139" s="64"/>
+      <c r="P139" s="64"/>
       <c r="Q139" s="54"/>
       <c r="R139" s="54"/>
       <c r="V139" s="34"/>
     </row>
     <row r="140" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="17"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="60"/>
-      <c r="I140" s="60"/>
-      <c r="J140" s="60"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="60"/>
-      <c r="M140" s="60"/>
-      <c r="N140" s="60"/>
-      <c r="O140" s="60"/>
-      <c r="P140" s="60"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
+      <c r="L140" s="65"/>
+      <c r="M140" s="65"/>
+      <c r="N140" s="65"/>
+      <c r="O140" s="65"/>
+      <c r="P140" s="65"/>
       <c r="Q140" s="60"/>
       <c r="R140" s="60"/>
       <c r="S140" s="18"/>
@@ -10214,19 +11862,47 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="61"/>
-      <c r="E141" s="61"/>
-      <c r="F141" s="61"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="61"/>
-      <c r="I141" s="61"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="61"/>
-      <c r="L141" s="61"/>
-      <c r="M141" s="61"/>
-      <c r="N141" s="61"/>
-      <c r="O141" s="61"/>
-      <c r="P141" s="61"/>
+      <c r="D141" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E141" s="61" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F141" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G141" s="61" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H141" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I141" s="61" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J141" s="61" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K141" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="M141" s="61" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N141" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="O141" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P141" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="Q141" s="61"/>
       <c r="R141" s="61"/>
       <c r="S141" s="20"/>
@@ -10255,7 +11931,7 @@
     <row r="143" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B143" s="12"/>
       <c r="C143" s="32"/>
-      <c r="D143" s="54"/>
+      <c r="D143" s="64"/>
       <c r="E143" s="54"/>
       <c r="F143" s="54"/>
       <c r="G143" s="54"/>
@@ -10274,7 +11950,7 @@
     </row>
     <row r="144" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="17"/>
-      <c r="D144" s="60"/>
+      <c r="D144" s="65"/>
       <c r="E144" s="60"/>
       <c r="F144" s="60"/>
       <c r="G144" s="60"/>
@@ -10297,7 +11973,11 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="61"/>
+      <c r="D145" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E145" s="61"/>
       <c r="F145" s="61"/>
       <c r="G145" s="61"/>
@@ -10338,40 +12018,40 @@
     <row r="147" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="32"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="54"/>
-      <c r="O147" s="54"/>
-      <c r="P147" s="54"/>
-      <c r="Q147" s="54"/>
-      <c r="R147" s="54"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="64"/>
+      <c r="H147" s="64"/>
+      <c r="I147" s="64"/>
+      <c r="J147" s="64"/>
+      <c r="K147" s="64"/>
+      <c r="L147" s="64"/>
+      <c r="M147" s="64"/>
+      <c r="N147" s="64"/>
+      <c r="O147" s="64"/>
+      <c r="P147" s="64"/>
+      <c r="Q147" s="64"/>
+      <c r="R147" s="64"/>
       <c r="V147" s="34"/>
     </row>
     <row r="148" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="17"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="60"/>
-      <c r="I148" s="60"/>
-      <c r="J148" s="60"/>
-      <c r="K148" s="60"/>
-      <c r="L148" s="60"/>
-      <c r="M148" s="60"/>
-      <c r="N148" s="60"/>
-      <c r="O148" s="60"/>
-      <c r="P148" s="60"/>
-      <c r="Q148" s="60"/>
-      <c r="R148" s="60"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="65"/>
+      <c r="L148" s="65"/>
+      <c r="M148" s="65"/>
+      <c r="N148" s="65"/>
+      <c r="O148" s="65"/>
+      <c r="P148" s="65"/>
+      <c r="Q148" s="65"/>
+      <c r="R148" s="65"/>
       <c r="S148" s="18"/>
       <c r="V148" s="7"/>
     </row>
@@ -10380,21 +12060,51 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="61"/>
-      <c r="J149" s="61"/>
-      <c r="K149" s="61"/>
-      <c r="L149" s="61"/>
-      <c r="M149" s="61"/>
-      <c r="N149" s="61"/>
-      <c r="O149" s="61"/>
-      <c r="P149" s="61"/>
-      <c r="Q149" s="61"/>
-      <c r="R149" s="61"/>
+      <c r="D149" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E149" s="61" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F149" s="61" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G149" s="61" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H149" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" s="61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J149" s="61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K149" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="L149" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="M149" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="N149" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O149" s="61" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P149" s="61" t="s">
+        <v>1333</v>
+      </c>
+      <c r="Q149" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="R149" s="61" t="s">
+        <v>1334</v>
+      </c>
       <c r="S149" s="20"/>
       <c r="V149" s="7"/>
     </row>
@@ -10421,40 +12131,40 @@
     <row r="151" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B151" s="12"/>
       <c r="C151" s="32"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="54"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
-      <c r="P151" s="54"/>
-      <c r="Q151" s="54"/>
-      <c r="R151" s="54"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="64"/>
+      <c r="G151" s="64"/>
+      <c r="H151" s="64"/>
+      <c r="I151" s="64"/>
+      <c r="J151" s="64"/>
+      <c r="K151" s="64"/>
+      <c r="L151" s="64"/>
+      <c r="M151" s="64"/>
+      <c r="N151" s="64"/>
+      <c r="O151" s="64"/>
+      <c r="P151" s="64"/>
+      <c r="Q151" s="64"/>
+      <c r="R151" s="64"/>
       <c r="V151" s="34"/>
     </row>
     <row r="152" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="17"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="60"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
-      <c r="M152" s="60"/>
-      <c r="N152" s="60"/>
-      <c r="O152" s="60"/>
-      <c r="P152" s="60"/>
-      <c r="Q152" s="60"/>
-      <c r="R152" s="60"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="65"/>
+      <c r="J152" s="65"/>
+      <c r="K152" s="65"/>
+      <c r="L152" s="65"/>
+      <c r="M152" s="65"/>
+      <c r="N152" s="65"/>
+      <c r="O152" s="65"/>
+      <c r="P152" s="65"/>
+      <c r="Q152" s="65"/>
+      <c r="R152" s="65"/>
       <c r="S152" s="18"/>
       <c r="V152" s="7"/>
     </row>
@@ -10463,21 +12173,51 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="61"/>
-      <c r="J153" s="61"/>
-      <c r="K153" s="61"/>
-      <c r="L153" s="61"/>
-      <c r="M153" s="61"/>
-      <c r="N153" s="61"/>
-      <c r="O153" s="61"/>
-      <c r="P153" s="61"/>
-      <c r="Q153" s="61"/>
-      <c r="R153" s="61"/>
+      <c r="D153" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E153" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F153" s="61" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G153" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="I153" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="J153" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K153" s="61" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L153" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M153" s="61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N153" s="61" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O153" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P153" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q153" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R153" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="S153" s="20"/>
       <c r="V153" s="7"/>
     </row>
@@ -10504,40 +12244,40 @@
     <row r="155" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B155" s="12"/>
       <c r="C155" s="32"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="54"/>
-      <c r="H155" s="54"/>
-      <c r="I155" s="54"/>
-      <c r="J155" s="54"/>
-      <c r="K155" s="54"/>
-      <c r="L155" s="54"/>
-      <c r="M155" s="54"/>
-      <c r="N155" s="54"/>
-      <c r="O155" s="54"/>
-      <c r="P155" s="54"/>
-      <c r="Q155" s="54"/>
-      <c r="R155" s="54"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="64"/>
+      <c r="F155" s="64"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="64"/>
+      <c r="I155" s="64"/>
+      <c r="J155" s="64"/>
+      <c r="K155" s="64"/>
+      <c r="L155" s="64"/>
+      <c r="M155" s="64"/>
+      <c r="N155" s="64"/>
+      <c r="O155" s="64"/>
+      <c r="P155" s="64"/>
+      <c r="Q155" s="64"/>
+      <c r="R155" s="64"/>
       <c r="V155" s="34"/>
     </row>
     <row r="156" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
-      <c r="D156" s="60"/>
-      <c r="E156" s="60"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="60"/>
-      <c r="I156" s="60"/>
-      <c r="J156" s="60"/>
-      <c r="K156" s="60"/>
-      <c r="L156" s="60"/>
-      <c r="M156" s="60"/>
-      <c r="N156" s="60"/>
-      <c r="O156" s="60"/>
-      <c r="P156" s="60"/>
-      <c r="Q156" s="60"/>
-      <c r="R156" s="60"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="65"/>
+      <c r="I156" s="65"/>
+      <c r="J156" s="65"/>
+      <c r="K156" s="65"/>
+      <c r="L156" s="65"/>
+      <c r="M156" s="65"/>
+      <c r="N156" s="65"/>
+      <c r="O156" s="65"/>
+      <c r="P156" s="65"/>
+      <c r="Q156" s="65"/>
+      <c r="R156" s="65"/>
       <c r="S156" s="18"/>
       <c r="V156" s="7"/>
     </row>
@@ -10546,21 +12286,51 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="61"/>
-      <c r="E157" s="61"/>
-      <c r="F157" s="61"/>
-      <c r="G157" s="61"/>
-      <c r="H157" s="61"/>
-      <c r="I157" s="61"/>
-      <c r="J157" s="61"/>
-      <c r="K157" s="61"/>
-      <c r="L157" s="61"/>
-      <c r="M157" s="61"/>
-      <c r="N157" s="61"/>
-      <c r="O157" s="61"/>
-      <c r="P157" s="61"/>
-      <c r="Q157" s="61"/>
-      <c r="R157" s="61"/>
+      <c r="D157" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E157" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F157" s="61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G157" s="61" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H157" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I157" s="61" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J157" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K157" s="61" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L157" s="61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M157" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N157" s="61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O157" s="61" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P157" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Q157" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="R157" s="61" t="s">
+        <v>1347</v>
+      </c>
       <c r="S157" s="20"/>
       <c r="V157" s="7"/>
     </row>
@@ -10587,40 +12357,40 @@
     <row r="159" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B159" s="12"/>
       <c r="C159" s="32"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="54"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
-      <c r="I159" s="54"/>
-      <c r="J159" s="54"/>
-      <c r="K159" s="54"/>
-      <c r="L159" s="54"/>
-      <c r="M159" s="54"/>
-      <c r="N159" s="54"/>
-      <c r="O159" s="54"/>
-      <c r="P159" s="54"/>
-      <c r="Q159" s="54"/>
-      <c r="R159" s="54"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="64"/>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="64"/>
+      <c r="J159" s="64"/>
+      <c r="K159" s="64"/>
+      <c r="L159" s="64"/>
+      <c r="M159" s="64"/>
+      <c r="N159" s="64"/>
+      <c r="O159" s="64"/>
+      <c r="P159" s="64"/>
+      <c r="Q159" s="64"/>
+      <c r="R159" s="64"/>
       <c r="V159" s="34"/>
     </row>
     <row r="160" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="17"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="60"/>
-      <c r="K160" s="60"/>
-      <c r="L160" s="60"/>
-      <c r="M160" s="60"/>
-      <c r="N160" s="60"/>
-      <c r="O160" s="60"/>
-      <c r="P160" s="60"/>
-      <c r="Q160" s="60"/>
-      <c r="R160" s="60"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="65"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="65"/>
+      <c r="L160" s="65"/>
+      <c r="M160" s="65"/>
+      <c r="N160" s="65"/>
+      <c r="O160" s="65"/>
+      <c r="P160" s="65"/>
+      <c r="Q160" s="65"/>
+      <c r="R160" s="65"/>
       <c r="S160" s="18"/>
       <c r="V160" s="7"/>
     </row>
@@ -10629,21 +12399,51 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="61"/>
-      <c r="E161" s="61"/>
-      <c r="F161" s="61"/>
-      <c r="G161" s="61"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="61"/>
-      <c r="J161" s="61"/>
-      <c r="K161" s="61"/>
-      <c r="L161" s="61"/>
-      <c r="M161" s="61"/>
-      <c r="N161" s="61"/>
-      <c r="O161" s="61"/>
-      <c r="P161" s="61"/>
-      <c r="Q161" s="61"/>
-      <c r="R161" s="61"/>
+      <c r="D161" s="61" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E161" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F161" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G161" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H161" s="61" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I161" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J161" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K161" s="61" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L161" s="61" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M161" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N161" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O161" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P161" s="61" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q161" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R161" s="61" t="s">
+        <v>22</v>
+      </c>
       <c r="S161" s="20"/>
       <c r="V161" s="7"/>
     </row>
@@ -10670,40 +12470,40 @@
     <row r="163" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B163" s="12"/>
       <c r="C163" s="32"/>
-      <c r="D163" s="54"/>
-      <c r="E163" s="54"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="54"/>
-      <c r="I163" s="54"/>
-      <c r="J163" s="54"/>
-      <c r="K163" s="54"/>
-      <c r="L163" s="54"/>
-      <c r="M163" s="54"/>
-      <c r="N163" s="54"/>
-      <c r="O163" s="54"/>
-      <c r="P163" s="54"/>
-      <c r="Q163" s="54"/>
-      <c r="R163" s="54"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="64"/>
+      <c r="I163" s="64"/>
+      <c r="J163" s="64"/>
+      <c r="K163" s="64"/>
+      <c r="L163" s="64"/>
+      <c r="M163" s="64"/>
+      <c r="N163" s="64"/>
+      <c r="O163" s="64"/>
+      <c r="P163" s="64"/>
+      <c r="Q163" s="64"/>
+      <c r="R163" s="64"/>
       <c r="V163" s="34"/>
     </row>
     <row r="164" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="17"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="60"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="60"/>
-      <c r="I164" s="60"/>
-      <c r="J164" s="60"/>
-      <c r="K164" s="60"/>
-      <c r="L164" s="60"/>
-      <c r="M164" s="60"/>
-      <c r="N164" s="60"/>
-      <c r="O164" s="60"/>
-      <c r="P164" s="60"/>
-      <c r="Q164" s="60"/>
-      <c r="R164" s="60"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="65"/>
+      <c r="G164" s="65"/>
+      <c r="H164" s="65"/>
+      <c r="I164" s="65"/>
+      <c r="J164" s="65"/>
+      <c r="K164" s="65"/>
+      <c r="L164" s="65"/>
+      <c r="M164" s="65"/>
+      <c r="N164" s="65"/>
+      <c r="O164" s="65"/>
+      <c r="P164" s="65"/>
+      <c r="Q164" s="65"/>
+      <c r="R164" s="65"/>
       <c r="S164" s="18"/>
       <c r="V164" s="7"/>
     </row>
@@ -10712,21 +12512,51 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="61"/>
-      <c r="E165" s="61"/>
-      <c r="F165" s="61"/>
-      <c r="G165" s="61"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="61"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="61"/>
-      <c r="L165" s="61"/>
-      <c r="M165" s="61"/>
-      <c r="N165" s="61"/>
-      <c r="O165" s="61"/>
-      <c r="P165" s="61"/>
-      <c r="Q165" s="61"/>
-      <c r="R165" s="61"/>
+      <c r="D165" s="61" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E165" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" s="61" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G165" s="61" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H165" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="I165" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J165" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K165" s="61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L165" s="61" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M165" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N165" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="O165" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P165" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q165" s="61" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R165" s="61" t="s">
+        <v>23</v>
+      </c>
       <c r="S165" s="20"/>
       <c r="V165" s="7"/>
     </row>
@@ -10753,40 +12583,40 @@
     <row r="167" spans="2:22">
       <c r="B167" s="12"/>
       <c r="C167" s="32"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="54"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="54"/>
-      <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
-      <c r="K167" s="54"/>
-      <c r="L167" s="54"/>
-      <c r="M167" s="54"/>
-      <c r="N167" s="54"/>
-      <c r="O167" s="54"/>
-      <c r="P167" s="54"/>
-      <c r="Q167" s="54"/>
-      <c r="R167" s="54"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="64"/>
+      <c r="K167" s="64"/>
+      <c r="L167" s="64"/>
+      <c r="M167" s="64"/>
+      <c r="N167" s="64"/>
+      <c r="O167" s="64"/>
+      <c r="P167" s="64"/>
+      <c r="Q167" s="64"/>
+      <c r="R167" s="64"/>
     </row>
     <row r="168" spans="2:22" ht="39.75">
       <c r="B168" s="17"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
-      <c r="I168" s="60"/>
-      <c r="J168" s="60"/>
-      <c r="K168" s="60"/>
-      <c r="L168" s="60"/>
-      <c r="M168" s="60"/>
-      <c r="N168" s="60"/>
-      <c r="O168" s="60"/>
-      <c r="P168" s="60"/>
-      <c r="Q168" s="60"/>
-      <c r="R168" s="60"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="65"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="65"/>
+      <c r="K168" s="65"/>
+      <c r="L168" s="65"/>
+      <c r="M168" s="65"/>
+      <c r="N168" s="65"/>
+      <c r="O168" s="65"/>
+      <c r="P168" s="65"/>
+      <c r="Q168" s="65"/>
+      <c r="R168" s="65"/>
     </row>
     <row r="169" spans="2:22" ht="58.5">
       <c r="B169" s="19">
@@ -10794,21 +12624,51 @@
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="61"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
-      <c r="N169" s="61"/>
-      <c r="O169" s="61"/>
-      <c r="P169" s="61"/>
-      <c r="Q169" s="61"/>
-      <c r="R169" s="61"/>
+      <c r="D169" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E169" s="61" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F169" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G169" s="61" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H169" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I169" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J169" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="K169" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L169" s="61" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M169" s="61" t="s">
+        <v>1334</v>
+      </c>
+      <c r="N169" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="O169" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="P169" s="61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Q169" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="R169" s="61" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="21"/>
@@ -10832,40 +12692,40 @@
     <row r="171" spans="2:22">
       <c r="B171" s="12"/>
       <c r="C171" s="32"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="54"/>
-      <c r="J171" s="54"/>
-      <c r="K171" s="54"/>
-      <c r="L171" s="54"/>
-      <c r="M171" s="54"/>
-      <c r="N171" s="54"/>
-      <c r="O171" s="54"/>
-      <c r="P171" s="54"/>
-      <c r="Q171" s="54"/>
-      <c r="R171" s="54"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="64"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="64"/>
+      <c r="L171" s="64"/>
+      <c r="M171" s="64"/>
+      <c r="N171" s="64"/>
+      <c r="O171" s="64"/>
+      <c r="P171" s="64"/>
+      <c r="Q171" s="64"/>
+      <c r="R171" s="64"/>
     </row>
     <row r="172" spans="2:22" ht="39.75">
       <c r="B172" s="17"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="60"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="60"/>
-      <c r="H172" s="60"/>
-      <c r="I172" s="60"/>
-      <c r="J172" s="60"/>
-      <c r="K172" s="60"/>
-      <c r="L172" s="60"/>
-      <c r="M172" s="60"/>
-      <c r="N172" s="60"/>
-      <c r="O172" s="60"/>
-      <c r="P172" s="60"/>
-      <c r="Q172" s="60"/>
-      <c r="R172" s="60"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="65"/>
+      <c r="H172" s="65"/>
+      <c r="I172" s="65"/>
+      <c r="J172" s="65"/>
+      <c r="K172" s="65"/>
+      <c r="L172" s="65"/>
+      <c r="M172" s="65"/>
+      <c r="N172" s="65"/>
+      <c r="O172" s="65"/>
+      <c r="P172" s="65"/>
+      <c r="Q172" s="65"/>
+      <c r="R172" s="65"/>
     </row>
     <row r="173" spans="2:22" ht="58.5">
       <c r="B173" s="19">
@@ -10873,21 +12733,51 @@
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
-      <c r="I173" s="61"/>
-      <c r="J173" s="61"/>
-      <c r="K173" s="61"/>
-      <c r="L173" s="61"/>
-      <c r="M173" s="61"/>
-      <c r="N173" s="61"/>
-      <c r="O173" s="61"/>
-      <c r="P173" s="61"/>
-      <c r="Q173" s="61"/>
-      <c r="R173" s="61"/>
+      <c r="D173" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F173" s="61" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G173" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="H173" s="61" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I173" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="L173" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="M173" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N173" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="O173" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="P173" s="61" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q173" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R173" s="61" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="21"/>
@@ -10911,40 +12801,40 @@
     <row r="175" spans="2:22">
       <c r="B175" s="12"/>
       <c r="C175" s="32"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
-      <c r="K175" s="54"/>
-      <c r="L175" s="54"/>
-      <c r="M175" s="54"/>
-      <c r="N175" s="54"/>
-      <c r="O175" s="54"/>
-      <c r="P175" s="54"/>
-      <c r="Q175" s="54"/>
-      <c r="R175" s="54"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="64"/>
+      <c r="K175" s="64"/>
+      <c r="L175" s="64"/>
+      <c r="M175" s="64"/>
+      <c r="N175" s="64"/>
+      <c r="O175" s="64"/>
+      <c r="P175" s="64"/>
+      <c r="Q175" s="64"/>
+      <c r="R175" s="64"/>
     </row>
     <row r="176" spans="2:22" ht="39.75">
       <c r="B176" s="17"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="60"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="60"/>
-      <c r="I176" s="60"/>
-      <c r="J176" s="60"/>
-      <c r="K176" s="60"/>
-      <c r="L176" s="60"/>
-      <c r="M176" s="60"/>
-      <c r="N176" s="60"/>
-      <c r="O176" s="60"/>
-      <c r="P176" s="60"/>
-      <c r="Q176" s="60"/>
-      <c r="R176" s="60"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="65"/>
+      <c r="F176" s="65"/>
+      <c r="G176" s="65"/>
+      <c r="H176" s="65"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="65"/>
+      <c r="K176" s="65"/>
+      <c r="L176" s="65"/>
+      <c r="M176" s="65"/>
+      <c r="N176" s="65"/>
+      <c r="O176" s="65"/>
+      <c r="P176" s="65"/>
+      <c r="Q176" s="65"/>
+      <c r="R176" s="65"/>
     </row>
     <row r="177" spans="2:18" ht="58.5">
       <c r="B177" s="19">
@@ -10952,21 +12842,51 @@
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
-      <c r="D177" s="61"/>
-      <c r="E177" s="61"/>
-      <c r="F177" s="61"/>
-      <c r="G177" s="61"/>
-      <c r="H177" s="61"/>
-      <c r="I177" s="61"/>
-      <c r="J177" s="61"/>
-      <c r="K177" s="61"/>
-      <c r="L177" s="61"/>
-      <c r="M177" s="61"/>
-      <c r="N177" s="61"/>
-      <c r="O177" s="61"/>
-      <c r="P177" s="61"/>
-      <c r="Q177" s="61"/>
-      <c r="R177" s="61"/>
+      <c r="D177" s="61" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E177" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" s="61" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G177" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="H177" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I177" s="61" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J177" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K177" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L177" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M177" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N177" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="O177" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P177" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Q177" s="61" t="s">
+        <v>1334</v>
+      </c>
+      <c r="R177" s="61" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="21"/>
@@ -10990,40 +12910,40 @@
     <row r="179" spans="2:18">
       <c r="B179" s="12"/>
       <c r="C179" s="32"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="54"/>
-      <c r="J179" s="54"/>
-      <c r="K179" s="54"/>
-      <c r="L179" s="54"/>
-      <c r="M179" s="54"/>
-      <c r="N179" s="54"/>
-      <c r="O179" s="54"/>
-      <c r="P179" s="54"/>
-      <c r="Q179" s="54"/>
-      <c r="R179" s="54"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="64"/>
+      <c r="F179" s="64"/>
+      <c r="G179" s="64"/>
+      <c r="H179" s="64"/>
+      <c r="I179" s="64"/>
+      <c r="J179" s="64"/>
+      <c r="K179" s="64"/>
+      <c r="L179" s="64"/>
+      <c r="M179" s="64"/>
+      <c r="N179" s="64"/>
+      <c r="O179" s="64"/>
+      <c r="P179" s="64"/>
+      <c r="Q179" s="64"/>
+      <c r="R179" s="64"/>
     </row>
     <row r="180" spans="2:18" ht="39.75">
       <c r="B180" s="17"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60"/>
-      <c r="H180" s="60"/>
-      <c r="I180" s="60"/>
-      <c r="J180" s="60"/>
-      <c r="K180" s="60"/>
-      <c r="L180" s="60"/>
-      <c r="M180" s="60"/>
-      <c r="N180" s="60"/>
-      <c r="O180" s="60"/>
-      <c r="P180" s="60"/>
-      <c r="Q180" s="60"/>
-      <c r="R180" s="60"/>
+      <c r="D180" s="65"/>
+      <c r="E180" s="65"/>
+      <c r="F180" s="65"/>
+      <c r="G180" s="65"/>
+      <c r="H180" s="65"/>
+      <c r="I180" s="65"/>
+      <c r="J180" s="65"/>
+      <c r="K180" s="65"/>
+      <c r="L180" s="65"/>
+      <c r="M180" s="65"/>
+      <c r="N180" s="65"/>
+      <c r="O180" s="65"/>
+      <c r="P180" s="65"/>
+      <c r="Q180" s="65"/>
+      <c r="R180" s="65"/>
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="19">
@@ -11031,21 +12951,51 @@
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-      <c r="K181" s="61"/>
-      <c r="L181" s="61"/>
-      <c r="M181" s="61"/>
-      <c r="N181" s="61"/>
-      <c r="O181" s="61"/>
-      <c r="P181" s="61"/>
-      <c r="Q181" s="61"/>
-      <c r="R181" s="61"/>
+      <c r="D181" s="61" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E181" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" s="61" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G181" s="61" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H181" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I181" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J181" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K181" s="61" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L181" s="61" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M181" s="61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="N181" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="O181" s="61" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P181" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q181" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="R181" s="61" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="21"/>
@@ -11069,40 +13019,40 @@
     <row r="183" spans="2:18">
       <c r="B183" s="12"/>
       <c r="C183" s="32"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="54"/>
-      <c r="L183" s="54"/>
-      <c r="M183" s="54"/>
-      <c r="N183" s="54"/>
-      <c r="O183" s="54"/>
-      <c r="P183" s="54"/>
-      <c r="Q183" s="54"/>
-      <c r="R183" s="54"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="64"/>
+      <c r="F183" s="64"/>
+      <c r="G183" s="64"/>
+      <c r="H183" s="64"/>
+      <c r="I183" s="64"/>
+      <c r="J183" s="64"/>
+      <c r="K183" s="64"/>
+      <c r="L183" s="64"/>
+      <c r="M183" s="64"/>
+      <c r="N183" s="64"/>
+      <c r="O183" s="64"/>
+      <c r="P183" s="64"/>
+      <c r="Q183" s="64"/>
+      <c r="R183" s="64"/>
     </row>
     <row r="184" spans="2:18" ht="39.75">
       <c r="B184" s="17"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="60"/>
-      <c r="E184" s="60"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="60"/>
-      <c r="H184" s="60"/>
-      <c r="I184" s="60"/>
-      <c r="J184" s="60"/>
-      <c r="K184" s="60"/>
-      <c r="L184" s="60"/>
-      <c r="M184" s="60"/>
-      <c r="N184" s="60"/>
-      <c r="O184" s="60"/>
-      <c r="P184" s="60"/>
-      <c r="Q184" s="60"/>
-      <c r="R184" s="60"/>
+      <c r="D184" s="65"/>
+      <c r="E184" s="65"/>
+      <c r="F184" s="65"/>
+      <c r="G184" s="65"/>
+      <c r="H184" s="65"/>
+      <c r="I184" s="65"/>
+      <c r="J184" s="65"/>
+      <c r="K184" s="65"/>
+      <c r="L184" s="65"/>
+      <c r="M184" s="65"/>
+      <c r="N184" s="65"/>
+      <c r="O184" s="65"/>
+      <c r="P184" s="65"/>
+      <c r="Q184" s="65"/>
+      <c r="R184" s="65"/>
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="19">
@@ -11110,21 +13060,51 @@
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
-      <c r="D185" s="61"/>
-      <c r="E185" s="61"/>
-      <c r="F185" s="61"/>
-      <c r="G185" s="61"/>
-      <c r="H185" s="61"/>
-      <c r="I185" s="61"/>
-      <c r="J185" s="61"/>
-      <c r="K185" s="61"/>
-      <c r="L185" s="61"/>
-      <c r="M185" s="61"/>
-      <c r="N185" s="61"/>
-      <c r="O185" s="61"/>
-      <c r="P185" s="61"/>
-      <c r="Q185" s="61"/>
-      <c r="R185" s="61"/>
+      <c r="D185" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="E185" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F185" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G185" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H185" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I185" s="61" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J185" s="61" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K185" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="L185" s="61" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M185" s="61" t="s">
+        <v>1381</v>
+      </c>
+      <c r="N185" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O185" s="61" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P185" s="61" t="s">
+        <v>1383</v>
+      </c>
+      <c r="Q185" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="R185" s="61" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="21"/>
@@ -11148,40 +13128,40 @@
     <row r="187" spans="2:18">
       <c r="B187" s="12"/>
       <c r="C187" s="32"/>
-      <c r="D187" s="54"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="54"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
-      <c r="K187" s="54"/>
-      <c r="L187" s="54"/>
-      <c r="M187" s="54"/>
-      <c r="N187" s="54"/>
-      <c r="O187" s="54"/>
-      <c r="P187" s="54"/>
-      <c r="Q187" s="54"/>
-      <c r="R187" s="54"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="64"/>
+      <c r="F187" s="64"/>
+      <c r="G187" s="64"/>
+      <c r="H187" s="64"/>
+      <c r="I187" s="64"/>
+      <c r="J187" s="64"/>
+      <c r="K187" s="64"/>
+      <c r="L187" s="64"/>
+      <c r="M187" s="64"/>
+      <c r="N187" s="64"/>
+      <c r="O187" s="64"/>
+      <c r="P187" s="64"/>
+      <c r="Q187" s="64"/>
+      <c r="R187" s="64"/>
     </row>
     <row r="188" spans="2:18" ht="39.75">
       <c r="B188" s="17"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="60"/>
-      <c r="E188" s="60"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="60"/>
-      <c r="I188" s="60"/>
-      <c r="J188" s="60"/>
-      <c r="K188" s="60"/>
-      <c r="L188" s="60"/>
-      <c r="M188" s="60"/>
-      <c r="N188" s="60"/>
-      <c r="O188" s="60"/>
-      <c r="P188" s="60"/>
-      <c r="Q188" s="60"/>
-      <c r="R188" s="60"/>
+      <c r="D188" s="65"/>
+      <c r="E188" s="65"/>
+      <c r="F188" s="65"/>
+      <c r="G188" s="65"/>
+      <c r="H188" s="65"/>
+      <c r="I188" s="65"/>
+      <c r="J188" s="65"/>
+      <c r="K188" s="65"/>
+      <c r="L188" s="65"/>
+      <c r="M188" s="65"/>
+      <c r="N188" s="65"/>
+      <c r="O188" s="65"/>
+      <c r="P188" s="65"/>
+      <c r="Q188" s="65"/>
+      <c r="R188" s="65"/>
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="19">
@@ -11189,21 +13169,51 @@
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
-      <c r="D189" s="61"/>
-      <c r="E189" s="61"/>
-      <c r="F189" s="61"/>
-      <c r="G189" s="61"/>
-      <c r="H189" s="61"/>
-      <c r="I189" s="61"/>
-      <c r="J189" s="61"/>
-      <c r="K189" s="61"/>
-      <c r="L189" s="61"/>
-      <c r="M189" s="61"/>
-      <c r="N189" s="61"/>
-      <c r="O189" s="61"/>
-      <c r="P189" s="61"/>
-      <c r="Q189" s="61"/>
-      <c r="R189" s="61"/>
+      <c r="D189" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F189" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G189" s="61" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H189" s="61" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I189" s="61" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J189" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K189" s="61" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L189" s="61" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M189" s="61" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N189" s="61" t="s">
+        <v>1390</v>
+      </c>
+      <c r="O189" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P189" s="61" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q189" s="61" t="s">
+        <v>1391</v>
+      </c>
+      <c r="R189" s="61" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="21"/>
@@ -11227,40 +13237,40 @@
     <row r="191" spans="2:18">
       <c r="B191" s="12"/>
       <c r="C191" s="32"/>
-      <c r="D191" s="54"/>
-      <c r="E191" s="54"/>
-      <c r="F191" s="54"/>
-      <c r="G191" s="54"/>
-      <c r="H191" s="54"/>
-      <c r="I191" s="54"/>
-      <c r="J191" s="54"/>
-      <c r="K191" s="54"/>
-      <c r="L191" s="54"/>
-      <c r="M191" s="54"/>
-      <c r="N191" s="54"/>
-      <c r="O191" s="54"/>
-      <c r="P191" s="54"/>
-      <c r="Q191" s="54"/>
-      <c r="R191" s="54"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
+      <c r="F191" s="64"/>
+      <c r="G191" s="64"/>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="64"/>
+      <c r="K191" s="64"/>
+      <c r="L191" s="64"/>
+      <c r="M191" s="64"/>
+      <c r="N191" s="64"/>
+      <c r="O191" s="64"/>
+      <c r="P191" s="64"/>
+      <c r="Q191" s="64"/>
+      <c r="R191" s="64"/>
     </row>
     <row r="192" spans="2:18" ht="39.75">
       <c r="B192" s="17"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="60"/>
-      <c r="E192" s="60"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="60"/>
-      <c r="H192" s="60"/>
-      <c r="I192" s="60"/>
-      <c r="J192" s="60"/>
-      <c r="K192" s="60"/>
-      <c r="L192" s="60"/>
-      <c r="M192" s="60"/>
-      <c r="N192" s="60"/>
-      <c r="O192" s="60"/>
-      <c r="P192" s="60"/>
-      <c r="Q192" s="60"/>
-      <c r="R192" s="60"/>
+      <c r="D192" s="65"/>
+      <c r="E192" s="65"/>
+      <c r="F192" s="65"/>
+      <c r="G192" s="65"/>
+      <c r="H192" s="65"/>
+      <c r="I192" s="65"/>
+      <c r="J192" s="65"/>
+      <c r="K192" s="65"/>
+      <c r="L192" s="65"/>
+      <c r="M192" s="65"/>
+      <c r="N192" s="65"/>
+      <c r="O192" s="65"/>
+      <c r="P192" s="65"/>
+      <c r="Q192" s="65"/>
+      <c r="R192" s="65"/>
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
@@ -11268,21 +13278,51 @@
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="61"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="61"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="61"/>
-      <c r="I193" s="61"/>
-      <c r="J193" s="61"/>
-      <c r="K193" s="61"/>
-      <c r="L193" s="61"/>
-      <c r="M193" s="61"/>
-      <c r="N193" s="61"/>
-      <c r="O193" s="61"/>
-      <c r="P193" s="61"/>
-      <c r="Q193" s="61"/>
-      <c r="R193" s="61"/>
+      <c r="D193" s="61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E193" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F193" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G193" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H193" s="61" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I193" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J193" s="61" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K193" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L193" s="61" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M193" s="61" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N193" s="61" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O193" s="61" t="s">
+        <v>1397</v>
+      </c>
+      <c r="P193" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q193" s="61" t="s">
+        <v>1398</v>
+      </c>
+      <c r="R193" s="61" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="21"/>
@@ -11306,40 +13346,40 @@
     <row r="195" spans="2:18">
       <c r="B195" s="12"/>
       <c r="C195" s="32"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
-      <c r="J195" s="54"/>
-      <c r="K195" s="54"/>
-      <c r="L195" s="54"/>
-      <c r="M195" s="54"/>
-      <c r="N195" s="54"/>
-      <c r="O195" s="54"/>
-      <c r="P195" s="54"/>
-      <c r="Q195" s="54"/>
-      <c r="R195" s="54"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="64"/>
+      <c r="F195" s="64"/>
+      <c r="G195" s="64"/>
+      <c r="H195" s="64"/>
+      <c r="I195" s="64"/>
+      <c r="J195" s="64"/>
+      <c r="K195" s="64"/>
+      <c r="L195" s="64"/>
+      <c r="M195" s="64"/>
+      <c r="N195" s="64"/>
+      <c r="O195" s="64"/>
+      <c r="P195" s="64"/>
+      <c r="Q195" s="64"/>
+      <c r="R195" s="64"/>
     </row>
     <row r="196" spans="2:18" ht="39.75">
       <c r="B196" s="17"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="60"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="60"/>
-      <c r="H196" s="60"/>
-      <c r="I196" s="60"/>
-      <c r="J196" s="60"/>
-      <c r="K196" s="60"/>
-      <c r="L196" s="60"/>
-      <c r="M196" s="60"/>
-      <c r="N196" s="60"/>
-      <c r="O196" s="60"/>
-      <c r="P196" s="60"/>
-      <c r="Q196" s="60"/>
-      <c r="R196" s="60"/>
+      <c r="D196" s="65"/>
+      <c r="E196" s="65"/>
+      <c r="F196" s="65"/>
+      <c r="G196" s="65"/>
+      <c r="H196" s="65"/>
+      <c r="I196" s="65"/>
+      <c r="J196" s="65"/>
+      <c r="K196" s="65"/>
+      <c r="L196" s="65"/>
+      <c r="M196" s="65"/>
+      <c r="N196" s="65"/>
+      <c r="O196" s="65"/>
+      <c r="P196" s="65"/>
+      <c r="Q196" s="65"/>
+      <c r="R196" s="65"/>
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
@@ -11347,21 +13387,51 @@
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="61"/>
-      <c r="E197" s="61"/>
-      <c r="F197" s="61"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="61"/>
-      <c r="I197" s="61"/>
-      <c r="J197" s="61"/>
-      <c r="K197" s="61"/>
-      <c r="L197" s="61"/>
-      <c r="M197" s="61"/>
-      <c r="N197" s="61"/>
-      <c r="O197" s="61"/>
-      <c r="P197" s="61"/>
-      <c r="Q197" s="61"/>
-      <c r="R197" s="61"/>
+      <c r="D197" s="61" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E197" s="61" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F197" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G197" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H197" s="61" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I197" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J197" s="61" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K197" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L197" s="61" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M197" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N197" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="O197" s="61" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P197" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q197" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="R197" s="61" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="21"/>
@@ -11385,40 +13455,40 @@
     <row r="199" spans="2:18">
       <c r="B199" s="12"/>
       <c r="C199" s="32"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="54"/>
-      <c r="L199" s="54"/>
-      <c r="M199" s="54"/>
-      <c r="N199" s="54"/>
-      <c r="O199" s="54"/>
-      <c r="P199" s="54"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="54"/>
+      <c r="D199" s="64"/>
+      <c r="E199" s="64"/>
+      <c r="F199" s="64"/>
+      <c r="G199" s="64"/>
+      <c r="H199" s="64"/>
+      <c r="I199" s="64"/>
+      <c r="J199" s="64"/>
+      <c r="K199" s="64"/>
+      <c r="L199" s="64"/>
+      <c r="M199" s="64"/>
+      <c r="N199" s="64"/>
+      <c r="O199" s="64"/>
+      <c r="P199" s="64"/>
+      <c r="Q199" s="64"/>
+      <c r="R199" s="64"/>
     </row>
     <row r="200" spans="2:18" ht="39.75">
       <c r="B200" s="17"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="60"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="60"/>
-      <c r="H200" s="60"/>
-      <c r="I200" s="60"/>
-      <c r="J200" s="60"/>
-      <c r="K200" s="60"/>
-      <c r="L200" s="60"/>
-      <c r="M200" s="60"/>
-      <c r="N200" s="60"/>
-      <c r="O200" s="60"/>
-      <c r="P200" s="60"/>
-      <c r="Q200" s="60"/>
-      <c r="R200" s="60"/>
+      <c r="D200" s="65"/>
+      <c r="E200" s="65"/>
+      <c r="F200" s="65"/>
+      <c r="G200" s="65"/>
+      <c r="H200" s="65"/>
+      <c r="I200" s="65"/>
+      <c r="J200" s="65"/>
+      <c r="K200" s="65"/>
+      <c r="L200" s="65"/>
+      <c r="M200" s="65"/>
+      <c r="N200" s="65"/>
+      <c r="O200" s="65"/>
+      <c r="P200" s="65"/>
+      <c r="Q200" s="65"/>
+      <c r="R200" s="65"/>
     </row>
     <row r="201" spans="2:18" ht="58.5">
       <c r="B201" s="19">
@@ -11426,21 +13496,51 @@
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
-      <c r="D201" s="61"/>
-      <c r="E201" s="61"/>
-      <c r="F201" s="61"/>
-      <c r="G201" s="61"/>
-      <c r="H201" s="61"/>
-      <c r="I201" s="61"/>
-      <c r="J201" s="61"/>
-      <c r="K201" s="61"/>
-      <c r="L201" s="61"/>
-      <c r="M201" s="61"/>
-      <c r="N201" s="61"/>
-      <c r="O201" s="61"/>
-      <c r="P201" s="61"/>
-      <c r="Q201" s="61"/>
-      <c r="R201" s="61"/>
+      <c r="D201" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E201" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F201" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G201" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="H201" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I201" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J201" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="K201" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L201" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M201" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="N201" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O201" s="61" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P201" s="61" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q201" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="R201" s="61" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="21"/>
@@ -11464,40 +13564,40 @@
     <row r="203" spans="2:18">
       <c r="B203" s="12"/>
       <c r="C203" s="32"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="54"/>
-      <c r="K203" s="54"/>
-      <c r="L203" s="54"/>
-      <c r="M203" s="54"/>
-      <c r="N203" s="54"/>
-      <c r="O203" s="54"/>
-      <c r="P203" s="54"/>
-      <c r="Q203" s="54"/>
-      <c r="R203" s="54"/>
+      <c r="D203" s="64"/>
+      <c r="E203" s="64"/>
+      <c r="F203" s="64"/>
+      <c r="G203" s="64"/>
+      <c r="H203" s="64"/>
+      <c r="I203" s="64"/>
+      <c r="J203" s="64"/>
+      <c r="K203" s="64"/>
+      <c r="L203" s="64"/>
+      <c r="M203" s="64"/>
+      <c r="N203" s="64"/>
+      <c r="O203" s="64"/>
+      <c r="P203" s="64"/>
+      <c r="Q203" s="64"/>
+      <c r="R203" s="64"/>
     </row>
     <row r="204" spans="2:18" ht="39.75">
       <c r="B204" s="17"/>
       <c r="C204" s="6"/>
-      <c r="D204" s="60"/>
-      <c r="E204" s="60"/>
-      <c r="F204" s="60"/>
-      <c r="G204" s="60"/>
-      <c r="H204" s="60"/>
-      <c r="I204" s="60"/>
-      <c r="J204" s="60"/>
-      <c r="K204" s="60"/>
-      <c r="L204" s="60"/>
-      <c r="M204" s="60"/>
-      <c r="N204" s="60"/>
-      <c r="O204" s="60"/>
-      <c r="P204" s="60"/>
-      <c r="Q204" s="60"/>
-      <c r="R204" s="60"/>
+      <c r="D204" s="65"/>
+      <c r="E204" s="65"/>
+      <c r="F204" s="65"/>
+      <c r="G204" s="65"/>
+      <c r="H204" s="65"/>
+      <c r="I204" s="65"/>
+      <c r="J204" s="65"/>
+      <c r="K204" s="65"/>
+      <c r="L204" s="65"/>
+      <c r="M204" s="65"/>
+      <c r="N204" s="65"/>
+      <c r="O204" s="65"/>
+      <c r="P204" s="65"/>
+      <c r="Q204" s="65"/>
+      <c r="R204" s="65"/>
     </row>
     <row r="205" spans="2:18" ht="58.5">
       <c r="B205" s="19">
@@ -11505,21 +13605,51 @@
         <v>51</v>
       </c>
       <c r="C205" s="6"/>
-      <c r="D205" s="61"/>
-      <c r="E205" s="61"/>
-      <c r="F205" s="61"/>
-      <c r="G205" s="61"/>
-      <c r="H205" s="61"/>
-      <c r="I205" s="61"/>
-      <c r="J205" s="61"/>
-      <c r="K205" s="61"/>
-      <c r="L205" s="61"/>
-      <c r="M205" s="61"/>
-      <c r="N205" s="61"/>
-      <c r="O205" s="61"/>
-      <c r="P205" s="61"/>
-      <c r="Q205" s="61"/>
-      <c r="R205" s="61"/>
+      <c r="D205" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F205" s="61" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G205" s="61" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H205" s="61" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I205" s="61" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J205" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K205" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="L205" s="61" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M205" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N205" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O205" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P205" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q205" s="61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="R205" s="61" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="21"/>
@@ -11543,15 +13673,15 @@
     <row r="207" spans="2:18">
       <c r="B207" s="12"/>
       <c r="C207" s="32"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="54"/>
-      <c r="K207" s="54"/>
-      <c r="L207" s="54"/>
+      <c r="D207" s="64"/>
+      <c r="E207" s="64"/>
+      <c r="F207" s="64"/>
+      <c r="G207" s="64"/>
+      <c r="H207" s="64"/>
+      <c r="I207" s="64"/>
+      <c r="J207" s="64"/>
+      <c r="K207" s="64"/>
+      <c r="L207" s="64"/>
       <c r="M207" s="54"/>
       <c r="N207" s="54"/>
       <c r="O207" s="54"/>
@@ -11562,15 +13692,15 @@
     <row r="208" spans="2:18" ht="39.75">
       <c r="B208" s="17"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="60"/>
-      <c r="E208" s="60"/>
-      <c r="F208" s="60"/>
-      <c r="G208" s="60"/>
-      <c r="H208" s="60"/>
-      <c r="I208" s="60"/>
-      <c r="J208" s="60"/>
-      <c r="K208" s="60"/>
-      <c r="L208" s="60"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
+      <c r="L208" s="65"/>
       <c r="M208" s="60"/>
       <c r="N208" s="60"/>
       <c r="O208" s="60"/>
@@ -11584,15 +13714,35 @@
         <v>52</v>
       </c>
       <c r="C209" s="6"/>
-      <c r="D209" s="61"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="61"/>
-      <c r="G209" s="61"/>
-      <c r="H209" s="61"/>
-      <c r="I209" s="61"/>
-      <c r="J209" s="61"/>
-      <c r="K209" s="61"/>
-      <c r="L209" s="61"/>
+      <c r="D209" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E209" s="61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F209" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G209" s="61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H209" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I209" s="61" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J209" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="K209" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M209" s="61"/>
       <c r="N209" s="61"/>
       <c r="O209" s="61"/>
@@ -11622,7 +13772,7 @@
     <row r="211" spans="2:18">
       <c r="B211" s="12"/>
       <c r="C211" s="32"/>
-      <c r="D211" s="54"/>
+      <c r="D211" s="64"/>
       <c r="E211" s="54"/>
       <c r="F211" s="54"/>
       <c r="G211" s="54"/>
@@ -11641,7 +13791,7 @@
     <row r="212" spans="2:18" ht="39.75">
       <c r="B212" s="17"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="60"/>
+      <c r="D212" s="65"/>
       <c r="E212" s="60"/>
       <c r="F212" s="60"/>
       <c r="G212" s="60"/>
@@ -11663,7 +13813,11 @@
         <v>53</v>
       </c>
       <c r="C213" s="6"/>
-      <c r="D213" s="61"/>
+      <c r="D213" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E213" s="61"/>
       <c r="F213" s="61"/>
       <c r="G213" s="61"/>
@@ -11701,40 +13855,40 @@
     <row r="215" spans="2:18">
       <c r="B215" s="12"/>
       <c r="C215" s="32"/>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="54"/>
-      <c r="I215" s="54"/>
-      <c r="J215" s="54"/>
-      <c r="K215" s="54"/>
-      <c r="L215" s="54"/>
-      <c r="M215" s="54"/>
-      <c r="N215" s="54"/>
-      <c r="O215" s="54"/>
-      <c r="P215" s="54"/>
-      <c r="Q215" s="54"/>
-      <c r="R215" s="54"/>
+      <c r="D215" s="64"/>
+      <c r="E215" s="64"/>
+      <c r="F215" s="64"/>
+      <c r="G215" s="64"/>
+      <c r="H215" s="64"/>
+      <c r="I215" s="64"/>
+      <c r="J215" s="64"/>
+      <c r="K215" s="64"/>
+      <c r="L215" s="64"/>
+      <c r="M215" s="64"/>
+      <c r="N215" s="64"/>
+      <c r="O215" s="64"/>
+      <c r="P215" s="64"/>
+      <c r="Q215" s="64"/>
+      <c r="R215" s="64"/>
     </row>
     <row r="216" spans="2:18" ht="39.75">
       <c r="B216" s="17"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
-      <c r="F216" s="60"/>
-      <c r="G216" s="60"/>
-      <c r="H216" s="60"/>
-      <c r="I216" s="60"/>
-      <c r="J216" s="60"/>
-      <c r="K216" s="60"/>
-      <c r="L216" s="60"/>
-      <c r="M216" s="60"/>
-      <c r="N216" s="60"/>
-      <c r="O216" s="60"/>
-      <c r="P216" s="60"/>
-      <c r="Q216" s="60"/>
-      <c r="R216" s="60"/>
+      <c r="D216" s="65"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="65"/>
+      <c r="G216" s="65"/>
+      <c r="H216" s="65"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="65"/>
+      <c r="K216" s="65"/>
+      <c r="L216" s="65"/>
+      <c r="M216" s="65"/>
+      <c r="N216" s="65"/>
+      <c r="O216" s="65"/>
+      <c r="P216" s="65"/>
+      <c r="Q216" s="65"/>
+      <c r="R216" s="65"/>
     </row>
     <row r="217" spans="2:18" ht="58.5">
       <c r="B217" s="19">
@@ -11742,21 +13896,51 @@
         <v>54</v>
       </c>
       <c r="C217" s="6"/>
-      <c r="D217" s="61"/>
-      <c r="E217" s="61"/>
-      <c r="F217" s="61"/>
-      <c r="G217" s="61"/>
-      <c r="H217" s="61"/>
-      <c r="I217" s="61"/>
-      <c r="J217" s="61"/>
-      <c r="K217" s="61"/>
-      <c r="L217" s="61"/>
-      <c r="M217" s="61"/>
-      <c r="N217" s="61"/>
-      <c r="O217" s="61"/>
-      <c r="P217" s="61"/>
-      <c r="Q217" s="61"/>
-      <c r="R217" s="61"/>
+      <c r="D217" s="61" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E217" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F217" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G217" s="61" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H217" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I217" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J217" s="61" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K217" s="61" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L217" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M217" s="61" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N217" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O217" s="61" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P217" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q217" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="R217" s="61" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="21"/>
@@ -11780,40 +13964,40 @@
     <row r="219" spans="2:18">
       <c r="B219" s="12"/>
       <c r="C219" s="32"/>
-      <c r="D219" s="54"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="54"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="54"/>
-      <c r="I219" s="54"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="54"/>
-      <c r="L219" s="54"/>
-      <c r="M219" s="54"/>
-      <c r="N219" s="54"/>
-      <c r="O219" s="54"/>
-      <c r="P219" s="54"/>
-      <c r="Q219" s="54"/>
-      <c r="R219" s="54"/>
+      <c r="D219" s="64"/>
+      <c r="E219" s="64"/>
+      <c r="F219" s="64"/>
+      <c r="G219" s="64"/>
+      <c r="H219" s="64"/>
+      <c r="I219" s="64"/>
+      <c r="J219" s="64"/>
+      <c r="K219" s="64"/>
+      <c r="L219" s="64"/>
+      <c r="M219" s="64"/>
+      <c r="N219" s="64"/>
+      <c r="O219" s="64"/>
+      <c r="P219" s="64"/>
+      <c r="Q219" s="64"/>
+      <c r="R219" s="64"/>
     </row>
     <row r="220" spans="2:18" ht="39.75">
       <c r="B220" s="17"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="60"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="60"/>
-      <c r="I220" s="60"/>
-      <c r="J220" s="60"/>
-      <c r="K220" s="60"/>
-      <c r="L220" s="60"/>
-      <c r="M220" s="60"/>
-      <c r="N220" s="60"/>
-      <c r="O220" s="60"/>
-      <c r="P220" s="60"/>
-      <c r="Q220" s="60"/>
-      <c r="R220" s="60"/>
+      <c r="D220" s="65"/>
+      <c r="E220" s="65"/>
+      <c r="F220" s="65"/>
+      <c r="G220" s="65"/>
+      <c r="H220" s="65"/>
+      <c r="I220" s="65"/>
+      <c r="J220" s="65"/>
+      <c r="K220" s="65"/>
+      <c r="L220" s="65"/>
+      <c r="M220" s="65"/>
+      <c r="N220" s="65"/>
+      <c r="O220" s="65"/>
+      <c r="P220" s="65"/>
+      <c r="Q220" s="65"/>
+      <c r="R220" s="65"/>
     </row>
     <row r="221" spans="2:18" ht="58.5">
       <c r="B221" s="19">
@@ -11821,21 +14005,51 @@
         <v>55</v>
       </c>
       <c r="C221" s="6"/>
-      <c r="D221" s="61"/>
-      <c r="E221" s="61"/>
-      <c r="F221" s="61"/>
-      <c r="G221" s="61"/>
-      <c r="H221" s="61"/>
-      <c r="I221" s="61"/>
-      <c r="J221" s="61"/>
-      <c r="K221" s="61"/>
-      <c r="L221" s="61"/>
-      <c r="M221" s="61"/>
-      <c r="N221" s="61"/>
-      <c r="O221" s="61"/>
-      <c r="P221" s="61"/>
-      <c r="Q221" s="61"/>
-      <c r="R221" s="61"/>
+      <c r="D221" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F221" s="61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G221" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H221" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I221" s="61" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J221" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K221" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L221" s="61" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M221" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="N221" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O221" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="P221" s="61" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q221" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R221" s="61" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="21"/>
@@ -11859,40 +14073,40 @@
     <row r="223" spans="2:18">
       <c r="B223" s="12"/>
       <c r="C223" s="32"/>
-      <c r="D223" s="54"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="54"/>
-      <c r="G223" s="54"/>
-      <c r="H223" s="54"/>
-      <c r="I223" s="54"/>
-      <c r="J223" s="54"/>
-      <c r="K223" s="54"/>
-      <c r="L223" s="54"/>
-      <c r="M223" s="54"/>
-      <c r="N223" s="54"/>
-      <c r="O223" s="54"/>
-      <c r="P223" s="54"/>
-      <c r="Q223" s="54"/>
-      <c r="R223" s="54"/>
+      <c r="D223" s="64"/>
+      <c r="E223" s="64"/>
+      <c r="F223" s="64"/>
+      <c r="G223" s="64"/>
+      <c r="H223" s="64"/>
+      <c r="I223" s="64"/>
+      <c r="J223" s="64"/>
+      <c r="K223" s="64"/>
+      <c r="L223" s="64"/>
+      <c r="M223" s="64"/>
+      <c r="N223" s="64"/>
+      <c r="O223" s="64"/>
+      <c r="P223" s="64"/>
+      <c r="Q223" s="64"/>
+      <c r="R223" s="64"/>
     </row>
     <row r="224" spans="2:18" ht="39.75">
       <c r="B224" s="17"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="60"/>
-      <c r="H224" s="60"/>
-      <c r="I224" s="60"/>
-      <c r="J224" s="60"/>
-      <c r="K224" s="60"/>
-      <c r="L224" s="60"/>
-      <c r="M224" s="60"/>
-      <c r="N224" s="60"/>
-      <c r="O224" s="60"/>
-      <c r="P224" s="60"/>
-      <c r="Q224" s="60"/>
-      <c r="R224" s="60"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="65"/>
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="65"/>
+      <c r="K224" s="65"/>
+      <c r="L224" s="65"/>
+      <c r="M224" s="65"/>
+      <c r="N224" s="65"/>
+      <c r="O224" s="65"/>
+      <c r="P224" s="65"/>
+      <c r="Q224" s="65"/>
+      <c r="R224" s="65"/>
     </row>
     <row r="225" spans="2:18" ht="58.5">
       <c r="B225" s="19">
@@ -11900,21 +14114,51 @@
         <v>56</v>
       </c>
       <c r="C225" s="6"/>
-      <c r="D225" s="61"/>
-      <c r="E225" s="61"/>
-      <c r="F225" s="61"/>
-      <c r="G225" s="61"/>
-      <c r="H225" s="61"/>
-      <c r="I225" s="61"/>
-      <c r="J225" s="61"/>
-      <c r="K225" s="61"/>
-      <c r="L225" s="61"/>
-      <c r="M225" s="61"/>
-      <c r="N225" s="61"/>
-      <c r="O225" s="61"/>
-      <c r="P225" s="61"/>
-      <c r="Q225" s="61"/>
-      <c r="R225" s="61"/>
+      <c r="D225" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F225" s="61" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G225" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H225" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I225" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J225" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="K225" s="61" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L225" s="61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M225" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N225" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O225" s="61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P225" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q225" s="61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R225" s="61" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="21"/>
@@ -11938,40 +14182,40 @@
     <row r="227" spans="2:18">
       <c r="B227" s="12"/>
       <c r="C227" s="32"/>
-      <c r="D227" s="54"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="54"/>
-      <c r="H227" s="54"/>
-      <c r="I227" s="54"/>
-      <c r="J227" s="54"/>
-      <c r="K227" s="54"/>
-      <c r="L227" s="54"/>
-      <c r="M227" s="54"/>
-      <c r="N227" s="54"/>
-      <c r="O227" s="54"/>
-      <c r="P227" s="54"/>
-      <c r="Q227" s="54"/>
-      <c r="R227" s="54"/>
+      <c r="D227" s="64"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="64"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="64"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="64"/>
+      <c r="K227" s="64"/>
+      <c r="L227" s="64"/>
+      <c r="M227" s="64"/>
+      <c r="N227" s="64"/>
+      <c r="O227" s="64"/>
+      <c r="P227" s="64"/>
+      <c r="Q227" s="64"/>
+      <c r="R227" s="64"/>
     </row>
     <row r="228" spans="2:18" ht="39.75">
       <c r="B228" s="17"/>
       <c r="C228" s="6"/>
-      <c r="D228" s="60"/>
-      <c r="E228" s="60"/>
-      <c r="F228" s="60"/>
-      <c r="G228" s="60"/>
-      <c r="H228" s="60"/>
-      <c r="I228" s="60"/>
-      <c r="J228" s="60"/>
-      <c r="K228" s="60"/>
-      <c r="L228" s="60"/>
-      <c r="M228" s="60"/>
-      <c r="N228" s="60"/>
-      <c r="O228" s="60"/>
-      <c r="P228" s="60"/>
-      <c r="Q228" s="60"/>
-      <c r="R228" s="60"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="65"/>
+      <c r="L228" s="65"/>
+      <c r="M228" s="65"/>
+      <c r="N228" s="65"/>
+      <c r="O228" s="65"/>
+      <c r="P228" s="65"/>
+      <c r="Q228" s="65"/>
+      <c r="R228" s="65"/>
     </row>
     <row r="229" spans="2:18" ht="58.5">
       <c r="B229" s="19">
@@ -11979,21 +14223,51 @@
         <v>57</v>
       </c>
       <c r="C229" s="6"/>
-      <c r="D229" s="61"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="61"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="61"/>
-      <c r="I229" s="61"/>
-      <c r="J229" s="61"/>
-      <c r="K229" s="61"/>
-      <c r="L229" s="61"/>
-      <c r="M229" s="61"/>
-      <c r="N229" s="61"/>
-      <c r="O229" s="61"/>
-      <c r="P229" s="61"/>
-      <c r="Q229" s="61"/>
-      <c r="R229" s="61"/>
+      <c r="D229" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E229" s="61" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F229" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G229" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H229" s="61" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I229" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J229" s="61" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K229" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L229" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M229" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="N229" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="O229" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P229" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q229" s="61" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R229" s="61" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="21"/>
@@ -12017,40 +14291,40 @@
     <row r="231" spans="2:18">
       <c r="B231" s="12"/>
       <c r="C231" s="32"/>
-      <c r="D231" s="54"/>
-      <c r="E231" s="54"/>
-      <c r="F231" s="54"/>
-      <c r="G231" s="54"/>
-      <c r="H231" s="54"/>
-      <c r="I231" s="54"/>
-      <c r="J231" s="54"/>
-      <c r="K231" s="54"/>
-      <c r="L231" s="54"/>
-      <c r="M231" s="54"/>
-      <c r="N231" s="54"/>
-      <c r="O231" s="54"/>
-      <c r="P231" s="54"/>
-      <c r="Q231" s="54"/>
-      <c r="R231" s="54"/>
+      <c r="D231" s="64"/>
+      <c r="E231" s="64"/>
+      <c r="F231" s="64"/>
+      <c r="G231" s="64"/>
+      <c r="H231" s="64"/>
+      <c r="I231" s="64"/>
+      <c r="J231" s="64"/>
+      <c r="K231" s="64"/>
+      <c r="L231" s="64"/>
+      <c r="M231" s="64"/>
+      <c r="N231" s="64"/>
+      <c r="O231" s="64"/>
+      <c r="P231" s="64"/>
+      <c r="Q231" s="64"/>
+      <c r="R231" s="64"/>
     </row>
     <row r="232" spans="2:18" ht="39.75">
       <c r="B232" s="17"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="60"/>
-      <c r="E232" s="60"/>
-      <c r="F232" s="60"/>
-      <c r="G232" s="60"/>
-      <c r="H232" s="60"/>
-      <c r="I232" s="60"/>
-      <c r="J232" s="60"/>
-      <c r="K232" s="60"/>
-      <c r="L232" s="60"/>
-      <c r="M232" s="60"/>
-      <c r="N232" s="60"/>
-      <c r="O232" s="60"/>
-      <c r="P232" s="60"/>
-      <c r="Q232" s="60"/>
-      <c r="R232" s="60"/>
+      <c r="D232" s="65"/>
+      <c r="E232" s="65"/>
+      <c r="F232" s="65"/>
+      <c r="G232" s="65"/>
+      <c r="H232" s="65"/>
+      <c r="I232" s="65"/>
+      <c r="J232" s="65"/>
+      <c r="K232" s="65"/>
+      <c r="L232" s="65"/>
+      <c r="M232" s="65"/>
+      <c r="N232" s="65"/>
+      <c r="O232" s="65"/>
+      <c r="P232" s="65"/>
+      <c r="Q232" s="65"/>
+      <c r="R232" s="65"/>
     </row>
     <row r="233" spans="2:18" ht="58.5">
       <c r="B233" s="19">
@@ -12058,21 +14332,51 @@
         <v>58</v>
       </c>
       <c r="C233" s="6"/>
-      <c r="D233" s="61"/>
-      <c r="E233" s="61"/>
-      <c r="F233" s="61"/>
-      <c r="G233" s="61"/>
-      <c r="H233" s="61"/>
-      <c r="I233" s="61"/>
-      <c r="J233" s="61"/>
-      <c r="K233" s="61"/>
-      <c r="L233" s="61"/>
-      <c r="M233" s="61"/>
-      <c r="N233" s="61"/>
-      <c r="O233" s="61"/>
-      <c r="P233" s="61"/>
-      <c r="Q233" s="61"/>
-      <c r="R233" s="61"/>
+      <c r="D233" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E233" s="61" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F233" s="61" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G233" s="61" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H233" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I233" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J233" s="61" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K233" s="61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="L233" s="61" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M233" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N233" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="O233" s="61" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P233" s="61" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q233" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="R233" s="61" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="21"/>
@@ -12096,18 +14400,18 @@
     <row r="235" spans="2:18">
       <c r="B235" s="12"/>
       <c r="C235" s="32"/>
-      <c r="D235" s="54"/>
-      <c r="E235" s="54"/>
-      <c r="F235" s="54"/>
-      <c r="G235" s="54"/>
-      <c r="H235" s="54"/>
-      <c r="I235" s="54"/>
-      <c r="J235" s="54"/>
-      <c r="K235" s="54"/>
-      <c r="L235" s="54"/>
-      <c r="M235" s="54"/>
-      <c r="N235" s="54"/>
-      <c r="O235" s="54"/>
+      <c r="D235" s="64"/>
+      <c r="E235" s="64"/>
+      <c r="F235" s="64"/>
+      <c r="G235" s="64"/>
+      <c r="H235" s="64"/>
+      <c r="I235" s="64"/>
+      <c r="J235" s="64"/>
+      <c r="K235" s="64"/>
+      <c r="L235" s="64"/>
+      <c r="M235" s="64"/>
+      <c r="N235" s="64"/>
+      <c r="O235" s="64"/>
       <c r="P235" s="54"/>
       <c r="Q235" s="54"/>
       <c r="R235" s="54"/>
@@ -12115,18 +14419,18 @@
     <row r="236" spans="2:18" ht="39.75">
       <c r="B236" s="17"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="60"/>
-      <c r="E236" s="60"/>
-      <c r="F236" s="60"/>
-      <c r="G236" s="60"/>
-      <c r="H236" s="60"/>
-      <c r="I236" s="60"/>
-      <c r="J236" s="60"/>
-      <c r="K236" s="60"/>
-      <c r="L236" s="60"/>
-      <c r="M236" s="60"/>
-      <c r="N236" s="60"/>
-      <c r="O236" s="60"/>
+      <c r="D236" s="65"/>
+      <c r="E236" s="65"/>
+      <c r="F236" s="65"/>
+      <c r="G236" s="65"/>
+      <c r="H236" s="65"/>
+      <c r="I236" s="65"/>
+      <c r="J236" s="65"/>
+      <c r="K236" s="65"/>
+      <c r="L236" s="65"/>
+      <c r="M236" s="65"/>
+      <c r="N236" s="65"/>
+      <c r="O236" s="65"/>
       <c r="P236" s="60"/>
       <c r="Q236" s="60"/>
       <c r="R236" s="60"/>
@@ -12137,18 +14441,44 @@
         <v>59</v>
       </c>
       <c r="C237" s="6"/>
-      <c r="D237" s="61"/>
-      <c r="E237" s="61"/>
-      <c r="F237" s="61"/>
-      <c r="G237" s="61"/>
-      <c r="H237" s="61"/>
-      <c r="I237" s="61"/>
-      <c r="J237" s="61"/>
-      <c r="K237" s="61"/>
-      <c r="L237" s="61"/>
-      <c r="M237" s="61"/>
-      <c r="N237" s="61"/>
-      <c r="O237" s="61"/>
+      <c r="D237" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E237" s="61" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F237" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G237" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H237" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="I237" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J237" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K237" s="61" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L237" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M237" s="61" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N237" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="O237" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="P237" s="61"/>
       <c r="Q237" s="61"/>
       <c r="R237" s="61"/>
@@ -12175,7 +14505,7 @@
     <row r="239" spans="2:18">
       <c r="B239" s="12"/>
       <c r="C239" s="32"/>
-      <c r="D239" s="54"/>
+      <c r="D239" s="64"/>
       <c r="E239" s="54"/>
       <c r="F239" s="54"/>
       <c r="G239" s="54"/>
@@ -12194,7 +14524,7 @@
     <row r="240" spans="2:18" ht="39.75">
       <c r="B240" s="17"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="60"/>
+      <c r="D240" s="65"/>
       <c r="E240" s="60"/>
       <c r="F240" s="60"/>
       <c r="G240" s="60"/>
@@ -12216,7 +14546,11 @@
         <v>60</v>
       </c>
       <c r="C241" s="6"/>
-      <c r="D241" s="61"/>
+      <c r="D241" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E241" s="61"/>
       <c r="F241" s="61"/>
       <c r="G241" s="61"/>
@@ -12295,7 +14629,9 @@
         <v>61</v>
       </c>
       <c r="C245" s="6"/>
-      <c r="D245" s="39"/>
+      <c r="D245" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="E245" s="39"/>
       <c r="F245" s="39"/>
       <c r="G245" s="39"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{259A06C2-9C58-4224-A3F1-1FC225696374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA77E1E2-0C67-4D22-BE21-69A143E0F1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA77E1E2-0C67-4D22-BE21-69A143E0F1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E813045-1C89-4611-84DB-13DACBA0A50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId3"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId4"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
+    <sheet name="工作表8" sheetId="129" r:id="rId3"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId4"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId5"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="1602">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4019,19 +4020,1309 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>兮</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>蕪</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
     <t>​</t>
+  </si>
+  <si>
+    <t>kì</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t>hô</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>惆</t>
+  </si>
+  <si>
+    <t>悵</t>
+  </si>
+  <si>
+    <t>獨</t>
+  </si>
+  <si>
+    <t>Kì</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>hêng</t>
+  </si>
+  <si>
+    <t>sê</t>
+  </si>
+  <si>
+    <t>to̍k</t>
+  </si>
+  <si>
+    <t>悟</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>諫</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>Ngōo</t>
+  </si>
+  <si>
+    <t>khó</t>
+  </si>
+  <si>
+    <t>實</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>途</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>覺</t>
+  </si>
+  <si>
+    <t>昨</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>tô͘</t>
+  </si>
+  <si>
+    <t>kî</t>
+  </si>
+  <si>
+    <t>kak</t>
+  </si>
+  <si>
+    <t>sī</t>
+  </si>
+  <si>
+    <t>舟</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>輕</t>
+  </si>
+  <si>
+    <t>揚</t>
+  </si>
+  <si>
+    <t>飄</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>hong</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>征</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>熹</t>
+  </si>
+  <si>
+    <t>瞻</t>
+  </si>
+  <si>
+    <t>衡</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>載</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>奔</t>
+  </si>
+  <si>
+    <t>僮</t>
+  </si>
+  <si>
+    <t>僕</t>
+  </si>
+  <si>
+    <t>歡</t>
+  </si>
+  <si>
+    <t>迎</t>
+  </si>
+  <si>
+    <t>稚</t>
+  </si>
+  <si>
+    <t>候</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>徑</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>荒</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>菊</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>攜</t>
+  </si>
+  <si>
+    <t>幼</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>樽</t>
+  </si>
+  <si>
+    <t>Kê</t>
+  </si>
+  <si>
+    <t>êng</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>壺</t>
+  </si>
+  <si>
+    <t>觴</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>眄</t>
+  </si>
+  <si>
+    <t>柯</t>
+  </si>
+  <si>
+    <t>顏</t>
+  </si>
+  <si>
+    <t>Ín</t>
+  </si>
+  <si>
+    <t>倚</t>
+  </si>
+  <si>
+    <t>窗</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>傲</t>
+  </si>
+  <si>
+    <t>審</t>
+  </si>
+  <si>
+    <t>容</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>Ía</t>
+  </si>
+  <si>
+    <t>涉</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>雖</t>
+  </si>
+  <si>
+    <t>設</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>Hn̂g</t>
+  </si>
+  <si>
+    <t>策</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>憩</t>
+  </si>
+  <si>
+    <t>矯</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>遐</t>
+  </si>
+  <si>
+    <t>Chhek</t>
+  </si>
+  <si>
+    <t>sî</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>岫</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>bô</t>
+  </si>
+  <si>
+    <t>koān</t>
+  </si>
+  <si>
+    <t>翳</t>
+  </si>
+  <si>
+    <t>撫</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>盤</t>
+  </si>
+  <si>
+    <t>桓</t>
+  </si>
+  <si>
+    <t>hó͘</t>
+  </si>
+  <si>
+    <t>請</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>絕</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>遺</t>
+  </si>
+  <si>
+    <t>複</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>焉</t>
+  </si>
+  <si>
+    <t>Sè</t>
+  </si>
+  <si>
+    <t>góa</t>
+  </si>
+  <si>
+    <t>ho̍k</t>
+  </si>
+  <si>
+    <t>kà</t>
+  </si>
+  <si>
+    <t>gōa</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>悅</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>戚</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>Oat</t>
+  </si>
+  <si>
+    <t>lo̍k</t>
+  </si>
+  <si>
+    <t>農</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>疇</t>
+  </si>
+  <si>
+    <t>kò͘</t>
+  </si>
+  <si>
+    <t>sū</t>
+  </si>
+  <si>
+    <t>hū</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>棹</t>
+  </si>
+  <si>
+    <t>O̍h</t>
+  </si>
+  <si>
+    <t>bēng</t>
+  </si>
+  <si>
+    <t>窈</t>
+  </si>
+  <si>
+    <t>窕</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>壑</t>
+  </si>
+  <si>
+    <t>崎</t>
+  </si>
+  <si>
+    <t>嶇</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>榮</t>
+  </si>
+  <si>
+    <t>泉</t>
+  </si>
+  <si>
+    <t>涓</t>
+  </si>
+  <si>
+    <t>始</t>
+  </si>
+  <si>
+    <t>Bo̍k</t>
+  </si>
+  <si>
+    <t>羨</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>tek</t>
+  </si>
+  <si>
+    <t>kám</t>
+  </si>
+  <si>
+    <t>寓</t>
+  </si>
+  <si>
+    <t>內</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>曷</t>
+  </si>
+  <si>
+    <t>委</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>遑</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>富</t>
+  </si>
+  <si>
+    <t>貴</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>ngô͘</t>
+  </si>
+  <si>
+    <t>良</t>
+  </si>
+  <si>
+    <t>辰</t>
+  </si>
+  <si>
+    <t>植</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>耘</t>
+  </si>
+  <si>
+    <t>耔</t>
+  </si>
+  <si>
+    <t>koo</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>臯</t>
+  </si>
+  <si>
+    <t>舒</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>Teng</t>
+  </si>
+  <si>
+    <t>聊</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>疑</t>
+  </si>
+  <si>
+    <t>sêng</t>
+  </si>
+  <si>
+    <t>hoà</t>
+  </si>
+  <si>
+    <t>hê</t>
+  </si>
+  <si>
+    <t>​</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ôan</t>
+  </si>
+  <si>
+    <t>óng</t>
+  </si>
+  <si>
+    <t>kheng</t>
+  </si>
+  <si>
+    <t>kong</t>
+  </si>
+  <si>
+    <t>Tông</t>
+  </si>
+  <si>
+    <t>po̍k</t>
+  </si>
+  <si>
+    <t>tì</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>kèng</t>
+  </si>
+  <si>
+    <t>têng</t>
+  </si>
+  <si>
+    <t>kho</t>
+  </si>
+  <si>
+    <t>lâm</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>hû</t>
+  </si>
+  <si>
+    <t>lō</t>
+  </si>
+  <si>
+    <t>è</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>poâⁿ</t>
+  </si>
+  <si>
+    <t>saⁿ</t>
+  </si>
+  <si>
+    <t>Lông</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>khê</t>
+  </si>
+  <si>
+    <t>keng</t>
+  </si>
+  <si>
+    <t>bān</t>
+  </si>
+  <si>
+    <t>seng</t>
+  </si>
+  <si>
+    <t>ú</t>
+  </si>
+  <si>
+    <t>khì</t>
+  </si>
+  <si>
+    <t>hông</t>
+  </si>
+  <si>
+    <t>Hù</t>
+  </si>
+  <si>
+    <t>tè</t>
+  </si>
+  <si>
+    <t>hûn</t>
+  </si>
+  <si>
+    <t>tong</t>
+  </si>
+  <si>
+    <t>hù</t>
+  </si>
+  <si>
+    <t>khak</t>
+  </si>
+  <si>
+    <t>kàn</t>
+  </si>
+  <si>
+    <t>hoân​</t>
+  </si>
+  <si>
+    <t>hôo</t>
+  </si>
+  <si>
+    <t>goān</t>
+  </si>
+  <si>
+    <t>lō͘</t>
+  </si>
+  <si>
+    <t>gêng</t>
+  </si>
+  <si>
+    <t>gân​</t>
+  </si>
+  <si>
+    <t>ngō</t>
+  </si>
+  <si>
+    <t>khè</t>
+  </si>
+  <si>
+    <t>koân​</t>
+  </si>
+  <si>
+    <t>ōe</t>
+  </si>
+  <si>
+    <t>zū</t>
+  </si>
+  <si>
+    <t>za̍k</t>
+  </si>
+  <si>
+    <t>zeng</t>
+  </si>
+  <si>
+    <t>zêng</t>
+  </si>
+  <si>
+    <t>cù</t>
+  </si>
+  <si>
+    <t>cek</t>
+  </si>
+  <si>
+    <t>ceng</t>
+  </si>
+  <si>
+    <t>woán</t>
+  </si>
+  <si>
+    <t>we̍k</t>
+  </si>
+  <si>
+    <t>wan​</t>
+  </si>
+  <si>
+    <t>wo̍h</t>
+  </si>
+  <si>
+    <t>Kūe</t>
+  </si>
+  <si>
+    <t>lâī</t>
+  </si>
+  <si>
+    <t>Tīân</t>
+  </si>
+  <si>
+    <t>zīong</t>
+  </si>
+  <si>
+    <t>pūt</t>
+  </si>
+  <si>
+    <t>kūe​</t>
+  </si>
+  <si>
+    <t>zû</t>
+  </si>
+  <si>
+    <t>ǐ</t>
+  </si>
+  <si>
+    <t>sīm</t>
+  </si>
+  <si>
+    <t>úī</t>
+  </si>
+  <si>
+    <t>ī̍k</t>
+  </si>
+  <si>
+    <t>tīú</t>
+  </si>
+  <si>
+    <t>tīòng</t>
+  </si>
+  <si>
+    <t>jî</t>
+  </si>
+  <si>
+    <t>pī​</t>
+  </si>
+  <si>
+    <t>zī</t>
+  </si>
+  <si>
+    <t>zaī</t>
+  </si>
+  <si>
+    <t>zīá</t>
+  </si>
+  <si>
+    <t>tūī;​</t>
+  </si>
+  <si>
+    <t>Sī̍t</t>
+  </si>
+  <si>
+    <t>bêī</t>
+  </si>
+  <si>
+    <t>kí</t>
+  </si>
+  <si>
+    <t>bî</t>
+  </si>
+  <si>
+    <t>kīn</t>
+  </si>
+  <si>
+    <t>hūī​</t>
+  </si>
+  <si>
+    <t>Chīū</t>
+  </si>
+  <si>
+    <t>īô</t>
+  </si>
+  <si>
+    <t>īông</t>
+  </si>
+  <si>
+    <t>phīô</t>
+  </si>
+  <si>
+    <t>cūī</t>
+  </si>
+  <si>
+    <t>ī​</t>
+  </si>
+  <si>
+    <t>Mûn</t>
+  </si>
+  <si>
+    <t>sín</t>
+  </si>
+  <si>
+    <t>hī</t>
+  </si>
+  <si>
+    <t>bí​</t>
+  </si>
+  <si>
+    <t>Náī</t>
+  </si>
+  <si>
+    <t>cīam</t>
+  </si>
+  <si>
+    <t>ǔ</t>
+  </si>
+  <si>
+    <t>zàī</t>
+  </si>
+  <si>
+    <t>hīn</t>
+  </si>
+  <si>
+    <t>pūn​</t>
+  </si>
+  <si>
+    <t>hūan</t>
+  </si>
+  <si>
+    <t>zǔ</t>
+  </si>
+  <si>
+    <t>hāū</t>
+  </si>
+  <si>
+    <t>mûī​</t>
+  </si>
+  <si>
+    <t>zīû</t>
+  </si>
+  <si>
+    <t>cīông</t>
+  </si>
+  <si>
+    <t>kīok</t>
+  </si>
+  <si>
+    <t>īú</t>
+  </si>
+  <si>
+    <t>zún​</t>
+  </si>
+  <si>
+    <t>īù</t>
+  </si>
+  <si>
+    <t>jī̍p</t>
+  </si>
+  <si>
+    <t>sít</t>
+  </si>
+  <si>
+    <t>zīǔ</t>
+  </si>
+  <si>
+    <t>zūn​</t>
+  </si>
+  <si>
+    <t>snīū</t>
+  </si>
+  <si>
+    <t>zīok</t>
+  </si>
+  <si>
+    <t>mīā</t>
+  </si>
+  <si>
+    <t>zīang</t>
+  </si>
+  <si>
+    <t>sǐm</t>
+  </si>
+  <si>
+    <t>jī̍t</t>
+  </si>
+  <si>
+    <t>sī̍p</t>
+  </si>
+  <si>
+    <t>zīâⁿ</t>
+  </si>
+  <si>
+    <t>mûī</t>
+  </si>
+  <si>
+    <t>sūī</t>
+  </si>
+  <si>
+    <t>sīat</t>
+  </si>
+  <si>
+    <t>sīông</t>
+  </si>
+  <si>
+    <t>kūaī​</t>
+  </si>
+  <si>
+    <t>hú</t>
+  </si>
+  <si>
+    <t>līú</t>
+  </si>
+  <si>
+    <t>sí</t>
+  </si>
+  <si>
+    <t>kīáū</t>
+  </si>
+  <si>
+    <t>sīǔ</t>
+  </si>
+  <si>
+    <t>hīa</t>
+  </si>
+  <si>
+    <t>kūan​</t>
+  </si>
+  <si>
+    <t>Hún</t>
+  </si>
+  <si>
+    <t>cūt</t>
+  </si>
+  <si>
+    <t>sīû</t>
+  </si>
+  <si>
+    <t>zīáū</t>
+  </si>
+  <si>
+    <t>hūī</t>
+  </si>
+  <si>
+    <t>Kǐng</t>
+  </si>
+  <si>
+    <t>Chhǐng</t>
+  </si>
+  <si>
+    <t>sī̍k</t>
+  </si>
+  <si>
+    <t>kaū</t>
+  </si>
+  <si>
+    <t>zūa̍t</t>
+  </si>
+  <si>
+    <t>īú​</t>
+  </si>
+  <si>
+    <t>īan</t>
+  </si>
+  <si>
+    <t>kīú​</t>
+  </si>
+  <si>
+    <t>cīn</t>
+  </si>
+  <si>
+    <t>khím</t>
+  </si>
+  <si>
+    <t>sīaū</t>
+  </si>
+  <si>
+    <t>īū​</t>
+  </si>
+  <si>
+    <t>jín</t>
+  </si>
+  <si>
+    <t>cūn</t>
+  </si>
+  <si>
+    <t>kī̍p</t>
+  </si>
+  <si>
+    <t>sû</t>
+  </si>
+  <si>
+    <t>tīǔ​</t>
+  </si>
+  <si>
+    <t>kūn</t>
+  </si>
+  <si>
+    <t>cīa</t>
+  </si>
+  <si>
+    <t>tàū</t>
+  </si>
+  <si>
+    <t>zīū​</t>
+  </si>
+  <si>
+    <t>īáū</t>
+  </si>
+  <si>
+    <t>tīáū</t>
+  </si>
+  <si>
+    <t>cím</t>
+  </si>
+  <si>
+    <t>khūe</t>
+  </si>
+  <si>
+    <t>khīū​</t>
+  </si>
+  <si>
+    <t>hīòng</t>
+  </si>
+  <si>
+    <t>íng</t>
+  </si>
+  <si>
+    <t>zūann7</t>
+  </si>
+  <si>
+    <t>kūan1</t>
+  </si>
+  <si>
+    <t>jī2</t>
+  </si>
+  <si>
+    <t>sī5</t>
+  </si>
+  <si>
+    <t>lūa2</t>
+  </si>
+  <si>
+    <t>Sīān</t>
+  </si>
+  <si>
+    <t>bū̍t</t>
+  </si>
+  <si>
+    <t>hīū</t>
+  </si>
+  <si>
+    <t>Gû</t>
+  </si>
+  <si>
+    <t>lāī</t>
+  </si>
+  <si>
+    <t>ǔī</t>
+  </si>
+  <si>
+    <t>jîm</t>
+  </si>
+  <si>
+    <t>ûī</t>
+  </si>
+  <si>
+    <t>īo̍k</t>
+  </si>
+  <si>
+    <t>kùī</t>
+  </si>
+  <si>
+    <t>hīong</t>
+  </si>
+  <si>
+    <t>Hoâī</t>
+  </si>
+  <si>
+    <t>līông</t>
+  </si>
+  <si>
+    <t>tī̍t</t>
+  </si>
+  <si>
+    <t>tīōng</t>
+  </si>
+  <si>
+    <t>hún</t>
+  </si>
+  <si>
+    <t>sīàū</t>
+  </si>
+  <si>
+    <t>lím</t>
+  </si>
+  <si>
+    <t>Līâū</t>
+  </si>
+  <si>
+    <t>kūī</t>
+  </si>
+  <si>
+    <t>zîn</t>
+  </si>
+  <si>
+    <t>thīan</t>
+  </si>
+  <si>
+    <t>gí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4322,8 +5613,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4345,6 +5642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4426,7 +5729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4618,6 +5921,16 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7229,7 +8542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R121" sqref="R121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -7344,21 +8659,21 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
       <c r="T3" s="16"/>
       <c r="V3" s="55" t="s">
         <v>1168</v>
@@ -7366,21 +8681,43 @@
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="D4" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
     </row>
@@ -7388,21 +8725,49 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="D5" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N5" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="64" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R5" s="64"/>
       <c r="S5" s="20"/>
       <c r="V5" s="56"/>
     </row>
@@ -7430,41 +8795,67 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
+      <c r="D8" s="65" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O8" s="65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>1480</v>
+      </c>
+      <c r="R8" s="65"/>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
     </row>
@@ -7473,23 +8864,53 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
+      <c r="D9" s="64" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N9" s="64" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>161</v>
+      </c>
       <c r="S9" s="20" t="s">
-        <v>1170</v>
+        <v>1408</v>
       </c>
       <c r="T9" s="16"/>
       <c r="V9" s="56"/>
@@ -7517,40 +8938,64 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
       <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="D12" s="65" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O12" s="65" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P12" s="65" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
       <c r="S12" s="18"/>
       <c r="V12" s="56"/>
     </row>
@@ -7559,21 +9004,51 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="D13" s="64" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>1177</v>
+      </c>
       <c r="S13" s="20"/>
       <c r="V13" s="56"/>
     </row>
@@ -7600,40 +9075,64 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="D16" s="65" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>1489</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>1291</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>1456</v>
+      </c>
+      <c r="P16" s="65" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
     </row>
@@ -7642,21 +9141,51 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="D17" s="64" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P17" s="64" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>1177</v>
+      </c>
       <c r="S17" s="20"/>
       <c r="V17" s="56"/>
     </row>
@@ -7683,40 +9212,64 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
+      <c r="D20" s="65" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M20" s="65" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O20" s="65" t="s">
+        <v>1495</v>
+      </c>
+      <c r="P20" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
     </row>
@@ -7725,21 +9278,51 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="D21" s="64" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M21" s="64" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N21" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P21" s="64" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q21" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="64" t="s">
+        <v>1177</v>
+      </c>
       <c r="S21" s="20"/>
       <c r="V21" s="56"/>
     </row>
@@ -7766,40 +9349,64 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
+      <c r="D24" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65" t="s">
+        <v>1440</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M24" s="65" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N24" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O24" s="65" t="s">
+        <v>1499</v>
+      </c>
+      <c r="P24" s="65" t="s">
+        <v>1500</v>
+      </c>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
     </row>
@@ -7808,21 +9415,51 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
+      <c r="D25" s="64" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="64" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="64" t="s">
+        <v>1177</v>
+      </c>
       <c r="S25" s="20"/>
       <c r="V25" s="56"/>
     </row>
@@ -7849,19 +9486,19 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54"/>
       <c r="U27" s="33" t="str">
@@ -7872,19 +9509,35 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="18"/>
@@ -7899,19 +9552,41 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
+      <c r="D29" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L29" s="64" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M29" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="64" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="61"/>
       <c r="R29" s="61"/>
       <c r="S29" s="20"/>
@@ -7971,15 +9646,31 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="D32" s="60" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>1449</v>
+      </c>
       <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
+      <c r="I32" s="60" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>1510</v>
+      </c>
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -7998,17 +9689,39 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
+      <c r="D33" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M33" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="O33" s="61"/>
       <c r="P33" s="61"/>
       <c r="Q33" s="61"/>
@@ -8058,15 +9771,31 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="D36" s="60" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>1220</v>
+      </c>
       <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
+      <c r="I36" s="60" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>1515</v>
+      </c>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -8081,17 +9810,39 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
+      <c r="D37" s="61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="O37" s="61"/>
       <c r="P37" s="61"/>
       <c r="Q37" s="61"/>
@@ -8141,15 +9892,31 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="D40" s="60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>1518</v>
+      </c>
       <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
+      <c r="I40" s="60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J40" s="60" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K40" s="60" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>1520</v>
+      </c>
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -8164,17 +9931,39 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
+      <c r="D41" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" s="61" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L41" s="61" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="O41" s="61"/>
       <c r="P41" s="61"/>
       <c r="Q41" s="61"/>
@@ -8224,19 +10013,43 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
+      <c r="D44" s="60" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>1522</v>
+      </c>
       <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
+      <c r="K44" s="60" t="s">
+        <v>1523</v>
+      </c>
+      <c r="L44" s="60" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M44" s="60" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N44" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="O44" s="60" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P44" s="60" t="s">
+        <v>1450</v>
+      </c>
       <c r="Q44" s="60"/>
       <c r="R44" s="60"/>
       <c r="S44" s="18"/>
@@ -8247,21 +10060,51 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
+      <c r="D45" s="61" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Q45" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S45" s="20"/>
       <c r="V45" s="56"/>
     </row>
@@ -8307,19 +10150,43 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
+      <c r="D48" s="60" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>1451</v>
+      </c>
       <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
+      <c r="K48" s="60" t="s">
+        <v>1525</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>1493</v>
+      </c>
+      <c r="M48" s="60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N48" s="60" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O48" s="60" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P48" s="60" t="s">
+        <v>1464</v>
+      </c>
       <c r="Q48" s="60"/>
       <c r="R48" s="60"/>
       <c r="S48" s="18"/>
@@ -8330,21 +10197,51 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
+      <c r="D49" s="61" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P49" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q49" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S49" s="20"/>
       <c r="V49" s="56"/>
     </row>
@@ -8390,19 +10287,43 @@
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
+      <c r="D52" s="60" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I52" s="60" t="s">
+        <v>1459</v>
+      </c>
       <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
+      <c r="K52" s="60" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M52" s="60" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N52" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O52" s="60" t="s">
+        <v>1532</v>
+      </c>
+      <c r="P52" s="60" t="s">
+        <v>1533</v>
+      </c>
       <c r="Q52" s="60"/>
       <c r="R52" s="60"/>
       <c r="S52" s="18"/>
@@ -8413,21 +10334,51 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
+      <c r="D53" s="61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="61" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L53" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M53" s="61" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N53" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" s="61" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P53" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Q53" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S53" s="20"/>
       <c r="V53" s="56"/>
     </row>
@@ -8473,19 +10424,43 @@
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
+      <c r="D56" s="60" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I56" s="60" t="s">
+        <v>1452</v>
+      </c>
       <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
+      <c r="K56" s="60" t="s">
+        <v>1536</v>
+      </c>
+      <c r="L56" s="60" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M56" s="60" t="s">
+        <v>1538</v>
+      </c>
+      <c r="N56" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O56" s="60" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P56" s="60" t="s">
+        <v>1540</v>
+      </c>
       <c r="Q56" s="60"/>
       <c r="R56" s="60"/>
       <c r="S56" s="18"/>
@@ -8496,21 +10471,51 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
+      <c r="D57" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H57" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J57" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M57" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N57" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O57" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P57" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q57" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S57" s="20"/>
       <c r="V57" s="56"/>
     </row>
@@ -8556,19 +10561,43 @@
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
+      <c r="D60" s="60" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F60" s="60" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G60" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H60" s="60" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I60" s="60" t="s">
+        <v>1543</v>
+      </c>
       <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
+      <c r="K60" s="60" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L60" s="60" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="60" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N60" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O60" s="60" t="s">
+        <v>1482</v>
+      </c>
+      <c r="P60" s="60" t="s">
+        <v>1445</v>
+      </c>
       <c r="Q60" s="60"/>
       <c r="R60" s="60"/>
       <c r="S60" s="18"/>
@@ -8579,21 +10608,51 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
+      <c r="D61" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I61" s="61" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M61" s="61" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N61" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O61" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="P61" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S61" s="20"/>
       <c r="V61" s="56"/>
     </row>
@@ -8639,19 +10698,43 @@
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
+      <c r="D64" s="60" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E64" s="60" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F64" s="60" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I64" s="60" t="s">
+        <v>1517</v>
+      </c>
       <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
+      <c r="K64" s="60" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L64" s="60" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M64" s="60" t="s">
+        <v>1512</v>
+      </c>
+      <c r="N64" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O64" s="60" t="s">
+        <v>1427</v>
+      </c>
+      <c r="P64" s="60" t="s">
+        <v>1453</v>
+      </c>
       <c r="Q64" s="60"/>
       <c r="R64" s="60"/>
       <c r="S64" s="18"/>
@@ -8662,21 +10745,51 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
+      <c r="D65" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G65" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J65" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L65" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M65" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N65" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O65" s="61" t="s">
+        <v>1304</v>
+      </c>
+      <c r="P65" s="61" t="s">
+        <v>1305</v>
+      </c>
+      <c r="Q65" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R65" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S65" s="20"/>
       <c r="V65" s="56"/>
     </row>
@@ -8722,17 +10835,37 @@
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
+      <c r="D68" s="60" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E68" s="60" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G68" s="60" t="s">
+        <v>1325</v>
+      </c>
       <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
+      <c r="I68" s="60" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J68" s="60" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K68" s="60" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L68" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="M68" s="60" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N68" s="60" t="s">
+        <v>1551</v>
+      </c>
       <c r="O68" s="60"/>
       <c r="P68" s="60"/>
       <c r="Q68" s="60"/>
@@ -8745,19 +10878,45 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
+      <c r="D69" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H69" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="61" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J69" s="61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L69" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="M69" s="61" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N69" s="61" t="s">
+        <v>1311</v>
+      </c>
+      <c r="O69" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="Q69" s="61"/>
       <c r="R69" s="61"/>
       <c r="S69" s="20"/>
@@ -8805,19 +10964,43 @@
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
+      <c r="D72" s="60" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I72" s="60" t="s">
+        <v>1475</v>
+      </c>
       <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
+      <c r="K72" s="60" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L72" s="60" t="s">
+        <v>1323</v>
+      </c>
+      <c r="M72" s="60" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N72" s="60" t="s">
+        <v>1325</v>
+      </c>
+      <c r="O72" s="60" t="s">
+        <v>1552</v>
+      </c>
+      <c r="P72" s="60" t="s">
+        <v>1553</v>
+      </c>
       <c r="Q72" s="60"/>
       <c r="R72" s="60"/>
       <c r="S72" s="18"/>
@@ -8828,21 +11011,51 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
+      <c r="D73" s="61" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I73" s="61" t="s">
+        <v>1315</v>
+      </c>
+      <c r="J73" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L73" s="61" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M73" s="61" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N73" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O73" s="61" t="s">
+        <v>1319</v>
+      </c>
+      <c r="P73" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q73" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="R73" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
     </row>
@@ -8888,19 +11101,43 @@
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
+      <c r="D76" s="60" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F76" s="60" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G76" s="60" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H76" s="60" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I76" s="60" t="s">
+        <v>1454</v>
+      </c>
       <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60"/>
+      <c r="K76" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L76" s="60" t="s">
+        <v>1555</v>
+      </c>
+      <c r="M76" s="60" t="s">
+        <v>1455</v>
+      </c>
+      <c r="N76" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="O76" s="60" t="s">
+        <v>1556</v>
+      </c>
+      <c r="P76" s="60" t="s">
+        <v>1557</v>
+      </c>
       <c r="Q76" s="60"/>
       <c r="R76" s="60"/>
       <c r="S76" s="18"/>
@@ -8911,21 +11148,51 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="61"/>
+      <c r="D77" s="61" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E77" s="61" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G77" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="I77" s="61" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J77" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="L77" s="61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M77" s="61" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N77" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="O77" s="61" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P77" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q77" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R77" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
     </row>
@@ -8971,20 +11238,46 @@
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
+      <c r="D80" s="60" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E80" s="60" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F80" s="60" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G80" s="60" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I80" s="60" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J80" s="60" t="s">
+        <v>1560</v>
+      </c>
       <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60"/>
-      <c r="Q80" s="60"/>
+      <c r="L80" s="60" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M80" s="60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N80" s="60" t="s">
+        <v>1561</v>
+      </c>
+      <c r="O80" s="60" t="s">
+        <v>1423</v>
+      </c>
+      <c r="P80" s="60" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q80" s="60" t="s">
+        <v>1562</v>
+      </c>
       <c r="R80" s="60"/>
       <c r="S80" s="18"/>
       <c r="V80" s="56"/>
@@ -8994,23 +11287,53 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
+      <c r="D81" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E81" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="61" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G81" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H81" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J81" s="61" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M81" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" s="61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O81" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="P81" s="61" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Q81" s="61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="R81" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="S81" s="20" t="s">
-        <v>1170</v>
+        <v>1408</v>
       </c>
       <c r="V81" s="56"/>
     </row>
@@ -9056,15 +11379,31 @@
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
+      <c r="D84" s="60" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E84" s="60" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F84" s="60" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G84" s="60" t="s">
+        <v>1564</v>
+      </c>
       <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
+      <c r="I84" s="60" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J84" s="60" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K84" s="60" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L84" s="60" t="s">
+        <v>1566</v>
+      </c>
       <c r="M84" s="60"/>
       <c r="N84" s="60"/>
       <c r="O84" s="60"/>
@@ -9079,17 +11418,39 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
+      <c r="D85" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K85" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L85" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M85" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="O85" s="61"/>
       <c r="P85" s="61"/>
       <c r="Q85" s="61"/>
@@ -9139,19 +11500,43 @@
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
+      <c r="D88" s="60" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E88" s="60" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F88" s="60" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G88" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H88" s="60" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I88" s="60" t="s">
+        <v>1443</v>
+      </c>
       <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
+      <c r="K88" s="60" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L88" s="60" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M88" s="60" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N88" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O88" s="60" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P88" s="60" t="s">
+        <v>1571</v>
+      </c>
       <c r="Q88" s="60"/>
       <c r="R88" s="60"/>
       <c r="S88" s="18"/>
@@ -9162,21 +11547,51 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-      <c r="L89" s="61"/>
-      <c r="M89" s="61"/>
-      <c r="N89" s="61"/>
-      <c r="O89" s="61"/>
-      <c r="P89" s="61"/>
-      <c r="Q89" s="61"/>
-      <c r="R89" s="61"/>
+      <c r="D89" s="61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E89" s="61" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F89" s="61" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G89" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" s="61" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I89" s="61" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J89" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="L89" s="61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M89" s="61" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N89" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O89" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P89" s="61" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q89" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" s="61" t="s">
+        <v>1177</v>
+      </c>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
     </row>
@@ -9222,19 +11637,43 @@
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
+      <c r="D92" s="60" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E92" s="60" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F92" s="60" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G92" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H92" s="60" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I92" s="60" t="s">
+        <v>1573</v>
+      </c>
       <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
+      <c r="K92" s="60" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L92" s="60" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M92" s="60" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N92" s="60" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O92" s="60" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P92" s="60" t="s">
+        <v>1578</v>
+      </c>
       <c r="Q92" s="60"/>
       <c r="R92" s="60"/>
       <c r="S92" s="18"/>
@@ -9245,20 +11684,48 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61"/>
-      <c r="N93" s="61"/>
-      <c r="O93" s="61"/>
-      <c r="P93" s="61"/>
-      <c r="Q93" s="61"/>
+      <c r="D93" s="61" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E93" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G93" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="61" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I93" s="61" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J93" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="61" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L93" s="61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M93" s="61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N93" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O93" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P93" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Q93" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="R93" s="61"/>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
@@ -9305,19 +11772,43 @@
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
+      <c r="D96" s="60" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E96" s="60" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F96" s="60" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G96" s="60" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I96" s="60" t="s">
+        <v>1536</v>
+      </c>
       <c r="J96" s="60"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="60"/>
-      <c r="N96" s="60"/>
-      <c r="O96" s="60"/>
-      <c r="P96" s="60"/>
+      <c r="K96" s="60" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L96" s="60" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M96" s="60" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N96" s="60" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O96" s="60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="P96" s="60" t="s">
+        <v>1581</v>
+      </c>
       <c r="Q96" s="60"/>
       <c r="R96" s="60"/>
       <c r="S96" s="18"/>
@@ -9328,20 +11819,48 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
-      <c r="O97" s="61"/>
-      <c r="P97" s="61"/>
-      <c r="Q97" s="61"/>
+      <c r="D97" s="61" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E97" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H97" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="I97" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="J97" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="M97" s="61" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N97" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O97" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="P97" s="61" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q97" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="R97" s="61"/>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
@@ -9388,17 +11907,37 @@
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
+      <c r="D100" s="60" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E100" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F100" s="60" t="s">
+        <v>1446</v>
+      </c>
       <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
-      <c r="N100" s="60"/>
+      <c r="H100" s="60" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I100" s="60" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J100" s="60" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K100" s="60" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L100" s="60" t="s">
+        <v>1322</v>
+      </c>
+      <c r="M100" s="60" t="s">
+        <v>1210</v>
+      </c>
+      <c r="N100" s="60" t="s">
+        <v>1536</v>
+      </c>
       <c r="O100" s="60"/>
       <c r="P100" s="60"/>
       <c r="Q100" s="60"/>
@@ -9411,18 +11950,42 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="61"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
-      <c r="N101" s="61"/>
-      <c r="O101" s="61"/>
+      <c r="D101" s="61" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E101" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F101" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H101" s="61" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I101" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="J101" s="61" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K101" s="61" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L101" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M101" s="61" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N101" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="O101" s="61" t="s">
+        <v>23</v>
+      </c>
       <c r="P101" s="61"/>
       <c r="Q101" s="61"/>
       <c r="R101" s="61"/>
@@ -9471,21 +12034,49 @@
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
+      <c r="D104" s="60" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E104" s="60" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F104" s="60" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G104" s="60" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H104" s="60" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I104" s="60" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J104" s="60" t="s">
+        <v>1535</v>
+      </c>
       <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="60"/>
-      <c r="N104" s="60"/>
-      <c r="O104" s="60"/>
-      <c r="P104" s="60"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="60"/>
+      <c r="L104" s="60" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M104" s="60" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N104" s="60" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O104" s="60" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P104" s="60" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Q104" s="60" t="s">
+        <v>1180</v>
+      </c>
+      <c r="R104" s="60" t="s">
+        <v>1481</v>
+      </c>
       <c r="S104" s="18"/>
       <c r="V104" s="7"/>
     </row>
@@ -9494,23 +12085,53 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="61"/>
-      <c r="L105" s="61"/>
-      <c r="M105" s="61"/>
-      <c r="N105" s="61"/>
-      <c r="O105" s="61"/>
-      <c r="P105" s="61"/>
-      <c r="Q105" s="61"/>
-      <c r="R105" s="61"/>
+      <c r="D105" s="61" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E105" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="61" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G105" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="H105" s="61" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I105" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="J105" s="61" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K105" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M105" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N105" s="61" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O105" s="61" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P105" s="61" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q105" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="R105" s="61" t="s">
+        <v>108</v>
+      </c>
       <c r="S105" s="20" t="s">
-        <v>1171</v>
+        <v>1409</v>
       </c>
       <c r="V105" s="7"/>
     </row>
@@ -9556,17 +12177,37 @@
     </row>
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
+      <c r="D108" s="60" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E108" s="60" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F108" s="60" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G108" s="60" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H108" s="60" t="s">
+        <v>1447</v>
+      </c>
       <c r="I108" s="60"/>
-      <c r="J108" s="60"/>
-      <c r="K108" s="60"/>
-      <c r="L108" s="60"/>
-      <c r="M108" s="60"/>
-      <c r="N108" s="60"/>
+      <c r="J108" s="60" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K108" s="60" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L108" s="60" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M108" s="60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N108" s="60" t="s">
+        <v>1487</v>
+      </c>
       <c r="O108" s="60"/>
       <c r="P108" s="60"/>
       <c r="Q108" s="60"/>
@@ -9579,18 +12220,42 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="61"/>
-      <c r="L109" s="61"/>
-      <c r="M109" s="61"/>
-      <c r="N109" s="61"/>
-      <c r="O109" s="61"/>
+      <c r="D109" s="61" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E109" s="61" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F109" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G109" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H109" s="61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I109" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="J109" s="61" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K109" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="L109" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="M109" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N109" s="61" t="s">
+        <v>1386</v>
+      </c>
+      <c r="O109" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="P109" s="61"/>
       <c r="Q109" s="61"/>
       <c r="R109" s="61"/>
@@ -9639,19 +12304,43 @@
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
+      <c r="D112" s="60" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F112" s="60" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G112" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I112" s="60" t="s">
+        <v>1411</v>
+      </c>
       <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="60"/>
-      <c r="P112" s="60"/>
+      <c r="K112" s="60" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L112" s="60" t="s">
+        <v>1592</v>
+      </c>
+      <c r="M112" s="60" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N112" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O112" s="60" t="s">
+        <v>1594</v>
+      </c>
+      <c r="P112" s="60" t="s">
+        <v>1508</v>
+      </c>
       <c r="Q112" s="60"/>
       <c r="R112" s="60"/>
       <c r="S112" s="18"/>
@@ -9662,20 +12351,48 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="63"/>
-      <c r="K113" s="63"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="63"/>
-      <c r="N113" s="63"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="63"/>
-      <c r="Q113" s="63"/>
+      <c r="D113" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="63" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G113" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H113" s="63" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I113" s="63" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J113" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L113" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M113" s="63" t="s">
+        <v>1391</v>
+      </c>
+      <c r="N113" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="O113" s="63" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P113" s="63" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q113" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="R113" s="63"/>
       <c r="S113" s="20"/>
       <c r="V113" s="7"/>
@@ -9722,19 +12439,43 @@
     </row>
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="60"/>
+      <c r="D116" s="60" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E116" s="60" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F116" s="60" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G116" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H116" s="60" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I116" s="60" t="s">
+        <v>1595</v>
+      </c>
       <c r="J116" s="60"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
-      <c r="M116" s="60"/>
-      <c r="N116" s="60"/>
-      <c r="O116" s="60"/>
-      <c r="P116" s="60"/>
+      <c r="K116" s="60" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L116" s="60" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M116" s="60" t="s">
+        <v>1535</v>
+      </c>
+      <c r="N116" s="60" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O116" s="60" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P116" s="60" t="s">
+        <v>1212</v>
+      </c>
       <c r="Q116" s="60"/>
       <c r="R116" s="60"/>
       <c r="S116" s="18"/>
@@ -9745,20 +12486,48 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="61"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="61"/>
-      <c r="L117" s="61"/>
-      <c r="M117" s="61"/>
-      <c r="N117" s="61"/>
-      <c r="O117" s="61"/>
-      <c r="P117" s="61"/>
-      <c r="Q117" s="61"/>
+      <c r="D117" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" s="61" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F117" s="61" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G117" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="61" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I117" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="J117" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="L117" s="61" t="s">
+        <v>1398</v>
+      </c>
+      <c r="M117" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N117" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O117" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="P117" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q117" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="R117" s="61"/>
       <c r="S117" s="20"/>
       <c r="V117" s="7"/>
@@ -9805,20 +12574,46 @@
     </row>
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="60"/>
+      <c r="D120" s="60" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E120" s="60" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F120" s="60" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G120" s="60" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H120" s="60" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I120" s="60" t="s">
+        <v>1599</v>
+      </c>
       <c r="J120" s="60"/>
-      <c r="K120" s="60"/>
-      <c r="L120" s="60"/>
-      <c r="M120" s="60"/>
-      <c r="N120" s="60"/>
-      <c r="O120" s="60"/>
-      <c r="P120" s="60"/>
-      <c r="Q120" s="60"/>
+      <c r="K120" s="60" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L120" s="60" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M120" s="60" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N120" s="60" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O120" s="60" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P120" s="60" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q120" s="60" t="s">
+        <v>1601</v>
+      </c>
       <c r="R120" s="60"/>
       <c r="S120" s="18"/>
       <c r="V120" s="7"/>
@@ -9828,21 +12623,51 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="61"/>
-      <c r="E121" s="61"/>
-      <c r="F121" s="61"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61"/>
-      <c r="L121" s="61"/>
-      <c r="M121" s="61"/>
-      <c r="N121" s="61"/>
-      <c r="O121" s="61"/>
-      <c r="P121" s="61"/>
-      <c r="Q121" s="61"/>
-      <c r="R121" s="61"/>
+      <c r="D121" s="61" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E121" s="61" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F121" s="61" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G121" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H121" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="I121" s="61" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J121" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="L121" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="M121" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="N121" s="61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O121" s="61" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P121" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q121" s="61" t="s">
+        <v>1404</v>
+      </c>
+      <c r="R121" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="S121" s="20"/>
       <c r="V121" s="7"/>
     </row>
@@ -17439,6 +20264,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8A682C-BA90-4F44-BDD0-A2ACDBDA9A46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -17607,7 +20445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -21670,7 +24508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383940B9-CA95-490B-9EBD-BC9CE8F42295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE91871-9346-4808-BEBA-406D91D88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE91871-9346-4808-BEBA-406D91D88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29212B-779F-49B6-8F59-36433B54A216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="工作表8" sheetId="129" r:id="rId3"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId4"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId5"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId3"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId4"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1578">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4027,12 +4026,1636 @@
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>歸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to͘5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo͘7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>審</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>絕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嶇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>願</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ging5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziaⁿ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho͘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poaⁿ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko͘3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngo͘5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phio5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hng5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saⁿ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuann7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4329,6 +5952,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4439,7 +6070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4614,6 +6245,12 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -7240,7 +8877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R133" sqref="R133"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -7355,23 +8994,45 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="D3" s="57" t="s">
+        <v>916</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>1184</v>
+      </c>
       <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="I3" s="57" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>704</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>916</v>
+      </c>
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="58" t="s">
+      <c r="V3" s="60" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -7391,31 +9052,61 @@
       <c r="O4" s="56"/>
       <c r="P4" s="56"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
+      <c r="R4" s="52"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="59"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
+      <c r="D5" s="58" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>1172</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q5" s="55" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="59"/>
+      <c r="V5" s="61"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -7436,28 +9127,54 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="59"/>
+      <c r="V6" s="61"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="D7" s="57" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>846</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>880</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>900</v>
+      </c>
       <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
+      <c r="L7" s="57" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>1510</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>878</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>780</v>
+      </c>
       <c r="R7" s="57"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="59"/>
+      <c r="V7" s="61"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -7476,34 +9193,66 @@
       <c r="P8" s="56"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="56"/>
-      <c r="S8" s="18"/>
-      <c r="V8" s="59"/>
+      <c r="S8" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="V8" s="61"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
+      <c r="D9" s="58" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>1196</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>1197</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Q9" s="58" t="s">
+        <v>1199</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>1171</v>
+      </c>
       <c r="S9" s="20" t="s">
         <v>1170</v>
       </c>
       <c r="T9" s="16"/>
-      <c r="V9" s="59"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -7523,47 +9272,47 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="59"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="V11" s="59"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="59"/>
+      <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -7571,22 +9320,26 @@
         <v>3</v>
       </c>
       <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
+      <c r="E13" s="55" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="59"/>
+      <c r="V13" s="61"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -7606,27 +9359,51 @@
       <c r="Q14" s="53"/>
       <c r="R14" s="53"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="59"/>
+      <c r="V14" s="61"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="D15" s="57" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>704</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>1212</v>
+      </c>
       <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
+      <c r="K15" s="57" t="s">
+        <v>882</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>782</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>1514</v>
+      </c>
       <c r="Q15" s="57"/>
       <c r="R15" s="57"/>
-      <c r="V15" s="59"/>
+      <c r="V15" s="61"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -7646,30 +9423,62 @@
       <c r="Q16" s="56"/>
       <c r="R16" s="56"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="59"/>
+      <c r="V16" s="61"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
+      <c r="D17" s="58" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>1210</v>
+      </c>
+      <c r="R17" s="55" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="59"/>
+      <c r="V17" s="61"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -7689,70 +9498,126 @@
       <c r="Q18" s="53"/>
       <c r="R18" s="53"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="59"/>
+      <c r="V18" s="61"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="V19" s="59"/>
+      <c r="D19" s="57" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>896</v>
+      </c>
+      <c r="N19" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O19" s="54" t="s">
+        <v>1517</v>
+      </c>
+      <c r="P19" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="V19" s="61"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="59"/>
+      <c r="V20" s="61"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
+      <c r="D21" s="58" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R21" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S21" s="20"/>
-      <c r="V21" s="59"/>
+      <c r="V21" s="61"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -7772,70 +9637,126 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="61"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="V23" s="59"/>
+      <c r="D23" s="54" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>734</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54" t="s">
+        <v>708</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O23" s="54" t="s">
+        <v>738</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="V23" s="61"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="59"/>
+      <c r="V24" s="61"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
+      <c r="D25" s="39" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>1237</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R25" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S25" s="20"/>
-      <c r="V25" s="59"/>
+      <c r="V25" s="61"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
@@ -7855,47 +9776,71 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="59"/>
+      <c r="V26" s="61"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="D27" s="54" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>691</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>850</v>
+      </c>
+      <c r="M27" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="O27" s="54" t="s">
+        <v>1522</v>
+      </c>
+      <c r="P27" s="54" t="s">
+        <v>912</v>
+      </c>
       <c r="Q27" s="54"/>
       <c r="R27" s="54"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="59"/>
+      <c r="V27" s="61"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="18"/>
@@ -7903,34 +9848,66 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="59"/>
+      <c r="V28" s="61"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
+      <c r="D29" s="39" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R29" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S29" s="20"/>
       <c r="U29" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="59"/>
+      <c r="V29" s="61"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
@@ -7954,20 +9931,36 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="59"/>
+      <c r="V30" s="61"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="D31" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>591</v>
+      </c>
       <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="54" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L31" s="54" t="s">
+        <v>1525</v>
+      </c>
       <c r="M31" s="54"/>
       <c r="N31" s="54"/>
       <c r="O31" s="54"/>
@@ -7978,7 +9971,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="59"/>
+      <c r="V31" s="61"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -8002,30 +9995,54 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="59"/>
+      <c r="V32" s="61"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
+      <c r="D33" s="39" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>1254</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N33" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
       <c r="S33" s="20"/>
-      <c r="V33" s="59"/>
+      <c r="V33" s="61"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
@@ -8045,27 +10062,43 @@
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="59"/>
+      <c r="V34" s="61"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="D35" s="54" t="s">
+        <v>888</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>740</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>1446</v>
+      </c>
       <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
+      <c r="I35" s="54" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>1527</v>
+      </c>
       <c r="M35" s="54"/>
       <c r="N35" s="54"/>
       <c r="O35" s="54"/>
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
-      <c r="V35" s="59"/>
+      <c r="V35" s="61"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -8085,30 +10118,54 @@
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="59"/>
+      <c r="V36" s="61"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
+      <c r="D37" s="39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N37" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="59"/>
+      <c r="V37" s="61"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
@@ -8128,27 +10185,43 @@
       <c r="Q38" s="53"/>
       <c r="R38" s="53"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="59"/>
+      <c r="V38" s="61"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="D39" s="54" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>708</v>
+      </c>
       <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
+      <c r="I39" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="J39" s="54" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>814</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>1448</v>
+      </c>
       <c r="M39" s="54"/>
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
       <c r="P39" s="54"/>
       <c r="Q39" s="54"/>
       <c r="R39" s="54"/>
-      <c r="V39" s="59"/>
+      <c r="V39" s="61"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -8168,30 +10241,54 @@
       <c r="Q40" s="52"/>
       <c r="R40" s="52"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="59"/>
+      <c r="V40" s="61"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
+      <c r="D41" s="39" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N41" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
       <c r="S41" s="20"/>
-      <c r="V41" s="59"/>
+      <c r="V41" s="61"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
@@ -8211,27 +10308,43 @@
       <c r="Q42" s="53"/>
       <c r="R42" s="53"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="59"/>
+      <c r="V42" s="61"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="D43" s="54" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>1284</v>
+      </c>
       <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
+      <c r="I43" s="54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>862</v>
+      </c>
+      <c r="K43" s="54" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L43" s="54" t="s">
+        <v>1532</v>
+      </c>
       <c r="M43" s="54"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
-      <c r="V43" s="59"/>
+      <c r="V43" s="61"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -8251,30 +10364,54 @@
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="59"/>
+      <c r="V44" s="61"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
+      <c r="D45" s="39" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N45" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="59"/>
+      <c r="V45" s="61"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
@@ -8294,27 +10431,51 @@
       <c r="Q46" s="53"/>
       <c r="R46" s="53"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="59"/>
+      <c r="V46" s="61"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
+      <c r="D47" s="54" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>1452</v>
+      </c>
       <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
+      <c r="K47" s="54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>517</v>
+      </c>
+      <c r="M47" s="54" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N47" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="O47" s="54" t="s">
+        <v>852</v>
+      </c>
+      <c r="P47" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
-      <c r="V47" s="59"/>
+      <c r="V47" s="61"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -8334,30 +10495,62 @@
       <c r="Q48" s="52"/>
       <c r="R48" s="52"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="59"/>
+      <c r="V48" s="61"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
+      <c r="D49" s="39" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>1292</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>1294</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R49" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S49" s="20"/>
-      <c r="V49" s="59"/>
+      <c r="V49" s="61"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
@@ -8377,27 +10570,51 @@
       <c r="Q50" s="53"/>
       <c r="R50" s="53"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="59"/>
+      <c r="V50" s="61"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
+      <c r="D51" s="54" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>671</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>1455</v>
+      </c>
       <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
+      <c r="K51" s="54" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M51" s="54" t="s">
+        <v>1457</v>
+      </c>
+      <c r="N51" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="O51" s="54" t="s">
+        <v>900</v>
+      </c>
+      <c r="P51" s="54" t="s">
+        <v>1536</v>
+      </c>
       <c r="Q51" s="54"/>
       <c r="R51" s="54"/>
-      <c r="V51" s="59"/>
+      <c r="V51" s="61"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -8417,30 +10634,62 @@
       <c r="Q52" s="52"/>
       <c r="R52" s="52"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="59"/>
+      <c r="V52" s="61"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
+      <c r="D53" s="39" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R53" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S53" s="20"/>
-      <c r="V53" s="59"/>
+      <c r="V53" s="61"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
@@ -8460,27 +10709,51 @@
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="59"/>
+      <c r="V54" s="61"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
+      <c r="D55" s="54" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>720</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>1459</v>
+      </c>
       <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
+      <c r="K55" s="54" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N55" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O55" s="54" t="s">
+        <v>872</v>
+      </c>
+      <c r="P55" s="54" t="s">
+        <v>1577</v>
+      </c>
       <c r="Q55" s="54"/>
       <c r="R55" s="54"/>
-      <c r="V55" s="59"/>
+      <c r="V55" s="61"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -8500,30 +10773,62 @@
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="59"/>
+      <c r="V56" s="61"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
+      <c r="D57" s="39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J57" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K57" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N57" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R57" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S57" s="20"/>
-      <c r="V57" s="59"/>
+      <c r="V57" s="61"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -8543,27 +10848,51 @@
       <c r="Q58" s="53"/>
       <c r="R58" s="53"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="59"/>
+      <c r="V58" s="61"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
+      <c r="D59" s="54" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>1464</v>
+      </c>
       <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
+      <c r="K59" s="54" t="s">
+        <v>904</v>
+      </c>
+      <c r="L59" s="54" t="s">
+        <v>1465</v>
+      </c>
+      <c r="M59" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="N59" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O59" s="54" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P59" s="54" t="s">
+        <v>1542</v>
+      </c>
       <c r="Q59" s="54"/>
       <c r="R59" s="54"/>
-      <c r="V59" s="59"/>
+      <c r="V59" s="61"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -8583,30 +10912,62 @@
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="59"/>
+      <c r="V60" s="61"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
+      <c r="D61" s="39" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J61" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R61" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S61" s="20"/>
-      <c r="V61" s="59"/>
+      <c r="V61" s="61"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -8626,27 +10987,51 @@
       <c r="Q62" s="53"/>
       <c r="R62" s="53"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="59"/>
+      <c r="V62" s="61"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
+      <c r="D63" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>846</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>1543</v>
+      </c>
       <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
+      <c r="K63" s="54" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L63" s="54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M63" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="N63" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O63" s="54" t="s">
+        <v>882</v>
+      </c>
+      <c r="P63" s="54" t="s">
+        <v>1471</v>
+      </c>
       <c r="Q63" s="54"/>
       <c r="R63" s="54"/>
-      <c r="V63" s="59"/>
+      <c r="V63" s="61"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -8666,30 +11051,62 @@
       <c r="Q64" s="52"/>
       <c r="R64" s="52"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="59"/>
+      <c r="V64" s="61"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
+      <c r="D65" s="39" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J65" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>1328</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N65" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>1330</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R65" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S65" s="20"/>
-      <c r="V65" s="59"/>
+      <c r="V65" s="61"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -8709,27 +11126,51 @@
       <c r="Q66" s="53"/>
       <c r="R66" s="53"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="59"/>
+      <c r="V66" s="61"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
+      <c r="D67" s="54" t="s">
+        <v>786</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>1531</v>
+      </c>
       <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
+      <c r="K67" s="54" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L67" s="54" t="s">
+        <v>890</v>
+      </c>
+      <c r="M67" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="N67" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O67" s="54" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P67" s="54" t="s">
+        <v>1475</v>
+      </c>
       <c r="Q67" s="54"/>
       <c r="R67" s="54"/>
-      <c r="V67" s="59"/>
+      <c r="V67" s="61"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -8749,30 +11190,62 @@
       <c r="Q68" s="52"/>
       <c r="R68" s="52"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="59"/>
+      <c r="V68" s="61"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
+      <c r="D69" s="39" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K69" s="39" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N69" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>1335</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>1336</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R69" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S69" s="20"/>
-      <c r="V69" s="59"/>
+      <c r="V69" s="61"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -8792,27 +11265,47 @@
       <c r="Q70" s="53"/>
       <c r="R70" s="53"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="59"/>
+      <c r="V70" s="61"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
+      <c r="D71" s="54" t="s">
+        <v>916</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>1184</v>
+      </c>
       <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
+      <c r="I71" s="54" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J71" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="K71" s="54" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L71" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="M71" s="54" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N71" s="54" t="s">
+        <v>814</v>
+      </c>
       <c r="O71" s="54"/>
       <c r="P71" s="54"/>
       <c r="Q71" s="54"/>
       <c r="R71" s="54"/>
-      <c r="V71" s="59"/>
+      <c r="V71" s="61"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -8832,30 +11325,58 @@
       <c r="Q72" s="52"/>
       <c r="R72" s="52"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="59"/>
+      <c r="V72" s="61"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
+      <c r="D73" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J73" s="39" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K73" s="39" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N73" s="39" t="s">
+        <v>1341</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P73" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="59"/>
+      <c r="V73" s="61"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -8875,27 +11396,51 @@
       <c r="Q74" s="53"/>
       <c r="R74" s="53"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="59"/>
+      <c r="V74" s="61"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
+      <c r="D75" s="54" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I75" s="54" t="s">
+        <v>880</v>
+      </c>
       <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
+      <c r="K75" s="54" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L75" s="54" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M75" s="54" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N75" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O75" s="54" t="s">
+        <v>826</v>
+      </c>
+      <c r="P75" s="54" t="s">
+        <v>874</v>
+      </c>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
-      <c r="V75" s="59"/>
+      <c r="V75" s="61"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -8915,30 +11460,62 @@
       <c r="Q76" s="52"/>
       <c r="R76" s="52"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="59"/>
+      <c r="V76" s="61"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
+      <c r="D77" s="39" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J77" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L77" s="39" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M77" s="39" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N77" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P77" s="39" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q77" s="39" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R77" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S77" s="20"/>
-      <c r="V77" s="59"/>
+      <c r="V77" s="61"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -8958,27 +11535,51 @@
       <c r="Q78" s="53"/>
       <c r="R78" s="53"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="59"/>
+      <c r="V78" s="61"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
+      <c r="D79" s="54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I79" s="54" t="s">
+        <v>1551</v>
+      </c>
       <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
+      <c r="K79" s="54" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L79" s="54" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M79" s="54" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N79" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="O79" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="P79" s="54" t="s">
+        <v>766</v>
+      </c>
       <c r="Q79" s="54"/>
       <c r="R79" s="54"/>
-      <c r="V79" s="59"/>
+      <c r="V79" s="61"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -8998,32 +11599,64 @@
       <c r="Q80" s="52"/>
       <c r="R80" s="52"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="59"/>
+      <c r="V80" s="61"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
+      <c r="D81" s="39" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F81" s="39" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K81" s="39" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L81" s="39" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M81" s="39" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N81" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O81" s="39" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P81" s="39" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q81" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R81" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S81" s="20" t="s">
         <v>1170</v>
       </c>
-      <c r="V81" s="59"/>
+      <c r="V81" s="61"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -9043,25 +11676,51 @@
       <c r="Q82" s="53"/>
       <c r="R82" s="53"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="60"/>
+      <c r="V82" s="62"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
+      <c r="D83" s="54" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="I83" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>1554</v>
+      </c>
       <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="54"/>
+      <c r="L83" s="54" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M83" s="54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N83" s="54" t="s">
+        <v>1483</v>
+      </c>
+      <c r="O83" s="54" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P83" s="54" t="s">
+        <v>1555</v>
+      </c>
+      <c r="Q83" s="54" t="s">
+        <v>1556</v>
+      </c>
       <c r="R83" s="54"/>
       <c r="V83" s="34"/>
     </row>
@@ -9090,21 +11749,51 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="39"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
+      <c r="D85" s="39" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F85" s="39" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H85" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I85" s="39" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K85" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L85" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M85" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N85" s="39" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O85" s="39" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P85" s="39" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q85" s="39" t="s">
+        <v>1371</v>
+      </c>
+      <c r="R85" s="39" t="s">
+        <v>1225</v>
+      </c>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
     </row>
@@ -9174,7 +11863,11 @@
         <v>22</v>
       </c>
       <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="E89" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
@@ -9214,15 +11907,31 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
+      <c r="D91" s="54" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>894</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>1557</v>
+      </c>
       <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
+      <c r="I91" s="54" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J91" s="54" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K91" s="54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L91" s="54" t="s">
+        <v>1518</v>
+      </c>
       <c r="M91" s="54"/>
       <c r="N91" s="54"/>
       <c r="O91" s="54"/>
@@ -9256,17 +11965,41 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
+      <c r="D93" s="39" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H93" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I93" s="39" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J93" s="39" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K93" s="39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L93" s="39" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M93" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N93" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="O93" s="39"/>
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
@@ -9297,19 +12030,43 @@
     <row r="95" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
+      <c r="D95" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F95" s="54" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G95" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I95" s="54" t="s">
+        <v>1490</v>
+      </c>
       <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
+      <c r="K95" s="54" t="s">
+        <v>900</v>
+      </c>
+      <c r="L95" s="54" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M95" s="54" t="s">
+        <v>706</v>
+      </c>
+      <c r="N95" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O95" s="54" t="s">
+        <v>792</v>
+      </c>
+      <c r="P95" s="54" t="s">
+        <v>1560</v>
+      </c>
       <c r="Q95" s="54"/>
       <c r="R95" s="54"/>
       <c r="V95" s="34"/>
@@ -9339,21 +12096,53 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
+      <c r="D97" s="39" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G97" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H97" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I97" s="39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J97" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K97" s="39" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L97" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M97" s="39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="N97" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O97" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P97" s="39" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Q97" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R97" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
     </row>
@@ -9380,19 +12169,43 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
+      <c r="D99" s="54" t="s">
+        <v>774</v>
+      </c>
+      <c r="E99" s="54" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F99" s="54" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G99" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H99" s="54" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I99" s="54" t="s">
+        <v>1450</v>
+      </c>
       <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
+      <c r="K99" s="54" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L99" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="M99" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="N99" s="54" t="s">
+        <v>778</v>
+      </c>
+      <c r="O99" s="54" t="s">
+        <v>1563</v>
+      </c>
+      <c r="P99" s="54" t="s">
+        <v>1564</v>
+      </c>
       <c r="Q99" s="54"/>
       <c r="R99" s="54"/>
       <c r="V99" s="34"/>
@@ -9422,21 +12235,53 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
+      <c r="D101" s="39" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G101" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H101" s="39" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I101" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J101" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K101" s="39" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L101" s="39" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M101" s="39" t="s">
+        <v>1390</v>
+      </c>
+      <c r="N101" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O101" s="39" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P101" s="39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q101" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R101" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
     </row>
@@ -9463,19 +12308,43 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
+      <c r="D103" s="54" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>689</v>
+      </c>
+      <c r="G103" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="H103" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="I103" s="54" t="s">
+        <v>904</v>
+      </c>
       <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
+      <c r="K103" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="L103" s="54" t="s">
+        <v>1493</v>
+      </c>
+      <c r="M103" s="54" t="s">
+        <v>722</v>
+      </c>
+      <c r="N103" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="O103" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="P103" s="54" t="s">
+        <v>1565</v>
+      </c>
       <c r="Q103" s="54"/>
       <c r="R103" s="54"/>
       <c r="V103" s="34"/>
@@ -9505,21 +12374,53 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-      <c r="N105" s="39"/>
-      <c r="O105" s="39"/>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="39"/>
+      <c r="D105" s="39" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F105" s="39" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H105" s="39" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I105" s="39" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J105" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K105" s="39" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L105" s="39" t="s">
+        <v>1397</v>
+      </c>
+      <c r="M105" s="39" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N105" s="39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O105" s="39" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P105" s="39" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Q105" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R105" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S105" s="20" t="s">
         <v>1171</v>
       </c>
@@ -9548,17 +12449,37 @@
     <row r="107" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
+      <c r="D107" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="E107" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>695</v>
+      </c>
       <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
+      <c r="H107" s="54" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I107" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J107" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="K107" s="54" t="s">
+        <v>1495</v>
+      </c>
+      <c r="L107" s="54" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M107" s="54" t="s">
+        <v>1496</v>
+      </c>
+      <c r="N107" s="54" t="s">
+        <v>904</v>
+      </c>
       <c r="O107" s="54"/>
       <c r="P107" s="54"/>
       <c r="Q107" s="54"/>
@@ -9590,19 +12511,47 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
+      <c r="D109" s="39" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E109" s="39" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F109" s="39" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G109" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H109" s="39" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I109" s="39" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J109" s="39" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K109" s="39" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L109" s="39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M109" s="39" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N109" s="39" t="s">
+        <v>1318</v>
+      </c>
+      <c r="O109" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="P109" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="Q109" s="39"/>
       <c r="R109" s="39"/>
       <c r="S109" s="20"/>
@@ -9631,21 +12580,49 @@
     <row r="111" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="12"/>
       <c r="C111" s="32"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
+      <c r="D111" s="54" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E111" s="54" t="s">
+        <v>704</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G111" s="54" t="s">
+        <v>846</v>
+      </c>
+      <c r="H111" s="54" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I111" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="J111" s="54" t="s">
+        <v>1540</v>
+      </c>
       <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
+      <c r="L111" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="M111" s="54" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N111" s="54" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O111" s="54" t="s">
+        <v>1499</v>
+      </c>
+      <c r="P111" s="54" t="s">
+        <v>1568</v>
+      </c>
+      <c r="Q111" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="R111" s="54" t="s">
+        <v>601</v>
+      </c>
       <c r="V111" s="34"/>
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9673,22 +12650,54 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="51"/>
-      <c r="R113" s="51"/>
-      <c r="S113" s="20"/>
+      <c r="D113" s="51" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F113" s="51" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G113" s="51" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H113" s="51" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I113" s="51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J113" s="51" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K113" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L113" s="51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M113" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N113" s="51" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O113" s="51" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P113" s="51" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q113" s="51" t="s">
+        <v>1411</v>
+      </c>
+      <c r="R113" s="51" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S113" s="20" t="s">
+        <v>1171</v>
+      </c>
       <c r="V113" s="7"/>
     </row>
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9757,7 +12766,11 @@
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="E117" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
@@ -9797,17 +12810,37 @@
     <row r="119" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
+      <c r="D119" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="E119" s="54" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F119" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="G119" s="54" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H119" s="54" t="s">
+        <v>1500</v>
+      </c>
       <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
+      <c r="J119" s="54" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K119" s="54" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L119" s="54" t="s">
+        <v>704</v>
+      </c>
+      <c r="M119" s="54" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N119" s="54" t="s">
+        <v>567</v>
+      </c>
       <c r="O119" s="54"/>
       <c r="P119" s="54"/>
       <c r="Q119" s="54"/>
@@ -9839,19 +12872,47 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
-      <c r="N121" s="39"/>
-      <c r="O121" s="39"/>
-      <c r="P121" s="39"/>
+      <c r="D121" s="39" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F121" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G121" s="39" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H121" s="39" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I121" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J121" s="39" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K121" s="39" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L121" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M121" s="39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N121" s="39" t="s">
+        <v>1417</v>
+      </c>
+      <c r="O121" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P121" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="Q121" s="39"/>
       <c r="R121" s="39"/>
       <c r="S121" s="20"/>
@@ -9880,19 +12941,43 @@
     <row r="123" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="32"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
+      <c r="D123" s="54" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E123" s="54" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F123" s="54" t="s">
+        <v>850</v>
+      </c>
+      <c r="G123" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H123" s="54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I123" s="54" t="s">
+        <v>1211</v>
+      </c>
       <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="54"/>
-      <c r="P123" s="54"/>
+      <c r="K123" s="54" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L123" s="54" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M123" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="N123" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O123" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P123" s="54" t="s">
+        <v>519</v>
+      </c>
       <c r="Q123" s="54"/>
       <c r="R123" s="54"/>
       <c r="V123" s="34"/>
@@ -9922,21 +13007,53 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="39"/>
-      <c r="O125" s="39"/>
-      <c r="P125" s="39"/>
-      <c r="Q125" s="39"/>
-      <c r="R125" s="39"/>
+      <c r="D125" s="39" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E125" s="39" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F125" s="39" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G125" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H125" s="39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I125" s="39" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J125" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K125" s="39" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L125" s="39" t="s">
+        <v>1421</v>
+      </c>
+      <c r="M125" s="39" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N125" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O125" s="39" t="s">
+        <v>1423</v>
+      </c>
+      <c r="P125" s="39" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Q125" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R125" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S125" s="20"/>
       <c r="V125" s="7"/>
     </row>
@@ -9963,19 +13080,43 @@
     <row r="127" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="12"/>
       <c r="C127" s="32"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-      <c r="I127" s="54"/>
+      <c r="D127" s="54" t="s">
+        <v>752</v>
+      </c>
+      <c r="E127" s="54" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>890</v>
+      </c>
+      <c r="G127" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H127" s="54" t="s">
+        <v>754</v>
+      </c>
+      <c r="I127" s="54" t="s">
+        <v>746</v>
+      </c>
       <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-      <c r="O127" s="54"/>
-      <c r="P127" s="54"/>
+      <c r="K127" s="54" t="s">
+        <v>864</v>
+      </c>
+      <c r="L127" s="54" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M127" s="54" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N127" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="O127" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="P127" s="54" t="s">
+        <v>581</v>
+      </c>
       <c r="Q127" s="54"/>
       <c r="R127" s="54"/>
       <c r="V127" s="34"/>
@@ -10005,21 +13146,53 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="39"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="39"/>
-      <c r="N129" s="39"/>
-      <c r="O129" s="39"/>
-      <c r="P129" s="39"/>
-      <c r="Q129" s="39"/>
-      <c r="R129" s="39"/>
+      <c r="D129" s="39" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F129" s="39" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H129" s="39" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I129" s="39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J129" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K129" s="39" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L129" s="39" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M129" s="39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N129" s="39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O129" s="39" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P129" s="39" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q129" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R129" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S129" s="20"/>
       <c r="V129" s="7"/>
     </row>
@@ -10046,20 +13219,46 @@
     <row r="131" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="32"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
+      <c r="D131" s="54" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E131" s="54" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F131" s="54" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G131" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="H131" s="54" t="s">
+        <v>916</v>
+      </c>
+      <c r="I131" s="54" t="s">
+        <v>1505</v>
+      </c>
       <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="54"/>
-      <c r="O131" s="54"/>
-      <c r="P131" s="54"/>
-      <c r="Q131" s="54"/>
+      <c r="K131" s="54" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L131" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="M131" s="54" t="s">
+        <v>796</v>
+      </c>
+      <c r="N131" s="54" t="s">
+        <v>1485</v>
+      </c>
+      <c r="O131" s="54" t="s">
+        <v>1548</v>
+      </c>
+      <c r="P131" s="54" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q131" s="54" t="s">
+        <v>1507</v>
+      </c>
       <c r="R131" s="54"/>
       <c r="V131" s="34"/>
     </row>
@@ -10088,21 +13287,51 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="39"/>
-      <c r="O133" s="39"/>
-      <c r="P133" s="39"/>
-      <c r="Q133" s="39"/>
-      <c r="R133" s="39"/>
+      <c r="D133" s="39" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F133" s="39" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G133" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H133" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I133" s="39" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J133" s="39" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K133" s="39" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L133" s="39" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M133" s="39" t="s">
+        <v>1438</v>
+      </c>
+      <c r="N133" s="39" t="s">
+        <v>1373</v>
+      </c>
+      <c r="O133" s="39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P133" s="39" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q133" s="39" t="s">
+        <v>1439</v>
+      </c>
+      <c r="R133" s="39" t="s">
+        <v>1225</v>
+      </c>
       <c r="S133" s="20"/>
       <c r="V133" s="7"/>
     </row>
@@ -10171,8 +13400,14 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="D137" s="39" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E137" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
@@ -17450,19 +20685,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8A682C-BA90-4F44-BDD0-A2ACDBDA9A46}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -17631,7 +20853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -21694,7 +24916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>
@@ -21831,7 +25053,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="58" t="s">
+      <c r="V3" s="60" t="s">
         <v>66</v>
       </c>
     </row>
@@ -21879,7 +25101,7 @@
       </c>
       <c r="R4" s="52"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="61"/>
+      <c r="V4" s="63"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -21931,7 +25153,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="61"/>
+      <c r="V5" s="63"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -21978,7 +25200,7 @@
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="61"/>
+      <c r="V6" s="63"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -21999,7 +25221,7 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="61"/>
+      <c r="V7" s="63"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -22043,7 +25265,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="61"/>
+      <c r="V8" s="63"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -22097,7 +25319,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="61"/>
+      <c r="V9" s="63"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -22141,7 +25363,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="61"/>
+      <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -22161,7 +25383,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="61"/>
+      <c r="V11" s="63"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -22207,7 +25429,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="61"/>
+      <c r="V12" s="63"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -22260,7 +25482,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="61"/>
+      <c r="V13" s="63"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -22306,7 +25528,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="61"/>
+      <c r="V14" s="63"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -22326,7 +25548,7 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
-      <c r="V15" s="61"/>
+      <c r="V15" s="63"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -22372,7 +25594,7 @@
       </c>
       <c r="R16" s="52"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="61"/>
+      <c r="V16" s="63"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -22425,7 +25647,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="61"/>
+      <c r="V17" s="63"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -22471,7 +25693,7 @@
       </c>
       <c r="R18" s="53"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="61"/>
+      <c r="V18" s="63"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -22491,7 +25713,7 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="61"/>
+      <c r="V19" s="63"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -22511,7 +25733,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="61"/>
+      <c r="V20" s="63"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -22538,7 +25760,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="61"/>
+      <c r="V21" s="63"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -22558,7 +25780,7 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="62"/>
+      <c r="V22" s="64"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29212B-779F-49B6-8F59-36433B54A216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7A6EC8-2B71-472B-AAE8-B0D91DDE2F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId3"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId4"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="122" r:id="rId3"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId4"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId5"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1177">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4009,1645 +4010,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>歸去來兮！田園將蕪胡不歸？既自以心為形役，奚惆悵而獨悲？悟已往之不諫，知來者之可追；實迷途其未遠，覺今是而昨非。舟遙遙以輕揚，風飄飄而吹衣。問征夫以前路，恨晨光之熹微。乃瞻衡宇，載欣載奔。僮仆歡迎，稚子候門。三徑就荒，松菊猶存。攜幼入室，有酒盈樽。引壺觴以自酌，眄庭柯以怡顏，倚南窗以寄傲，審容膝之易安。園日涉以成趣，門雖設而常關。策扶老以流憩，時矯首而遐觀。雲無心以出岫，鳥倦飛而知還。景翳翳以將入，撫孤松而盤桓。
-歸去來兮！請息交以絕遊。世與我而相遺，複駕言兮焉求？悅親戚之情話，樂琴書以消憂。農人告餘以春及，將有事乎西疇。或命巾車，或棹孤舟。既窈窕以尋壑，亦崎嶇而經丘。木欣欣以向榮，泉涓涓而始流。羨萬物之得時，感吾生之行休。
-已矣乎！寓形宇內複幾時，曷不委心任去留，胡為遑遑欲何之？富貴非吾願，帝鄉不可期。懷良辰以孤往，或植杖而耘耔，登東臯以舒嘯，臨清流而賦詩。聊乘化以歸盡，樂夫天命複奚疑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸去來辭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>​</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>歸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>役</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to͘5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo͘7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>載</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>與</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>複</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>駕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>書</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嶇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ging5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziaⁿ5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho͘2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poaⁿ5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko͘3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngo͘5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jim7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hng5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saⁿ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuann7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koai1</t>
+    <t>ò</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>ŏ</t>
+  </si>
+  <si>
+    <t>ő</t>
+  </si>
+  <si>
+    <t>o̍</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>̌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>̄</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5655,7 +4067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5947,21 +4359,32 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮細明台語注音"/>
-      <family val="1"/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5983,12 +4406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6070,7 +4487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6236,22 +4653,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -6266,6 +4667,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8676,7 +7089,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -8727,9 +7140,7 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1169</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
@@ -8877,9 +7288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R133" sqref="R133"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -8988,125 +7397,71 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="57" t="s">
-        <v>916</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>599</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>1508</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>1509</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>704</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>916</v>
-      </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="60" t="s">
-        <v>1168</v>
-      </c>
+      <c r="V3" s="55"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="61"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>1178</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>1179</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>1180</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>1182</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>1172</v>
-      </c>
-      <c r="P5" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="Q5" s="55" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="61"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -9127,132 +7482,72 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="61"/>
+      <c r="V6" s="56"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="57" t="s">
-        <v>599</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>846</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>880</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>633</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>900</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57" t="s">
-        <v>1200</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>1511</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>878</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>1512</v>
-      </c>
-      <c r="Q7" s="57" t="s">
-        <v>780</v>
-      </c>
-      <c r="R7" s="57"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="61"/>
+      <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="18" t="s">
-        <v>1170</v>
-      </c>
-      <c r="V8" s="61"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="18"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N9" s="58" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O9" s="58" t="s">
-        <v>1197</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>1198</v>
-      </c>
-      <c r="Q9" s="58" t="s">
-        <v>1199</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>1171</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>1170</v>
-      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="61"/>
+      <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -9272,13 +7567,13 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="61"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -9292,12 +7587,12 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="61"/>
+      <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -9312,19 +7607,15 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="61"/>
+      <c r="V12" s="56"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
@@ -9339,7 +7630,7 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="61"/>
+      <c r="V13" s="56"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -9359,126 +7650,70 @@
       <c r="Q14" s="53"/>
       <c r="R14" s="53"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="61"/>
+      <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="57" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>601</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>704</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57" t="s">
-        <v>882</v>
-      </c>
-      <c r="L15" s="57" t="s">
-        <v>1183</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>782</v>
-      </c>
-      <c r="N15" s="57" t="s">
-        <v>601</v>
-      </c>
-      <c r="O15" s="57" t="s">
-        <v>1213</v>
-      </c>
-      <c r="P15" s="57" t="s">
-        <v>1514</v>
-      </c>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="V15" s="61"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="61"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>1207</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>1204</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>1208</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>1209</v>
-      </c>
-      <c r="Q17" s="55" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R17" s="55" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="20"/>
-      <c r="V17" s="61"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -9498,57 +7733,33 @@
       <c r="Q18" s="53"/>
       <c r="R18" s="53"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="61"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="57" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>567</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>1228</v>
-      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="54" t="s">
-        <v>1229</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M19" s="54" t="s">
-        <v>896</v>
-      </c>
-      <c r="N19" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O19" s="54" t="s">
-        <v>1517</v>
-      </c>
-      <c r="P19" s="54" t="s">
-        <v>484</v>
-      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="61"/>
+      <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -9562,62 +7773,30 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="61"/>
+      <c r="V20" s="56"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="58" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>1220</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>1223</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>1224</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R21" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="61"/>
+      <c r="V21" s="56"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -9637,51 +7816,27 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="61"/>
+      <c r="V22" s="56"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>1519</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>1520</v>
-      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="54"/>
-      <c r="K23" s="54" t="s">
-        <v>708</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>1521</v>
-      </c>
-      <c r="M23" s="54" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N23" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O23" s="54" t="s">
-        <v>738</v>
-      </c>
-      <c r="P23" s="54" t="s">
-        <v>497</v>
-      </c>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
-      <c r="V23" s="61"/>
+      <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
@@ -9701,62 +7856,30 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="61"/>
+      <c r="V24" s="56"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>1236</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="Q25" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R25" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="20"/>
-      <c r="V25" s="61"/>
+      <c r="V25" s="56"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
@@ -9776,55 +7899,31 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="61"/>
+      <c r="V26" s="56"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>605</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H27" s="54" t="s">
-        <v>691</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>1248</v>
-      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="54"/>
-      <c r="K27" s="54" t="s">
-        <v>1249</v>
-      </c>
-      <c r="L27" s="54" t="s">
-        <v>850</v>
-      </c>
-      <c r="M27" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="N27" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="O27" s="54" t="s">
-        <v>1522</v>
-      </c>
-      <c r="P27" s="54" t="s">
-        <v>912</v>
-      </c>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="61"/>
+      <c r="V27" s="56"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -9848,66 +7947,34 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="61"/>
+      <c r="V28" s="56"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>1245</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>1246</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>1247</v>
-      </c>
-      <c r="Q29" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R29" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
       <c r="S29" s="20"/>
       <c r="U29" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="61"/>
+      <c r="V29" s="56"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
@@ -9931,36 +7998,20 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="61"/>
+      <c r="V30" s="56"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>633</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>591</v>
-      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="54"/>
-      <c r="I31" s="54" t="s">
-        <v>1445</v>
-      </c>
-      <c r="J31" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="K31" s="54" t="s">
-        <v>1445</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>1525</v>
-      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="54"/>
       <c r="N31" s="54"/>
       <c r="O31" s="54"/>
@@ -9971,7 +8022,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="61"/>
+      <c r="V31" s="56"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -9995,54 +8046,30 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="61"/>
+      <c r="V32" s="56"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>1254</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>1256</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="N33" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
       <c r="S33" s="20"/>
-      <c r="V33" s="61"/>
+      <c r="V33" s="56"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
@@ -10062,43 +8089,27 @@
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="61"/>
+      <c r="V34" s="56"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54" t="s">
-        <v>888</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>740</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>1446</v>
-      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="54"/>
-      <c r="I35" s="54" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J35" s="54" t="s">
-        <v>519</v>
-      </c>
-      <c r="K35" s="54" t="s">
-        <v>1266</v>
-      </c>
-      <c r="L35" s="54" t="s">
-        <v>1527</v>
-      </c>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
       <c r="M35" s="54"/>
       <c r="N35" s="54"/>
       <c r="O35" s="54"/>
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
-      <c r="V35" s="61"/>
+      <c r="V35" s="56"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -10118,54 +8129,30 @@
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="61"/>
+      <c r="V36" s="56"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J37" s="39" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>1264</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="N37" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="61"/>
+      <c r="V37" s="56"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
@@ -10185,43 +8172,27 @@
       <c r="Q38" s="53"/>
       <c r="R38" s="53"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="61"/>
+      <c r="V38" s="56"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="54" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>708</v>
-      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="54"/>
-      <c r="I39" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>814</v>
-      </c>
-      <c r="L39" s="54" t="s">
-        <v>1448</v>
-      </c>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
       <c r="M39" s="54"/>
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
       <c r="P39" s="54"/>
       <c r="Q39" s="54"/>
       <c r="R39" s="54"/>
-      <c r="V39" s="61"/>
+      <c r="V39" s="56"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -10241,54 +8212,30 @@
       <c r="Q40" s="52"/>
       <c r="R40" s="52"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="61"/>
+      <c r="V40" s="56"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J41" s="39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="N41" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
       <c r="S41" s="20"/>
-      <c r="V41" s="61"/>
+      <c r="V41" s="56"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
@@ -10308,43 +8255,27 @@
       <c r="Q42" s="53"/>
       <c r="R42" s="53"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="61"/>
+      <c r="V42" s="56"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="54" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>1284</v>
-      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="54"/>
-      <c r="I43" s="54" t="s">
-        <v>1285</v>
-      </c>
-      <c r="J43" s="54" t="s">
-        <v>862</v>
-      </c>
-      <c r="K43" s="54" t="s">
-        <v>1450</v>
-      </c>
-      <c r="L43" s="54" t="s">
-        <v>1532</v>
-      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
       <c r="M43" s="54"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
-      <c r="V43" s="61"/>
+      <c r="V43" s="56"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -10364,54 +8295,30 @@
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="61"/>
+      <c r="V44" s="56"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="N45" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="61"/>
+      <c r="V45" s="56"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
@@ -10431,51 +8338,27 @@
       <c r="Q46" s="53"/>
       <c r="R46" s="53"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="61"/>
+      <c r="V46" s="56"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H47" s="54" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>1452</v>
-      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="54" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L47" s="54" t="s">
-        <v>517</v>
-      </c>
-      <c r="M47" s="54" t="s">
-        <v>1534</v>
-      </c>
-      <c r="N47" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="O47" s="54" t="s">
-        <v>852</v>
-      </c>
-      <c r="P47" s="54" t="s">
-        <v>1454</v>
-      </c>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
-      <c r="V47" s="61"/>
+      <c r="V47" s="56"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -10495,62 +8378,30 @@
       <c r="Q48" s="52"/>
       <c r="R48" s="52"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="61"/>
+      <c r="V48" s="56"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>1292</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>1293</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q49" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="R49" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
       <c r="S49" s="20"/>
-      <c r="V49" s="61"/>
+      <c r="V49" s="56"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
@@ -10570,51 +8421,27 @@
       <c r="Q50" s="53"/>
       <c r="R50" s="53"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="61"/>
+      <c r="V50" s="56"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>599</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>1455</v>
-      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="54" t="s">
-        <v>1456</v>
-      </c>
-      <c r="L51" s="54" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M51" s="54" t="s">
-        <v>1457</v>
-      </c>
-      <c r="N51" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="O51" s="54" t="s">
-        <v>900</v>
-      </c>
-      <c r="P51" s="54" t="s">
-        <v>1536</v>
-      </c>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
       <c r="Q51" s="54"/>
       <c r="R51" s="54"/>
-      <c r="V51" s="61"/>
+      <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -10634,62 +8461,30 @@
       <c r="Q52" s="52"/>
       <c r="R52" s="52"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="61"/>
+      <c r="V52" s="56"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J53" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K53" s="39" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>1302</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>1303</v>
-      </c>
-      <c r="P53" s="39" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Q53" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R53" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="61"/>
+      <c r="V53" s="56"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
@@ -10709,51 +8504,27 @@
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="61"/>
+      <c r="V54" s="56"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="54" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>720</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>1459</v>
-      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="54"/>
-      <c r="K55" s="54" t="s">
-        <v>1527</v>
-      </c>
-      <c r="L55" s="54" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M55" s="54" t="s">
-        <v>1460</v>
-      </c>
-      <c r="N55" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O55" s="54" t="s">
-        <v>872</v>
-      </c>
-      <c r="P55" s="54" t="s">
-        <v>1577</v>
-      </c>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
       <c r="Q55" s="54"/>
       <c r="R55" s="54"/>
-      <c r="V55" s="61"/>
+      <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -10773,62 +8544,30 @@
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="61"/>
+      <c r="V56" s="56"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J57" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K57" s="39" t="s">
-        <v>1264</v>
-      </c>
-      <c r="L57" s="39" t="s">
-        <v>1309</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>1310</v>
-      </c>
-      <c r="N57" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O57" s="39" t="s">
-        <v>1311</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>1312</v>
-      </c>
-      <c r="Q57" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R57" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="61"/>
+      <c r="V57" s="56"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -10848,51 +8587,27 @@
       <c r="Q58" s="53"/>
       <c r="R58" s="53"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="61"/>
+      <c r="V58" s="56"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I59" s="54" t="s">
-        <v>1464</v>
-      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="54"/>
-      <c r="K59" s="54" t="s">
-        <v>904</v>
-      </c>
-      <c r="L59" s="54" t="s">
-        <v>1465</v>
-      </c>
-      <c r="M59" s="54" t="s">
-        <v>525</v>
-      </c>
-      <c r="N59" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O59" s="54" t="s">
-        <v>1541</v>
-      </c>
-      <c r="P59" s="54" t="s">
-        <v>1542</v>
-      </c>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
       <c r="R59" s="54"/>
-      <c r="V59" s="61"/>
+      <c r="V59" s="56"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -10912,62 +8627,30 @@
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="61"/>
+      <c r="V60" s="56"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="39" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J61" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K61" s="39" t="s">
-        <v>1318</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>1319</v>
-      </c>
-      <c r="M61" s="39" t="s">
-        <v>1320</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>1321</v>
-      </c>
-      <c r="P61" s="39" t="s">
-        <v>1322</v>
-      </c>
-      <c r="Q61" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R61" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="61"/>
+      <c r="V61" s="56"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -10987,51 +8670,27 @@
       <c r="Q62" s="53"/>
       <c r="R62" s="53"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="61"/>
+      <c r="V62" s="56"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="54" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I63" s="54" t="s">
-        <v>1543</v>
-      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
       <c r="J63" s="54"/>
-      <c r="K63" s="54" t="s">
-        <v>1469</v>
-      </c>
-      <c r="L63" s="54" t="s">
-        <v>1470</v>
-      </c>
-      <c r="M63" s="54" t="s">
-        <v>484</v>
-      </c>
-      <c r="N63" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O63" s="54" t="s">
-        <v>882</v>
-      </c>
-      <c r="P63" s="54" t="s">
-        <v>1471</v>
-      </c>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
       <c r="Q63" s="54"/>
       <c r="R63" s="54"/>
-      <c r="V63" s="61"/>
+      <c r="V63" s="56"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -11051,62 +8710,30 @@
       <c r="Q64" s="52"/>
       <c r="R64" s="52"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="61"/>
+      <c r="V64" s="56"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="39" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H65" s="39" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J65" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K65" s="39" t="s">
-        <v>1327</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>1328</v>
-      </c>
-      <c r="M65" s="39" t="s">
-        <v>1329</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="P65" s="39" t="s">
-        <v>1330</v>
-      </c>
-      <c r="Q65" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R65" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="61"/>
+      <c r="V65" s="56"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -11126,51 +8753,27 @@
       <c r="Q66" s="53"/>
       <c r="R66" s="53"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="61"/>
+      <c r="V66" s="56"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="54" t="s">
-        <v>786</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F67" s="54" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H67" s="54" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I67" s="54" t="s">
-        <v>1531</v>
-      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="54"/>
-      <c r="K67" s="54" t="s">
-        <v>1473</v>
-      </c>
-      <c r="L67" s="54" t="s">
-        <v>890</v>
-      </c>
-      <c r="M67" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="N67" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O67" s="54" t="s">
-        <v>1474</v>
-      </c>
-      <c r="P67" s="54" t="s">
-        <v>1475</v>
-      </c>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
       <c r="Q67" s="54"/>
       <c r="R67" s="54"/>
-      <c r="V67" s="61"/>
+      <c r="V67" s="56"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -11190,62 +8793,30 @@
       <c r="Q68" s="52"/>
       <c r="R68" s="52"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="61"/>
+      <c r="V68" s="56"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="39" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H69" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I69" s="39" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J69" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K69" s="39" t="s">
-        <v>1333</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>1334</v>
-      </c>
-      <c r="M69" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="N69" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O69" s="39" t="s">
-        <v>1335</v>
-      </c>
-      <c r="P69" s="39" t="s">
-        <v>1336</v>
-      </c>
-      <c r="Q69" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R69" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="61"/>
+      <c r="V69" s="56"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -11265,47 +8836,27 @@
       <c r="Q70" s="53"/>
       <c r="R70" s="53"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="61"/>
+      <c r="V70" s="56"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="54" t="s">
-        <v>916</v>
-      </c>
-      <c r="E71" s="54" t="s">
-        <v>599</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G71" s="54" t="s">
-        <v>1184</v>
-      </c>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
       <c r="H71" s="54"/>
-      <c r="I71" s="54" t="s">
-        <v>1476</v>
-      </c>
-      <c r="J71" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="K71" s="54" t="s">
-        <v>1544</v>
-      </c>
-      <c r="L71" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="M71" s="54" t="s">
-        <v>1545</v>
-      </c>
-      <c r="N71" s="54" t="s">
-        <v>814</v>
-      </c>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
       <c r="O71" s="54"/>
       <c r="P71" s="54"/>
       <c r="Q71" s="54"/>
       <c r="R71" s="54"/>
-      <c r="V71" s="61"/>
+      <c r="V71" s="56"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -11325,58 +8876,30 @@
       <c r="Q72" s="52"/>
       <c r="R72" s="52"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="61"/>
+      <c r="V72" s="56"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="39" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H73" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I73" s="39" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J73" s="39" t="s">
-        <v>1338</v>
-      </c>
-      <c r="K73" s="39" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L73" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>1340</v>
-      </c>
-      <c r="N73" s="39" t="s">
-        <v>1341</v>
-      </c>
-      <c r="O73" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P73" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="61"/>
+      <c r="V73" s="56"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -11396,51 +8919,27 @@
       <c r="Q74" s="53"/>
       <c r="R74" s="53"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="61"/>
+      <c r="V74" s="56"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="54" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G75" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="H75" s="54" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I75" s="54" t="s">
-        <v>880</v>
-      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
       <c r="J75" s="54"/>
-      <c r="K75" s="54" t="s">
-        <v>1548</v>
-      </c>
-      <c r="L75" s="54" t="s">
-        <v>1478</v>
-      </c>
-      <c r="M75" s="54" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N75" s="54" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O75" s="54" t="s">
-        <v>826</v>
-      </c>
-      <c r="P75" s="54" t="s">
-        <v>874</v>
-      </c>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
-      <c r="V75" s="61"/>
+      <c r="V75" s="56"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -11460,62 +8959,30 @@
       <c r="Q76" s="52"/>
       <c r="R76" s="52"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="61"/>
+      <c r="V76" s="56"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J77" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K77" s="39" t="s">
-        <v>1347</v>
-      </c>
-      <c r="L77" s="39" t="s">
-        <v>1348</v>
-      </c>
-      <c r="M77" s="39" t="s">
-        <v>1349</v>
-      </c>
-      <c r="N77" s="39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="O77" s="39" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P77" s="39" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Q77" s="39" t="s">
-        <v>1171</v>
-      </c>
-      <c r="R77" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="61"/>
+      <c r="V77" s="56"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -11535,51 +9002,27 @@
       <c r="Q78" s="53"/>
       <c r="R78" s="53"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="61"/>
+      <c r="V78" s="56"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="54" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G79" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I79" s="54" t="s">
-        <v>1551</v>
-      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
       <c r="J79" s="54"/>
-      <c r="K79" s="54" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L79" s="54" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M79" s="54" t="s">
-        <v>1553</v>
-      </c>
-      <c r="N79" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="O79" s="54" t="s">
-        <v>675</v>
-      </c>
-      <c r="P79" s="54" t="s">
-        <v>766</v>
-      </c>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
       <c r="Q79" s="54"/>
       <c r="R79" s="54"/>
-      <c r="V79" s="61"/>
+      <c r="V79" s="56"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -11599,64 +9042,30 @@
       <c r="Q80" s="52"/>
       <c r="R80" s="52"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="61"/>
+      <c r="V80" s="56"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="39" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I81" s="39" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J81" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K81" s="39" t="s">
-        <v>1357</v>
-      </c>
-      <c r="L81" s="39" t="s">
-        <v>1358</v>
-      </c>
-      <c r="M81" s="39" t="s">
-        <v>1359</v>
-      </c>
-      <c r="N81" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O81" s="39" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P81" s="39" t="s">
-        <v>1361</v>
-      </c>
-      <c r="Q81" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R81" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="S81" s="20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="V81" s="61"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="20"/>
+      <c r="V81" s="56"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -11676,51 +9085,25 @@
       <c r="Q82" s="53"/>
       <c r="R82" s="53"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="62"/>
+      <c r="V82" s="57"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="54" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>541</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G83" s="54" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H83" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="I83" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="J83" s="54" t="s">
-        <v>1554</v>
-      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
       <c r="K83" s="54"/>
-      <c r="L83" s="54" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M83" s="54" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N83" s="54" t="s">
-        <v>1483</v>
-      </c>
-      <c r="O83" s="54" t="s">
-        <v>1484</v>
-      </c>
-      <c r="P83" s="54" t="s">
-        <v>1555</v>
-      </c>
-      <c r="Q83" s="54" t="s">
-        <v>1556</v>
-      </c>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
+      <c r="Q83" s="54"/>
       <c r="R83" s="54"/>
       <c r="V83" s="34"/>
     </row>
@@ -11749,51 +9132,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F85" s="39" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G85" s="39" t="s">
-        <v>1365</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I85" s="39" t="s">
-        <v>1366</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>1367</v>
-      </c>
-      <c r="K85" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L85" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M85" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="N85" s="39" t="s">
-        <v>1368</v>
-      </c>
-      <c r="O85" s="39" t="s">
-        <v>1369</v>
-      </c>
-      <c r="P85" s="39" t="s">
-        <v>1370</v>
-      </c>
-      <c r="Q85" s="39" t="s">
-        <v>1371</v>
-      </c>
-      <c r="R85" s="39" t="s">
-        <v>1225</v>
-      </c>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
     </row>
@@ -11863,11 +9216,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="39"/>
-      <c r="E89" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="E89" s="39"/>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
@@ -11907,31 +9256,15 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="54" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E91" s="54" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F91" s="54" t="s">
-        <v>894</v>
-      </c>
-      <c r="G91" s="54" t="s">
-        <v>1557</v>
-      </c>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="54"/>
-      <c r="I91" s="54" t="s">
-        <v>1558</v>
-      </c>
-      <c r="J91" s="54" t="s">
-        <v>1486</v>
-      </c>
-      <c r="K91" s="54" t="s">
-        <v>1559</v>
-      </c>
-      <c r="L91" s="54" t="s">
-        <v>1518</v>
-      </c>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
       <c r="M91" s="54"/>
       <c r="N91" s="54"/>
       <c r="O91" s="54"/>
@@ -11965,41 +9298,17 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="39" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E93" s="39" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F93" s="39" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G93" s="39" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H93" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I93" s="39" t="s">
-        <v>1372</v>
-      </c>
-      <c r="J93" s="39" t="s">
-        <v>1376</v>
-      </c>
-      <c r="K93" s="39" t="s">
-        <v>1334</v>
-      </c>
-      <c r="L93" s="39" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M93" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="N93" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
       <c r="O93" s="39"/>
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
@@ -12030,43 +9339,19 @@
     <row r="95" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="54" t="s">
-        <v>599</v>
-      </c>
-      <c r="E95" s="54" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F95" s="54" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G95" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H95" s="54" t="s">
-        <v>1489</v>
-      </c>
-      <c r="I95" s="54" t="s">
-        <v>1490</v>
-      </c>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
       <c r="J95" s="54"/>
-      <c r="K95" s="54" t="s">
-        <v>900</v>
-      </c>
-      <c r="L95" s="54" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M95" s="54" t="s">
-        <v>706</v>
-      </c>
-      <c r="N95" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O95" s="54" t="s">
-        <v>792</v>
-      </c>
-      <c r="P95" s="54" t="s">
-        <v>1560</v>
-      </c>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
       <c r="Q95" s="54"/>
       <c r="R95" s="54"/>
       <c r="V95" s="34"/>
@@ -12096,53 +9381,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F97" s="39" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G97" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H97" s="39" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I97" s="39" t="s">
-        <v>1380</v>
-      </c>
-      <c r="J97" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K97" s="39" t="s">
-        <v>1381</v>
-      </c>
-      <c r="L97" s="39" t="s">
-        <v>1382</v>
-      </c>
-      <c r="M97" s="39" t="s">
-        <v>1383</v>
-      </c>
-      <c r="N97" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O97" s="39" t="s">
-        <v>1384</v>
-      </c>
-      <c r="P97" s="39" t="s">
-        <v>1385</v>
-      </c>
-      <c r="Q97" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R97" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
     </row>
@@ -12169,43 +9422,19 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="54" t="s">
-        <v>774</v>
-      </c>
-      <c r="E99" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F99" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="G99" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H99" s="54" t="s">
-        <v>1561</v>
-      </c>
-      <c r="I99" s="54" t="s">
-        <v>1450</v>
-      </c>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
       <c r="J99" s="54"/>
-      <c r="K99" s="54" t="s">
-        <v>1562</v>
-      </c>
-      <c r="L99" s="54" t="s">
-        <v>603</v>
-      </c>
-      <c r="M99" s="54" t="s">
-        <v>603</v>
-      </c>
-      <c r="N99" s="54" t="s">
-        <v>778</v>
-      </c>
-      <c r="O99" s="54" t="s">
-        <v>1563</v>
-      </c>
-      <c r="P99" s="54" t="s">
-        <v>1564</v>
-      </c>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
       <c r="Q99" s="54"/>
       <c r="R99" s="54"/>
       <c r="V99" s="34"/>
@@ -12235,53 +9464,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="39" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E101" s="39" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F101" s="39" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G101" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H101" s="39" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I101" s="39" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J101" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K101" s="39" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L101" s="39" t="s">
-        <v>1390</v>
-      </c>
-      <c r="M101" s="39" t="s">
-        <v>1390</v>
-      </c>
-      <c r="N101" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O101" s="39" t="s">
-        <v>1391</v>
-      </c>
-      <c r="P101" s="39" t="s">
-        <v>1316</v>
-      </c>
-      <c r="Q101" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R101" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
     </row>
@@ -12308,43 +9505,19 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="54" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E103" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="F103" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="G103" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="H103" s="54" t="s">
-        <v>523</v>
-      </c>
-      <c r="I103" s="54" t="s">
-        <v>904</v>
-      </c>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
       <c r="J103" s="54"/>
-      <c r="K103" s="54" t="s">
-        <v>776</v>
-      </c>
-      <c r="L103" s="54" t="s">
-        <v>1493</v>
-      </c>
-      <c r="M103" s="54" t="s">
-        <v>722</v>
-      </c>
-      <c r="N103" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="O103" s="54" t="s">
-        <v>633</v>
-      </c>
-      <c r="P103" s="54" t="s">
-        <v>1565</v>
-      </c>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
       <c r="Q103" s="54"/>
       <c r="R103" s="54"/>
       <c r="V103" s="34"/>
@@ -12374,56 +9547,22 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="39" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F105" s="39" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G105" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H105" s="39" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I105" s="39" t="s">
-        <v>1318</v>
-      </c>
-      <c r="J105" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K105" s="39" t="s">
-        <v>1396</v>
-      </c>
-      <c r="L105" s="39" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M105" s="39" t="s">
-        <v>1398</v>
-      </c>
-      <c r="N105" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="O105" s="39" t="s">
-        <v>1399</v>
-      </c>
-      <c r="P105" s="39" t="s">
-        <v>1400</v>
-      </c>
-      <c r="Q105" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R105" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="S105" s="20" t="s">
-        <v>1171</v>
-      </c>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="20"/>
       <c r="V105" s="7"/>
     </row>
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -12449,37 +9588,17 @@
     <row r="107" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="E107" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="F107" s="54" t="s">
-        <v>695</v>
-      </c>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
       <c r="G107" s="54"/>
-      <c r="H107" s="54" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I107" s="54" t="s">
-        <v>633</v>
-      </c>
-      <c r="J107" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="K107" s="54" t="s">
-        <v>1495</v>
-      </c>
-      <c r="L107" s="54" t="s">
-        <v>1548</v>
-      </c>
-      <c r="M107" s="54" t="s">
-        <v>1496</v>
-      </c>
-      <c r="N107" s="54" t="s">
-        <v>904</v>
-      </c>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="54"/>
       <c r="O107" s="54"/>
       <c r="P107" s="54"/>
       <c r="Q107" s="54"/>
@@ -12511,47 +9630,19 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="39" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F109" s="39" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G109" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H109" s="39" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I109" s="39" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J109" s="39" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K109" s="39" t="s">
-        <v>1403</v>
-      </c>
-      <c r="L109" s="39" t="s">
-        <v>1347</v>
-      </c>
-      <c r="M109" s="39" t="s">
-        <v>1404</v>
-      </c>
-      <c r="N109" s="39" t="s">
-        <v>1318</v>
-      </c>
-      <c r="O109" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="P109" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="39"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
       <c r="Q109" s="39"/>
       <c r="R109" s="39"/>
       <c r="S109" s="20"/>
@@ -12580,49 +9671,21 @@
     <row r="111" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="12"/>
       <c r="C111" s="32"/>
-      <c r="D111" s="54" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E111" s="54" t="s">
-        <v>704</v>
-      </c>
-      <c r="F111" s="54" t="s">
-        <v>1566</v>
-      </c>
-      <c r="G111" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="H111" s="54" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I111" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="J111" s="54" t="s">
-        <v>1540</v>
-      </c>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
       <c r="K111" s="54"/>
-      <c r="L111" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="M111" s="54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="N111" s="54" t="s">
-        <v>1499</v>
-      </c>
-      <c r="O111" s="54" t="s">
-        <v>1499</v>
-      </c>
-      <c r="P111" s="54" t="s">
-        <v>1568</v>
-      </c>
-      <c r="Q111" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="R111" s="54" t="s">
-        <v>601</v>
-      </c>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="54"/>
+      <c r="P111" s="54"/>
+      <c r="Q111" s="54"/>
+      <c r="R111" s="54"/>
       <c r="V111" s="34"/>
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -12650,53 +9713,23 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="51" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E113" s="51" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F113" s="51" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G113" s="51" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H113" s="51" t="s">
-        <v>1407</v>
-      </c>
-      <c r="I113" s="51" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J113" s="51" t="s">
-        <v>1408</v>
-      </c>
-      <c r="K113" s="51" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L113" s="51" t="s">
-        <v>1181</v>
-      </c>
-      <c r="M113" s="51" t="s">
-        <v>1190</v>
-      </c>
-      <c r="N113" s="51" t="s">
-        <v>1409</v>
-      </c>
-      <c r="O113" s="51" t="s">
-        <v>1409</v>
-      </c>
-      <c r="P113" s="51" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Q113" s="51" t="s">
-        <v>1411</v>
-      </c>
-      <c r="R113" s="51" t="s">
-        <v>1204</v>
-      </c>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
       <c r="S113" s="20" t="s">
-        <v>1171</v>
+        <v>161</v>
       </c>
       <c r="V113" s="7"/>
     </row>
@@ -12766,11 +9799,7 @@
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="E117" s="39"/>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
@@ -12810,37 +9839,17 @@
     <row r="119" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="12"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="E119" s="54" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F119" s="54" t="s">
-        <v>484</v>
-      </c>
-      <c r="G119" s="54" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H119" s="54" t="s">
-        <v>1500</v>
-      </c>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
       <c r="I119" s="54"/>
-      <c r="J119" s="54" t="s">
-        <v>1501</v>
-      </c>
-      <c r="K119" s="54" t="s">
-        <v>1570</v>
-      </c>
-      <c r="L119" s="54" t="s">
-        <v>704</v>
-      </c>
-      <c r="M119" s="54" t="s">
-        <v>1213</v>
-      </c>
-      <c r="N119" s="54" t="s">
-        <v>567</v>
-      </c>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="54"/>
       <c r="O119" s="54"/>
       <c r="P119" s="54"/>
       <c r="Q119" s="54"/>
@@ -12872,47 +9881,19 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="39" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E121" s="39" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F121" s="39" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H121" s="39" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I121" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J121" s="39" t="s">
-        <v>1415</v>
-      </c>
-      <c r="K121" s="39" t="s">
-        <v>1416</v>
-      </c>
-      <c r="L121" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M121" s="39" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N121" s="39" t="s">
-        <v>1417</v>
-      </c>
-      <c r="O121" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P121" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="39"/>
+      <c r="N121" s="39"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="39"/>
       <c r="Q121" s="39"/>
       <c r="R121" s="39"/>
       <c r="S121" s="20"/>
@@ -12941,43 +9922,19 @@
     <row r="123" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="32"/>
-      <c r="D123" s="54" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E123" s="54" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F123" s="54" t="s">
-        <v>850</v>
-      </c>
-      <c r="G123" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H123" s="54" t="s">
-        <v>1559</v>
-      </c>
-      <c r="I123" s="54" t="s">
-        <v>1211</v>
-      </c>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
       <c r="J123" s="54"/>
-      <c r="K123" s="54" t="s">
-        <v>1558</v>
-      </c>
-      <c r="L123" s="54" t="s">
-        <v>1572</v>
-      </c>
-      <c r="M123" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="N123" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O123" s="54" t="s">
-        <v>1466</v>
-      </c>
-      <c r="P123" s="54" t="s">
-        <v>519</v>
-      </c>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
+      <c r="P123" s="54"/>
       <c r="Q123" s="54"/>
       <c r="R123" s="54"/>
       <c r="V123" s="34"/>
@@ -13007,53 +9964,21 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="39" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E125" s="39" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F125" s="39" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G125" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H125" s="39" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I125" s="39" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J125" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K125" s="39" t="s">
-        <v>1372</v>
-      </c>
-      <c r="L125" s="39" t="s">
-        <v>1421</v>
-      </c>
-      <c r="M125" s="39" t="s">
-        <v>1422</v>
-      </c>
-      <c r="N125" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O125" s="39" t="s">
-        <v>1423</v>
-      </c>
-      <c r="P125" s="39" t="s">
-        <v>1424</v>
-      </c>
-      <c r="Q125" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="R125" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
+      <c r="Q125" s="39"/>
+      <c r="R125" s="39"/>
       <c r="S125" s="20"/>
       <c r="V125" s="7"/>
     </row>
@@ -13080,43 +10005,19 @@
     <row r="127" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="12"/>
       <c r="C127" s="32"/>
-      <c r="D127" s="54" t="s">
-        <v>752</v>
-      </c>
-      <c r="E127" s="54" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F127" s="54" t="s">
-        <v>890</v>
-      </c>
-      <c r="G127" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H127" s="54" t="s">
-        <v>754</v>
-      </c>
-      <c r="I127" s="54" t="s">
-        <v>746</v>
-      </c>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
       <c r="J127" s="54"/>
-      <c r="K127" s="54" t="s">
-        <v>864</v>
-      </c>
-      <c r="L127" s="54" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M127" s="54" t="s">
-        <v>1540</v>
-      </c>
-      <c r="N127" s="54" t="s">
-        <v>878</v>
-      </c>
-      <c r="O127" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="P127" s="54" t="s">
-        <v>581</v>
-      </c>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
+      <c r="M127" s="54"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
+      <c r="P127" s="54"/>
       <c r="Q127" s="54"/>
       <c r="R127" s="54"/>
       <c r="V127" s="34"/>
@@ -13146,53 +10047,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="39" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E129" s="39" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F129" s="39" t="s">
-        <v>1427</v>
-      </c>
-      <c r="G129" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H129" s="39" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I129" s="39" t="s">
-        <v>1429</v>
-      </c>
-      <c r="J129" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K129" s="39" t="s">
-        <v>1430</v>
-      </c>
-      <c r="L129" s="39" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M129" s="39" t="s">
-        <v>1316</v>
-      </c>
-      <c r="N129" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O129" s="39" t="s">
-        <v>1432</v>
-      </c>
-      <c r="P129" s="39" t="s">
-        <v>1433</v>
-      </c>
-      <c r="Q129" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="R129" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="39"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="39"/>
+      <c r="Q129" s="39"/>
+      <c r="R129" s="39"/>
       <c r="S129" s="20"/>
       <c r="V129" s="7"/>
     </row>
@@ -13219,46 +10088,20 @@
     <row r="131" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="32"/>
-      <c r="D131" s="54" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E131" s="54" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F131" s="54" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G131" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="H131" s="54" t="s">
-        <v>916</v>
-      </c>
-      <c r="I131" s="54" t="s">
-        <v>1505</v>
-      </c>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
       <c r="J131" s="54"/>
-      <c r="K131" s="54" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L131" s="54" t="s">
-        <v>605</v>
-      </c>
-      <c r="M131" s="54" t="s">
-        <v>796</v>
-      </c>
-      <c r="N131" s="54" t="s">
-        <v>1485</v>
-      </c>
-      <c r="O131" s="54" t="s">
-        <v>1548</v>
-      </c>
-      <c r="P131" s="54" t="s">
-        <v>1506</v>
-      </c>
-      <c r="Q131" s="54" t="s">
-        <v>1507</v>
-      </c>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="54"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="54"/>
+      <c r="P131" s="54"/>
+      <c r="Q131" s="54"/>
       <c r="R131" s="54"/>
       <c r="V131" s="34"/>
     </row>
@@ -13287,51 +10130,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="39" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E133" s="39" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F133" s="39" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G133" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H133" s="39" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I133" s="39" t="s">
-        <v>1437</v>
-      </c>
-      <c r="J133" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K133" s="39" t="s">
-        <v>1357</v>
-      </c>
-      <c r="L133" s="39" t="s">
-        <v>1240</v>
-      </c>
-      <c r="M133" s="39" t="s">
-        <v>1438</v>
-      </c>
-      <c r="N133" s="39" t="s">
-        <v>1373</v>
-      </c>
-      <c r="O133" s="39" t="s">
-        <v>1347</v>
-      </c>
-      <c r="P133" s="39" t="s">
-        <v>1194</v>
-      </c>
-      <c r="Q133" s="39" t="s">
-        <v>1439</v>
-      </c>
-      <c r="R133" s="39" t="s">
-        <v>1225</v>
-      </c>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="39"/>
+      <c r="Q133" s="39"/>
+      <c r="R133" s="39"/>
       <c r="S133" s="20"/>
       <c r="V133" s="7"/>
     </row>
@@ -13400,14 +10213,8 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="39" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E137" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
@@ -14163,6 +10970,9 @@
       <c r="P173" s="39"/>
       <c r="Q173" s="39"/>
       <c r="R173" s="39"/>
+      <c r="S173" s="6" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="21"/>
@@ -20685,6 +17495,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE914ACD-AD1C-4724-875F-F21712C4C598}">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="44.25"/>
+  <cols>
+    <col min="2" max="2" width="11.125" style="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="46.5">
+      <c r="B2" s="61" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="46.5">
+      <c r="B3" s="62" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="46.5">
+      <c r="B4" s="62" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="50.25">
+      <c r="B5" s="62" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="46.5">
+      <c r="B6" s="62" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="46.5">
+      <c r="B7" s="62" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="50.25">
+      <c r="B8" s="62" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="46.5">
+      <c r="B9" s="62" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -20853,7 +17722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -24916,7 +21785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>
@@ -25053,7 +21922,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="60" t="s">
+      <c r="V3" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -25101,7 +21970,7 @@
       </c>
       <c r="R4" s="52"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="63"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -25153,7 +22022,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="63"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -25200,7 +22069,7 @@
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="63"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -25221,7 +22090,7 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="63"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -25265,7 +22134,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="63"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -25319,7 +22188,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="63"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -25363,7 +22232,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="63"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -25383,7 +22252,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="63"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -25429,7 +22298,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="63"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -25482,7 +22351,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="63"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -25528,7 +22397,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="63"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -25548,7 +22417,7 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
-      <c r="V15" s="63"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -25594,7 +22463,7 @@
       </c>
       <c r="R16" s="52"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="63"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -25647,7 +22516,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -25693,7 +22562,7 @@
       </c>
       <c r="R18" s="53"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="63"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -25713,7 +22582,7 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="63"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -25733,7 +22602,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="63"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -25760,7 +22629,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="63"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -25780,7 +22649,7 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="64"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7A6EC8-2B71-472B-AAE8-B0D91DDE2F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E166E6-DC01-4D20-99E9-EA8F04655A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -4487,7 +4487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4653,6 +4653,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4667,18 +4676,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7419,7 +7416,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55"/>
+      <c r="V3" s="58"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
@@ -7439,13 +7436,13 @@
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="56"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7461,7 +7458,7 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="56"/>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -7482,7 +7479,7 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="56"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -7503,7 +7500,7 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="56"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -7523,7 +7520,7 @@
       <c r="Q8" s="52"/>
       <c r="R8" s="52"/>
       <c r="S8" s="18"/>
-      <c r="V8" s="56"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -7547,7 +7544,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -7567,7 +7564,7 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -7587,7 +7584,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="56"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -7607,7 +7604,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -7630,7 +7627,7 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="56"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -7650,7 +7647,7 @@
       <c r="Q14" s="53"/>
       <c r="R14" s="53"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="56"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -7670,7 +7667,7 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -7690,7 +7687,7 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="56"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -7713,7 +7710,7 @@
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
       <c r="S17" s="20"/>
-      <c r="V17" s="56"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -7733,7 +7730,7 @@
       <c r="Q18" s="53"/>
       <c r="R18" s="53"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -7753,7 +7750,7 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="56"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -7773,7 +7770,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="56"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -7796,7 +7793,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -7816,7 +7813,7 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="56"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -7836,7 +7833,7 @@
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
-      <c r="V23" s="56"/>
+      <c r="V23" s="59"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
@@ -7856,7 +7853,7 @@
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
@@ -7879,7 +7876,7 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="20"/>
-      <c r="V25" s="56"/>
+      <c r="V25" s="59"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
@@ -7899,7 +7896,7 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="56"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -7923,7 +7920,7 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="56"/>
+      <c r="V27" s="59"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -7947,7 +7944,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="56"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
@@ -7974,7 +7971,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="56"/>
+      <c r="V29" s="59"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
@@ -7998,7 +7995,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="56"/>
+      <c r="V30" s="59"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -8022,7 +8019,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="56"/>
+      <c r="V31" s="59"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -8046,7 +8043,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="56"/>
+      <c r="V32" s="59"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
@@ -8069,7 +8066,7 @@
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
       <c r="S33" s="20"/>
-      <c r="V33" s="56"/>
+      <c r="V33" s="59"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
@@ -8089,7 +8086,7 @@
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="56"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -8109,7 +8106,7 @@
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
-      <c r="V35" s="56"/>
+      <c r="V35" s="59"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -8129,7 +8126,7 @@
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="56"/>
+      <c r="V36" s="59"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
@@ -8152,7 +8149,7 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="56"/>
+      <c r="V37" s="59"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
@@ -8172,7 +8169,7 @@
       <c r="Q38" s="53"/>
       <c r="R38" s="53"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="56"/>
+      <c r="V38" s="59"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -8192,7 +8189,7 @@
       <c r="P39" s="54"/>
       <c r="Q39" s="54"/>
       <c r="R39" s="54"/>
-      <c r="V39" s="56"/>
+      <c r="V39" s="59"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -8212,7 +8209,7 @@
       <c r="Q40" s="52"/>
       <c r="R40" s="52"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="56"/>
+      <c r="V40" s="59"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
@@ -8235,7 +8232,7 @@
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
       <c r="S41" s="20"/>
-      <c r="V41" s="56"/>
+      <c r="V41" s="59"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
@@ -8255,7 +8252,7 @@
       <c r="Q42" s="53"/>
       <c r="R42" s="53"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="56"/>
+      <c r="V42" s="59"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -8275,7 +8272,7 @@
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
-      <c r="V43" s="56"/>
+      <c r="V43" s="59"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -8295,7 +8292,7 @@
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="56"/>
+      <c r="V44" s="59"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
@@ -8318,7 +8315,7 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="56"/>
+      <c r="V45" s="59"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
@@ -8338,7 +8335,7 @@
       <c r="Q46" s="53"/>
       <c r="R46" s="53"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="56"/>
+      <c r="V46" s="59"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -8358,7 +8355,7 @@
       <c r="P47" s="54"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
-      <c r="V47" s="56"/>
+      <c r="V47" s="59"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -8378,7 +8375,7 @@
       <c r="Q48" s="52"/>
       <c r="R48" s="52"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="56"/>
+      <c r="V48" s="59"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
@@ -8401,7 +8398,7 @@
       <c r="Q49" s="39"/>
       <c r="R49" s="39"/>
       <c r="S49" s="20"/>
-      <c r="V49" s="56"/>
+      <c r="V49" s="59"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
@@ -8421,7 +8418,7 @@
       <c r="Q50" s="53"/>
       <c r="R50" s="53"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="56"/>
+      <c r="V50" s="59"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -8441,7 +8438,7 @@
       <c r="P51" s="54"/>
       <c r="Q51" s="54"/>
       <c r="R51" s="54"/>
-      <c r="V51" s="56"/>
+      <c r="V51" s="59"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -8461,7 +8458,7 @@
       <c r="Q52" s="52"/>
       <c r="R52" s="52"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="56"/>
+      <c r="V52" s="59"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
@@ -8484,7 +8481,7 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="56"/>
+      <c r="V53" s="59"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
@@ -8504,7 +8501,7 @@
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="56"/>
+      <c r="V54" s="59"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -8524,7 +8521,7 @@
       <c r="P55" s="54"/>
       <c r="Q55" s="54"/>
       <c r="R55" s="54"/>
-      <c r="V55" s="56"/>
+      <c r="V55" s="59"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -8544,7 +8541,7 @@
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="56"/>
+      <c r="V56" s="59"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
@@ -8567,7 +8564,7 @@
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="56"/>
+      <c r="V57" s="59"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -8587,7 +8584,7 @@
       <c r="Q58" s="53"/>
       <c r="R58" s="53"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="56"/>
+      <c r="V58" s="59"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -8607,7 +8604,7 @@
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
       <c r="R59" s="54"/>
-      <c r="V59" s="56"/>
+      <c r="V59" s="59"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -8627,7 +8624,7 @@
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="56"/>
+      <c r="V60" s="59"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -8650,7 +8647,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="56"/>
+      <c r="V61" s="59"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -8670,7 +8667,7 @@
       <c r="Q62" s="53"/>
       <c r="R62" s="53"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="56"/>
+      <c r="V62" s="59"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -8690,7 +8687,7 @@
       <c r="P63" s="54"/>
       <c r="Q63" s="54"/>
       <c r="R63" s="54"/>
-      <c r="V63" s="56"/>
+      <c r="V63" s="59"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -8710,7 +8707,7 @@
       <c r="Q64" s="52"/>
       <c r="R64" s="52"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="56"/>
+      <c r="V64" s="59"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -8733,7 +8730,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="56"/>
+      <c r="V65" s="59"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -8753,7 +8750,7 @@
       <c r="Q66" s="53"/>
       <c r="R66" s="53"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="56"/>
+      <c r="V66" s="59"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -8773,7 +8770,7 @@
       <c r="P67" s="54"/>
       <c r="Q67" s="54"/>
       <c r="R67" s="54"/>
-      <c r="V67" s="56"/>
+      <c r="V67" s="59"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -8793,7 +8790,7 @@
       <c r="Q68" s="52"/>
       <c r="R68" s="52"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="56"/>
+      <c r="V68" s="59"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -8816,7 +8813,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="56"/>
+      <c r="V69" s="59"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -8836,7 +8833,7 @@
       <c r="Q70" s="53"/>
       <c r="R70" s="53"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="56"/>
+      <c r="V70" s="59"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -8856,7 +8853,7 @@
       <c r="P71" s="54"/>
       <c r="Q71" s="54"/>
       <c r="R71" s="54"/>
-      <c r="V71" s="56"/>
+      <c r="V71" s="59"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -8876,7 +8873,7 @@
       <c r="Q72" s="52"/>
       <c r="R72" s="52"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="56"/>
+      <c r="V72" s="59"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -8899,7 +8896,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="56"/>
+      <c r="V73" s="59"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -8919,7 +8916,7 @@
       <c r="Q74" s="53"/>
       <c r="R74" s="53"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="56"/>
+      <c r="V74" s="59"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -8939,7 +8936,7 @@
       <c r="P75" s="54"/>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
-      <c r="V75" s="56"/>
+      <c r="V75" s="59"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -8959,7 +8956,7 @@
       <c r="Q76" s="52"/>
       <c r="R76" s="52"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="56"/>
+      <c r="V76" s="59"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -8982,7 +8979,7 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="56"/>
+      <c r="V77" s="59"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -9002,7 +8999,7 @@
       <c r="Q78" s="53"/>
       <c r="R78" s="53"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="56"/>
+      <c r="V78" s="59"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -9022,7 +9019,7 @@
       <c r="P79" s="54"/>
       <c r="Q79" s="54"/>
       <c r="R79" s="54"/>
-      <c r="V79" s="56"/>
+      <c r="V79" s="59"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -9042,7 +9039,7 @@
       <c r="Q80" s="52"/>
       <c r="R80" s="52"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="56"/>
+      <c r="V80" s="59"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -9065,7 +9062,7 @@
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
-      <c r="V81" s="56"/>
+      <c r="V81" s="59"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -9085,7 +9082,7 @@
       <c r="Q82" s="53"/>
       <c r="R82" s="53"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="57"/>
+      <c r="V82" s="60"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -17504,46 +17501,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="44.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="46.5">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="46.5">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="46.5">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="57" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="50.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="57" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="46.5">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="57" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="46.5">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="57" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="50.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="57" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="46.5">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="57" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -21922,7 +21919,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="58" t="s">
         <v>66</v>
       </c>
     </row>
@@ -21970,7 +21967,7 @@
       </c>
       <c r="R4" s="52"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="58"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -22022,7 +22019,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="58"/>
+      <c r="V5" s="61"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -22069,7 +22066,7 @@
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="61"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -22090,7 +22087,7 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="61"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -22134,7 +22131,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="61"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -22188,7 +22185,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -22232,7 +22229,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -22252,7 +22249,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -22298,7 +22295,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -22351,7 +22348,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="61"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -22397,7 +22394,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="61"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -22417,7 +22414,7 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="61"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -22463,7 +22460,7 @@
       </c>
       <c r="R16" s="52"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="61"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -22516,7 +22513,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="61"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -22562,7 +22559,7 @@
       </c>
       <c r="R18" s="53"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="61"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -22582,7 +22579,7 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="61"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -22602,7 +22599,7 @@
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="61"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -22629,7 +22626,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="61"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -22649,7 +22646,7 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="62"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A80A11-9588-43C0-981F-B4B23BC64BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE1658-D69A-43CF-A386-65ABBB5C86DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1534">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3993,50 +3993,6 @@
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4086,1594 +4042,6 @@
       </rPr>
       <t>̄</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>載</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ging5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ke5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>役</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ngoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>與</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>複</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>駕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>親</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>書</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嶇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>願</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ting1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hng5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5742,6 +4110,1062 @@
 羨萬物之得時，感吾生之行休。
 已矣乎！寓形宇內複幾時，
 曷不委心任去留，胡為遑遑欲何之？</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>兮</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>蕪</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
+    <t>Kue1</t>
+  </si>
+  <si>
+    <t>lai5</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>Tian5</t>
+  </si>
+  <si>
+    <t>ziong1</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>kue1</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>惆</t>
+  </si>
+  <si>
+    <t>悵</t>
+  </si>
+  <si>
+    <t>獨</t>
+  </si>
+  <si>
+    <t>Ki3</t>
+  </si>
+  <si>
+    <t>zu7</t>
+  </si>
+  <si>
+    <t>se5</t>
+  </si>
+  <si>
+    <t>tiu5</t>
+  </si>
+  <si>
+    <t>tiong3</t>
+  </si>
+  <si>
+    <t>tok8</t>
+  </si>
+  <si>
+    <t>悟</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>諫</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>Ngoo7</t>
+  </si>
+  <si>
+    <t>ong2</t>
+  </si>
+  <si>
+    <t>kan3</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
+    <t>tui1</t>
+  </si>
+  <si>
+    <t>實</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>途</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>覺</t>
+  </si>
+  <si>
+    <t>昨</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>Sit8</t>
+  </si>
+  <si>
+    <t>be5</t>
+  </si>
+  <si>
+    <t>too5</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>kak4</t>
+  </si>
+  <si>
+    <t>kin1</t>
+  </si>
+  <si>
+    <t>zak8</t>
+  </si>
+  <si>
+    <t>舟</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>輕</t>
+  </si>
+  <si>
+    <t>揚</t>
+  </si>
+  <si>
+    <t>飄</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>Ziu1</t>
+  </si>
+  <si>
+    <t>io5</t>
+  </si>
+  <si>
+    <t>iong5</t>
+  </si>
+  <si>
+    <t>phio5</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>征</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>熹</t>
+  </si>
+  <si>
+    <t>Mun7</t>
+  </si>
+  <si>
+    <t>loo7</t>
+  </si>
+  <si>
+    <t>hun7</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>瞻</t>
+  </si>
+  <si>
+    <t>衡</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>載</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>奔</t>
+  </si>
+  <si>
+    <t>Nai2</t>
+  </si>
+  <si>
+    <t>ciam1</t>
+  </si>
+  <si>
+    <t>zai3</t>
+  </si>
+  <si>
+    <t>hin1</t>
+  </si>
+  <si>
+    <t>pun1</t>
+  </si>
+  <si>
+    <t>僮</t>
+  </si>
+  <si>
+    <t>僕</t>
+  </si>
+  <si>
+    <t>歡</t>
+  </si>
+  <si>
+    <t>迎</t>
+  </si>
+  <si>
+    <t>稚</t>
+  </si>
+  <si>
+    <t>候</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>Tong5</t>
+  </si>
+  <si>
+    <t>huan1</t>
+  </si>
+  <si>
+    <t>ging5</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
+    <t>hau7</t>
+  </si>
+  <si>
+    <t>mui7</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>徑</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>荒</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>菊</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>Sam1</t>
+  </si>
+  <si>
+    <t>king3</t>
+  </si>
+  <si>
+    <t>ziu7</t>
+  </si>
+  <si>
+    <t>kiok4</t>
+  </si>
+  <si>
+    <t>zun5</t>
+  </si>
+  <si>
+    <t>攜</t>
+  </si>
+  <si>
+    <t>幼</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>樽</t>
+  </si>
+  <si>
+    <t>Ke5</t>
+  </si>
+  <si>
+    <t>iu3</t>
+  </si>
+  <si>
+    <t>jip8</t>
+  </si>
+  <si>
+    <t>sit5</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>ing5</t>
+  </si>
+  <si>
+    <t>zun1</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>壺</t>
+  </si>
+  <si>
+    <t>觴</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>眄</t>
+  </si>
+  <si>
+    <t>柯</t>
+  </si>
+  <si>
+    <t>顏</t>
+  </si>
+  <si>
+    <t>In2</t>
+  </si>
+  <si>
+    <t>siunn1</t>
+  </si>
+  <si>
+    <t>ziok4</t>
+  </si>
+  <si>
+    <t>mia7</t>
+  </si>
+  <si>
+    <t>kho1</t>
+  </si>
+  <si>
+    <t>gan5</t>
+  </si>
+  <si>
+    <t>倚</t>
+  </si>
+  <si>
+    <t>窗</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>傲</t>
+  </si>
+  <si>
+    <t>審</t>
+  </si>
+  <si>
+    <t>容</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>Ia2</t>
+  </si>
+  <si>
+    <t>chiang1</t>
+  </si>
+  <si>
+    <t>ngo7</t>
+  </si>
+  <si>
+    <t>sim2</t>
+  </si>
+  <si>
+    <t>sat4</t>
+  </si>
+  <si>
+    <t>an1</t>
+  </si>
+  <si>
+    <t>涉</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>雖</t>
+  </si>
+  <si>
+    <t>設</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>Hng5</t>
+  </si>
+  <si>
+    <t>sip8</t>
+  </si>
+  <si>
+    <t>ziann5</t>
+  </si>
+  <si>
+    <t>cu3</t>
+  </si>
+  <si>
+    <t>sui1</t>
+  </si>
+  <si>
+    <t>siat4</t>
+  </si>
+  <si>
+    <t>kuai1</t>
+  </si>
+  <si>
+    <t>策</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>憩</t>
+  </si>
+  <si>
+    <t>矯</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>遐</t>
+  </si>
+  <si>
+    <t>Cik4</t>
+  </si>
+  <si>
+    <t>hu5</t>
+  </si>
+  <si>
+    <t>lo7</t>
+  </si>
+  <si>
+    <t>liu5</t>
+  </si>
+  <si>
+    <t>khe3</t>
+  </si>
+  <si>
+    <t>kiau2</t>
+  </si>
+  <si>
+    <t>hia1</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>岫</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>Hun5</t>
+  </si>
+  <si>
+    <t>bo5</t>
+  </si>
+  <si>
+    <t>cut4</t>
+  </si>
+  <si>
+    <t>siu7</t>
+  </si>
+  <si>
+    <t>ziau2</t>
+  </si>
+  <si>
+    <t>kuan7</t>
+  </si>
+  <si>
+    <t>huan5</t>
+  </si>
+  <si>
+    <t>翳</t>
+  </si>
+  <si>
+    <t>撫</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>盤</t>
+  </si>
+  <si>
+    <t>桓</t>
+  </si>
+  <si>
+    <t>King2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>puann5</t>
+  </si>
+  <si>
+    <t>kuan5</t>
+  </si>
+  <si>
+    <t>請</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>絕</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>Cing2</t>
+  </si>
+  <si>
+    <t>kau1</t>
+  </si>
+  <si>
+    <t>zuat8</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>遺</t>
+  </si>
+  <si>
+    <t>複</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>焉</t>
+  </si>
+  <si>
+    <t>Se3</t>
+  </si>
+  <si>
+    <t>gua2</t>
+  </si>
+  <si>
+    <t>sann1</t>
+  </si>
+  <si>
+    <t>hok8</t>
+  </si>
+  <si>
+    <t>ka3</t>
+  </si>
+  <si>
+    <t>gua7</t>
+  </si>
+  <si>
+    <t>悅</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>戚</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>Uat4</t>
+  </si>
+  <si>
+    <t>cin1</t>
+  </si>
+  <si>
+    <t>cik4</t>
+  </si>
+  <si>
+    <t>ue7</t>
+  </si>
+  <si>
+    <t>lok8</t>
+  </si>
+  <si>
+    <t>khim5</t>
+  </si>
+  <si>
+    <t>zu1</t>
+  </si>
+  <si>
+    <t>農</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>疇</t>
+  </si>
+  <si>
+    <t>Long5</t>
+  </si>
+  <si>
+    <t>koo3</t>
+  </si>
+  <si>
+    <t>kip8</t>
+  </si>
+  <si>
+    <t>su7</t>
+  </si>
+  <si>
+    <t>hu7</t>
+  </si>
+  <si>
+    <t>se1</t>
+  </si>
+  <si>
+    <t>tiu2</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>棹</t>
+  </si>
+  <si>
+    <t>Oh8</t>
+  </si>
+  <si>
+    <t>bing7</t>
+  </si>
+  <si>
+    <t>cia1</t>
+  </si>
+  <si>
+    <t>oh8</t>
+  </si>
+  <si>
+    <t>tau3</t>
+  </si>
+  <si>
+    <t>koo1</t>
+  </si>
+  <si>
+    <t>ziu1</t>
+  </si>
+  <si>
+    <t>窈</t>
+  </si>
+  <si>
+    <t>窕</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>壑</t>
+  </si>
+  <si>
+    <t>崎</t>
+  </si>
+  <si>
+    <t>嶇</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>iau2</t>
+  </si>
+  <si>
+    <t>tiau2</t>
+  </si>
+  <si>
+    <t>cim5</t>
+  </si>
+  <si>
+    <t>khak4</t>
+  </si>
+  <si>
+    <t>khe5</t>
+  </si>
+  <si>
+    <t>khue1</t>
+  </si>
+  <si>
+    <t>khiu1</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>榮</t>
+  </si>
+  <si>
+    <t>泉</t>
+  </si>
+  <si>
+    <t>涓</t>
+  </si>
+  <si>
+    <t>始</t>
+  </si>
+  <si>
+    <t>Bok8</t>
+  </si>
+  <si>
+    <t>hiong3</t>
+  </si>
+  <si>
+    <t>zuann5</t>
+  </si>
+  <si>
+    <t>si2</t>
+  </si>
+  <si>
+    <t>羨</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>Sian7</t>
+  </si>
+  <si>
+    <t>hiu1</t>
+  </si>
+  <si>
+    <t>寓</t>
+  </si>
+  <si>
+    <t>內</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Gu7</t>
+  </si>
+  <si>
+    <t>lai7</t>
+  </si>
+  <si>
+    <t>ki7</t>
+  </si>
+  <si>
+    <t>曷</t>
+  </si>
+  <si>
+    <t>委</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>遑</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>富</t>
+  </si>
+  <si>
+    <t>貴</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>Hu3</t>
+  </si>
+  <si>
+    <t>kui3</t>
+  </si>
+  <si>
+    <t>guan7</t>
+  </si>
+  <si>
+    <t>te3</t>
+  </si>
+  <si>
+    <t>hiong1</t>
+  </si>
+  <si>
+    <t>良</t>
+  </si>
+  <si>
+    <t>辰</t>
+  </si>
+  <si>
+    <t>植</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>耘</t>
+  </si>
+  <si>
+    <t>耔</t>
+  </si>
+  <si>
+    <t>Huai5</t>
+  </si>
+  <si>
+    <t>liong5</t>
+  </si>
+  <si>
+    <t>tit8</t>
+  </si>
+  <si>
+    <t>hun5</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>臯</t>
+  </si>
+  <si>
+    <t>舒</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>Ting1</t>
+  </si>
+  <si>
+    <t>tong1</t>
+  </si>
+  <si>
+    <t>cing1</t>
+  </si>
+  <si>
+    <t>聊</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>疑</t>
+  </si>
+  <si>
+    <t>Liau5</t>
+  </si>
+  <si>
+    <t>sing5</t>
+  </si>
+  <si>
+    <t>hua3</t>
+  </si>
+  <si>
+    <t>zin7</t>
+  </si>
+  <si>
+    <t>he5</t>
+  </si>
+  <si>
+    <t>gi5</t>
+  </si>
+  <si>
+    <t>Hat4</t>
+  </si>
+  <si>
+    <t>ui2</t>
+  </si>
+  <si>
+    <t>jim7</t>
+  </si>
+  <si>
+    <t>ui7</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>iok8</t>
   </si>
 </sst>
 </file>
@@ -6333,6 +5757,9 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -6347,9 +5774,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8759,8 +8183,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -8806,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1581</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -8814,7 +8238,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1580</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8822,7 +8246,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1579</v>
+        <v>1171</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -8846,7 +8270,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>1582</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8886,7 +8310,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>1583</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -8894,7 +8318,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1584</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -8902,7 +8326,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1585</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -8910,7 +8334,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1586</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -8918,7 +8342,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1587</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -8926,7 +8350,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1588</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -8970,8 +8394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -9001,9 +8425,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="37">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="D1" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="E1" s="37">
         <f t="shared" si="0"/>
@@ -9088,45 +8511,45 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="52" t="s">
-        <v>1323</v>
+        <v>1189</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>599</v>
+        <v>337</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52" t="s">
-        <v>1330</v>
+        <v>1192</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>748</v>
+        <v>408</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>1551</v>
+        <v>1193</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>1331</v>
+        <v>1194</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>543</v>
+        <v>40</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>704</v>
+        <v>387</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>1332</v>
+        <v>1195</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="57" t="s">
-        <v>1589</v>
+      <c r="V3" s="58" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -9147,50 +8570,50 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="17"/>
-      <c r="V4" s="58"/>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1163</v>
+        <v>299</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1164</v>
+        <v>199</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1166</v>
+        <v>1183</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>1167</v>
+        <v>267</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>1173</v>
+        <v>168</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>1163</v>
+        <v>299</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>1162</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="38" t="str">
         <f>CHAR(10)</f>
@@ -9198,8 +8621,12 @@
 </v>
       </c>
       <c r="R5" s="38"/>
-      <c r="S5" s="19"/>
-      <c r="V5" s="58"/>
+      <c r="S5" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="V5" s="59"/>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="20"/>
@@ -9220,54 +8647,54 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="22"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="52" t="s">
-        <v>1343</v>
+        <v>1203</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>1552</v>
+        <v>1204</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>846</v>
+        <v>452</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>880</v>
+        <v>52</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>633</v>
+        <v>353</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>900</v>
+        <v>475</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52" t="s">
-        <v>1344</v>
+        <v>1205</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>1345</v>
+        <v>1206</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>1346</v>
+        <v>1207</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>1347</v>
+        <v>1208</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>780</v>
+        <v>46</v>
       </c>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="16"/>
@@ -9287,7 +8714,7 @@
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
       <c r="S8" s="17"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="18">
@@ -9295,53 +8722,57 @@
         <v>2</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1333</v>
+        <v>1196</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1334</v>
+        <v>253</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>1335</v>
+        <v>273</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>1336</v>
+        <v>182</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>1337</v>
+        <v>1198</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>1338</v>
+        <v>1199</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1339</v>
+        <v>1200</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>1340</v>
+        <v>1201</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>1341</v>
+        <v>1202</v>
       </c>
       <c r="Q9" s="38" t="s">
-        <v>1342</v>
+        <v>211</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S9" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="S9" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="T9" s="15"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="59"/>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="20"/>
@@ -9361,27 +8792,51 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="28"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" s="26" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>1218</v>
+      </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="K11" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>1220</v>
+      </c>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="16"/>
@@ -9401,34 +8856,66 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="17"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="18">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="38" t="str">
+      <c r="D13" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="19"/>
-      <c r="V13" s="58"/>
+      <c r="S13" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="20"/>
@@ -9448,51 +8935,51 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="28"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="31"/>
       <c r="D15" s="52" t="s">
-        <v>1357</v>
+        <v>1228</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>597</v>
+        <v>1229</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>1358</v>
+        <v>1230</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>601</v>
+        <v>45</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>704</v>
+        <v>1231</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>1359</v>
+        <v>347</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52" t="s">
-        <v>882</v>
+        <v>1232</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>1182</v>
+        <v>1233</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>782</v>
+        <v>53</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>601</v>
+        <v>468</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>1360</v>
+        <v>1234</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>1361</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="59"/>
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="16"/>
@@ -9512,7 +8999,7 @@
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
       <c r="S16" s="17"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="18">
@@ -9520,54 +9007,58 @@
         <v>4</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1348</v>
+        <v>1221</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1349</v>
+        <v>1222</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>1350</v>
+        <v>1223</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1188</v>
+        <v>93</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>1173</v>
+        <v>1224</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>1351</v>
+        <v>118</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>1352</v>
+        <v>1225</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>1165</v>
+        <v>99</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>1353</v>
+        <v>33</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>1188</v>
+        <v>210</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>1354</v>
+        <v>1226</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>1355</v>
+        <v>1227</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>1356</v>
+        <v>30</v>
       </c>
       <c r="R17" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="V17" s="58"/>
+      <c r="S17" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="20"/>
@@ -9587,51 +9078,51 @@
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
       <c r="S18" s="28"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="31"/>
       <c r="D19" s="52" t="s">
-        <v>1362</v>
+        <v>1242</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>1201</v>
+        <v>1243</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>1363</v>
+        <v>1243</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>567</v>
+        <v>336</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>1202</v>
+        <v>401</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>621</v>
+        <v>1244</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52" t="s">
-        <v>1203</v>
+        <v>389</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1204</v>
+        <v>1245</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>896</v>
+        <v>1245</v>
       </c>
       <c r="N19" s="52" t="s">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>1553</v>
+        <v>403</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="59"/>
     </row>
     <row r="20" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="16"/>
@@ -9651,7 +9142,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="17"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="18">
@@ -9659,46 +9150,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1189</v>
+        <v>1235</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1190</v>
+        <v>1236</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>1191</v>
+        <v>1236</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1192</v>
+        <v>106</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>1193</v>
+        <v>1237</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>1194</v>
+        <v>1238</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>1195</v>
+        <v>170</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>1196</v>
+        <v>1239</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>1197</v>
+        <v>1239</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>1198</v>
+        <v>1240</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>1199</v>
+        <v>1241</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R21" s="38" t="str">
         <f>CHAR(10)</f>
@@ -9706,7 +9197,7 @@
 </v>
       </c>
       <c r="S21" s="19"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="59"/>
     </row>
     <row r="22" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="20"/>
@@ -9726,51 +9217,51 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="28"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="31"/>
       <c r="D23" s="52" t="s">
-        <v>1547</v>
+        <v>1252</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>1213</v>
+        <v>324</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>1213</v>
+        <v>340</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>734</v>
+        <v>380</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>1214</v>
+        <v>1253</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52" t="s">
-        <v>708</v>
+        <v>1254</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>1215</v>
+        <v>454</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>1215</v>
+        <v>429</v>
       </c>
       <c r="N23" s="52" t="s">
-        <v>878</v>
+        <v>338</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>738</v>
+        <v>1255</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
-      <c r="V23" s="58"/>
+      <c r="V23" s="59"/>
     </row>
     <row r="24" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="16"/>
@@ -9790,7 +9281,7 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
       <c r="S24" s="17"/>
-      <c r="V24" s="58"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="18">
@@ -9798,46 +9289,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>1205</v>
+        <v>1246</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1206</v>
+        <v>1247</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>1206</v>
+        <v>110</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>1207</v>
+        <v>139</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>1208</v>
+        <v>1248</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>1209</v>
+        <v>1249</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>1210</v>
+        <v>1250</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>1210</v>
+        <v>219</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>1187</v>
+        <v>108</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>1211</v>
+        <v>1251</v>
       </c>
       <c r="P25" s="38" t="s">
-        <v>1212</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R25" s="38" t="str">
         <f>CHAR(10)</f>
@@ -9845,7 +9336,7 @@
 </v>
       </c>
       <c r="S25" s="19"/>
-      <c r="V25" s="58"/>
+      <c r="V25" s="59"/>
     </row>
     <row r="26" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="20"/>
@@ -9865,55 +9356,47 @@
       <c r="Q26" s="51"/>
       <c r="R26" s="51"/>
       <c r="S26" s="28"/>
-      <c r="V26" s="58"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="11"/>
       <c r="C27" s="31"/>
       <c r="D27" s="52" t="s">
-        <v>1324</v>
+        <v>1262</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>565</v>
+        <v>1263</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>605</v>
+        <v>353</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>691</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="H27" s="52"/>
       <c r="I27" s="52" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J27" s="52"/>
+        <v>1264</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>1265</v>
+      </c>
       <c r="K27" s="52" t="s">
-        <v>1226</v>
+        <v>1264</v>
       </c>
       <c r="L27" s="52" t="s">
-        <v>850</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>798</v>
-      </c>
-      <c r="N27" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="O27" s="52" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P27" s="52" t="s">
-        <v>912</v>
-      </c>
+        <v>1266</v>
+      </c>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="U27" s="32" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="58"/>
+      <c r="V27" s="59"/>
     </row>
     <row r="28" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="16"/>
@@ -9937,7 +9420,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="58"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="18">
@@ -9945,58 +9428,50 @@
         <v>7</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>1216</v>
+        <v>86</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>1217</v>
+        <v>1256</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>1218</v>
+        <v>1257</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1185</v>
+        <v>1258</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>1219</v>
+        <v>23</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>1220</v>
+        <v>1259</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>1186</v>
+        <v>1260</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>1221</v>
+        <v>1259</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>1222</v>
+        <v>1261</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O29" s="38" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P29" s="38" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R29" s="38" t="str">
+        <v>30</v>
+      </c>
+      <c r="N29" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
       <c r="S29" s="19"/>
       <c r="U29" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="58"/>
+      <c r="V29" s="59"/>
     </row>
     <row r="30" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="20"/>
@@ -10020,35 +9495,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="58"/>
+      <c r="V30" s="59"/>
     </row>
     <row r="31" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="11"/>
       <c r="C31" s="31"/>
       <c r="D31" s="52" t="s">
-        <v>1325</v>
+        <v>1274</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>1549</v>
+        <v>404</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>633</v>
+        <v>1275</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>591</v>
+        <v>1276</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52" t="s">
-        <v>1554</v>
+        <v>1277</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>1235</v>
+        <v>305</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>1554</v>
+        <v>1278</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>1236</v>
+        <v>1279</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -10060,7 +9535,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="58"/>
+      <c r="V31" s="59"/>
     </row>
     <row r="32" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="16"/>
@@ -10084,7 +9559,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="58"/>
+      <c r="V32" s="59"/>
     </row>
     <row r="33" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="18">
@@ -10092,34 +9567,34 @@
         <v>8</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>1228</v>
+        <v>1267</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>1229</v>
+        <v>1268</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>1230</v>
+        <v>1269</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1231</v>
+        <v>1270</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>1232</v>
+        <v>1271</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>1233</v>
+        <v>32</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>1232</v>
+        <v>1272</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>1234</v>
+        <v>1273</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="N33" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10131,7 +9606,7 @@
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="19"/>
-      <c r="V33" s="58"/>
+      <c r="V33" s="59"/>
     </row>
     <row r="34" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="20"/>
@@ -10151,35 +9626,35 @@
       <c r="Q34" s="51"/>
       <c r="R34" s="51"/>
       <c r="S34" s="28"/>
-      <c r="V34" s="58"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="52" t="s">
-        <v>1326</v>
+        <v>1288</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>740</v>
+        <v>1289</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>1245</v>
+        <v>1290</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>1246</v>
+        <v>389</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52" t="s">
-        <v>1247</v>
+        <v>488</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>519</v>
+        <v>1291</v>
       </c>
       <c r="K35" s="52" t="s">
-        <v>1248</v>
+        <v>437</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>1365</v>
+        <v>1292</v>
       </c>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
@@ -10187,7 +9662,7 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="58"/>
+      <c r="V35" s="59"/>
     </row>
     <row r="36" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="16"/>
@@ -10207,7 +9682,7 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="17"/>
-      <c r="V36" s="58"/>
+      <c r="V36" s="59"/>
     </row>
     <row r="37" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="18">
@@ -10215,34 +9690,34 @@
         <v>9</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>1237</v>
+        <v>1280</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>1238</v>
+        <v>1281</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>1239</v>
+        <v>1282</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1240</v>
+        <v>1283</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>1241</v>
+        <v>1284</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>1242</v>
+        <v>1285</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>1243</v>
+        <v>1286</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>1244</v>
+        <v>1287</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="N37" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10254,7 +9729,7 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="19"/>
-      <c r="V37" s="58"/>
+      <c r="V37" s="59"/>
     </row>
     <row r="38" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="20"/>
@@ -10274,35 +9749,35 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="28"/>
-      <c r="V38" s="58"/>
+      <c r="V38" s="59"/>
     </row>
     <row r="39" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="11"/>
       <c r="C39" s="31"/>
       <c r="D39" s="52" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>1257</v>
+        <v>1300</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1555</v>
+        <v>1301</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>708</v>
+        <v>1302</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="52" t="s">
-        <v>489</v>
+        <v>1303</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>1258</v>
+        <v>460</v>
       </c>
       <c r="K39" s="52" t="s">
-        <v>814</v>
+        <v>1304</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>1556</v>
+        <v>1305</v>
       </c>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
@@ -10310,7 +9785,7 @@
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
-      <c r="V39" s="58"/>
+      <c r="V39" s="59"/>
     </row>
     <row r="40" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="16"/>
@@ -10330,7 +9805,7 @@
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
       <c r="S40" s="17"/>
-      <c r="V40" s="58"/>
+      <c r="V40" s="59"/>
     </row>
     <row r="41" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="18">
@@ -10338,34 +9813,34 @@
         <v>10</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>1249</v>
+        <v>1293</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>1250</v>
+        <v>1294</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>1251</v>
+        <v>1295</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1252</v>
+        <v>1296</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>1253</v>
+        <v>19</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>1254</v>
+        <v>262</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>1255</v>
+        <v>1297</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>1256</v>
+        <v>1298</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="N41" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10377,7 +9852,7 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="19"/>
-      <c r="V41" s="58"/>
+      <c r="V41" s="59"/>
     </row>
     <row r="42" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="20"/>
@@ -10397,43 +9872,51 @@
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="28"/>
-      <c r="V42" s="58"/>
+      <c r="V42" s="59"/>
     </row>
     <row r="43" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="11"/>
       <c r="C43" s="31"/>
       <c r="D43" s="52" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>1267</v>
+        <v>40</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1366</v>
+        <v>1314</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H43" s="52"/>
+        <v>336</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>1204</v>
+      </c>
       <c r="I43" s="52" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J43" s="52" t="s">
-        <v>862</v>
-      </c>
+        <v>1315</v>
+      </c>
+      <c r="J43" s="52"/>
       <c r="K43" s="52" t="s">
-        <v>1270</v>
+        <v>1316</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
+        <v>304</v>
+      </c>
+      <c r="M43" s="52" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N43" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="P43" s="52" t="s">
+        <v>1318</v>
+      </c>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="58"/>
+      <c r="V43" s="59"/>
     </row>
     <row r="44" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="16"/>
@@ -10453,7 +9936,7 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="17"/>
-      <c r="V44" s="58"/>
+      <c r="V44" s="59"/>
     </row>
     <row r="45" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="18">
@@ -10461,46 +9944,54 @@
         <v>11</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>1259</v>
+        <v>1306</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>1260</v>
+        <v>1307</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>1261</v>
+        <v>1308</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>1262</v>
+        <v>106</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>1263</v>
+        <v>1309</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>1264</v>
+        <v>23</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>1265</v>
+        <v>1310</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>1266</v>
+        <v>115</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N45" s="38" t="str">
+        <v>1311</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
       <c r="S45" s="19"/>
-      <c r="V45" s="58"/>
+      <c r="V45" s="59"/>
     </row>
     <row r="46" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="20"/>
@@ -10520,51 +10011,51 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="28"/>
-      <c r="V46" s="58"/>
+      <c r="V46" s="59"/>
     </row>
     <row r="47" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="11"/>
       <c r="C47" s="31"/>
       <c r="D47" s="52" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>1329</v>
       </c>
-      <c r="E47" s="52" t="s">
-        <v>543</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1280</v>
-      </c>
       <c r="G47" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>1552</v>
+        <v>337</v>
       </c>
       <c r="I47" s="52" t="s">
-        <v>1558</v>
+        <v>1330</v>
       </c>
       <c r="J47" s="52"/>
       <c r="K47" s="52" t="s">
-        <v>1367</v>
+        <v>1331</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>517</v>
+        <v>1244</v>
       </c>
       <c r="M47" s="52" t="s">
-        <v>1281</v>
+        <v>1332</v>
       </c>
       <c r="N47" s="52" t="s">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>852</v>
+        <v>475</v>
       </c>
       <c r="P47" s="52" t="s">
-        <v>1282</v>
+        <v>1333</v>
       </c>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="V47" s="58"/>
+      <c r="V47" s="59"/>
     </row>
     <row r="48" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="16"/>
@@ -10584,7 +10075,7 @@
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
       <c r="S48" s="17"/>
-      <c r="V48" s="58"/>
+      <c r="V48" s="59"/>
     </row>
     <row r="49" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="18">
@@ -10592,46 +10083,46 @@
         <v>12</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1271</v>
+        <v>1319</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>1272</v>
+        <v>147</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>1273</v>
+        <v>1320</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>1184</v>
+        <v>1321</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>1274</v>
+        <v>1322</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>1275</v>
+        <v>1323</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>1276</v>
+        <v>1324</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>1277</v>
+        <v>1325</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>1185</v>
+        <v>108</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>1278</v>
+        <v>1326</v>
       </c>
       <c r="P49" s="38" t="s">
-        <v>1279</v>
+        <v>1327</v>
       </c>
       <c r="Q49" s="38" t="s">
-        <v>1186</v>
+        <v>30</v>
       </c>
       <c r="R49" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10639,7 +10130,7 @@
 </v>
       </c>
       <c r="S49" s="19"/>
-      <c r="V49" s="58"/>
+      <c r="V49" s="59"/>
     </row>
     <row r="50" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="20"/>
@@ -10659,51 +10150,51 @@
       <c r="Q50" s="51"/>
       <c r="R50" s="51"/>
       <c r="S50" s="28"/>
-      <c r="V50" s="58"/>
+      <c r="V50" s="59"/>
     </row>
     <row r="51" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="11"/>
       <c r="C51" s="31"/>
       <c r="D51" s="52" t="s">
-        <v>1368</v>
+        <v>1341</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>671</v>
+        <v>395</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>1550</v>
+        <v>1342</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>599</v>
+        <v>1343</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="J51" s="52"/>
       <c r="K51" s="52" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="L51" s="52" t="s">
-        <v>1214</v>
+        <v>1345</v>
       </c>
       <c r="M51" s="52" t="s">
-        <v>1295</v>
+        <v>1346</v>
       </c>
       <c r="N51" s="52" t="s">
-        <v>601</v>
+        <v>468</v>
       </c>
       <c r="O51" s="52" t="s">
-        <v>900</v>
+        <v>465</v>
       </c>
       <c r="P51" s="52" t="s">
-        <v>1296</v>
+        <v>1347</v>
       </c>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="58"/>
+      <c r="V51" s="59"/>
     </row>
     <row r="52" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="16"/>
@@ -10723,7 +10214,7 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="17"/>
-      <c r="V52" s="58"/>
+      <c r="V52" s="59"/>
     </row>
     <row r="53" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="18">
@@ -10731,46 +10222,46 @@
         <v>13</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>1283</v>
+        <v>1185</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>1284</v>
+        <v>20</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>1285</v>
+        <v>1334</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>1286</v>
+        <v>1335</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>1287</v>
+        <v>1336</v>
       </c>
       <c r="J53" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>1289</v>
+        <v>1337</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>1290</v>
+        <v>1338</v>
       </c>
       <c r="N53" s="38" t="s">
-        <v>1188</v>
+        <v>210</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>1291</v>
+        <v>1339</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>1292</v>
+        <v>1340</v>
       </c>
       <c r="Q53" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R53" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10778,7 +10269,7 @@
 </v>
       </c>
       <c r="S53" s="19"/>
-      <c r="V53" s="58"/>
+      <c r="V53" s="59"/>
     </row>
     <row r="54" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="20"/>
@@ -10798,51 +10289,51 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="28"/>
-      <c r="V54" s="58"/>
+      <c r="V54" s="59"/>
     </row>
     <row r="55" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="11"/>
       <c r="C55" s="31"/>
       <c r="D55" s="52" t="s">
-        <v>1559</v>
+        <v>1356</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>720</v>
+        <v>1357</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>1560</v>
+        <v>1359</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>1561</v>
+        <v>1360</v>
       </c>
       <c r="J55" s="52"/>
       <c r="K55" s="52" t="s">
-        <v>1365</v>
+        <v>477</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>1305</v>
+        <v>1361</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>1306</v>
+        <v>308</v>
       </c>
       <c r="N55" s="52" t="s">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="O55" s="52" t="s">
-        <v>872</v>
+        <v>1362</v>
       </c>
       <c r="P55" s="52" t="s">
-        <v>1307</v>
+        <v>339</v>
       </c>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="58"/>
+      <c r="V55" s="59"/>
     </row>
     <row r="56" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="16"/>
@@ -10862,7 +10353,7 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="17"/>
-      <c r="V56" s="58"/>
+      <c r="V56" s="59"/>
     </row>
     <row r="57" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="18">
@@ -10870,46 +10361,46 @@
         <v>14</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>1169</v>
+        <v>1348</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>1297</v>
+        <v>1349</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>1298</v>
+        <v>1350</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>1299</v>
+        <v>1351</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1300</v>
+        <v>1352</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>1244</v>
+        <v>285</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>1301</v>
+        <v>1353</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>1302</v>
+        <v>1354</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>1303</v>
+        <v>1355</v>
       </c>
       <c r="P57" s="38" t="s">
-        <v>1304</v>
+        <v>109</v>
       </c>
       <c r="Q57" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R57" s="38" t="str">
         <f>CHAR(10)</f>
@@ -10917,7 +10408,7 @@
 </v>
       </c>
       <c r="S57" s="19"/>
-      <c r="V57" s="58"/>
+      <c r="V57" s="59"/>
     </row>
     <row r="58" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="20"/>
@@ -10937,51 +10428,51 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="28"/>
-      <c r="V58" s="58"/>
+      <c r="V58" s="59"/>
     </row>
     <row r="59" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="11"/>
       <c r="C59" s="31"/>
       <c r="D59" s="52" t="s">
-        <v>1562</v>
+        <v>1370</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>1318</v>
+        <v>1371</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>1319</v>
+        <v>452</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>1320</v>
+        <v>1372</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>1321</v>
+        <v>1373</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="s">
-        <v>904</v>
+        <v>1374</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="M59" s="52" t="s">
-        <v>525</v>
+        <v>384</v>
       </c>
       <c r="N59" s="52" t="s">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="O59" s="52" t="s">
-        <v>1322</v>
+        <v>469</v>
       </c>
       <c r="P59" s="52" t="s">
-        <v>603</v>
+        <v>1376</v>
       </c>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="58"/>
+      <c r="V59" s="59"/>
     </row>
     <row r="60" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="16"/>
@@ -11001,7 +10492,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="17"/>
-      <c r="V60" s="58"/>
+      <c r="V60" s="59"/>
     </row>
     <row r="61" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="18">
@@ -11009,46 +10500,46 @@
         <v>15</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>1308</v>
+        <v>1363</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>1309</v>
+        <v>26</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>1310</v>
+        <v>253</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>1311</v>
+        <v>1364</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>1312</v>
+        <v>1365</v>
       </c>
       <c r="J61" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>1313</v>
+        <v>1366</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>1314</v>
+        <v>1367</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>1315</v>
+        <v>1368</v>
       </c>
       <c r="N61" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>1316</v>
+        <v>1213</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>1317</v>
+        <v>1369</v>
       </c>
       <c r="Q61" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R61" s="38" t="str">
         <f>CHAR(10)</f>
@@ -11056,7 +10547,7 @@
 </v>
       </c>
       <c r="S61" s="19"/>
-      <c r="V61" s="58"/>
+      <c r="V61" s="59"/>
     </row>
     <row r="62" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="20"/>
@@ -11076,51 +10567,51 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="28"/>
-      <c r="V62" s="58"/>
+      <c r="V62" s="59"/>
     </row>
     <row r="63" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="11"/>
       <c r="C63" s="31"/>
       <c r="D63" s="52" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>846</v>
+        <v>1383</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>1563</v>
+        <v>1193</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>1381</v>
+        <v>1301</v>
       </c>
       <c r="J63" s="52"/>
       <c r="K63" s="52" t="s">
-        <v>1564</v>
+        <v>406</v>
       </c>
       <c r="L63" s="52" t="s">
-        <v>1382</v>
+        <v>50</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="N63" s="52" t="s">
-        <v>878</v>
+        <v>468</v>
       </c>
       <c r="O63" s="52" t="s">
-        <v>882</v>
+        <v>1384</v>
       </c>
       <c r="P63" s="52" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="58"/>
+      <c r="V63" s="59"/>
     </row>
     <row r="64" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="16"/>
@@ -11140,7 +10631,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="17"/>
-      <c r="V64" s="58"/>
+      <c r="V64" s="59"/>
     </row>
     <row r="65" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="18">
@@ -11148,46 +10639,46 @@
         <v>16</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>1371</v>
+        <v>213</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>1334</v>
+        <v>1377</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>1185</v>
+        <v>106</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>1373</v>
+        <v>1186</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>1374</v>
+        <v>1295</v>
       </c>
       <c r="J65" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>1377</v>
+        <v>1284</v>
       </c>
       <c r="N65" s="38" t="s">
-        <v>1187</v>
+        <v>210</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>1352</v>
+        <v>1380</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="Q65" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R65" s="38" t="str">
         <f>CHAR(10)</f>
@@ -11195,7 +10686,7 @@
 </v>
       </c>
       <c r="S65" s="19"/>
-      <c r="V65" s="58"/>
+      <c r="V65" s="59"/>
     </row>
     <row r="66" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="20"/>
@@ -11215,51 +10706,47 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="28"/>
-      <c r="V66" s="58"/>
+      <c r="V66" s="59"/>
     </row>
     <row r="67" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="11"/>
       <c r="C67" s="31"/>
       <c r="D67" s="52" t="s">
-        <v>1390</v>
+        <v>1189</v>
       </c>
       <c r="E67" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52" t="s">
         <v>1391</v>
       </c>
-      <c r="F67" s="52" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I67" s="52" t="s">
-        <v>1366</v>
-      </c>
-      <c r="J67" s="52"/>
+      <c r="J67" s="52" t="s">
+        <v>357</v>
+      </c>
       <c r="K67" s="52" t="s">
-        <v>744</v>
+        <v>1392</v>
       </c>
       <c r="L67" s="52" t="s">
-        <v>890</v>
+        <v>336</v>
       </c>
       <c r="M67" s="52" t="s">
-        <v>489</v>
+        <v>1393</v>
       </c>
       <c r="N67" s="52" t="s">
-        <v>878</v>
-      </c>
-      <c r="O67" s="52" t="s">
-        <v>1565</v>
-      </c>
-      <c r="P67" s="52" t="s">
-        <v>1392</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="58"/>
+      <c r="V67" s="59"/>
     </row>
     <row r="68" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="16"/>
@@ -11279,7 +10766,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="17"/>
-      <c r="V68" s="58"/>
+      <c r="V68" s="59"/>
     </row>
     <row r="69" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="18">
@@ -11287,54 +10774,50 @@
         <v>17</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>1384</v>
+        <v>299</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>1385</v>
+        <v>199</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>1385</v>
+        <v>1182</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>1170</v>
+        <v>267</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>1261</v>
+        <v>1386</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>1186</v>
+        <v>1387</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>1387</v>
+        <v>106</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>1253</v>
+        <v>1389</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>1187</v>
+        <v>1390</v>
       </c>
       <c r="O69" s="38" t="s">
-        <v>1388</v>
-      </c>
-      <c r="P69" s="38" t="s">
-        <v>1389</v>
-      </c>
-      <c r="Q69" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R69" s="38" t="str">
+        <v>30</v>
+      </c>
+      <c r="P69" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
       <c r="S69" s="19"/>
-      <c r="V69" s="58"/>
+      <c r="V69" s="59"/>
     </row>
     <row r="70" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="20"/>
@@ -11354,47 +10837,51 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="28"/>
-      <c r="V70" s="58"/>
+      <c r="V70" s="59"/>
     </row>
     <row r="71" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="11"/>
       <c r="C71" s="31"/>
       <c r="D71" s="52" t="s">
-        <v>1323</v>
+        <v>1402</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>599</v>
+        <v>1303</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>1182</v>
+        <v>1403</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H71" s="52"/>
+        <v>468</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>1404</v>
+      </c>
       <c r="I71" s="52" t="s">
-        <v>1566</v>
-      </c>
-      <c r="J71" s="52" t="s">
-        <v>641</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J71" s="52"/>
       <c r="K71" s="52" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>597</v>
+        <v>1406</v>
       </c>
       <c r="M71" s="52" t="s">
-        <v>1567</v>
+        <v>1407</v>
       </c>
       <c r="N71" s="52" t="s">
-        <v>814</v>
-      </c>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
+        <v>1191</v>
+      </c>
+      <c r="O71" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="P71" s="52" t="s">
+        <v>466</v>
+      </c>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="58"/>
+      <c r="V71" s="59"/>
     </row>
     <row r="72" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="16"/>
@@ -11414,7 +10901,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="17"/>
-      <c r="V72" s="58"/>
+      <c r="V72" s="59"/>
     </row>
     <row r="73" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="18">
@@ -11422,50 +10909,54 @@
         <v>18</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>1163</v>
+        <v>1394</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>1164</v>
+        <v>28</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1165</v>
+        <v>1395</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>1166</v>
+        <v>210</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>1167</v>
+        <v>1396</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="J73" s="38" t="s">
-        <v>1394</v>
+        <v>23</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>1185</v>
+        <v>1399</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="N73" s="38" t="s">
-        <v>1397</v>
+        <v>1183</v>
       </c>
       <c r="O73" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P73" s="38" t="str">
+        <v>1401</v>
+      </c>
+      <c r="P73" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q73" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="R73" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
       <c r="S73" s="19"/>
-      <c r="V73" s="58"/>
+      <c r="V73" s="59"/>
     </row>
     <row r="74" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="20"/>
@@ -11485,51 +10976,51 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="28"/>
-      <c r="V74" s="58"/>
+      <c r="V74" s="59"/>
     </row>
     <row r="75" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="11"/>
       <c r="C75" s="31"/>
       <c r="D75" s="52" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>1269</v>
+        <v>1416</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>878</v>
+        <v>338</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>1568</v>
+        <v>1343</v>
       </c>
       <c r="I75" s="52" t="s">
-        <v>880</v>
+        <v>1418</v>
       </c>
       <c r="J75" s="52"/>
       <c r="K75" s="52" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="L75" s="52" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="M75" s="52" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
       <c r="N75" s="52" t="s">
-        <v>1183</v>
+        <v>336</v>
       </c>
       <c r="O75" s="52" t="s">
-        <v>826</v>
+        <v>372</v>
       </c>
       <c r="P75" s="52" t="s">
-        <v>874</v>
+        <v>416</v>
       </c>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="58"/>
+      <c r="V75" s="59"/>
     </row>
     <row r="76" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="16"/>
@@ -11549,7 +11040,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="17"/>
-      <c r="V76" s="58"/>
+      <c r="V76" s="59"/>
     </row>
     <row r="77" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="18">
@@ -11557,46 +11048,46 @@
         <v>19</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1401</v>
+        <v>1410</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>1187</v>
+        <v>108</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>1402</v>
+        <v>157</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="J77" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K77" s="38" t="s">
-        <v>1404</v>
+        <v>251</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="N77" s="38" t="s">
-        <v>1166</v>
+        <v>106</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
       <c r="P77" s="38" t="s">
-        <v>1408</v>
+        <v>203</v>
       </c>
       <c r="Q77" s="38" t="s">
-        <v>1162</v>
+        <v>30</v>
       </c>
       <c r="R77" s="38" t="str">
         <f>CHAR(10)</f>
@@ -11604,7 +11095,7 @@
 </v>
       </c>
       <c r="S77" s="19"/>
-      <c r="V77" s="58"/>
+      <c r="V77" s="59"/>
     </row>
     <row r="78" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="20"/>
@@ -11624,51 +11115,53 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="28"/>
-      <c r="V78" s="58"/>
+      <c r="V78" s="59"/>
     </row>
     <row r="79" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="11"/>
       <c r="C79" s="31"/>
       <c r="D79" s="52" t="s">
-        <v>1569</v>
+        <v>1429</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>1570</v>
+        <v>63</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>1571</v>
+        <v>1430</v>
       </c>
       <c r="G79" s="52" t="s">
-        <v>601</v>
+        <v>1194</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>1560</v>
+        <v>336</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>1424</v>
-      </c>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52" t="s">
-        <v>1425</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="J79" s="52" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K79" s="52"/>
       <c r="L79" s="52" t="s">
-        <v>1426</v>
+        <v>1193</v>
       </c>
       <c r="M79" s="52" t="s">
-        <v>1572</v>
+        <v>1303</v>
       </c>
       <c r="N79" s="52" t="s">
-        <v>597</v>
+        <v>1432</v>
       </c>
       <c r="O79" s="52" t="s">
-        <v>675</v>
+        <v>1433</v>
       </c>
       <c r="P79" s="52" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q79" s="52"/>
+        <v>1434</v>
+      </c>
+      <c r="Q79" s="52" t="s">
+        <v>1435</v>
+      </c>
       <c r="R79" s="52"/>
-      <c r="V79" s="58"/>
+      <c r="V79" s="59"/>
     </row>
     <row r="80" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="16"/>
@@ -11688,7 +11181,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="17"/>
-      <c r="V80" s="58"/>
+      <c r="V80" s="59"/>
     </row>
     <row r="81" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="18">
@@ -11696,54 +11189,56 @@
         <v>20</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>1415</v>
+        <v>37</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>1188</v>
+        <v>1424</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>1417</v>
+        <v>106</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>1418</v>
+        <v>71</v>
       </c>
       <c r="J81" s="38" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K81" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>1186</v>
       </c>
-      <c r="K81" s="38" t="s">
-        <v>1419</v>
-      </c>
-      <c r="L81" s="38" t="s">
-        <v>1420</v>
-      </c>
       <c r="M81" s="38" t="s">
-        <v>1421</v>
+        <v>19</v>
       </c>
       <c r="N81" s="38" t="s">
-        <v>1185</v>
+        <v>1426</v>
       </c>
       <c r="O81" s="38" t="s">
-        <v>1422</v>
+        <v>160</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R81" s="38" t="str">
+        <v>1428</v>
+      </c>
+      <c r="R81" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S81" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S81" s="19"/>
-      <c r="V81" s="58"/>
+      <c r="V81" s="59"/>
     </row>
     <row r="82" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="20"/>
@@ -11763,51 +11258,41 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="28"/>
-      <c r="V82" s="59"/>
+      <c r="V82" s="60"/>
     </row>
     <row r="83" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="11"/>
       <c r="C83" s="31"/>
       <c r="D83" s="52" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>541</v>
+        <v>1441</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>1438</v>
+        <v>473</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>1331</v>
-      </c>
-      <c r="H83" s="52" t="s">
-        <v>597</v>
-      </c>
+        <v>1442</v>
+      </c>
+      <c r="H83" s="52"/>
       <c r="I83" s="52" t="s">
-        <v>515</v>
+        <v>1443</v>
       </c>
       <c r="J83" s="52" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K83" s="52"/>
+        <v>1444</v>
+      </c>
+      <c r="K83" s="52" t="s">
+        <v>1445</v>
+      </c>
       <c r="L83" s="52" t="s">
-        <v>1551</v>
-      </c>
-      <c r="M83" s="52" t="s">
-        <v>1269</v>
-      </c>
-      <c r="N83" s="52" t="s">
-        <v>1440</v>
-      </c>
-      <c r="O83" s="52" t="s">
-        <v>1441</v>
-      </c>
-      <c r="P83" s="52" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Q83" s="52" t="s">
-        <v>1443</v>
-      </c>
+        <v>1446</v>
+      </c>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="52"/>
       <c r="R83" s="52"/>
       <c r="V83" s="33"/>
     </row>
@@ -11837,51 +11322,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>1427</v>
+        <v>236</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>1185</v>
+        <v>23</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>1431</v>
+        <v>236</v>
       </c>
       <c r="J85" s="38" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>1186</v>
+        <v>1379</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>1170</v>
+        <v>1235</v>
       </c>
       <c r="M85" s="38" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N85" s="38" t="s">
-        <v>1433</v>
-      </c>
-      <c r="O85" s="38" t="s">
-        <v>1434</v>
-      </c>
-      <c r="P85" s="38" t="s">
-        <v>1435</v>
-      </c>
-      <c r="Q85" s="38" t="s">
-        <v>1436</v>
-      </c>
-      <c r="R85" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="S85" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="N85" s="38" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="V85" s="6"/>
     </row>
     <row r="86" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -11907,19 +11390,43 @@
     <row r="87" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="11"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
+      <c r="D87" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G87" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="H87" s="52" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I87" s="52" t="s">
+        <v>1458</v>
+      </c>
       <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
+      <c r="K87" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="L87" s="52" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M87" s="52" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N87" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O87" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="P87" s="52" t="s">
+        <v>1461</v>
+      </c>
       <c r="Q87" s="52"/>
       <c r="R87" s="52"/>
       <c r="V87" s="33"/>
@@ -11949,25 +11456,53 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="str">
+      <c r="D89" s="38" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J89" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="L89" s="38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M89" s="38" t="s">
+        <v>1452</v>
+      </c>
+      <c r="N89" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O89" s="38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P89" s="38" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Q89" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
       <c r="S89" s="19"/>
       <c r="V89" s="6"/>
     </row>
@@ -11995,34 +11530,42 @@
       <c r="B91" s="11"/>
       <c r="C91" s="31"/>
       <c r="D91" s="52" t="s">
-        <v>1449</v>
+        <v>1468</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>1450</v>
+        <v>1265</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>894</v>
+        <v>1265</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H91" s="52"/>
+        <v>336</v>
+      </c>
+      <c r="H91" s="52" t="s">
+        <v>1469</v>
+      </c>
       <c r="I91" s="52" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J91" s="52" t="s">
-        <v>1452</v>
-      </c>
+        <v>1304</v>
+      </c>
+      <c r="J91" s="52"/>
       <c r="K91" s="52" t="s">
-        <v>1453</v>
+        <v>1470</v>
       </c>
       <c r="L91" s="52" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
+        <v>339</v>
+      </c>
+      <c r="M91" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="N91" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O91" s="52" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P91" s="52" t="s">
+        <v>323</v>
+      </c>
       <c r="Q91" s="52"/>
       <c r="R91" s="52"/>
       <c r="V91" s="33"/>
@@ -12053,44 +11596,52 @@
         <v>23</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>1445</v>
+        <v>1260</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>1446</v>
+        <v>1260</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>1447</v>
+        <v>106</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>1186</v>
+        <v>1463</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>1444</v>
+        <v>1464</v>
       </c>
       <c r="J93" s="38" t="s">
-        <v>1448</v>
+        <v>23</v>
       </c>
       <c r="K93" s="38" t="s">
-        <v>1387</v>
+        <v>1465</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>1205</v>
+        <v>1466</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N93" s="38" t="str">
+        <v>1466</v>
+      </c>
+      <c r="N93" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O93" s="38" t="s">
+        <v>1467</v>
+      </c>
+      <c r="P93" s="38" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q93" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R93" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
       <c r="S93" s="19"/>
       <c r="V93" s="6"/>
     </row>
@@ -12118,41 +11669,41 @@
       <c r="B95" s="11"/>
       <c r="C95" s="31"/>
       <c r="D95" s="52" t="s">
-        <v>1343</v>
+        <v>1475</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>1463</v>
+        <v>360</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>1464</v>
+        <v>379</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>1575</v>
+        <v>307</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>1465</v>
+        <v>477</v>
       </c>
       <c r="J95" s="52"/>
       <c r="K95" s="52" t="s">
-        <v>900</v>
+        <v>47</v>
       </c>
       <c r="L95" s="52" t="s">
-        <v>1466</v>
+        <v>482</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>1467</v>
+        <v>62</v>
       </c>
       <c r="N95" s="52" t="s">
-        <v>878</v>
+        <v>338</v>
       </c>
       <c r="O95" s="52" t="s">
-        <v>792</v>
+        <v>353</v>
       </c>
       <c r="P95" s="52" t="s">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="Q95" s="52"/>
       <c r="R95" s="52"/>
@@ -12184,46 +11735,46 @@
         <v>24</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1333</v>
+        <v>1472</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>1454</v>
+        <v>134</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>1455</v>
+        <v>156</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>1185</v>
+        <v>108</v>
       </c>
       <c r="H97" s="38" t="s">
-        <v>1456</v>
+        <v>158</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>1457</v>
+        <v>285</v>
       </c>
       <c r="J97" s="38" t="s">
-        <v>1186</v>
+        <v>23</v>
       </c>
       <c r="K97" s="38" t="s">
-        <v>1458</v>
+        <v>22</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>1459</v>
+        <v>297</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
       <c r="N97" s="38" t="s">
-        <v>1187</v>
+        <v>108</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>1461</v>
+        <v>185</v>
       </c>
       <c r="P97" s="38" t="s">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="Q97" s="38" t="s">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="R97" s="38" t="str">
         <f>CHAR(10)</f>
@@ -12257,42 +11808,38 @@
       <c r="B99" s="11"/>
       <c r="C99" s="31"/>
       <c r="D99" s="52" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>1235</v>
+        <v>336</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G99" s="52" t="s">
-        <v>597</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="G99" s="52"/>
       <c r="H99" s="52" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J99" s="52"/>
+        <v>353</v>
+      </c>
+      <c r="J99" s="52" t="s">
+        <v>334</v>
+      </c>
       <c r="K99" s="52" t="s">
-        <v>1577</v>
+        <v>1482</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>603</v>
+        <v>1405</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>603</v>
+        <v>1483</v>
       </c>
       <c r="N99" s="52" t="s">
-        <v>778</v>
-      </c>
-      <c r="O99" s="52" t="s">
-        <v>1578</v>
-      </c>
-      <c r="P99" s="52" t="s">
-        <v>563</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="O99" s="52"/>
+      <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
       <c r="R99" s="52"/>
       <c r="V99" s="33"/>
@@ -12323,52 +11870,48 @@
         <v>25</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1469</v>
+        <v>1210</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>1233</v>
+        <v>142</v>
       </c>
       <c r="F101" s="38" t="s">
-        <v>1233</v>
+        <v>160</v>
       </c>
       <c r="G101" s="38" t="s">
-        <v>1185</v>
+        <v>267</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>1471</v>
+        <v>182</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>1186</v>
+        <v>1258</v>
       </c>
       <c r="K101" s="38" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>1473</v>
+        <v>1398</v>
       </c>
       <c r="M101" s="38" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="N101" s="38" t="s">
-        <v>1187</v>
+        <v>285</v>
       </c>
       <c r="O101" s="38" t="s">
-        <v>1474</v>
-      </c>
-      <c r="P101" s="38" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q101" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R101" s="38" t="str">
+        <v>23</v>
+      </c>
+      <c r="P101" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
       <c r="S101" s="19"/>
       <c r="V101" s="6"/>
     </row>
@@ -12396,44 +11939,48 @@
       <c r="B103" s="11"/>
       <c r="C103" s="31"/>
       <c r="D103" s="52" t="s">
-        <v>1486</v>
+        <v>1528</v>
       </c>
       <c r="E103" s="52" t="s">
-        <v>647</v>
+        <v>387</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>689</v>
+        <v>1529</v>
       </c>
       <c r="G103" s="52" t="s">
-        <v>601</v>
+        <v>452</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>523</v>
+        <v>1530</v>
       </c>
       <c r="I103" s="52" t="s">
-        <v>904</v>
-      </c>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52" t="s">
-        <v>776</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="J103" s="52" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K103" s="52"/>
       <c r="L103" s="52" t="s">
-        <v>914</v>
+        <v>40</v>
       </c>
       <c r="M103" s="52" t="s">
-        <v>722</v>
+        <v>1531</v>
       </c>
       <c r="N103" s="52" t="s">
-        <v>601</v>
+        <v>1532</v>
       </c>
       <c r="O103" s="52" t="s">
-        <v>633</v>
+        <v>1532</v>
       </c>
       <c r="P103" s="52" t="s">
-        <v>1487</v>
-      </c>
-      <c r="Q103" s="52"/>
-      <c r="R103" s="52"/>
+        <v>1533</v>
+      </c>
+      <c r="Q103" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="R103" s="52" t="s">
+        <v>338</v>
+      </c>
       <c r="V103" s="33"/>
     </row>
     <row r="104" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -12462,53 +12009,55 @@
         <v>26</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>1478</v>
+        <v>168</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="G105" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J105" s="38" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" s="38" t="s">
         <v>1188</v>
       </c>
-      <c r="H105" s="38" t="s">
-        <v>1480</v>
-      </c>
-      <c r="I105" s="38" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J105" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K105" s="38" t="s">
-        <v>1481</v>
-      </c>
-      <c r="L105" s="38" t="s">
-        <v>1482</v>
-      </c>
       <c r="M105" s="38" t="s">
-        <v>1483</v>
+        <v>273</v>
       </c>
       <c r="N105" s="38" t="s">
-        <v>1188</v>
+        <v>1488</v>
       </c>
       <c r="O105" s="38" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="P105" s="38" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="Q105" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R105" s="38" t="str">
+        <v>252</v>
+      </c>
+      <c r="R105" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S105" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S105" s="19"/>
       <c r="V105" s="6"/>
     </row>
     <row r="106" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -12534,37 +12083,17 @@
     <row r="107" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="11"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="52" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E107" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="F107" s="52" t="s">
-        <v>695</v>
-      </c>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
       <c r="G107" s="52"/>
-      <c r="H107" s="52" t="s">
-        <v>1493</v>
-      </c>
-      <c r="I107" s="52" t="s">
-        <v>633</v>
-      </c>
-      <c r="J107" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="K107" s="52" t="s">
-        <v>1494</v>
-      </c>
-      <c r="L107" s="52" t="s">
-        <v>1411</v>
-      </c>
-      <c r="M107" s="52" t="s">
-        <v>1495</v>
-      </c>
-      <c r="N107" s="52" t="s">
-        <v>904</v>
-      </c>
+      <c r="H107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
       <c r="O107" s="52"/>
       <c r="P107" s="52"/>
       <c r="Q107" s="52"/>
@@ -12597,46 +12126,24 @@
         <v>27</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E109" s="38" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F109" s="38" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G109" s="38" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H109" s="38" t="s">
-        <v>1489</v>
-      </c>
-      <c r="I109" s="38" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J109" s="38" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K109" s="38" t="s">
-        <v>1490</v>
-      </c>
-      <c r="L109" s="38" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M109" s="38" t="s">
-        <v>1491</v>
-      </c>
-      <c r="N109" s="38" t="s">
-        <v>1313</v>
-      </c>
-      <c r="O109" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="P109" s="38" t="str">
+        <v>161</v>
+      </c>
+      <c r="E109" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
       <c r="Q109" s="38"/>
       <c r="R109" s="38"/>
       <c r="S109" s="19"/>
@@ -12665,17 +12172,37 @@
     <row r="111" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="11"/>
       <c r="C111" s="31"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
+      <c r="D111" s="52" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E111" s="52" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F111" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G111" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="H111" s="52" t="s">
+        <v>1497</v>
+      </c>
       <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
-      <c r="M111" s="52"/>
-      <c r="N111" s="52"/>
+      <c r="J111" s="52" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K111" s="52" t="s">
+        <v>1499</v>
+      </c>
+      <c r="L111" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="M111" s="52" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N111" s="52" t="s">
+        <v>45</v>
+      </c>
       <c r="O111" s="52"/>
       <c r="P111" s="52"/>
       <c r="Q111" s="52"/>
@@ -12708,51 +12235,53 @@
         <v>28</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>1173</v>
+        <v>1491</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>1497</v>
+        <v>1227</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>1334</v>
+        <v>297</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="I113" s="49" t="s">
-        <v>1164</v>
+        <v>23</v>
       </c>
       <c r="J113" s="49" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="K113" s="49" t="s">
-        <v>1186</v>
+        <v>202</v>
       </c>
       <c r="L113" s="49" t="s">
-        <v>1172</v>
+        <v>168</v>
       </c>
       <c r="M113" s="49" t="s">
-        <v>1335</v>
+        <v>1214</v>
       </c>
       <c r="N113" s="49" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="O113" s="49" t="s">
-        <v>1500</v>
-      </c>
-      <c r="P113" s="49" t="s">
-        <v>1501</v>
-      </c>
-      <c r="Q113" s="49" t="s">
-        <v>1502</v>
-      </c>
-      <c r="R113" s="49" t="s">
-        <v>1188</v>
-      </c>
-      <c r="S113" s="62"/>
+        <v>30</v>
+      </c>
+      <c r="P113" s="49" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+      <c r="S113" s="57" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="V113" s="6"/>
     </row>
     <row r="114" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -12778,19 +12307,43 @@
     <row r="115" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="11"/>
       <c r="C115" s="31"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
+      <c r="D115" s="52" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F115" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="G115" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="H115" s="52" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I115" s="52" t="s">
+        <v>1217</v>
+      </c>
       <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="52"/>
-      <c r="M115" s="52"/>
-      <c r="N115" s="52"/>
-      <c r="O115" s="52"/>
-      <c r="P115" s="52"/>
+      <c r="K115" s="52" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L115" s="52" t="s">
+        <v>1508</v>
+      </c>
+      <c r="M115" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="N115" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O115" s="52" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P115" s="52" t="s">
+        <v>305</v>
+      </c>
       <c r="Q115" s="52"/>
       <c r="R115" s="52"/>
       <c r="V115" s="33"/>
@@ -12821,22 +12374,52 @@
         <v>29</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
+        <v>201</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I117" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J117" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="L117" s="38" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M117" s="38" t="s">
+        <v>1503</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O117" s="38" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P117" s="38" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q117" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="R117" s="38" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S117" s="19"/>
       <c r="V117" s="6"/>
     </row>
@@ -12863,19 +12446,43 @@
     <row r="119" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="11"/>
       <c r="C119" s="31"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
+      <c r="D119" s="52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F119" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="H119" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I119" s="52" t="s">
+        <v>407</v>
+      </c>
       <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="52"/>
-      <c r="N119" s="52"/>
-      <c r="O119" s="52"/>
-      <c r="P119" s="52"/>
+      <c r="K119" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="L119" s="52" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M119" s="52" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N119" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O119" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="P119" s="52" t="s">
+        <v>331</v>
+      </c>
       <c r="Q119" s="52"/>
       <c r="R119" s="52"/>
       <c r="V119" s="33"/>
@@ -12905,25 +12512,53 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38" t="str">
+      <c r="D121" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G121" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I121" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J121" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L121" s="38" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M121" s="38" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N121" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O121" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P121" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q121" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R121" s="38" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="38"/>
-      <c r="R121" s="38"/>
       <c r="S121" s="19"/>
       <c r="V121" s="6"/>
     </row>
@@ -12951,39 +12586,45 @@
       <c r="B123" s="11"/>
       <c r="C123" s="31"/>
       <c r="D123" s="52" t="s">
-        <v>1509</v>
+        <v>1522</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>1510</v>
+        <v>1523</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>484</v>
+        <v>1524</v>
       </c>
       <c r="G123" s="52" t="s">
-        <v>914</v>
+        <v>336</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52" t="s">
-        <v>1512</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="I123" s="52" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J123" s="52"/>
       <c r="K123" s="52" t="s">
-        <v>1513</v>
+        <v>1419</v>
       </c>
       <c r="L123" s="52" t="s">
-        <v>704</v>
+        <v>340</v>
       </c>
       <c r="M123" s="52" t="s">
-        <v>1360</v>
+        <v>428</v>
       </c>
       <c r="N123" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="O123" s="52"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="52"/>
+        <v>1441</v>
+      </c>
+      <c r="O123" s="52" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P123" s="52" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q123" s="52" t="s">
+        <v>1527</v>
+      </c>
       <c r="R123" s="52"/>
       <c r="V123" s="33"/>
     </row>
@@ -13013,49 +12654,55 @@
         <v>31</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="F125" s="38" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G125" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H125" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="I125" s="38" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J125" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L125" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="M125" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="N125" s="38" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O125" s="38" t="s">
+        <v>1398</v>
+      </c>
+      <c r="P125" s="38" t="s">
         <v>1199</v>
       </c>
-      <c r="G125" s="38" t="s">
-        <v>1482</v>
-      </c>
-      <c r="H125" s="38" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I125" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="J125" s="38" t="s">
-        <v>1506</v>
-      </c>
-      <c r="K125" s="38" t="s">
-        <v>1507</v>
-      </c>
-      <c r="L125" s="38" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M125" s="38" t="s">
-        <v>1354</v>
-      </c>
-      <c r="N125" s="38" t="s">
-        <v>1508</v>
-      </c>
-      <c r="O125" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P125" s="38" t="str">
+      <c r="Q125" s="38" t="s">
+        <v>1521</v>
+      </c>
+      <c r="R125" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S125" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="Q125" s="38"/>
-      <c r="R125" s="38"/>
-      <c r="S125" s="19"/>
       <c r="V125" s="6"/>
     </row>
     <row r="126" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -13081,43 +12728,19 @@
     <row r="127" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="11"/>
       <c r="C127" s="31"/>
-      <c r="D127" s="52" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E127" s="52" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F127" s="52" t="s">
-        <v>850</v>
-      </c>
-      <c r="G127" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H127" s="52" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I127" s="52" t="s">
-        <v>1358</v>
-      </c>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="52"/>
       <c r="J127" s="52"/>
-      <c r="K127" s="52" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L127" s="52" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M127" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="N127" s="52" t="s">
-        <v>878</v>
-      </c>
-      <c r="O127" s="52" t="s">
-        <v>1524</v>
-      </c>
-      <c r="P127" s="52" t="s">
-        <v>519</v>
-      </c>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="52"/>
+      <c r="P127" s="52"/>
       <c r="Q127" s="52"/>
       <c r="R127" s="52"/>
       <c r="V127" s="33"/>
@@ -13148,53 +12771,27 @@
         <v>32</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E129" s="38" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F129" s="38" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G129" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H129" s="38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I129" s="38" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J129" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K129" s="38" t="s">
-        <v>1444</v>
-      </c>
-      <c r="L129" s="38" t="s">
-        <v>1517</v>
-      </c>
-      <c r="M129" s="38" t="s">
-        <v>1518</v>
-      </c>
-      <c r="N129" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="O129" s="38" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P129" s="38" t="s">
-        <v>1520</v>
-      </c>
-      <c r="Q129" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="R129" s="38" t="str">
+        <v>38</v>
+      </c>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="38"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="38"/>
+      <c r="O129" s="38"/>
+      <c r="P129" s="38"/>
+      <c r="Q129" s="38"/>
+      <c r="R129" s="38"/>
+      <c r="S129" s="19" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="S129" s="19"/>
       <c r="V129" s="6"/>
     </row>
     <row r="130" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -13220,43 +12817,19 @@
     <row r="131" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="11"/>
       <c r="C131" s="31"/>
-      <c r="D131" s="52" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E131" s="52" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F131" s="52" t="s">
-        <v>890</v>
-      </c>
-      <c r="G131" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H131" s="52" t="s">
-        <v>754</v>
-      </c>
-      <c r="I131" s="52" t="s">
-        <v>746</v>
-      </c>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
       <c r="J131" s="52"/>
-      <c r="K131" s="52" t="s">
-        <v>864</v>
-      </c>
-      <c r="L131" s="52" t="s">
-        <v>1548</v>
-      </c>
-      <c r="M131" s="52" t="s">
-        <v>1320</v>
-      </c>
-      <c r="N131" s="52" t="s">
-        <v>878</v>
-      </c>
-      <c r="O131" s="52" t="s">
-        <v>583</v>
-      </c>
-      <c r="P131" s="52" t="s">
-        <v>581</v>
-      </c>
+      <c r="K131" s="52"/>
+      <c r="L131" s="52"/>
+      <c r="M131" s="52"/>
+      <c r="N131" s="52"/>
+      <c r="O131" s="52"/>
+      <c r="P131" s="52"/>
       <c r="Q131" s="52"/>
       <c r="R131" s="52"/>
       <c r="V131" s="33"/>
@@ -13286,53 +12859,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="38" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E133" s="38" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F133" s="38" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G133" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H133" s="38" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I133" s="38" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J133" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K133" s="38" t="s">
-        <v>1530</v>
-      </c>
-      <c r="L133" s="38" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M133" s="38" t="s">
-        <v>1311</v>
-      </c>
-      <c r="N133" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="O133" s="38" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P133" s="38" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Q133" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R133" s="38" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="38"/>
       <c r="S133" s="19"/>
       <c r="V133" s="6"/>
     </row>
@@ -13359,46 +12900,20 @@
     <row r="135" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B135" s="11"/>
       <c r="C135" s="31"/>
-      <c r="D135" s="52" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E135" s="52" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F135" s="52" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G135" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="H135" s="52" t="s">
-        <v>916</v>
-      </c>
-      <c r="I135" s="52" t="s">
-        <v>1576</v>
-      </c>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
       <c r="J135" s="52"/>
-      <c r="K135" s="52" t="s">
-        <v>1425</v>
-      </c>
-      <c r="L135" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="M135" s="52" t="s">
-        <v>796</v>
-      </c>
-      <c r="N135" s="52" t="s">
-        <v>1450</v>
-      </c>
-      <c r="O135" s="52" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P135" s="52" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Q135" s="52" t="s">
-        <v>1546</v>
-      </c>
+      <c r="K135" s="52"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="52"/>
+      <c r="P135" s="52"/>
+      <c r="Q135" s="52"/>
       <c r="R135" s="52"/>
       <c r="V135" s="33"/>
     </row>
@@ -13427,52 +12942,26 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="38" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F137" s="38" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G137" s="38" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H137" s="38" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I137" s="38" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J137" s="38" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K137" s="38" t="s">
-        <v>1419</v>
-      </c>
-      <c r="L137" s="38" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M137" s="38" t="s">
-        <v>1540</v>
-      </c>
-      <c r="N137" s="38" t="s">
-        <v>1445</v>
-      </c>
-      <c r="O137" s="38" t="s">
-        <v>1404</v>
-      </c>
-      <c r="P137" s="38" t="s">
-        <v>1338</v>
-      </c>
-      <c r="Q137" s="38" t="s">
-        <v>1541</v>
-      </c>
-      <c r="R137" s="38" t="s">
-        <v>1200</v>
-      </c>
-      <c r="S137" s="19"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="38"/>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+      <c r="P137" s="38"/>
+      <c r="Q137" s="38"/>
+      <c r="R137" s="38"/>
+      <c r="S137" s="19" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="V137" s="6"/>
     </row>
     <row r="138" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -13540,9 +13029,7 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="D141" s="38"/>
       <c r="E141" s="38"/>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -20755,42 +20242,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="46.5">
       <c r="B2" s="54" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="46.5">
       <c r="B3" s="55" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="46.5">
       <c r="B4" s="55" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="50.25">
       <c r="B5" s="55" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="46.5">
       <c r="B6" s="55" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="46.5">
       <c r="B7" s="55" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="50.25">
       <c r="B8" s="55" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="46.5">
       <c r="B9" s="55" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -25168,7 +24655,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="58" t="s">
         <v>66</v>
       </c>
     </row>
@@ -25216,7 +24703,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="17"/>
-      <c r="V4" s="60"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="18">
@@ -25268,7 +24755,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="19"/>
-      <c r="V5" s="60"/>
+      <c r="V5" s="61"/>
     </row>
     <row r="6" spans="1:22" s="23" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="20"/>
@@ -25315,7 +24802,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="22"/>
-      <c r="V6" s="60"/>
+      <c r="V6" s="61"/>
     </row>
     <row r="7" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="24"/>
@@ -25336,7 +24823,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
-      <c r="V7" s="60"/>
+      <c r="V7" s="61"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="16"/>
@@ -25380,7 +24867,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="17"/>
-      <c r="V8" s="60"/>
+      <c r="V8" s="61"/>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="18">
@@ -25434,7 +24921,7 @@
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="15"/>
-      <c r="V9" s="60"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="20"/>
@@ -25478,7 +24965,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="28"/>
-      <c r="V10" s="60"/>
+      <c r="V10" s="61"/>
     </row>
     <row r="11" spans="1:22" s="26" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="29"/>
@@ -25498,7 +24985,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="60"/>
+      <c r="V11" s="61"/>
     </row>
     <row r="12" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="16"/>
@@ -25544,7 +25031,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="17"/>
-      <c r="V12" s="60"/>
+      <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="18">
@@ -25597,7 +25084,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="19"/>
-      <c r="V13" s="60"/>
+      <c r="V13" s="61"/>
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="20"/>
@@ -25643,7 +25130,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="28"/>
-      <c r="V14" s="60"/>
+      <c r="V14" s="61"/>
     </row>
     <row r="15" spans="1:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="11"/>
@@ -25663,7 +25150,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="60"/>
+      <c r="V15" s="61"/>
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="16"/>
@@ -25709,7 +25196,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="17"/>
-      <c r="V16" s="60"/>
+      <c r="V16" s="61"/>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="18">
@@ -25762,7 +25249,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="19"/>
-      <c r="V17" s="60"/>
+      <c r="V17" s="61"/>
     </row>
     <row r="18" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="20"/>
@@ -25808,7 +25295,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="28"/>
-      <c r="V18" s="60"/>
+      <c r="V18" s="61"/>
     </row>
     <row r="19" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="11"/>
@@ -25828,7 +25315,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="60"/>
+      <c r="V19" s="61"/>
     </row>
     <row r="20" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="16"/>
@@ -25848,7 +25335,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="17"/>
-      <c r="V20" s="60"/>
+      <c r="V20" s="61"/>
     </row>
     <row r="21" spans="2:22" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="18">
@@ -25875,7 +25362,7 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="19"/>
-      <c r="V21" s="60"/>
+      <c r="V21" s="61"/>
     </row>
     <row r="22" spans="2:22" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="20"/>
@@ -25895,7 +25382,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="28"/>
-      <c r="V22" s="61"/>
+      <c r="V22" s="62"/>
     </row>
     <row r="23" spans="2:22" s="32" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="11"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE1658-D69A-43CF-A386-65ABBB5C86DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{281F64E0-EFBF-4FD2-829B-0C06CC83E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1544">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3993,6 +3993,14 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4045,6 +4053,742 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phio5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ging5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mun7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ke5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ki3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ngoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ka3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khe5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ting1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hng5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cim5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjAYyXKzS3-hTmoA6Gwht0i0BYU2y91JyQ6g4NFnLaUSDpon8FNA5arPpsxuLowxOVbE3N5PGPSv3yDbXUKYJUn6BE0jXdD8KefKAz91DfWggZRMSAGm9HgBS2IWzdjiu1_UkaU9Kny6UuTOn3L4HQFtZB33RS3vAPxNrYWsjcomRZXf-bKrBziwZ8Us-M/s320/%E6%AD%B8%E5%8E%BB%E4%BE%86%E5%85%AE%E8%BE%AD.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4084,9 +4828,543 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>兮</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>蕪</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>役</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>惆</t>
+  </si>
+  <si>
+    <t>悵</t>
+  </si>
+  <si>
+    <t>獨</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>諫</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>途</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>覺</t>
+  </si>
+  <si>
+    <t>昨</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>舟</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>輕</t>
+  </si>
+  <si>
+    <t>揚</t>
+  </si>
+  <si>
+    <t>飄</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>征</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>熹</t>
+  </si>
+  <si>
+    <t>瞻</t>
+  </si>
+  <si>
+    <t>衡</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>載</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>奔</t>
+  </si>
+  <si>
+    <t>僕</t>
+  </si>
+  <si>
+    <t>歡</t>
+  </si>
+  <si>
+    <t>迎</t>
+  </si>
+  <si>
+    <t>稚</t>
+  </si>
+  <si>
+    <t>候</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>徑</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>荒</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>菊</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>幼</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>樽</t>
+  </si>
+  <si>
+    <t>壺</t>
+  </si>
+  <si>
+    <t>觴</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>眄</t>
+  </si>
+  <si>
+    <t>柯</t>
+  </si>
+  <si>
+    <t>顏</t>
+  </si>
+  <si>
+    <t>窗</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>傲</t>
+  </si>
+  <si>
+    <t>審</t>
+  </si>
+  <si>
+    <t>容</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>涉</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>雖</t>
+  </si>
+  <si>
+    <t>設</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>憩</t>
+  </si>
+  <si>
+    <t>矯</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>遐</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>岫</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>翳</t>
+  </si>
+  <si>
+    <t>撫</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>盤</t>
+  </si>
+  <si>
+    <t>桓</t>
+  </si>
+  <si>
+    <t>請</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>絕</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>遺</t>
+  </si>
+  <si>
+    <t>複</t>
+  </si>
+  <si>
+    <t>駕</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>焉</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>戚</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>疇</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>棹</t>
+  </si>
+  <si>
+    <t>窈</t>
+  </si>
+  <si>
+    <t>窕</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>壑</t>
+  </si>
+  <si>
+    <t>崎</t>
+  </si>
+  <si>
+    <t>嶇</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>榮</t>
+  </si>
+  <si>
+    <t>泉</t>
+  </si>
+  <si>
+    <t>涓</t>
+  </si>
+  <si>
+    <t>始</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>寓</t>
+  </si>
+  <si>
+    <t>內</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>委</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>遑</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>貴</t>
+  </si>
+  <si>
+    <t>願</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>良</t>
+  </si>
+  <si>
+    <t>辰</t>
+  </si>
+  <si>
+    <t>植</t>
+  </si>
+  <si>
+    <t>杖</t>
+  </si>
+  <si>
+    <t>耘</t>
+  </si>
+  <si>
+    <t>耔</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>臯</t>
+  </si>
+  <si>
+    <t>舒</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>疑</t>
+  </si>
+  <si>
+    <t>φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jim7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>歸去來兮！田園將蕪胡不歸？
-既自以心為形役，奚惆悵而獨悲？
-悟已往之不諫，知來者之可追；
+既自以心為形役，奚惆悵而獨悲？悟已往之不諫，知來者之可追；
 實迷途其未遠，覺今是而昨非。
 舟遙遙以輕揚，風飄飄而吹衣。
 問征夫以前路，恨晨光之熹微。
@@ -4103,1069 +5381,17 @@
 歸去來兮！請息交以絕遊。
 世與我而相遺，複駕言兮焉求？
 悅親戚之情話，樂琴書以消憂。
-農人告餘以春及，將有事乎西疇。
-或命巾車，或棹孤舟。
+農人告餘以春及，將有事乎西疇。或命巾車，或棹孤舟。
 既窈窕以尋壑，亦崎嶇而經丘。
 木欣欣以向榮，泉涓涓而始流。
 羨萬物之得時，感吾生之行休。
 已矣乎！寓形宇內複幾時，
-曷不委心任去留，胡為遑遑欲何之？</t>
-  </si>
-  <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>兮</t>
-  </si>
-  <si>
-    <t>田</t>
-  </si>
-  <si>
-    <t>園</t>
-  </si>
-  <si>
-    <t>將</t>
-  </si>
-  <si>
-    <t>蕪</t>
-  </si>
-  <si>
-    <t>胡</t>
-  </si>
-  <si>
-    <t>Kue1</t>
-  </si>
-  <si>
-    <t>lai5</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>Tian5</t>
-  </si>
-  <si>
-    <t>ziong1</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>kue1</t>
-  </si>
-  <si>
-    <t>既</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>役</t>
-  </si>
-  <si>
-    <t>奚</t>
-  </si>
-  <si>
-    <t>惆</t>
-  </si>
-  <si>
-    <t>悵</t>
-  </si>
-  <si>
-    <t>獨</t>
-  </si>
-  <si>
-    <t>Ki3</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
-    <t>se5</t>
-  </si>
-  <si>
-    <t>tiu5</t>
-  </si>
-  <si>
-    <t>tiong3</t>
-  </si>
-  <si>
-    <t>tok8</t>
-  </si>
-  <si>
-    <t>悟</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>往</t>
-  </si>
-  <si>
-    <t>諫</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>追</t>
-  </si>
-  <si>
-    <t>Ngoo7</t>
-  </si>
-  <si>
-    <t>ong2</t>
-  </si>
-  <si>
-    <t>kan3</t>
-  </si>
-  <si>
-    <t>kho2</t>
-  </si>
-  <si>
-    <t>tui1</t>
-  </si>
-  <si>
-    <t>實</t>
-  </si>
-  <si>
-    <t>迷</t>
-  </si>
-  <si>
-    <t>途</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>覺</t>
-  </si>
-  <si>
-    <t>昨</t>
-  </si>
-  <si>
-    <t>非</t>
-  </si>
-  <si>
-    <t>Sit8</t>
-  </si>
-  <si>
-    <t>be5</t>
-  </si>
-  <si>
-    <t>too5</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>kak4</t>
-  </si>
-  <si>
-    <t>kin1</t>
-  </si>
-  <si>
-    <t>zak8</t>
-  </si>
-  <si>
-    <t>舟</t>
-  </si>
-  <si>
-    <t>遙</t>
-  </si>
-  <si>
-    <t>輕</t>
-  </si>
-  <si>
-    <t>揚</t>
-  </si>
-  <si>
-    <t>飄</t>
-  </si>
-  <si>
-    <t>吹</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>Ziu1</t>
-  </si>
-  <si>
-    <t>io5</t>
-  </si>
-  <si>
-    <t>iong5</t>
-  </si>
-  <si>
-    <t>phio5</t>
-  </si>
-  <si>
-    <t>問</t>
-  </si>
-  <si>
-    <t>征</t>
-  </si>
-  <si>
-    <t>路</t>
-  </si>
-  <si>
-    <t>恨</t>
-  </si>
-  <si>
-    <t>晨</t>
-  </si>
-  <si>
-    <t>熹</t>
-  </si>
-  <si>
-    <t>Mun7</t>
-  </si>
-  <si>
-    <t>loo7</t>
-  </si>
-  <si>
-    <t>hun7</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>瞻</t>
-  </si>
-  <si>
-    <t>衡</t>
-  </si>
-  <si>
-    <t>宇</t>
-  </si>
-  <si>
-    <t>載</t>
-  </si>
-  <si>
-    <t>欣</t>
-  </si>
-  <si>
-    <t>奔</t>
-  </si>
-  <si>
-    <t>Nai2</t>
-  </si>
-  <si>
-    <t>ciam1</t>
-  </si>
-  <si>
-    <t>zai3</t>
-  </si>
-  <si>
-    <t>hin1</t>
-  </si>
-  <si>
-    <t>pun1</t>
-  </si>
-  <si>
-    <t>僮</t>
-  </si>
-  <si>
-    <t>僕</t>
-  </si>
-  <si>
-    <t>歡</t>
-  </si>
-  <si>
-    <t>迎</t>
-  </si>
-  <si>
-    <t>稚</t>
-  </si>
-  <si>
-    <t>候</t>
-  </si>
-  <si>
-    <t>門</t>
-  </si>
-  <si>
-    <t>Tong5</t>
-  </si>
-  <si>
-    <t>huan1</t>
-  </si>
-  <si>
-    <t>ging5</t>
-  </si>
-  <si>
-    <t>ti3</t>
-  </si>
-  <si>
-    <t>hau7</t>
-  </si>
-  <si>
-    <t>mui7</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>徑</t>
-  </si>
-  <si>
-    <t>就</t>
-  </si>
-  <si>
-    <t>荒</t>
-  </si>
-  <si>
-    <t>松</t>
-  </si>
-  <si>
-    <t>菊</t>
-  </si>
-  <si>
-    <t>猶</t>
-  </si>
-  <si>
-    <t>存</t>
-  </si>
-  <si>
-    <t>Sam1</t>
-  </si>
-  <si>
-    <t>king3</t>
-  </si>
-  <si>
-    <t>ziu7</t>
-  </si>
-  <si>
-    <t>kiok4</t>
-  </si>
-  <si>
-    <t>zun5</t>
-  </si>
-  <si>
-    <t>攜</t>
-  </si>
-  <si>
-    <t>幼</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>室</t>
-  </si>
-  <si>
-    <t>盈</t>
-  </si>
-  <si>
-    <t>樽</t>
-  </si>
-  <si>
-    <t>Ke5</t>
-  </si>
-  <si>
-    <t>iu3</t>
-  </si>
-  <si>
-    <t>jip8</t>
-  </si>
-  <si>
-    <t>sit5</t>
-  </si>
-  <si>
-    <t>u7</t>
-  </si>
-  <si>
-    <t>ing5</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>引</t>
-  </si>
-  <si>
-    <t>壺</t>
-  </si>
-  <si>
-    <t>觴</t>
-  </si>
-  <si>
-    <t>酌</t>
-  </si>
-  <si>
-    <t>眄</t>
-  </si>
-  <si>
-    <t>柯</t>
-  </si>
-  <si>
-    <t>顏</t>
-  </si>
-  <si>
-    <t>In2</t>
-  </si>
-  <si>
-    <t>siunn1</t>
-  </si>
-  <si>
-    <t>ziok4</t>
-  </si>
-  <si>
-    <t>mia7</t>
-  </si>
-  <si>
-    <t>kho1</t>
-  </si>
-  <si>
-    <t>gan5</t>
-  </si>
-  <si>
-    <t>倚</t>
-  </si>
-  <si>
-    <t>窗</t>
-  </si>
-  <si>
-    <t>寄</t>
-  </si>
-  <si>
-    <t>傲</t>
-  </si>
-  <si>
-    <t>審</t>
-  </si>
-  <si>
-    <t>容</t>
-  </si>
-  <si>
-    <t>膝</t>
-  </si>
-  <si>
-    <t>易</t>
-  </si>
-  <si>
-    <t>安</t>
-  </si>
-  <si>
-    <t>Ia2</t>
-  </si>
-  <si>
-    <t>chiang1</t>
-  </si>
-  <si>
-    <t>ngo7</t>
-  </si>
-  <si>
-    <t>sim2</t>
-  </si>
-  <si>
-    <t>sat4</t>
-  </si>
-  <si>
-    <t>an1</t>
-  </si>
-  <si>
-    <t>涉</t>
-  </si>
-  <si>
-    <t>成</t>
-  </si>
-  <si>
-    <t>趣</t>
-  </si>
-  <si>
-    <t>雖</t>
-  </si>
-  <si>
-    <t>設</t>
-  </si>
-  <si>
-    <t>常</t>
-  </si>
-  <si>
-    <t>關</t>
-  </si>
-  <si>
-    <t>Hng5</t>
-  </si>
-  <si>
-    <t>sip8</t>
-  </si>
-  <si>
-    <t>ziann5</t>
-  </si>
-  <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>sui1</t>
-  </si>
-  <si>
-    <t>siat4</t>
-  </si>
-  <si>
-    <t>kuai1</t>
-  </si>
-  <si>
-    <t>策</t>
-  </si>
-  <si>
-    <t>扶</t>
-  </si>
-  <si>
-    <t>老</t>
-  </si>
-  <si>
-    <t>流</t>
-  </si>
-  <si>
-    <t>憩</t>
-  </si>
-  <si>
-    <t>矯</t>
-  </si>
-  <si>
-    <t>首</t>
-  </si>
-  <si>
-    <t>遐</t>
-  </si>
-  <si>
-    <t>Cik4</t>
-  </si>
-  <si>
-    <t>hu5</t>
-  </si>
-  <si>
-    <t>lo7</t>
-  </si>
-  <si>
-    <t>liu5</t>
-  </si>
-  <si>
-    <t>khe3</t>
-  </si>
-  <si>
-    <t>kiau2</t>
-  </si>
-  <si>
-    <t>hia1</t>
-  </si>
-  <si>
-    <t>雲</t>
-  </si>
-  <si>
-    <t>出</t>
-  </si>
-  <si>
-    <t>岫</t>
-  </si>
-  <si>
-    <t>鳥</t>
-  </si>
-  <si>
-    <t>倦</t>
-  </si>
-  <si>
-    <t>飛</t>
-  </si>
-  <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>Hun5</t>
-  </si>
-  <si>
-    <t>bo5</t>
-  </si>
-  <si>
-    <t>cut4</t>
-  </si>
-  <si>
-    <t>siu7</t>
-  </si>
-  <si>
-    <t>ziau2</t>
-  </si>
-  <si>
-    <t>kuan7</t>
-  </si>
-  <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>翳</t>
-  </si>
-  <si>
-    <t>撫</t>
-  </si>
-  <si>
-    <t>孤</t>
-  </si>
-  <si>
-    <t>盤</t>
-  </si>
-  <si>
-    <t>桓</t>
-  </si>
-  <si>
-    <t>King2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>puann5</t>
-  </si>
-  <si>
-    <t>kuan5</t>
-  </si>
-  <si>
-    <t>請</t>
-  </si>
-  <si>
-    <t>息</t>
-  </si>
-  <si>
-    <t>交</t>
-  </si>
-  <si>
-    <t>絕</t>
-  </si>
-  <si>
-    <t>遊</t>
-  </si>
-  <si>
-    <t>Cing2</t>
-  </si>
-  <si>
-    <t>kau1</t>
-  </si>
-  <si>
-    <t>zuat8</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>遺</t>
-  </si>
-  <si>
-    <t>複</t>
-  </si>
-  <si>
-    <t>駕</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>焉</t>
-  </si>
-  <si>
-    <t>Se3</t>
-  </si>
-  <si>
-    <t>gua2</t>
-  </si>
-  <si>
-    <t>sann1</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ka3</t>
-  </si>
-  <si>
-    <t>gua7</t>
-  </si>
-  <si>
-    <t>悅</t>
-  </si>
-  <si>
-    <t>親</t>
-  </si>
-  <si>
-    <t>戚</t>
-  </si>
-  <si>
-    <t>話</t>
-  </si>
-  <si>
-    <t>琴</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>消</t>
-  </si>
-  <si>
-    <t>Uat4</t>
-  </si>
-  <si>
-    <t>cin1</t>
-  </si>
-  <si>
-    <t>cik4</t>
-  </si>
-  <si>
-    <t>ue7</t>
-  </si>
-  <si>
-    <t>lok8</t>
-  </si>
-  <si>
-    <t>khim5</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>農</t>
-  </si>
-  <si>
-    <t>告</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>疇</t>
-  </si>
-  <si>
-    <t>Long5</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>kip8</t>
-  </si>
-  <si>
-    <t>su7</t>
-  </si>
-  <si>
-    <t>hu7</t>
-  </si>
-  <si>
-    <t>se1</t>
-  </si>
-  <si>
-    <t>tiu2</t>
-  </si>
-  <si>
-    <t>命</t>
-  </si>
-  <si>
-    <t>巾</t>
-  </si>
-  <si>
-    <t>車</t>
-  </si>
-  <si>
-    <t>棹</t>
-  </si>
-  <si>
-    <t>Oh8</t>
-  </si>
-  <si>
-    <t>bing7</t>
-  </si>
-  <si>
-    <t>cia1</t>
-  </si>
-  <si>
-    <t>oh8</t>
-  </si>
-  <si>
-    <t>tau3</t>
-  </si>
-  <si>
-    <t>koo1</t>
-  </si>
-  <si>
-    <t>ziu1</t>
-  </si>
-  <si>
-    <t>窈</t>
-  </si>
-  <si>
-    <t>窕</t>
-  </si>
-  <si>
-    <t>尋</t>
-  </si>
-  <si>
-    <t>壑</t>
-  </si>
-  <si>
-    <t>崎</t>
-  </si>
-  <si>
-    <t>嶇</t>
-  </si>
-  <si>
-    <t>經</t>
-  </si>
-  <si>
-    <t>丘</t>
-  </si>
-  <si>
-    <t>iau2</t>
-  </si>
-  <si>
-    <t>tiau2</t>
-  </si>
-  <si>
-    <t>cim5</t>
-  </si>
-  <si>
-    <t>khak4</t>
-  </si>
-  <si>
-    <t>khe5</t>
-  </si>
-  <si>
-    <t>khue1</t>
-  </si>
-  <si>
-    <t>khiu1</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>向</t>
-  </si>
-  <si>
-    <t>榮</t>
-  </si>
-  <si>
-    <t>泉</t>
-  </si>
-  <si>
-    <t>涓</t>
-  </si>
-  <si>
-    <t>始</t>
-  </si>
-  <si>
-    <t>Bok8</t>
-  </si>
-  <si>
-    <t>hiong3</t>
-  </si>
-  <si>
-    <t>zuann5</t>
-  </si>
-  <si>
-    <t>si2</t>
-  </si>
-  <si>
-    <t>羨</t>
-  </si>
-  <si>
-    <t>生</t>
-  </si>
-  <si>
-    <t>休</t>
-  </si>
-  <si>
-    <t>Sian7</t>
-  </si>
-  <si>
-    <t>hiu1</t>
-  </si>
-  <si>
-    <t>寓</t>
-  </si>
-  <si>
-    <t>內</t>
-  </si>
-  <si>
-    <t>幾</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>Gu7</t>
-  </si>
-  <si>
-    <t>lai7</t>
-  </si>
-  <si>
-    <t>ki7</t>
-  </si>
-  <si>
-    <t>曷</t>
-  </si>
-  <si>
-    <t>委</t>
-  </si>
-  <si>
-    <t>任</t>
-  </si>
-  <si>
-    <t>留</t>
-  </si>
-  <si>
-    <t>遑</t>
-  </si>
-  <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>富</t>
-  </si>
-  <si>
-    <t>貴</t>
-  </si>
-  <si>
-    <t>願</t>
-  </si>
-  <si>
-    <t>帝</t>
-  </si>
-  <si>
-    <t>期</t>
-  </si>
-  <si>
-    <t>Hu3</t>
-  </si>
-  <si>
-    <t>kui3</t>
-  </si>
-  <si>
-    <t>guan7</t>
-  </si>
-  <si>
-    <t>te3</t>
-  </si>
-  <si>
-    <t>hiong1</t>
-  </si>
-  <si>
-    <t>良</t>
-  </si>
-  <si>
-    <t>辰</t>
-  </si>
-  <si>
-    <t>植</t>
-  </si>
-  <si>
-    <t>杖</t>
-  </si>
-  <si>
-    <t>耘</t>
-  </si>
-  <si>
-    <t>耔</t>
-  </si>
-  <si>
-    <t>Huai5</t>
-  </si>
-  <si>
-    <t>liong5</t>
-  </si>
-  <si>
-    <t>tit8</t>
-  </si>
-  <si>
-    <t>hun5</t>
-  </si>
-  <si>
-    <t>東</t>
-  </si>
-  <si>
-    <t>臯</t>
-  </si>
-  <si>
-    <t>舒</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>Ting1</t>
-  </si>
-  <si>
-    <t>tong1</t>
-  </si>
-  <si>
-    <t>cing1</t>
-  </si>
-  <si>
-    <t>聊</t>
-  </si>
-  <si>
-    <t>乘</t>
-  </si>
-  <si>
-    <t>化</t>
-  </si>
-  <si>
-    <t>盡</t>
-  </si>
-  <si>
-    <t>疑</t>
-  </si>
-  <si>
-    <t>Liau5</t>
-  </si>
-  <si>
-    <t>sing5</t>
-  </si>
-  <si>
-    <t>hua3</t>
-  </si>
-  <si>
-    <t>zin7</t>
-  </si>
-  <si>
-    <t>he5</t>
-  </si>
-  <si>
-    <t>gi5</t>
-  </si>
-  <si>
-    <t>Hat4</t>
-  </si>
-  <si>
-    <t>ui2</t>
-  </si>
-  <si>
-    <t>jim7</t>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>hong5</t>
-  </si>
-  <si>
-    <t>iok8</t>
+曷不委心任去留，胡為遑遑欲何之？
+富貴非吾願，帝鄉不可期。
+懷良辰以孤往，或植杖而耘耔，
+登東臯以舒嘯，臨清流而賦詩。
+聊乘化以歸盡，樂夫天命複奚疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8230,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1173</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -8238,7 +8464,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1172</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8246,7 +8472,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1171</v>
+        <v>1357</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -8270,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>1174</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8310,7 +8536,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>1175</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -8318,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1176</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -8326,7 +8552,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1177</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -8334,7 +8560,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1178</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -8342,7 +8568,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1179</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -8350,7 +8576,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1180</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -8394,8 +8620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8504,52 +8730,52 @@
       <c r="S2" s="9"/>
       <c r="V2" s="10">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>368</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="14" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="52" t="s">
-        <v>1189</v>
+        <v>1221</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>337</v>
+        <v>599</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52" t="s">
-        <v>1192</v>
+        <v>1228</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>408</v>
+        <v>748</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>1193</v>
+        <v>1329</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>1194</v>
+        <v>1229</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>1195</v>
+        <v>1230</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
       <c r="V3" s="58" t="s">
-        <v>1181</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -8577,34 +8803,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>299</v>
+        <v>1163</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>199</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1182</v>
+        <v>1367</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1183</v>
+        <v>1368</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>267</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1184</v>
+        <v>1369</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>1185</v>
+        <v>1370</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>1186</v>
+        <v>1371</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>1187</v>
+        <v>1372</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1188</v>
+        <v>1373</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>168</v>
@@ -8653,44 +8879,44 @@
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="52" t="s">
-        <v>1203</v>
+        <v>1232</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>1204</v>
+        <v>1330</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>452</v>
+        <v>846</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>52</v>
+        <v>880</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>353</v>
+        <v>633</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52" t="s">
-        <v>1205</v>
+        <v>1233</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>1206</v>
+        <v>1234</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>1207</v>
+        <v>1235</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>1208</v>
+        <v>1236</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>46</v>
+        <v>780</v>
       </c>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
@@ -8722,10 +8948,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1196</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1197</v>
+        <v>1374</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>106</v>
@@ -8740,25 +8966,25 @@
         <v>182</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>1198</v>
+        <v>1375</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>1199</v>
+        <v>1376</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1200</v>
+        <v>1377</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>1201</v>
+        <v>1378</v>
       </c>
       <c r="O9" s="38" t="s">
         <v>210</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>1202</v>
+        <v>1379</v>
       </c>
       <c r="Q9" s="38" t="s">
         <v>211</v>
@@ -8798,41 +9024,41 @@
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="52" t="s">
-        <v>1216</v>
+        <v>1239</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>1217</v>
+        <v>1240</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>1218</v>
+        <v>1241</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="52" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="L11" s="52" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="M11" s="52" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>1219</v>
+        <v>1242</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>1220</v>
+        <v>1243</v>
       </c>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
@@ -8864,13 +9090,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1209</v>
+        <v>1237</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1210</v>
+        <v>1380</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>1211</v>
+        <v>1381</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>108</v>
@@ -8879,16 +9105,16 @@
         <v>168</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>1212</v>
+        <v>1382</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>1213</v>
+        <v>1383</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>1182</v>
+        <v>1367</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>212</v>
@@ -8897,10 +9123,10 @@
         <v>108</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>1214</v>
+        <v>1384</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>1215</v>
+        <v>1385</v>
       </c>
       <c r="Q13" s="38" t="s">
         <v>103</v>
@@ -8941,41 +9167,41 @@
       <c r="B15" s="11"/>
       <c r="C15" s="31"/>
       <c r="D15" s="52" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>1229</v>
+        <v>1176</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>1231</v>
+        <v>1177</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>347</v>
+        <v>621</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52" t="s">
-        <v>1232</v>
+        <v>1178</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>1233</v>
+        <v>1179</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>53</v>
+        <v>896</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>1234</v>
+        <v>1331</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>384</v>
+        <v>484</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
@@ -9007,19 +9233,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1221</v>
+        <v>1175</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1222</v>
+        <v>1386</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>1223</v>
+        <v>1387</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>1224</v>
+        <v>1388</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>118</v>
@@ -9028,7 +9254,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>1225</v>
+        <v>1389</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>99</v>
@@ -9040,10 +9266,10 @@
         <v>210</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>1226</v>
+        <v>1390</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>1227</v>
+        <v>1391</v>
       </c>
       <c r="Q17" s="38" t="s">
         <v>30</v>
@@ -9084,41 +9310,41 @@
       <c r="B19" s="11"/>
       <c r="C19" s="31"/>
       <c r="D19" s="52" t="s">
-        <v>1242</v>
+        <v>1325</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>1243</v>
+        <v>1181</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>1243</v>
+        <v>1181</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>401</v>
+        <v>734</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>1244</v>
+        <v>1182</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52" t="s">
-        <v>389</v>
+        <v>708</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1245</v>
+        <v>1183</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>1245</v>
+        <v>1183</v>
       </c>
       <c r="N19" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>403</v>
+        <v>738</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
@@ -9150,22 +9376,22 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1235</v>
+        <v>1180</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1236</v>
+        <v>1393</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>1236</v>
+        <v>1393</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>1237</v>
+        <v>1394</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>1238</v>
+        <v>1395</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>23</v>
@@ -9174,19 +9400,19 @@
         <v>170</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>1239</v>
+        <v>1396</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>1239</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>1240</v>
+        <v>1397</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>1241</v>
+        <v>1398</v>
       </c>
       <c r="Q21" s="38" t="s">
         <v>30</v>
@@ -9223,41 +9449,41 @@
       <c r="B23" s="11"/>
       <c r="C23" s="31"/>
       <c r="D23" s="52" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>324</v>
+        <v>565</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>380</v>
+        <v>691</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52" t="s">
-        <v>1254</v>
+        <v>1185</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>454</v>
+        <v>850</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>429</v>
+        <v>798</v>
       </c>
       <c r="N23" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>1255</v>
+        <v>1186</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>481</v>
+        <v>912</v>
       </c>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
@@ -9289,10 +9515,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>1246</v>
+        <v>1184</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1247</v>
+        <v>1399</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>110</v>
@@ -9304,16 +9530,16 @@
         <v>139</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>1248</v>
+        <v>1400</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>1249</v>
+        <v>1401</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>1250</v>
+        <v>1402</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>219</v>
@@ -9322,7 +9548,7 @@
         <v>108</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>1251</v>
+        <v>1403</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>296</v>
@@ -9362,29 +9588,29 @@
       <c r="B27" s="11"/>
       <c r="C27" s="31"/>
       <c r="D27" s="52" t="s">
-        <v>1262</v>
+        <v>1223</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>1263</v>
+        <v>1327</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>353</v>
+        <v>633</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>334</v>
+        <v>591</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52" t="s">
-        <v>1264</v>
+        <v>1332</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>1265</v>
+        <v>1188</v>
       </c>
       <c r="K27" s="52" t="s">
-        <v>1264</v>
+        <v>1332</v>
       </c>
       <c r="L27" s="52" t="s">
-        <v>1266</v>
+        <v>1189</v>
       </c>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -9428,31 +9654,31 @@
         <v>7</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>86</v>
+        <v>1187</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>1256</v>
+        <v>1404</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>1257</v>
+        <v>1405</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1258</v>
+        <v>1406</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>1259</v>
+        <v>1407</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>1260</v>
+        <v>1408</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>1259</v>
+        <v>1407</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>1261</v>
+        <v>1409</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>30</v>
@@ -9501,29 +9727,29 @@
       <c r="B31" s="11"/>
       <c r="C31" s="31"/>
       <c r="D31" s="52" t="s">
-        <v>1274</v>
+        <v>1224</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>404</v>
+        <v>740</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>1275</v>
+        <v>1191</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>1276</v>
+        <v>1192</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52" t="s">
-        <v>1277</v>
+        <v>1193</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>1279</v>
+        <v>1247</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -9567,31 +9793,31 @@
         <v>8</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>1267</v>
+        <v>1190</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>1268</v>
+        <v>1410</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>1269</v>
+        <v>1411</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1270</v>
+        <v>1412</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>1271</v>
+        <v>1413</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>32</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>1272</v>
+        <v>1414</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>1273</v>
+        <v>1415</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>30</v>
@@ -9632,29 +9858,29 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="52" t="s">
-        <v>1288</v>
+        <v>1225</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>1289</v>
+        <v>1196</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>1290</v>
+        <v>1333</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>389</v>
+        <v>708</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>1291</v>
+        <v>1197</v>
       </c>
       <c r="K35" s="52" t="s">
-        <v>437</v>
+        <v>814</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>1292</v>
+        <v>1334</v>
       </c>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
@@ -9690,31 +9916,31 @@
         <v>9</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>1280</v>
+        <v>1195</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>1281</v>
+        <v>1416</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>1282</v>
+        <v>1417</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1283</v>
+        <v>1418</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>1284</v>
+        <v>1419</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>1285</v>
+        <v>1420</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>1286</v>
+        <v>1421</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>1287</v>
+        <v>1422</v>
       </c>
       <c r="M37" s="38" t="s">
         <v>30</v>
@@ -9755,29 +9981,29 @@
       <c r="B39" s="11"/>
       <c r="C39" s="31"/>
       <c r="D39" s="52" t="s">
-        <v>1299</v>
+        <v>1226</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>1300</v>
+        <v>1199</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1301</v>
+        <v>1248</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>1302</v>
+        <v>1200</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="52" t="s">
-        <v>1303</v>
+        <v>1201</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>460</v>
+        <v>862</v>
       </c>
       <c r="K39" s="52" t="s">
-        <v>1304</v>
+        <v>1202</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>1305</v>
+        <v>1335</v>
       </c>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
@@ -9813,16 +10039,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>1293</v>
+        <v>1198</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>1294</v>
+        <v>1423</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>1295</v>
+        <v>1424</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1296</v>
+        <v>1425</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>23</v>
@@ -9834,10 +10060,10 @@
         <v>262</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>1297</v>
+        <v>1426</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>1298</v>
+        <v>1427</v>
       </c>
       <c r="M41" s="38" t="s">
         <v>30</v>
@@ -9878,41 +10104,41 @@
       <c r="B43" s="11"/>
       <c r="C43" s="31"/>
       <c r="D43" s="52" t="s">
-        <v>1313</v>
+        <v>1227</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1314</v>
+        <v>1204</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>1204</v>
+        <v>1330</v>
       </c>
       <c r="I43" s="52" t="s">
-        <v>1315</v>
+        <v>1336</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="52" t="s">
-        <v>1316</v>
+        <v>1249</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>304</v>
+        <v>517</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>1317</v>
+        <v>1205</v>
       </c>
       <c r="N43" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="O43" s="52" t="s">
-        <v>455</v>
+        <v>852</v>
       </c>
       <c r="P43" s="52" t="s">
-        <v>1318</v>
+        <v>1206</v>
       </c>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
@@ -9944,34 +10170,34 @@
         <v>11</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>1306</v>
+        <v>1203</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>1307</v>
+        <v>1428</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>1308</v>
+        <v>1429</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>1197</v>
+        <v>1374</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>1309</v>
+        <v>1430</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>1310</v>
+        <v>1431</v>
       </c>
       <c r="L45" s="38" t="s">
         <v>115</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1311</v>
+        <v>1432</v>
       </c>
       <c r="N45" s="38" t="s">
         <v>106</v>
@@ -9980,7 +10206,7 @@
         <v>256</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>1312</v>
+        <v>1433</v>
       </c>
       <c r="Q45" s="38" t="s">
         <v>23</v>
@@ -10017,41 +10243,41 @@
       <c r="B47" s="11"/>
       <c r="C47" s="31"/>
       <c r="D47" s="52" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>1328</v>
       </c>
-      <c r="E47" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1329</v>
-      </c>
       <c r="G47" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>337</v>
+        <v>599</v>
       </c>
       <c r="I47" s="52" t="s">
-        <v>1330</v>
+        <v>1208</v>
       </c>
       <c r="J47" s="52"/>
       <c r="K47" s="52" t="s">
-        <v>1331</v>
+        <v>1209</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>1244</v>
+        <v>1182</v>
       </c>
       <c r="M47" s="52" t="s">
-        <v>1332</v>
+        <v>1210</v>
       </c>
       <c r="N47" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="P47" s="52" t="s">
-        <v>1333</v>
+        <v>1211</v>
       </c>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
@@ -10083,43 +10309,43 @@
         <v>12</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1319</v>
+        <v>1207</v>
       </c>
       <c r="E49" s="38" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>1320</v>
+        <v>1434</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>1321</v>
+        <v>1435</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>1322</v>
+        <v>1436</v>
       </c>
       <c r="J49" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>1323</v>
+        <v>1437</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>1324</v>
+        <v>1438</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>1325</v>
+        <v>1439</v>
       </c>
       <c r="N49" s="38" t="s">
         <v>108</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>1326</v>
+        <v>1440</v>
       </c>
       <c r="P49" s="38" t="s">
-        <v>1327</v>
+        <v>1441</v>
       </c>
       <c r="Q49" s="38" t="s">
         <v>30</v>
@@ -10156,41 +10382,41 @@
       <c r="B51" s="11"/>
       <c r="C51" s="31"/>
       <c r="D51" s="52" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>395</v>
+        <v>720</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>1342</v>
+        <v>1251</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="J51" s="52"/>
       <c r="K51" s="52" t="s">
-        <v>1279</v>
+        <v>1247</v>
       </c>
       <c r="L51" s="52" t="s">
-        <v>1345</v>
+        <v>1212</v>
       </c>
       <c r="M51" s="52" t="s">
-        <v>1346</v>
+        <v>1213</v>
       </c>
       <c r="N51" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O51" s="52" t="s">
-        <v>465</v>
+        <v>872</v>
       </c>
       <c r="P51" s="52" t="s">
-        <v>1347</v>
+        <v>1214</v>
       </c>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
@@ -10222,43 +10448,43 @@
         <v>13</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="E53" s="38" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>1334</v>
+        <v>1442</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>1335</v>
+        <v>1443</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>1336</v>
+        <v>1444</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>1273</v>
+        <v>1415</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>1337</v>
+        <v>1445</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>1338</v>
+        <v>1446</v>
       </c>
       <c r="N53" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>1339</v>
+        <v>1447</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>1340</v>
+        <v>1448</v>
       </c>
       <c r="Q53" s="38" t="s">
         <v>30</v>
@@ -10295,41 +10521,41 @@
       <c r="B55" s="11"/>
       <c r="C55" s="31"/>
       <c r="D55" s="52" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>1357</v>
+        <v>1216</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>1358</v>
+        <v>1217</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>1359</v>
+        <v>1218</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>1360</v>
+        <v>1219</v>
       </c>
       <c r="J55" s="52"/>
       <c r="K55" s="52" t="s">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>1361</v>
+        <v>1252</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>308</v>
+        <v>525</v>
       </c>
       <c r="N55" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O55" s="52" t="s">
-        <v>1362</v>
+        <v>1220</v>
       </c>
       <c r="P55" s="52" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -10361,22 +10587,22 @@
         <v>14</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>1348</v>
+        <v>1215</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>1349</v>
+        <v>1449</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>1351</v>
+        <v>1451</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1352</v>
+        <v>1452</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>23</v>
@@ -10385,16 +10611,16 @@
         <v>285</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>1353</v>
+        <v>1453</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>1354</v>
+        <v>1454</v>
       </c>
       <c r="N57" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>1355</v>
+        <v>1455</v>
       </c>
       <c r="P57" s="38" t="s">
         <v>109</v>
@@ -10434,41 +10660,41 @@
       <c r="B59" s="11"/>
       <c r="C59" s="31"/>
       <c r="D59" s="52" t="s">
-        <v>1370</v>
+        <v>1254</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>1371</v>
+        <v>1255</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>452</v>
+        <v>846</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>1373</v>
+        <v>1256</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="s">
-        <v>1374</v>
+        <v>1342</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>1375</v>
+        <v>1257</v>
       </c>
       <c r="M59" s="52" t="s">
-        <v>384</v>
+        <v>484</v>
       </c>
       <c r="N59" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O59" s="52" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="P59" s="52" t="s">
-        <v>1376</v>
+        <v>1258</v>
       </c>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -10500,7 +10726,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>1363</v>
+        <v>1253</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>26</v>
@@ -10512,31 +10738,31 @@
         <v>106</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>1364</v>
+        <v>1456</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>1365</v>
+        <v>1457</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>1366</v>
+        <v>1458</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>1367</v>
+        <v>1459</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>1368</v>
+        <v>1460</v>
       </c>
       <c r="N61" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>1213</v>
+        <v>1383</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>1369</v>
+        <v>1461</v>
       </c>
       <c r="Q61" s="38" t="s">
         <v>30</v>
@@ -10573,41 +10799,41 @@
       <c r="B63" s="11"/>
       <c r="C63" s="31"/>
       <c r="D63" s="52" t="s">
-        <v>1382</v>
+        <v>1260</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>1383</v>
+        <v>1261</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>1383</v>
+        <v>1261</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>1193</v>
+        <v>1329</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>1301</v>
+        <v>1248</v>
       </c>
       <c r="J63" s="52"/>
       <c r="K63" s="52" t="s">
-        <v>406</v>
+        <v>744</v>
       </c>
       <c r="L63" s="52" t="s">
-        <v>50</v>
+        <v>890</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N63" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O63" s="52" t="s">
-        <v>1384</v>
+        <v>1343</v>
       </c>
       <c r="P63" s="52" t="s">
-        <v>1385</v>
+        <v>1262</v>
       </c>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
@@ -10639,43 +10865,43 @@
         <v>16</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>213</v>
+        <v>1259</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>1377</v>
+        <v>1462</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>1377</v>
+        <v>1462</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>1186</v>
+        <v>1371</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>1295</v>
+        <v>1424</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>1378</v>
+        <v>1463</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>1379</v>
+        <v>1464</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>1284</v>
+        <v>1419</v>
       </c>
       <c r="N65" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>1380</v>
+        <v>1465</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>1381</v>
+        <v>1466</v>
       </c>
       <c r="Q65" s="38" t="s">
         <v>30</v>
@@ -10712,35 +10938,35 @@
       <c r="B67" s="11"/>
       <c r="C67" s="31"/>
       <c r="D67" s="52" t="s">
-        <v>1189</v>
+        <v>1221</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>337</v>
+        <v>599</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="G67" s="52" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52" t="s">
-        <v>1391</v>
+        <v>1344</v>
       </c>
       <c r="J67" s="52" t="s">
-        <v>357</v>
+        <v>641</v>
       </c>
       <c r="K67" s="52" t="s">
-        <v>1392</v>
+        <v>1263</v>
       </c>
       <c r="L67" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="M67" s="52" t="s">
-        <v>1393</v>
+        <v>1345</v>
       </c>
       <c r="N67" s="52" t="s">
-        <v>437</v>
+        <v>814</v>
       </c>
       <c r="O67" s="52"/>
       <c r="P67" s="52"/>
@@ -10774,37 +11000,37 @@
         <v>17</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>299</v>
+        <v>1163</v>
       </c>
       <c r="E69" s="38" t="s">
         <v>199</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>1182</v>
+        <v>1367</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>1183</v>
+        <v>1368</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>267</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>1386</v>
+        <v>1467</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>1387</v>
+        <v>1468</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>1388</v>
+        <v>1469</v>
       </c>
       <c r="L69" s="38" t="s">
         <v>106</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>1389</v>
+        <v>1470</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>1390</v>
+        <v>1471</v>
       </c>
       <c r="O69" s="38" t="s">
         <v>30</v>
@@ -10843,41 +11069,41 @@
       <c r="B71" s="11"/>
       <c r="C71" s="31"/>
       <c r="D71" s="52" t="s">
-        <v>1402</v>
+        <v>1265</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>1303</v>
+        <v>1201</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>1403</v>
+        <v>1266</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>1404</v>
+        <v>1346</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>52</v>
+        <v>880</v>
       </c>
       <c r="J71" s="52"/>
       <c r="K71" s="52" t="s">
-        <v>1405</v>
+        <v>1267</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>1406</v>
+        <v>1268</v>
       </c>
       <c r="M71" s="52" t="s">
-        <v>1407</v>
+        <v>1269</v>
       </c>
       <c r="N71" s="52" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="O71" s="52" t="s">
-        <v>443</v>
+        <v>826</v>
       </c>
       <c r="P71" s="52" t="s">
-        <v>466</v>
+        <v>874</v>
       </c>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
@@ -10909,40 +11135,40 @@
         <v>18</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>1394</v>
+        <v>1264</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1395</v>
+        <v>1472</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>210</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>1396</v>
+        <v>1473</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>1397</v>
+        <v>1474</v>
       </c>
       <c r="J73" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>1398</v>
+        <v>1475</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>1399</v>
+        <v>1476</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>1400</v>
+        <v>1477</v>
       </c>
       <c r="N73" s="38" t="s">
-        <v>1183</v>
+        <v>1368</v>
       </c>
       <c r="O73" s="38" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
       <c r="P73" s="38" t="s">
         <v>269</v>
@@ -10982,41 +11208,41 @@
       <c r="B75" s="11"/>
       <c r="C75" s="31"/>
       <c r="D75" s="52" t="s">
-        <v>1415</v>
+        <v>1347</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>1416</v>
+        <v>1348</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>1417</v>
+        <v>1349</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I75" s="52" t="s">
-        <v>1418</v>
+        <v>1271</v>
       </c>
       <c r="J75" s="52"/>
       <c r="K75" s="52" t="s">
-        <v>1419</v>
+        <v>1272</v>
       </c>
       <c r="L75" s="52" t="s">
-        <v>1420</v>
+        <v>1273</v>
       </c>
       <c r="M75" s="52" t="s">
-        <v>1421</v>
+        <v>1350</v>
       </c>
       <c r="N75" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="O75" s="52" t="s">
-        <v>372</v>
+        <v>675</v>
       </c>
       <c r="P75" s="52" t="s">
-        <v>416</v>
+        <v>766</v>
       </c>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
@@ -11048,13 +11274,13 @@
         <v>19</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>1408</v>
+        <v>1270</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>1409</v>
+        <v>1479</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1410</v>
+        <v>1480</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>108</v>
@@ -11063,7 +11289,7 @@
         <v>157</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>1411</v>
+        <v>1481</v>
       </c>
       <c r="J77" s="38" t="s">
         <v>23</v>
@@ -11072,16 +11298,16 @@
         <v>251</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>1412</v>
+        <v>1482</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>1413</v>
+        <v>1483</v>
       </c>
       <c r="N77" s="38" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>1414</v>
+        <v>1484</v>
       </c>
       <c r="P77" s="38" t="s">
         <v>203</v>
@@ -11121,44 +11347,44 @@
       <c r="B79" s="11"/>
       <c r="C79" s="31"/>
       <c r="D79" s="52" t="s">
-        <v>1429</v>
+        <v>1275</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>1430</v>
+        <v>1276</v>
       </c>
       <c r="G79" s="52" t="s">
-        <v>1194</v>
+        <v>1229</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>303</v>
+        <v>515</v>
       </c>
       <c r="J79" s="52" t="s">
-        <v>1431</v>
+        <v>1277</v>
       </c>
       <c r="K79" s="52"/>
       <c r="L79" s="52" t="s">
-        <v>1193</v>
+        <v>1329</v>
       </c>
       <c r="M79" s="52" t="s">
-        <v>1303</v>
+        <v>1201</v>
       </c>
       <c r="N79" s="52" t="s">
-        <v>1432</v>
+        <v>1278</v>
       </c>
       <c r="O79" s="52" t="s">
-        <v>1433</v>
+        <v>1279</v>
       </c>
       <c r="P79" s="52" t="s">
-        <v>1434</v>
+        <v>1280</v>
       </c>
       <c r="Q79" s="52" t="s">
-        <v>1435</v>
+        <v>1281</v>
       </c>
       <c r="R79" s="52"/>
       <c r="V79" s="59"/>
@@ -11189,16 +11415,16 @@
         <v>20</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>1422</v>
+        <v>1274</v>
       </c>
       <c r="E81" s="38" t="s">
         <v>37</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>1423</v>
+        <v>1485</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>1424</v>
+        <v>1486</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>106</v>
@@ -11207,28 +11433,28 @@
         <v>71</v>
       </c>
       <c r="J81" s="38" t="s">
-        <v>1425</v>
+        <v>1487</v>
       </c>
       <c r="K81" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>1186</v>
+        <v>1371</v>
       </c>
       <c r="M81" s="38" t="s">
         <v>19</v>
       </c>
       <c r="N81" s="38" t="s">
-        <v>1426</v>
+        <v>1488</v>
       </c>
       <c r="O81" s="38" t="s">
         <v>160</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>1427</v>
+        <v>1489</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>1428</v>
+        <v>1490</v>
       </c>
       <c r="R81" s="38" t="s">
         <v>30</v>
@@ -11264,29 +11490,29 @@
       <c r="B83" s="11"/>
       <c r="C83" s="31"/>
       <c r="D83" s="52" t="s">
-        <v>1440</v>
+        <v>1283</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>1441</v>
+        <v>1284</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>473</v>
+        <v>894</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>1442</v>
+        <v>1351</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52" t="s">
-        <v>1443</v>
+        <v>1285</v>
       </c>
       <c r="J83" s="52" t="s">
-        <v>1444</v>
+        <v>1286</v>
       </c>
       <c r="K83" s="52" t="s">
-        <v>1445</v>
+        <v>1287</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>1446</v>
+        <v>1352</v>
       </c>
       <c r="M83" s="52"/>
       <c r="N83" s="52"/>
@@ -11322,16 +11548,16 @@
         <v>21</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>236</v>
+        <v>1282</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>1436</v>
+        <v>1491</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1437</v>
+        <v>1492</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>1438</v>
+        <v>1493</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>23</v>
@@ -11340,13 +11566,13 @@
         <v>236</v>
       </c>
       <c r="J85" s="38" t="s">
-        <v>1439</v>
+        <v>1494</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>1379</v>
+        <v>1464</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>1235</v>
+        <v>1392</v>
       </c>
       <c r="M85" s="38" t="s">
         <v>30</v>
@@ -11391,41 +11617,41 @@
       <c r="B87" s="11"/>
       <c r="C87" s="31"/>
       <c r="D87" s="52" t="s">
-        <v>1203</v>
+        <v>1232</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>1455</v>
+        <v>1288</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>1456</v>
+        <v>1289</v>
       </c>
       <c r="G87" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>1457</v>
+        <v>1353</v>
       </c>
       <c r="I87" s="52" t="s">
-        <v>1458</v>
+        <v>1290</v>
       </c>
       <c r="J87" s="52"/>
       <c r="K87" s="52" t="s">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="L87" s="52" t="s">
-        <v>1459</v>
+        <v>1291</v>
       </c>
       <c r="M87" s="52" t="s">
-        <v>1460</v>
+        <v>1292</v>
       </c>
       <c r="N87" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O87" s="52" t="s">
-        <v>426</v>
+        <v>792</v>
       </c>
       <c r="P87" s="52" t="s">
-        <v>1461</v>
+        <v>1293</v>
       </c>
       <c r="Q87" s="52"/>
       <c r="R87" s="52"/>
@@ -11457,22 +11683,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>1196</v>
+        <v>1231</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>1447</v>
+        <v>1495</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>1448</v>
+        <v>1496</v>
       </c>
       <c r="G89" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>1449</v>
+        <v>1497</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>1450</v>
+        <v>1498</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>23</v>
@@ -11481,19 +11707,19 @@
         <v>283</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>1451</v>
+        <v>1499</v>
       </c>
       <c r="M89" s="38" t="s">
-        <v>1452</v>
+        <v>1500</v>
       </c>
       <c r="N89" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O89" s="38" t="s">
-        <v>1453</v>
+        <v>1501</v>
       </c>
       <c r="P89" s="38" t="s">
-        <v>1454</v>
+        <v>1502</v>
       </c>
       <c r="Q89" s="38" t="s">
         <v>30</v>
@@ -11530,41 +11756,41 @@
       <c r="B91" s="11"/>
       <c r="C91" s="31"/>
       <c r="D91" s="52" t="s">
-        <v>1468</v>
+        <v>1295</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>1265</v>
+        <v>1188</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>1265</v>
+        <v>1188</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>1469</v>
+        <v>1296</v>
       </c>
       <c r="I91" s="52" t="s">
-        <v>1304</v>
+        <v>1202</v>
       </c>
       <c r="J91" s="52"/>
       <c r="K91" s="52" t="s">
-        <v>1470</v>
+        <v>1355</v>
       </c>
       <c r="L91" s="52" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="M91" s="52" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="N91" s="52" t="s">
-        <v>421</v>
+        <v>778</v>
       </c>
       <c r="O91" s="52" t="s">
-        <v>1471</v>
+        <v>1356</v>
       </c>
       <c r="P91" s="52" t="s">
-        <v>323</v>
+        <v>563</v>
       </c>
       <c r="Q91" s="52"/>
       <c r="R91" s="52"/>
@@ -11596,43 +11822,43 @@
         <v>23</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>1462</v>
+        <v>1294</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>1260</v>
+        <v>1408</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>1260</v>
+        <v>1408</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>1463</v>
+        <v>1503</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>1464</v>
+        <v>1504</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="38" t="s">
-        <v>1465</v>
+        <v>1505</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>1466</v>
+        <v>1506</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>1466</v>
+        <v>1506</v>
       </c>
       <c r="N93" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O93" s="38" t="s">
-        <v>1467</v>
+        <v>1507</v>
       </c>
       <c r="P93" s="38" t="s">
-        <v>1351</v>
+        <v>1451</v>
       </c>
       <c r="Q93" s="38" t="s">
         <v>30</v>
@@ -11669,41 +11895,41 @@
       <c r="B95" s="11"/>
       <c r="C95" s="31"/>
       <c r="D95" s="52" t="s">
-        <v>1475</v>
+        <v>1298</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>360</v>
+        <v>647</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>379</v>
+        <v>689</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>307</v>
+        <v>523</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="J95" s="52"/>
       <c r="K95" s="52" t="s">
-        <v>47</v>
+        <v>776</v>
       </c>
       <c r="L95" s="52" t="s">
-        <v>482</v>
+        <v>914</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>62</v>
+        <v>722</v>
       </c>
       <c r="N95" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O95" s="52" t="s">
-        <v>353</v>
+        <v>633</v>
       </c>
       <c r="P95" s="52" t="s">
-        <v>1476</v>
+        <v>1299</v>
       </c>
       <c r="Q95" s="52"/>
       <c r="R95" s="52"/>
@@ -11735,7 +11961,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1472</v>
+        <v>1297</v>
       </c>
       <c r="E97" s="38" t="s">
         <v>134</v>
@@ -11762,7 +11988,7 @@
         <v>297</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>1473</v>
+        <v>1508</v>
       </c>
       <c r="N97" s="38" t="s">
         <v>108</v>
@@ -11771,7 +11997,7 @@
         <v>185</v>
       </c>
       <c r="P97" s="38" t="s">
-        <v>1474</v>
+        <v>1509</v>
       </c>
       <c r="Q97" s="38" t="s">
         <v>30</v>
@@ -11808,35 +12034,35 @@
       <c r="B99" s="11"/>
       <c r="C99" s="31"/>
       <c r="D99" s="52" t="s">
-        <v>1480</v>
+        <v>1300</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>382</v>
+        <v>695</v>
       </c>
       <c r="G99" s="52"/>
       <c r="H99" s="52" t="s">
-        <v>1481</v>
+        <v>1301</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>353</v>
+        <v>633</v>
       </c>
       <c r="J99" s="52" t="s">
-        <v>334</v>
+        <v>591</v>
       </c>
       <c r="K99" s="52" t="s">
-        <v>1482</v>
+        <v>1302</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>1405</v>
+        <v>1267</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>1483</v>
+        <v>1303</v>
       </c>
       <c r="N99" s="52" t="s">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
@@ -11870,7 +12096,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1210</v>
+        <v>1238</v>
       </c>
       <c r="E101" s="38" t="s">
         <v>142</v>
@@ -11882,22 +12108,22 @@
         <v>267</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>1477</v>
+        <v>1510</v>
       </c>
       <c r="I101" s="38" t="s">
         <v>182</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>1258</v>
+        <v>1406</v>
       </c>
       <c r="K101" s="38" t="s">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>1398</v>
+        <v>1475</v>
       </c>
       <c r="M101" s="38" t="s">
-        <v>1479</v>
+        <v>1512</v>
       </c>
       <c r="N101" s="38" t="s">
         <v>285</v>
@@ -11939,47 +12165,47 @@
       <c r="B103" s="11"/>
       <c r="C103" s="31"/>
       <c r="D103" s="52" t="s">
-        <v>1528</v>
+        <v>1537</v>
       </c>
       <c r="E103" s="52" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>1529</v>
+        <v>1538</v>
       </c>
       <c r="G103" s="52" t="s">
-        <v>452</v>
+        <v>846</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>1530</v>
+        <v>1539</v>
       </c>
       <c r="I103" s="52" t="s">
-        <v>359</v>
+        <v>645</v>
       </c>
       <c r="J103" s="52" t="s">
-        <v>1359</v>
+        <v>1218</v>
       </c>
       <c r="K103" s="52"/>
       <c r="L103" s="52" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="M103" s="52" t="s">
-        <v>1531</v>
+        <v>1540</v>
       </c>
       <c r="N103" s="52" t="s">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="O103" s="52" t="s">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="P103" s="52" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="Q103" s="52" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="R103" s="52" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="V103" s="33"/>
     </row>
@@ -12009,43 +12235,43 @@
         <v>26</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>1484</v>
+        <v>1304</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>168</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>1485</v>
+        <v>1513</v>
       </c>
       <c r="G105" s="38" t="s">
         <v>253</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>1486</v>
+        <v>1514</v>
       </c>
       <c r="I105" s="38" t="s">
         <v>199</v>
       </c>
       <c r="J105" s="38" t="s">
-        <v>1487</v>
+        <v>1515</v>
       </c>
       <c r="K105" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>1188</v>
+        <v>1373</v>
       </c>
       <c r="M105" s="38" t="s">
         <v>273</v>
       </c>
       <c r="N105" s="38" t="s">
-        <v>1488</v>
+        <v>1516</v>
       </c>
       <c r="O105" s="38" t="s">
-        <v>1488</v>
+        <v>1516</v>
       </c>
       <c r="P105" s="38" t="s">
-        <v>1489</v>
+        <v>1517</v>
       </c>
       <c r="Q105" s="38" t="s">
         <v>252</v>
@@ -12126,7 +12352,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>161</v>
+        <v>1162</v>
       </c>
       <c r="E109" s="38" t="str">
         <f>CHAR(10)</f>
@@ -12173,35 +12399,35 @@
       <c r="B111" s="11"/>
       <c r="C111" s="31"/>
       <c r="D111" s="52" t="s">
-        <v>1495</v>
+        <v>1306</v>
       </c>
       <c r="E111" s="52" t="s">
-        <v>1496</v>
+        <v>1307</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>384</v>
+        <v>484</v>
       </c>
       <c r="G111" s="52" t="s">
-        <v>482</v>
+        <v>914</v>
       </c>
       <c r="H111" s="52" t="s">
-        <v>1497</v>
+        <v>1308</v>
       </c>
       <c r="I111" s="52"/>
       <c r="J111" s="52" t="s">
-        <v>1498</v>
+        <v>1309</v>
       </c>
       <c r="K111" s="52" t="s">
-        <v>1499</v>
+        <v>1310</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>387</v>
+        <v>704</v>
       </c>
       <c r="M111" s="52" t="s">
-        <v>1219</v>
+        <v>1242</v>
       </c>
       <c r="N111" s="52" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="O111" s="52"/>
       <c r="P111" s="52"/>
@@ -12235,25 +12461,25 @@
         <v>28</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>1490</v>
+        <v>1305</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>1491</v>
+        <v>1518</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>1227</v>
+        <v>1391</v>
       </c>
       <c r="G113" s="49" t="s">
         <v>297</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>1492</v>
+        <v>1519</v>
       </c>
       <c r="I113" s="49" t="s">
         <v>23</v>
       </c>
       <c r="J113" s="49" t="s">
-        <v>1493</v>
+        <v>1520</v>
       </c>
       <c r="K113" s="49" t="s">
         <v>202</v>
@@ -12262,10 +12488,10 @@
         <v>168</v>
       </c>
       <c r="M113" s="49" t="s">
-        <v>1214</v>
+        <v>1384</v>
       </c>
       <c r="N113" s="49" t="s">
-        <v>1494</v>
+        <v>1521</v>
       </c>
       <c r="O113" s="49" t="s">
         <v>30</v>
@@ -12308,41 +12534,41 @@
       <c r="B115" s="11"/>
       <c r="C115" s="31"/>
       <c r="D115" s="52" t="s">
-        <v>1506</v>
+        <v>1312</v>
       </c>
       <c r="E115" s="52" t="s">
-        <v>1507</v>
+        <v>1313</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>454</v>
+        <v>850</v>
       </c>
       <c r="G115" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H115" s="52" t="s">
-        <v>1445</v>
+        <v>1287</v>
       </c>
       <c r="I115" s="52" t="s">
-        <v>1217</v>
+        <v>1240</v>
       </c>
       <c r="J115" s="52"/>
       <c r="K115" s="52" t="s">
-        <v>1443</v>
+        <v>1285</v>
       </c>
       <c r="L115" s="52" t="s">
-        <v>1508</v>
+        <v>1314</v>
       </c>
       <c r="M115" s="52" t="s">
-        <v>319</v>
+        <v>555</v>
       </c>
       <c r="N115" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O115" s="52" t="s">
-        <v>1509</v>
+        <v>1315</v>
       </c>
       <c r="P115" s="52" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="Q115" s="52"/>
       <c r="R115" s="52"/>
@@ -12374,22 +12600,22 @@
         <v>29</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>201</v>
+        <v>1311</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>1500</v>
+        <v>1522</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>1501</v>
+        <v>1523</v>
       </c>
       <c r="G117" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>1379</v>
+        <v>1464</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>1211</v>
+        <v>1381</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>23</v>
@@ -12398,19 +12624,19 @@
         <v>236</v>
       </c>
       <c r="L117" s="38" t="s">
-        <v>1502</v>
+        <v>1524</v>
       </c>
       <c r="M117" s="38" t="s">
-        <v>1503</v>
+        <v>1525</v>
       </c>
       <c r="N117" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>1504</v>
+        <v>1526</v>
       </c>
       <c r="P117" s="38" t="s">
-        <v>1505</v>
+        <v>1527</v>
       </c>
       <c r="Q117" s="38" t="s">
         <v>23</v>
@@ -12447,41 +12673,41 @@
       <c r="B119" s="11"/>
       <c r="C119" s="31"/>
       <c r="D119" s="52" t="s">
-        <v>1514</v>
+        <v>1317</v>
       </c>
       <c r="E119" s="52" t="s">
-        <v>1515</v>
+        <v>1318</v>
       </c>
       <c r="F119" s="52" t="s">
-        <v>50</v>
+        <v>890</v>
       </c>
       <c r="G119" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H119" s="52" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="I119" s="52" t="s">
-        <v>407</v>
+        <v>746</v>
       </c>
       <c r="J119" s="52"/>
       <c r="K119" s="52" t="s">
-        <v>461</v>
+        <v>864</v>
       </c>
       <c r="L119" s="52" t="s">
-        <v>1516</v>
+        <v>1326</v>
       </c>
       <c r="M119" s="52" t="s">
-        <v>1359</v>
+        <v>1218</v>
       </c>
       <c r="N119" s="52" t="s">
-        <v>468</v>
+        <v>878</v>
       </c>
       <c r="O119" s="52" t="s">
-        <v>332</v>
+        <v>583</v>
       </c>
       <c r="P119" s="52" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="Q119" s="52"/>
       <c r="R119" s="52"/>
@@ -12513,19 +12739,19 @@
         <v>30</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>197</v>
+        <v>1316</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>1510</v>
+        <v>1528</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>1511</v>
+        <v>1529</v>
       </c>
       <c r="G121" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>1512</v>
+        <v>1530</v>
       </c>
       <c r="I121" s="38" t="s">
         <v>194</v>
@@ -12537,10 +12763,10 @@
         <v>263</v>
       </c>
       <c r="L121" s="38" t="s">
-        <v>1513</v>
+        <v>1531</v>
       </c>
       <c r="M121" s="38" t="s">
-        <v>1351</v>
+        <v>1451</v>
       </c>
       <c r="N121" s="38" t="s">
         <v>210</v>
@@ -12586,44 +12812,44 @@
       <c r="B123" s="11"/>
       <c r="C123" s="31"/>
       <c r="D123" s="52" t="s">
-        <v>1522</v>
+        <v>1320</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>1523</v>
+        <v>1321</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>1524</v>
+        <v>1322</v>
       </c>
       <c r="G123" s="52" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>483</v>
+        <v>916</v>
       </c>
       <c r="I123" s="52" t="s">
-        <v>1525</v>
+        <v>1354</v>
       </c>
       <c r="J123" s="52"/>
       <c r="K123" s="52" t="s">
-        <v>1419</v>
+        <v>1272</v>
       </c>
       <c r="L123" s="52" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="M123" s="52" t="s">
-        <v>428</v>
+        <v>796</v>
       </c>
       <c r="N123" s="52" t="s">
-        <v>1441</v>
+        <v>1284</v>
       </c>
       <c r="O123" s="52" t="s">
-        <v>1405</v>
+        <v>1267</v>
       </c>
       <c r="P123" s="52" t="s">
-        <v>1526</v>
+        <v>1323</v>
       </c>
       <c r="Q123" s="52" t="s">
-        <v>1527</v>
+        <v>1324</v>
       </c>
       <c r="R123" s="52"/>
       <c r="V123" s="33"/>
@@ -12654,13 +12880,13 @@
         <v>31</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>1517</v>
+        <v>1319</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>1518</v>
+        <v>1532</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>1519</v>
+        <v>1533</v>
       </c>
       <c r="G125" s="38" t="s">
         <v>106</v>
@@ -12669,7 +12895,7 @@
         <v>299</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>1520</v>
+        <v>1534</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>23</v>
@@ -12684,16 +12910,16 @@
         <v>218</v>
       </c>
       <c r="N125" s="38" t="s">
-        <v>1436</v>
+        <v>1491</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>1398</v>
+        <v>1475</v>
       </c>
       <c r="P125" s="38" t="s">
-        <v>1199</v>
+        <v>1376</v>
       </c>
       <c r="Q125" s="38" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
       <c r="R125" s="38" t="s">
         <v>30</v>
@@ -12771,7 +12997,7 @@
         <v>32</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>38</v>
+        <v>1536</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38"/>
@@ -20242,42 +20468,42 @@
   <sheetData>
     <row r="2" spans="2:2" ht="46.5">
       <c r="B2" s="54" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="46.5">
       <c r="B3" s="55" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="46.5">
       <c r="B4" s="55" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="50.25">
       <c r="B5" s="55" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="46.5">
       <c r="B6" s="55" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="46.5">
       <c r="B7" s="55" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="50.25">
       <c r="B8" s="55" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="46.5">
       <c r="B9" s="55" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{281F64E0-EFBF-4FD2-829B-0C06CC83E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1BFB44-9BAB-4DC2-9D24-D704338323B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1613">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4053,262 +4053,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>實</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>be5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phio5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>問</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>僮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ging5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>siunn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>倚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>策</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mun7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ke5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>既</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ki3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>悟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4317,266 +4105,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ngoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>King2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kau1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>世</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>悅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>農</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Long5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>或</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khak4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khe5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>羨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4585,202 +4145,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kui3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>懷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Huai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ting1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hng5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cia1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zuann5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5336,30 +4712,6 @@
   </si>
   <si>
     <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jim7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5391,6 +4743,930 @@
 懷良辰以孤往，或植杖而耘耔，
 登東臯以舒嘯，臨清流而賦詩。
 聊乘化以歸盡，樂夫天命複奚疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lâi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tîan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ûan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>û</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hô</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>í</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ûi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tîu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tìong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N̄goo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>óng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kàn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zía</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khó</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tôo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>úan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>za̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phîo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M̄un</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lōo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hūn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sîn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ńai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ú</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zài</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tông</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zú</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hāu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m̄ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kìng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zīu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cîong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zûn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ìu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji̍p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sît</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zíu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>îng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ín</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m̄ia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>î</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gân</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ía</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lâm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n̄go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sím</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hn̂g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si̍p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zîann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sîong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hû</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lō</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lîu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sî</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kíau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>síu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hûn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bô</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sīu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zíau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kūan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hûan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kíng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>è</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hóo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pûann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kûan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cíng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu̍at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gúa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kà</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gūa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kîu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ūe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khîm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lông</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jîn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kòo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki̍p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tíu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O̍h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bīng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o̍h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tàu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>íau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tíau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cîm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bo̍k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hìong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sīan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bān</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kám</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n̂goo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Í</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hôo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lāi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kī</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>úi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jīm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khì</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ūi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hông</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i̍ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kùi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gūan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tè</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hûai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lîong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti̍t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tīong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hûn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sìau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lîm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hù</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lîau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sîng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hùa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zīn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hê</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gî</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8456,7 +8732,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1359</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -8464,7 +8740,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1358</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -8472,7 +8748,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>1357</v>
+        <v>1201</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -8496,7 +8772,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>1360</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -8536,7 +8812,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>1361</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -8544,7 +8820,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1362</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -8552,7 +8828,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1363</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -8560,7 +8836,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1364</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -8568,7 +8844,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1365</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -8576,7 +8852,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1366</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -8737,45 +9013,45 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="52" t="s">
-        <v>1221</v>
+        <v>1382</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>599</v>
+        <v>1383</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>1173</v>
+        <v>1384</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>1174</v>
+        <v>1385</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52" t="s">
-        <v>1228</v>
+        <v>1386</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>748</v>
+        <v>1387</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>1229</v>
+        <v>1389</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>1230</v>
+        <v>1392</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="15"/>
       <c r="V3" s="58" t="s">
-        <v>1543</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1" ht="36" customHeight="1">
@@ -8809,28 +9085,28 @@
         <v>199</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>267</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1369</v>
+        <v>1213</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>1370</v>
+        <v>1214</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>1372</v>
+        <v>1216</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1373</v>
+        <v>1217</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>168</v>
@@ -8879,44 +9155,44 @@
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="52" t="s">
-        <v>1232</v>
+        <v>1393</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>1330</v>
+        <v>1394</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>846</v>
+        <v>1396</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>880</v>
+        <v>1397</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52" t="s">
-        <v>1233</v>
+        <v>1400</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>1234</v>
+        <v>1401</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>1235</v>
+        <v>1402</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>1236</v>
+        <v>1404</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>780</v>
+        <v>1405</v>
       </c>
       <c r="R7" s="52"/>
       <c r="S7" s="26"/>
@@ -8948,10 +9224,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1231</v>
+        <v>1183</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1374</v>
+        <v>1218</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>106</v>
@@ -8966,25 +9242,25 @@
         <v>182</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>1375</v>
+        <v>1219</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1377</v>
+        <v>1221</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>1378</v>
+        <v>1222</v>
       </c>
       <c r="O9" s="38" t="s">
         <v>210</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>1379</v>
+        <v>1223</v>
       </c>
       <c r="Q9" s="38" t="s">
         <v>211</v>
@@ -9024,41 +9300,41 @@
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="52" t="s">
-        <v>1239</v>
+        <v>1406</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>1240</v>
+        <v>1407</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>1241</v>
+        <v>1409</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="52" t="s">
-        <v>882</v>
+        <v>1410</v>
       </c>
       <c r="L11" s="52" t="s">
-        <v>1173</v>
+        <v>1384</v>
       </c>
       <c r="M11" s="52" t="s">
-        <v>782</v>
+        <v>1411</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>1242</v>
+        <v>1412</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>1243</v>
+        <v>1413</v>
       </c>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
@@ -9090,13 +9366,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1237</v>
+        <v>1184</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1380</v>
+        <v>1224</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>1381</v>
+        <v>1225</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>108</v>
@@ -9105,16 +9381,16 @@
         <v>168</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>1382</v>
+        <v>1226</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>1383</v>
+        <v>1227</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>212</v>
@@ -9123,10 +9399,10 @@
         <v>108</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>1384</v>
+        <v>1228</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>1385</v>
+        <v>1229</v>
       </c>
       <c r="Q13" s="38" t="s">
         <v>103</v>
@@ -9167,41 +9443,41 @@
       <c r="B15" s="11"/>
       <c r="C15" s="31"/>
       <c r="D15" s="52" t="s">
-        <v>1244</v>
+        <v>1414</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>1176</v>
+        <v>1415</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>1245</v>
+        <v>1416</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>567</v>
+        <v>1417</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>1177</v>
+        <v>1418</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>621</v>
+        <v>1419</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52" t="s">
-        <v>1178</v>
+        <v>1420</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>1179</v>
+        <v>1421</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>896</v>
+        <v>1422</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>1331</v>
+        <v>1423</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>484</v>
+        <v>1424</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
@@ -9233,19 +9509,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1386</v>
+        <v>1230</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>1387</v>
+        <v>1231</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>1388</v>
+        <v>1232</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>118</v>
@@ -9254,7 +9530,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>1389</v>
+        <v>1233</v>
       </c>
       <c r="L17" s="38" t="s">
         <v>99</v>
@@ -9266,10 +9542,10 @@
         <v>210</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>1390</v>
+        <v>1234</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>1391</v>
+        <v>1235</v>
       </c>
       <c r="Q17" s="38" t="s">
         <v>30</v>
@@ -9310,41 +9586,41 @@
       <c r="B19" s="11"/>
       <c r="C19" s="31"/>
       <c r="D19" s="52" t="s">
-        <v>1325</v>
+        <v>1425</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>1181</v>
+        <v>1426</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>1181</v>
+        <v>1426</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>734</v>
+        <v>1427</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>1182</v>
+        <v>1428</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52" t="s">
-        <v>708</v>
+        <v>1429</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1183</v>
+        <v>1430</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>1183</v>
+        <v>1430</v>
       </c>
       <c r="N19" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>738</v>
+        <v>1431</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>497</v>
+        <v>1432</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
@@ -9376,22 +9652,22 @@
         <v>5</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1393</v>
+        <v>1237</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>1393</v>
+        <v>1237</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>1394</v>
+        <v>1238</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>1395</v>
+        <v>1239</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>23</v>
@@ -9400,19 +9676,19 @@
         <v>170</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>1396</v>
+        <v>1240</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>1396</v>
+        <v>1240</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>1397</v>
+        <v>1241</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>1398</v>
+        <v>1242</v>
       </c>
       <c r="Q21" s="38" t="s">
         <v>30</v>
@@ -9449,41 +9725,41 @@
       <c r="B23" s="11"/>
       <c r="C23" s="31"/>
       <c r="D23" s="52" t="s">
-        <v>1222</v>
+        <v>1433</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>565</v>
+        <v>1434</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>605</v>
+        <v>1435</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>691</v>
+        <v>1436</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>1246</v>
+        <v>1437</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52" t="s">
-        <v>1185</v>
+        <v>1438</v>
       </c>
       <c r="L23" s="52" t="s">
-        <v>850</v>
+        <v>1439</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>798</v>
+        <v>1440</v>
       </c>
       <c r="N23" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>1186</v>
+        <v>1441</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>912</v>
+        <v>1442</v>
       </c>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
@@ -9515,10 +9791,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1399</v>
+        <v>1243</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>110</v>
@@ -9530,16 +9806,16 @@
         <v>139</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>1400</v>
+        <v>1244</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>1401</v>
+        <v>1245</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>1402</v>
+        <v>1246</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>219</v>
@@ -9548,7 +9824,7 @@
         <v>108</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>1403</v>
+        <v>1247</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>296</v>
@@ -9588,29 +9864,29 @@
       <c r="B27" s="11"/>
       <c r="C27" s="31"/>
       <c r="D27" s="52" t="s">
-        <v>1223</v>
+        <v>1443</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>1327</v>
+        <v>1444</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>591</v>
+        <v>1445</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52" t="s">
-        <v>1332</v>
+        <v>1446</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>1188</v>
+        <v>1447</v>
       </c>
       <c r="K27" s="52" t="s">
-        <v>1332</v>
+        <v>1446</v>
       </c>
       <c r="L27" s="52" t="s">
-        <v>1189</v>
+        <v>1448</v>
       </c>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -9654,31 +9930,31 @@
         <v>7</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>1404</v>
+        <v>1248</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>1405</v>
+        <v>1249</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>1407</v>
+        <v>1251</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>1407</v>
+        <v>1251</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>1409</v>
+        <v>1253</v>
       </c>
       <c r="M29" s="38" t="s">
         <v>30</v>
@@ -9727,29 +10003,29 @@
       <c r="B31" s="11"/>
       <c r="C31" s="31"/>
       <c r="D31" s="52" t="s">
-        <v>1224</v>
+        <v>1449</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>740</v>
+        <v>1450</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>1191</v>
+        <v>1451</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>1192</v>
+        <v>1452</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52" t="s">
-        <v>1193</v>
+        <v>1453</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>519</v>
+        <v>1454</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>1194</v>
+        <v>1455</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>1247</v>
+        <v>1456</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -9793,31 +10069,31 @@
         <v>8</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>1410</v>
+        <v>1254</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>1411</v>
+        <v>1255</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1412</v>
+        <v>1256</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>1413</v>
+        <v>1257</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>32</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>1414</v>
+        <v>1258</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>1415</v>
+        <v>1259</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>30</v>
@@ -9858,29 +10134,29 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="52" t="s">
-        <v>1225</v>
+        <v>1457</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>1196</v>
+        <v>1458</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>1333</v>
+        <v>1459</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>708</v>
+        <v>1429</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52" t="s">
-        <v>489</v>
+        <v>1460</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>1197</v>
+        <v>1461</v>
       </c>
       <c r="K35" s="52" t="s">
-        <v>814</v>
+        <v>1462</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>1334</v>
+        <v>1463</v>
       </c>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
@@ -9916,31 +10192,31 @@
         <v>9</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>1416</v>
+        <v>1260</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>1417</v>
+        <v>1261</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1418</v>
+        <v>1262</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>1419</v>
+        <v>1263</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>1420</v>
+        <v>1264</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>1421</v>
+        <v>1265</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>1422</v>
+        <v>1266</v>
       </c>
       <c r="M37" s="38" t="s">
         <v>30</v>
@@ -9981,29 +10257,29 @@
       <c r="B39" s="11"/>
       <c r="C39" s="31"/>
       <c r="D39" s="52" t="s">
-        <v>1226</v>
+        <v>1464</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>1199</v>
+        <v>1465</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1248</v>
+        <v>1466</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="52" t="s">
-        <v>1201</v>
+        <v>1468</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>862</v>
+        <v>1469</v>
       </c>
       <c r="K39" s="52" t="s">
-        <v>1202</v>
+        <v>1470</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>1335</v>
+        <v>1471</v>
       </c>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
@@ -10039,16 +10315,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>1423</v>
+        <v>1267</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>1424</v>
+        <v>1268</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1425</v>
+        <v>1269</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>23</v>
@@ -10060,10 +10336,10 @@
         <v>262</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>1426</v>
+        <v>1270</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>1427</v>
+        <v>1271</v>
       </c>
       <c r="M41" s="38" t="s">
         <v>30</v>
@@ -10104,41 +10380,41 @@
       <c r="B43" s="11"/>
       <c r="C43" s="31"/>
       <c r="D43" s="52" t="s">
-        <v>1227</v>
+        <v>1472</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1204</v>
+        <v>1473</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>1330</v>
+        <v>1394</v>
       </c>
       <c r="I43" s="52" t="s">
-        <v>1336</v>
+        <v>1474</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="52" t="s">
-        <v>1249</v>
+        <v>1475</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>517</v>
+        <v>1476</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>1205</v>
+        <v>1477</v>
       </c>
       <c r="N43" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="O43" s="52" t="s">
-        <v>852</v>
+        <v>1478</v>
       </c>
       <c r="P43" s="52" t="s">
-        <v>1206</v>
+        <v>1479</v>
       </c>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
@@ -10170,34 +10446,34 @@
         <v>11</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>1428</v>
+        <v>1272</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>1429</v>
+        <v>1273</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>1374</v>
+        <v>1218</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>1430</v>
+        <v>1274</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>1431</v>
+        <v>1275</v>
       </c>
       <c r="L45" s="38" t="s">
         <v>115</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1432</v>
+        <v>1276</v>
       </c>
       <c r="N45" s="38" t="s">
         <v>106</v>
@@ -10206,7 +10482,7 @@
         <v>256</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>1433</v>
+        <v>1277</v>
       </c>
       <c r="Q45" s="38" t="s">
         <v>23</v>
@@ -10243,41 +10519,41 @@
       <c r="B47" s="11"/>
       <c r="C47" s="31"/>
       <c r="D47" s="52" t="s">
-        <v>1250</v>
+        <v>1480</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>671</v>
+        <v>1481</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>1328</v>
+        <v>1482</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>599</v>
+        <v>1383</v>
       </c>
       <c r="I47" s="52" t="s">
-        <v>1208</v>
+        <v>1483</v>
       </c>
       <c r="J47" s="52"/>
       <c r="K47" s="52" t="s">
-        <v>1209</v>
+        <v>1484</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>1182</v>
+        <v>1428</v>
       </c>
       <c r="M47" s="52" t="s">
-        <v>1210</v>
+        <v>1485</v>
       </c>
       <c r="N47" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="P47" s="52" t="s">
-        <v>1211</v>
+        <v>1486</v>
       </c>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
@@ -10309,43 +10585,43 @@
         <v>12</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
       <c r="E49" s="38" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>1434</v>
+        <v>1278</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>1435</v>
+        <v>1279</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>1436</v>
+        <v>1280</v>
       </c>
       <c r="J49" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>1437</v>
+        <v>1281</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>1438</v>
+        <v>1282</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>1439</v>
+        <v>1283</v>
       </c>
       <c r="N49" s="38" t="s">
         <v>108</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>1440</v>
+        <v>1284</v>
       </c>
       <c r="P49" s="38" t="s">
-        <v>1441</v>
+        <v>1285</v>
       </c>
       <c r="Q49" s="38" t="s">
         <v>30</v>
@@ -10382,41 +10658,41 @@
       <c r="B51" s="11"/>
       <c r="C51" s="31"/>
       <c r="D51" s="52" t="s">
-        <v>1337</v>
+        <v>1487</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>720</v>
+        <v>1488</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>1251</v>
+        <v>1489</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>1338</v>
+        <v>1490</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>1339</v>
+        <v>1491</v>
       </c>
       <c r="J51" s="52"/>
       <c r="K51" s="52" t="s">
-        <v>1247</v>
+        <v>1456</v>
       </c>
       <c r="L51" s="52" t="s">
-        <v>1212</v>
+        <v>1492</v>
       </c>
       <c r="M51" s="52" t="s">
-        <v>1213</v>
+        <v>1493</v>
       </c>
       <c r="N51" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O51" s="52" t="s">
-        <v>872</v>
+        <v>1494</v>
       </c>
       <c r="P51" s="52" t="s">
-        <v>1214</v>
+        <v>1495</v>
       </c>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
@@ -10454,37 +10730,37 @@
         <v>20</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>1442</v>
+        <v>1286</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>1443</v>
+        <v>1287</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>1444</v>
+        <v>1288</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>1415</v>
+        <v>1259</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>1445</v>
+        <v>1289</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>1446</v>
+        <v>1290</v>
       </c>
       <c r="N53" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>1447</v>
+        <v>1291</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>1448</v>
+        <v>1292</v>
       </c>
       <c r="Q53" s="38" t="s">
         <v>30</v>
@@ -10521,41 +10797,41 @@
       <c r="B55" s="11"/>
       <c r="C55" s="31"/>
       <c r="D55" s="52" t="s">
-        <v>1340</v>
+        <v>1496</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>1216</v>
+        <v>1497</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>1217</v>
+        <v>1498</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>1218</v>
+        <v>1499</v>
       </c>
       <c r="I55" s="52" t="s">
-        <v>1219</v>
+        <v>1500</v>
       </c>
       <c r="J55" s="52"/>
       <c r="K55" s="52" t="s">
-        <v>904</v>
+        <v>1501</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>1252</v>
+        <v>1502</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>525</v>
+        <v>1503</v>
       </c>
       <c r="N55" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O55" s="52" t="s">
-        <v>1220</v>
+        <v>1504</v>
       </c>
       <c r="P55" s="52" t="s">
-        <v>603</v>
+        <v>1505</v>
       </c>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
@@ -10587,22 +10863,22 @@
         <v>14</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>1215</v>
+        <v>1182</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>1449</v>
+        <v>1293</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>1450</v>
+        <v>1294</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1452</v>
+        <v>1296</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>23</v>
@@ -10611,16 +10887,16 @@
         <v>285</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>1453</v>
+        <v>1297</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>1454</v>
+        <v>1298</v>
       </c>
       <c r="N57" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>1455</v>
+        <v>1299</v>
       </c>
       <c r="P57" s="38" t="s">
         <v>109</v>
@@ -10660,41 +10936,41 @@
       <c r="B59" s="11"/>
       <c r="C59" s="31"/>
       <c r="D59" s="52" t="s">
-        <v>1254</v>
+        <v>1506</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>1255</v>
+        <v>1507</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>846</v>
+        <v>1396</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>1341</v>
+        <v>1508</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>1256</v>
+        <v>1509</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="s">
-        <v>1342</v>
+        <v>1510</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>1257</v>
+        <v>1511</v>
       </c>
       <c r="M59" s="52" t="s">
-        <v>484</v>
+        <v>1424</v>
       </c>
       <c r="N59" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O59" s="52" t="s">
-        <v>882</v>
+        <v>1410</v>
       </c>
       <c r="P59" s="52" t="s">
-        <v>1258</v>
+        <v>1512</v>
       </c>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
@@ -10726,7 +11002,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>1253</v>
+        <v>1186</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>26</v>
@@ -10738,31 +11014,31 @@
         <v>106</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>1456</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>1457</v>
+        <v>1301</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>1458</v>
+        <v>1302</v>
       </c>
       <c r="L61" s="38" t="s">
-        <v>1459</v>
+        <v>1303</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>1460</v>
+        <v>1304</v>
       </c>
       <c r="N61" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>1383</v>
+        <v>1227</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>1461</v>
+        <v>1305</v>
       </c>
       <c r="Q61" s="38" t="s">
         <v>30</v>
@@ -10799,41 +11075,41 @@
       <c r="B63" s="11"/>
       <c r="C63" s="31"/>
       <c r="D63" s="52" t="s">
-        <v>1260</v>
+        <v>1513</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>1261</v>
+        <v>1514</v>
       </c>
       <c r="F63" s="52" t="s">
-        <v>1261</v>
+        <v>1514</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="I63" s="52" t="s">
-        <v>1248</v>
+        <v>1466</v>
       </c>
       <c r="J63" s="52"/>
       <c r="K63" s="52" t="s">
-        <v>744</v>
+        <v>1515</v>
       </c>
       <c r="L63" s="52" t="s">
-        <v>890</v>
+        <v>1516</v>
       </c>
       <c r="M63" s="52" t="s">
-        <v>489</v>
+        <v>1460</v>
       </c>
       <c r="N63" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O63" s="52" t="s">
-        <v>1343</v>
+        <v>1517</v>
       </c>
       <c r="P63" s="52" t="s">
-        <v>1262</v>
+        <v>1518</v>
       </c>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
@@ -10865,43 +11141,43 @@
         <v>16</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>1259</v>
+        <v>1187</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>1462</v>
+        <v>1306</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>1462</v>
+        <v>1306</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>1424</v>
+        <v>1268</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>1463</v>
+        <v>1307</v>
       </c>
       <c r="L65" s="38" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="M65" s="38" t="s">
-        <v>1419</v>
+        <v>1263</v>
       </c>
       <c r="N65" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>1465</v>
+        <v>1309</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>1466</v>
+        <v>1310</v>
       </c>
       <c r="Q65" s="38" t="s">
         <v>30</v>
@@ -10938,35 +11214,35 @@
       <c r="B67" s="11"/>
       <c r="C67" s="31"/>
       <c r="D67" s="52" t="s">
-        <v>1221</v>
+        <v>1382</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>599</v>
+        <v>1383</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>1173</v>
+        <v>1384</v>
       </c>
       <c r="G67" s="52" t="s">
-        <v>1174</v>
+        <v>1385</v>
       </c>
       <c r="H67" s="52"/>
       <c r="I67" s="52" t="s">
-        <v>1344</v>
+        <v>1519</v>
       </c>
       <c r="J67" s="52" t="s">
-        <v>641</v>
+        <v>1520</v>
       </c>
       <c r="K67" s="52" t="s">
-        <v>1263</v>
+        <v>1521</v>
       </c>
       <c r="L67" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="M67" s="52" t="s">
-        <v>1345</v>
+        <v>1522</v>
       </c>
       <c r="N67" s="52" t="s">
-        <v>814</v>
+        <v>1462</v>
       </c>
       <c r="O67" s="52"/>
       <c r="P67" s="52"/>
@@ -11006,31 +11282,31 @@
         <v>199</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>267</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>1467</v>
+        <v>1311</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>1468</v>
+        <v>1312</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>1469</v>
+        <v>1313</v>
       </c>
       <c r="L69" s="38" t="s">
         <v>106</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>1470</v>
+        <v>1314</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>1471</v>
+        <v>1315</v>
       </c>
       <c r="O69" s="38" t="s">
         <v>30</v>
@@ -11069,41 +11345,41 @@
       <c r="B71" s="11"/>
       <c r="C71" s="31"/>
       <c r="D71" s="52" t="s">
-        <v>1265</v>
+        <v>1523</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>1201</v>
+        <v>1468</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>1266</v>
+        <v>1524</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>1346</v>
+        <v>1525</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>880</v>
+        <v>1397</v>
       </c>
       <c r="J71" s="52"/>
       <c r="K71" s="52" t="s">
-        <v>1267</v>
+        <v>1526</v>
       </c>
       <c r="L71" s="52" t="s">
-        <v>1268</v>
+        <v>1527</v>
       </c>
       <c r="M71" s="52" t="s">
-        <v>1269</v>
+        <v>1528</v>
       </c>
       <c r="N71" s="52" t="s">
-        <v>1174</v>
+        <v>1385</v>
       </c>
       <c r="O71" s="52" t="s">
-        <v>826</v>
+        <v>1529</v>
       </c>
       <c r="P71" s="52" t="s">
-        <v>874</v>
+        <v>1530</v>
       </c>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
@@ -11135,40 +11411,40 @@
         <v>18</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>1264</v>
+        <v>1188</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>1472</v>
+        <v>1316</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>210</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>1473</v>
+        <v>1317</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>1474</v>
+        <v>1318</v>
       </c>
       <c r="J73" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>1476</v>
+        <v>1320</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>1477</v>
+        <v>1321</v>
       </c>
       <c r="N73" s="38" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="O73" s="38" t="s">
-        <v>1478</v>
+        <v>1322</v>
       </c>
       <c r="P73" s="38" t="s">
         <v>269</v>
@@ -11208,41 +11484,41 @@
       <c r="B75" s="11"/>
       <c r="C75" s="31"/>
       <c r="D75" s="52" t="s">
-        <v>1347</v>
+        <v>1531</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>1348</v>
+        <v>1532</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>1349</v>
+        <v>1533</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>1338</v>
+        <v>1490</v>
       </c>
       <c r="I75" s="52" t="s">
-        <v>1271</v>
+        <v>1534</v>
       </c>
       <c r="J75" s="52"/>
       <c r="K75" s="52" t="s">
-        <v>1272</v>
+        <v>1535</v>
       </c>
       <c r="L75" s="52" t="s">
-        <v>1273</v>
+        <v>1536</v>
       </c>
       <c r="M75" s="52" t="s">
-        <v>1350</v>
+        <v>1537</v>
       </c>
       <c r="N75" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="O75" s="52" t="s">
-        <v>675</v>
+        <v>1538</v>
       </c>
       <c r="P75" s="52" t="s">
-        <v>766</v>
+        <v>1539</v>
       </c>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
@@ -11274,13 +11550,13 @@
         <v>19</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>1270</v>
+        <v>1189</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>1479</v>
+        <v>1323</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>1480</v>
+        <v>1324</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>108</v>
@@ -11289,7 +11565,7 @@
         <v>157</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>1481</v>
+        <v>1325</v>
       </c>
       <c r="J77" s="38" t="s">
         <v>23</v>
@@ -11298,16 +11574,16 @@
         <v>251</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>1482</v>
+        <v>1326</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>1483</v>
+        <v>1327</v>
       </c>
       <c r="N77" s="38" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>1484</v>
+        <v>1328</v>
       </c>
       <c r="P77" s="38" t="s">
         <v>203</v>
@@ -11347,44 +11623,44 @@
       <c r="B79" s="11"/>
       <c r="C79" s="31"/>
       <c r="D79" s="52" t="s">
-        <v>1275</v>
+        <v>1540</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>541</v>
+        <v>1541</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>1276</v>
+        <v>1542</v>
       </c>
       <c r="G79" s="52" t="s">
-        <v>1229</v>
+        <v>1389</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="I79" s="52" t="s">
-        <v>515</v>
+        <v>1543</v>
       </c>
       <c r="J79" s="52" t="s">
-        <v>1277</v>
+        <v>1544</v>
       </c>
       <c r="K79" s="52"/>
       <c r="L79" s="52" t="s">
-        <v>1329</v>
+        <v>1388</v>
       </c>
       <c r="M79" s="52" t="s">
-        <v>1201</v>
+        <v>1468</v>
       </c>
       <c r="N79" s="52" t="s">
-        <v>1278</v>
+        <v>1545</v>
       </c>
       <c r="O79" s="52" t="s">
-        <v>1279</v>
+        <v>1546</v>
       </c>
       <c r="P79" s="52" t="s">
-        <v>1280</v>
+        <v>1547</v>
       </c>
       <c r="Q79" s="52" t="s">
-        <v>1281</v>
+        <v>1548</v>
       </c>
       <c r="R79" s="52"/>
       <c r="V79" s="59"/>
@@ -11415,16 +11691,16 @@
         <v>20</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
       <c r="E81" s="38" t="s">
         <v>37</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>1485</v>
+        <v>1329</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>1486</v>
+        <v>1330</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>106</v>
@@ -11433,28 +11709,28 @@
         <v>71</v>
       </c>
       <c r="J81" s="38" t="s">
-        <v>1487</v>
+        <v>1331</v>
       </c>
       <c r="K81" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="M81" s="38" t="s">
         <v>19</v>
       </c>
       <c r="N81" s="38" t="s">
-        <v>1488</v>
+        <v>1332</v>
       </c>
       <c r="O81" s="38" t="s">
         <v>160</v>
       </c>
       <c r="P81" s="38" t="s">
-        <v>1489</v>
+        <v>1333</v>
       </c>
       <c r="Q81" s="38" t="s">
-        <v>1490</v>
+        <v>1334</v>
       </c>
       <c r="R81" s="38" t="s">
         <v>30</v>
@@ -11490,29 +11766,29 @@
       <c r="B83" s="11"/>
       <c r="C83" s="31"/>
       <c r="D83" s="52" t="s">
-        <v>1283</v>
+        <v>1549</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>1284</v>
+        <v>1550</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>894</v>
+        <v>1551</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>1351</v>
+        <v>1552</v>
       </c>
       <c r="H83" s="52"/>
       <c r="I83" s="52" t="s">
-        <v>1285</v>
+        <v>1553</v>
       </c>
       <c r="J83" s="52" t="s">
-        <v>1286</v>
+        <v>1554</v>
       </c>
       <c r="K83" s="52" t="s">
-        <v>1287</v>
+        <v>1555</v>
       </c>
       <c r="L83" s="52" t="s">
-        <v>1352</v>
+        <v>1556</v>
       </c>
       <c r="M83" s="52"/>
       <c r="N83" s="52"/>
@@ -11548,16 +11824,16 @@
         <v>21</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>1282</v>
+        <v>1191</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>1491</v>
+        <v>1335</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1492</v>
+        <v>1336</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>1493</v>
+        <v>1337</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>23</v>
@@ -11566,13 +11842,13 @@
         <v>236</v>
       </c>
       <c r="J85" s="38" t="s">
-        <v>1494</v>
+        <v>1338</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="L85" s="38" t="s">
-        <v>1392</v>
+        <v>1236</v>
       </c>
       <c r="M85" s="38" t="s">
         <v>30</v>
@@ -11617,41 +11893,41 @@
       <c r="B87" s="11"/>
       <c r="C87" s="31"/>
       <c r="D87" s="52" t="s">
-        <v>1232</v>
+        <v>1393</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>1288</v>
+        <v>1557</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>1289</v>
+        <v>1558</v>
       </c>
       <c r="G87" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>1353</v>
+        <v>1559</v>
       </c>
       <c r="I87" s="52" t="s">
-        <v>1290</v>
+        <v>1560</v>
       </c>
       <c r="J87" s="52"/>
       <c r="K87" s="52" t="s">
-        <v>900</v>
+        <v>1399</v>
       </c>
       <c r="L87" s="52" t="s">
-        <v>1291</v>
+        <v>1561</v>
       </c>
       <c r="M87" s="52" t="s">
-        <v>1292</v>
+        <v>1562</v>
       </c>
       <c r="N87" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O87" s="52" t="s">
-        <v>792</v>
+        <v>1563</v>
       </c>
       <c r="P87" s="52" t="s">
-        <v>1293</v>
+        <v>1564</v>
       </c>
       <c r="Q87" s="52"/>
       <c r="R87" s="52"/>
@@ -11683,22 +11959,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>1231</v>
+        <v>1183</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>1496</v>
+        <v>1340</v>
       </c>
       <c r="G89" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>1497</v>
+        <v>1341</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>1498</v>
+        <v>1342</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>23</v>
@@ -11707,19 +11983,19 @@
         <v>283</v>
       </c>
       <c r="L89" s="38" t="s">
-        <v>1499</v>
+        <v>1343</v>
       </c>
       <c r="M89" s="38" t="s">
-        <v>1500</v>
+        <v>1344</v>
       </c>
       <c r="N89" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O89" s="38" t="s">
-        <v>1501</v>
+        <v>1345</v>
       </c>
       <c r="P89" s="38" t="s">
-        <v>1502</v>
+        <v>1346</v>
       </c>
       <c r="Q89" s="38" t="s">
         <v>30</v>
@@ -11756,26 +12032,26 @@
       <c r="B91" s="11"/>
       <c r="C91" s="31"/>
       <c r="D91" s="52" t="s">
-        <v>1295</v>
+        <v>1565</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>1188</v>
+        <v>1447</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>1188</v>
+        <v>1447</v>
       </c>
       <c r="G91" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>1296</v>
+        <v>1566</v>
       </c>
       <c r="I91" s="52" t="s">
-        <v>1202</v>
+        <v>1470</v>
       </c>
       <c r="J91" s="52"/>
       <c r="K91" s="52" t="s">
-        <v>1355</v>
+        <v>1199</v>
       </c>
       <c r="L91" s="52" t="s">
         <v>603</v>
@@ -11787,7 +12063,7 @@
         <v>778</v>
       </c>
       <c r="O91" s="52" t="s">
-        <v>1356</v>
+        <v>1200</v>
       </c>
       <c r="P91" s="52" t="s">
         <v>563</v>
@@ -11822,43 +12098,43 @@
         <v>23</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>1294</v>
+        <v>1192</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>1503</v>
+        <v>1347</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>1504</v>
+        <v>1348</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="38" t="s">
-        <v>1505</v>
+        <v>1349</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>1506</v>
+        <v>1350</v>
       </c>
       <c r="M93" s="38" t="s">
-        <v>1506</v>
+        <v>1350</v>
       </c>
       <c r="N93" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O93" s="38" t="s">
-        <v>1507</v>
+        <v>1351</v>
       </c>
       <c r="P93" s="38" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
       <c r="Q93" s="38" t="s">
         <v>30</v>
@@ -11895,41 +12171,41 @@
       <c r="B95" s="11"/>
       <c r="C95" s="31"/>
       <c r="D95" s="52" t="s">
-        <v>1298</v>
+        <v>1567</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>647</v>
+        <v>1568</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>689</v>
+        <v>1569</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>523</v>
+        <v>1570</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>904</v>
+        <v>1501</v>
       </c>
       <c r="J95" s="52"/>
       <c r="K95" s="52" t="s">
-        <v>776</v>
+        <v>1571</v>
       </c>
       <c r="L95" s="52" t="s">
-        <v>914</v>
+        <v>1572</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>722</v>
+        <v>1573</v>
       </c>
       <c r="N95" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="O95" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="P95" s="52" t="s">
-        <v>1299</v>
+        <v>1574</v>
       </c>
       <c r="Q95" s="52"/>
       <c r="R95" s="52"/>
@@ -11961,7 +12237,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1297</v>
+        <v>1193</v>
       </c>
       <c r="E97" s="38" t="s">
         <v>134</v>
@@ -11988,7 +12264,7 @@
         <v>297</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>1508</v>
+        <v>1352</v>
       </c>
       <c r="N97" s="38" t="s">
         <v>108</v>
@@ -11997,7 +12273,7 @@
         <v>185</v>
       </c>
       <c r="P97" s="38" t="s">
-        <v>1509</v>
+        <v>1353</v>
       </c>
       <c r="Q97" s="38" t="s">
         <v>30</v>
@@ -12034,35 +12310,35 @@
       <c r="B99" s="11"/>
       <c r="C99" s="31"/>
       <c r="D99" s="52" t="s">
-        <v>1300</v>
+        <v>1575</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>695</v>
+        <v>1576</v>
       </c>
       <c r="G99" s="52"/>
       <c r="H99" s="52" t="s">
-        <v>1301</v>
+        <v>1577</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>633</v>
+        <v>1398</v>
       </c>
       <c r="J99" s="52" t="s">
-        <v>591</v>
+        <v>1445</v>
       </c>
       <c r="K99" s="52" t="s">
-        <v>1302</v>
+        <v>1578</v>
       </c>
       <c r="L99" s="52" t="s">
-        <v>1267</v>
+        <v>1526</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>1303</v>
+        <v>1579</v>
       </c>
       <c r="N99" s="52" t="s">
-        <v>904</v>
+        <v>1501</v>
       </c>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
@@ -12096,7 +12372,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1238</v>
+        <v>1185</v>
       </c>
       <c r="E101" s="38" t="s">
         <v>142</v>
@@ -12108,22 +12384,22 @@
         <v>267</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>1510</v>
+        <v>1354</v>
       </c>
       <c r="I101" s="38" t="s">
         <v>182</v>
       </c>
       <c r="J101" s="38" t="s">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="K101" s="38" t="s">
-        <v>1511</v>
+        <v>1355</v>
       </c>
       <c r="L101" s="38" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="M101" s="38" t="s">
-        <v>1512</v>
+        <v>1356</v>
       </c>
       <c r="N101" s="38" t="s">
         <v>285</v>
@@ -12165,47 +12441,47 @@
       <c r="B103" s="11"/>
       <c r="C103" s="31"/>
       <c r="D103" s="52" t="s">
-        <v>1537</v>
+        <v>1580</v>
       </c>
       <c r="E103" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="F103" s="52" t="s">
-        <v>1538</v>
+        <v>1581</v>
       </c>
       <c r="G103" s="52" t="s">
-        <v>846</v>
+        <v>1396</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>1539</v>
+        <v>1582</v>
       </c>
       <c r="I103" s="52" t="s">
-        <v>645</v>
+        <v>1583</v>
       </c>
       <c r="J103" s="52" t="s">
-        <v>1218</v>
+        <v>1499</v>
       </c>
       <c r="K103" s="52"/>
       <c r="L103" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="M103" s="52" t="s">
-        <v>1540</v>
+        <v>1584</v>
       </c>
       <c r="N103" s="52" t="s">
-        <v>1541</v>
+        <v>1585</v>
       </c>
       <c r="O103" s="52" t="s">
-        <v>1541</v>
+        <v>1585</v>
       </c>
       <c r="P103" s="52" t="s">
-        <v>1542</v>
+        <v>1586</v>
       </c>
       <c r="Q103" s="52" t="s">
-        <v>543</v>
+        <v>1390</v>
       </c>
       <c r="R103" s="52" t="s">
-        <v>601</v>
+        <v>1408</v>
       </c>
       <c r="V103" s="33"/>
     </row>
@@ -12235,43 +12511,43 @@
         <v>26</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>1304</v>
+        <v>1194</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>168</v>
       </c>
       <c r="F105" s="38" t="s">
-        <v>1513</v>
+        <v>1357</v>
       </c>
       <c r="G105" s="38" t="s">
         <v>253</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>1514</v>
+        <v>1358</v>
       </c>
       <c r="I105" s="38" t="s">
         <v>199</v>
       </c>
       <c r="J105" s="38" t="s">
-        <v>1515</v>
+        <v>1359</v>
       </c>
       <c r="K105" s="38" t="s">
         <v>23</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>1373</v>
+        <v>1217</v>
       </c>
       <c r="M105" s="38" t="s">
         <v>273</v>
       </c>
       <c r="N105" s="38" t="s">
-        <v>1516</v>
+        <v>1360</v>
       </c>
       <c r="O105" s="38" t="s">
-        <v>1516</v>
+        <v>1360</v>
       </c>
       <c r="P105" s="38" t="s">
-        <v>1517</v>
+        <v>1361</v>
       </c>
       <c r="Q105" s="38" t="s">
         <v>252</v>
@@ -12399,35 +12675,35 @@
       <c r="B111" s="11"/>
       <c r="C111" s="31"/>
       <c r="D111" s="52" t="s">
-        <v>1306</v>
+        <v>1587</v>
       </c>
       <c r="E111" s="52" t="s">
-        <v>1307</v>
+        <v>1588</v>
       </c>
       <c r="F111" s="52" t="s">
-        <v>484</v>
+        <v>1424</v>
       </c>
       <c r="G111" s="52" t="s">
-        <v>914</v>
+        <v>1572</v>
       </c>
       <c r="H111" s="52" t="s">
-        <v>1308</v>
+        <v>1589</v>
       </c>
       <c r="I111" s="52"/>
       <c r="J111" s="52" t="s">
-        <v>1309</v>
+        <v>1590</v>
       </c>
       <c r="K111" s="52" t="s">
-        <v>1310</v>
+        <v>1591</v>
       </c>
       <c r="L111" s="52" t="s">
-        <v>704</v>
+        <v>1391</v>
       </c>
       <c r="M111" s="52" t="s">
-        <v>1242</v>
+        <v>1412</v>
       </c>
       <c r="N111" s="52" t="s">
-        <v>567</v>
+        <v>1417</v>
       </c>
       <c r="O111" s="52"/>
       <c r="P111" s="52"/>
@@ -12461,25 +12737,25 @@
         <v>28</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>1305</v>
+        <v>1195</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>1518</v>
+        <v>1362</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>1391</v>
+        <v>1235</v>
       </c>
       <c r="G113" s="49" t="s">
         <v>297</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>1519</v>
+        <v>1363</v>
       </c>
       <c r="I113" s="49" t="s">
         <v>23</v>
       </c>
       <c r="J113" s="49" t="s">
-        <v>1520</v>
+        <v>1364</v>
       </c>
       <c r="K113" s="49" t="s">
         <v>202</v>
@@ -12488,10 +12764,10 @@
         <v>168</v>
       </c>
       <c r="M113" s="49" t="s">
-        <v>1384</v>
+        <v>1228</v>
       </c>
       <c r="N113" s="49" t="s">
-        <v>1521</v>
+        <v>1365</v>
       </c>
       <c r="O113" s="49" t="s">
         <v>30</v>
@@ -12534,41 +12810,41 @@
       <c r="B115" s="11"/>
       <c r="C115" s="31"/>
       <c r="D115" s="52" t="s">
-        <v>1312</v>
+        <v>1592</v>
       </c>
       <c r="E115" s="52" t="s">
-        <v>1313</v>
+        <v>1593</v>
       </c>
       <c r="F115" s="52" t="s">
-        <v>850</v>
+        <v>1439</v>
       </c>
       <c r="G115" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H115" s="52" t="s">
-        <v>1287</v>
+        <v>1555</v>
       </c>
       <c r="I115" s="52" t="s">
-        <v>1240</v>
+        <v>1407</v>
       </c>
       <c r="J115" s="52"/>
       <c r="K115" s="52" t="s">
-        <v>1285</v>
+        <v>1553</v>
       </c>
       <c r="L115" s="52" t="s">
-        <v>1314</v>
+        <v>1594</v>
       </c>
       <c r="M115" s="52" t="s">
-        <v>555</v>
+        <v>1595</v>
       </c>
       <c r="N115" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O115" s="52" t="s">
-        <v>1315</v>
+        <v>1596</v>
       </c>
       <c r="P115" s="52" t="s">
-        <v>519</v>
+        <v>1454</v>
       </c>
       <c r="Q115" s="52"/>
       <c r="R115" s="52"/>
@@ -12600,22 +12876,22 @@
         <v>29</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>1311</v>
+        <v>1196</v>
       </c>
       <c r="E117" s="38" t="s">
-        <v>1522</v>
+        <v>1366</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>1523</v>
+        <v>1367</v>
       </c>
       <c r="G117" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>1381</v>
+        <v>1225</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>23</v>
@@ -12624,19 +12900,19 @@
         <v>236</v>
       </c>
       <c r="L117" s="38" t="s">
-        <v>1524</v>
+        <v>1368</v>
       </c>
       <c r="M117" s="38" t="s">
-        <v>1525</v>
+        <v>1369</v>
       </c>
       <c r="N117" s="38" t="s">
         <v>210</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>1526</v>
+        <v>1370</v>
       </c>
       <c r="P117" s="38" t="s">
-        <v>1527</v>
+        <v>1371</v>
       </c>
       <c r="Q117" s="38" t="s">
         <v>23</v>
@@ -12673,41 +12949,41 @@
       <c r="B119" s="11"/>
       <c r="C119" s="31"/>
       <c r="D119" s="52" t="s">
-        <v>1317</v>
+        <v>1597</v>
       </c>
       <c r="E119" s="52" t="s">
-        <v>1318</v>
+        <v>1598</v>
       </c>
       <c r="F119" s="52" t="s">
-        <v>890</v>
+        <v>1516</v>
       </c>
       <c r="G119" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H119" s="52" t="s">
-        <v>754</v>
+        <v>1599</v>
       </c>
       <c r="I119" s="52" t="s">
-        <v>746</v>
+        <v>1600</v>
       </c>
       <c r="J119" s="52"/>
       <c r="K119" s="52" t="s">
-        <v>864</v>
+        <v>1601</v>
       </c>
       <c r="L119" s="52" t="s">
-        <v>1326</v>
+        <v>1602</v>
       </c>
       <c r="M119" s="52" t="s">
-        <v>1218</v>
+        <v>1499</v>
       </c>
       <c r="N119" s="52" t="s">
-        <v>878</v>
+        <v>1403</v>
       </c>
       <c r="O119" s="52" t="s">
-        <v>583</v>
+        <v>1603</v>
       </c>
       <c r="P119" s="52" t="s">
-        <v>581</v>
+        <v>1604</v>
       </c>
       <c r="Q119" s="52"/>
       <c r="R119" s="52"/>
@@ -12739,19 +13015,19 @@
         <v>30</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1316</v>
+        <v>1197</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>1528</v>
+        <v>1372</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>1529</v>
+        <v>1373</v>
       </c>
       <c r="G121" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>1530</v>
+        <v>1374</v>
       </c>
       <c r="I121" s="38" t="s">
         <v>194</v>
@@ -12763,10 +13039,10 @@
         <v>263</v>
       </c>
       <c r="L121" s="38" t="s">
-        <v>1531</v>
+        <v>1375</v>
       </c>
       <c r="M121" s="38" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
       <c r="N121" s="38" t="s">
         <v>210</v>
@@ -12812,44 +13088,44 @@
       <c r="B123" s="11"/>
       <c r="C123" s="31"/>
       <c r="D123" s="52" t="s">
-        <v>1320</v>
+        <v>1605</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>1321</v>
+        <v>1606</v>
       </c>
       <c r="F123" s="52" t="s">
-        <v>1322</v>
+        <v>1607</v>
       </c>
       <c r="G123" s="52" t="s">
-        <v>597</v>
+        <v>1395</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>916</v>
+        <v>1608</v>
       </c>
       <c r="I123" s="52" t="s">
-        <v>1354</v>
+        <v>1609</v>
       </c>
       <c r="J123" s="52"/>
       <c r="K123" s="52" t="s">
-        <v>1272</v>
+        <v>1535</v>
       </c>
       <c r="L123" s="52" t="s">
-        <v>605</v>
+        <v>1435</v>
       </c>
       <c r="M123" s="52" t="s">
-        <v>796</v>
+        <v>1610</v>
       </c>
       <c r="N123" s="52" t="s">
-        <v>1284</v>
+        <v>1550</v>
       </c>
       <c r="O123" s="52" t="s">
-        <v>1267</v>
+        <v>1526</v>
       </c>
       <c r="P123" s="52" t="s">
-        <v>1323</v>
+        <v>1611</v>
       </c>
       <c r="Q123" s="52" t="s">
-        <v>1324</v>
+        <v>1612</v>
       </c>
       <c r="R123" s="52"/>
       <c r="V123" s="33"/>
@@ -12880,13 +13156,13 @@
         <v>31</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>1319</v>
+        <v>1198</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>1532</v>
+        <v>1376</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>1533</v>
+        <v>1377</v>
       </c>
       <c r="G125" s="38" t="s">
         <v>106</v>
@@ -12895,7 +13171,7 @@
         <v>299</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>1534</v>
+        <v>1378</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>23</v>
@@ -12910,16 +13186,16 @@
         <v>218</v>
       </c>
       <c r="N125" s="38" t="s">
-        <v>1491</v>
+        <v>1335</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="P125" s="38" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="Q125" s="38" t="s">
-        <v>1535</v>
+        <v>1379</v>
       </c>
       <c r="R125" s="38" t="s">
         <v>30</v>
@@ -12997,7 +13273,7 @@
         <v>32</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>1536</v>
+        <v>1380</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD64802-2656-45A9-BDB5-C2017C596239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D2303B-271D-4A78-A6C1-F7A38ED1C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4006,738 +4006,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>余</t>
-  </si>
-  <si>
-    <t>僇</t>
-  </si>
-  <si>
-    <t>州</t>
-  </si>
-  <si>
-    <t>恆</t>
-  </si>
-  <si>
-    <t>惴</t>
-  </si>
-  <si>
-    <t>慄</t>
-  </si>
-  <si>
-    <t>隟</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>漫</t>
-  </si>
-  <si>
-    <t>徒</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>深</t>
-  </si>
-  <si>
-    <t>林</t>
-  </si>
-  <si>
-    <t>窮</t>
-  </si>
-  <si>
-    <t>迴</t>
-  </si>
-  <si>
-    <t>谿</t>
-  </si>
-  <si>
-    <t>幽</t>
-  </si>
-  <si>
-    <t>泉</t>
-  </si>
-  <si>
-    <t>怪</t>
-  </si>
-  <si>
-    <t>石</t>
-  </si>
-  <si>
-    <t>到</t>
-  </si>
-  <si>
-    <t>披</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>壺</t>
-  </si>
-  <si>
-    <t>醉</t>
-  </si>
-  <si>
-    <t>更</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>枕</t>
-  </si>
-  <si>
-    <t>臥</t>
-  </si>
-  <si>
-    <t>夢</t>
-  </si>
-  <si>
-    <t>意</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>同</t>
-  </si>
-  <si>
-    <t>趣</t>
-  </si>
-  <si>
-    <t>覺</t>
-  </si>
-  <si>
-    <t>起</t>
-  </si>
-  <si>
-    <t>凡</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>態</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>始</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>特</t>
-  </si>
-  <si>
-    <t>九</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>八</t>
-  </si>
-  <si>
-    <t>因</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>華</t>
-  </si>
-  <si>
-    <t>亭</t>
-  </si>
-  <si>
-    <t>望</t>
-  </si>
-  <si>
-    <t>指</t>
-  </si>
-  <si>
-    <t>遂</t>
-  </si>
-  <si>
-    <t>命</t>
-  </si>
-  <si>
-    <t>僕</t>
-  </si>
-  <si>
-    <t>過</t>
-  </si>
-  <si>
-    <t>緣</t>
-  </si>
-  <si>
-    <t>染</t>
-  </si>
-  <si>
-    <t>溪</t>
-  </si>
-  <si>
-    <t>斫</t>
-  </si>
-  <si>
-    <t>榛</t>
-  </si>
-  <si>
-    <t>莽</t>
-  </si>
-  <si>
-    <t>焚</t>
-  </si>
-  <si>
-    <t>茅</t>
-  </si>
-  <si>
-    <t>茷</t>
-  </si>
-  <si>
-    <t>止</t>
-  </si>
-  <si>
-    <t>攀</t>
-  </si>
-  <si>
-    <t>援</t>
-  </si>
-  <si>
-    <t>箕</t>
-  </si>
-  <si>
-    <t>踞</t>
-  </si>
-  <si>
-    <t>遨</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>壤</t>
-  </si>
-  <si>
-    <t>袵</t>
-  </si>
-  <si>
-    <t>席</t>
-  </si>
-  <si>
-    <t>勢</t>
-  </si>
-  <si>
-    <t>岈</t>
-  </si>
-  <si>
-    <t>窪</t>
-  </si>
-  <si>
-    <t>垤</t>
-  </si>
-  <si>
-    <t>穴</t>
-  </si>
-  <si>
-    <t>尺</t>
-  </si>
-  <si>
-    <t>寸</t>
-  </si>
-  <si>
-    <t>攢</t>
-  </si>
-  <si>
-    <t>蹙</t>
-  </si>
-  <si>
-    <t>累</t>
-  </si>
-  <si>
-    <t>積</t>
-  </si>
-  <si>
-    <t>莫</t>
-  </si>
-  <si>
-    <t>遯</t>
-  </si>
-  <si>
-    <t>縈</t>
-  </si>
-  <si>
-    <t>繚</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>如</t>
-  </si>
-  <si>
-    <t>立</t>
-  </si>
-  <si>
-    <t>培</t>
-  </si>
-  <si>
-    <t>塿</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>悠</t>
-  </si>
-  <si>
-    <t>顥</t>
-  </si>
-  <si>
-    <t>俱</t>
-  </si>
-  <si>
-    <t>造</t>
-  </si>
-  <si>
-    <t>遊</t>
-  </si>
-  <si>
-    <t>引</t>
-  </si>
-  <si>
-    <t>觴</t>
-  </si>
-  <si>
-    <t>酌</t>
-  </si>
-  <si>
-    <t>頹</t>
-  </si>
-  <si>
-    <t>就</t>
-  </si>
-  <si>
-    <t>蒼</t>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>猶</t>
-  </si>
-  <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>凝</t>
-  </si>
-  <si>
-    <t>釋</t>
-  </si>
-  <si>
-    <t>化</t>
-  </si>
-  <si>
-    <t>合</t>
-  </si>
-  <si>
-    <t>嚮</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>志</t>
-  </si>
-  <si>
-    <t>歲</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>Kin1</t>
-  </si>
-  <si>
-    <t>Zu7</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>【沒有音標】</t>
-  </si>
-  <si>
-    <t>lang5</t>
-  </si>
-  <si>
-    <t>ziu1</t>
-  </si>
-  <si>
-    <t>lak8</t>
-  </si>
-  <si>
-    <t>Ki5</t>
-  </si>
-  <si>
-    <t>kiann5</t>
-  </si>
-  <si>
-    <t>Jit8</t>
-  </si>
-  <si>
-    <t>too5</t>
-  </si>
-  <si>
-    <t>suann1</t>
-  </si>
-  <si>
-    <t>jip8</t>
-  </si>
-  <si>
-    <t>cim1</t>
-  </si>
-  <si>
-    <t>king5</t>
-  </si>
-  <si>
-    <t>hue5</t>
-  </si>
-  <si>
-    <t>zuann5</t>
-  </si>
-  <si>
-    <t>kuai3</t>
-  </si>
-  <si>
-    <t>zioh8</t>
-  </si>
-  <si>
-    <t>bo5</t>
-  </si>
-  <si>
-    <t>hng7</t>
-  </si>
-  <si>
-    <t>kau3</t>
-  </si>
-  <si>
-    <t>Kau3</t>
-  </si>
-  <si>
-    <t>phi1</t>
-  </si>
-  <si>
-    <t>cau2</t>
-  </si>
-  <si>
-    <t>ze7</t>
-  </si>
-  <si>
-    <t>zui3</t>
-  </si>
-  <si>
-    <t>kenn1</t>
-  </si>
-  <si>
-    <t>sio1</t>
-  </si>
-  <si>
-    <t>zim2</t>
-  </si>
-  <si>
-    <t>ngoo7</t>
-  </si>
-  <si>
-    <t>Ngoo7</t>
-  </si>
-  <si>
-    <t>bang7</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>u7</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>Kak4</t>
-  </si>
-  <si>
-    <t>khi2</t>
-  </si>
-  <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>sui2</t>
-  </si>
-  <si>
-    <t>thai3</t>
-  </si>
-  <si>
-    <t>gua2</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>si2</t>
-  </si>
-  <si>
-    <t>sai1</t>
-  </si>
-  <si>
-    <t>tik8</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>hua1</t>
-  </si>
-  <si>
-    <t>zainn2</t>
-  </si>
-  <si>
-    <t>mia7</t>
-  </si>
-  <si>
-    <t>siong1</t>
-  </si>
-  <si>
-    <t>ian5</t>
-  </si>
-  <si>
-    <t>khe1</t>
-  </si>
-  <si>
-    <t>zin1</t>
-  </si>
-  <si>
-    <t>bong2</t>
-  </si>
-  <si>
-    <t>hun5</t>
-  </si>
-  <si>
-    <t>Phan1</t>
-  </si>
-  <si>
-    <t>uan7</t>
-  </si>
-  <si>
-    <t>go5</t>
-  </si>
-  <si>
-    <t>thoo2</t>
-  </si>
-  <si>
-    <t>he7</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>na7</t>
-  </si>
-  <si>
-    <t>hiat8</t>
-  </si>
-  <si>
-    <t>cioh4</t>
-  </si>
-  <si>
-    <t>cun3</t>
-  </si>
-  <si>
-    <t>cing1</t>
-  </si>
-  <si>
-    <t>Cuan5</t>
-  </si>
-  <si>
-    <t>lui2</t>
-  </si>
-  <si>
-    <t>mai3</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
-    <t>Cenn1</t>
-  </si>
-  <si>
-    <t>liau7</t>
-  </si>
-  <si>
-    <t>peh8</t>
-  </si>
-  <si>
-    <t>gua7</t>
-  </si>
-  <si>
-    <t>si3</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>zit8</t>
-  </si>
-  <si>
-    <t>Jian5</t>
-  </si>
-  <si>
-    <t>au7</t>
-  </si>
-  <si>
-    <t>lip8</t>
-  </si>
-  <si>
-    <t>pue7</t>
-  </si>
-  <si>
-    <t>lui7</t>
-  </si>
-  <si>
-    <t>Iu1</t>
-  </si>
-  <si>
-    <t>hoonnh4</t>
-  </si>
-  <si>
-    <t>zo7</t>
-  </si>
-  <si>
-    <t>mih8</t>
-  </si>
-  <si>
-    <t>In2</t>
-  </si>
-  <si>
-    <t>ziok4</t>
-  </si>
-  <si>
-    <t>tue5</t>
-  </si>
-  <si>
-    <t>to7</t>
-  </si>
-  <si>
-    <t>Cong1</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
-    <t>kian3</t>
-  </si>
-  <si>
-    <t>iau2</t>
-  </si>
-  <si>
-    <t>beh4</t>
-  </si>
-  <si>
-    <t>Sim1</t>
-  </si>
-  <si>
-    <t>ging5</t>
-  </si>
-  <si>
-    <t>hua3</t>
-  </si>
-  <si>
-    <t>hiong3</t>
-  </si>
-  <si>
-    <t>Koo3</t>
-  </si>
-  <si>
-    <t>Si7</t>
-  </si>
-  <si>
-    <t>guan5</t>
-  </si>
-  <si>
-    <t>ni5</t>
-  </si>
-  <si>
-    <t>kau2</t>
-  </si>
-  <si>
-    <t>zap8</t>
-  </si>
-  <si>
-    <t>peh4</t>
-  </si>
-  <si>
-    <t>in1</t>
-  </si>
-  <si>
-    <t>Sui7</t>
-  </si>
-  <si>
-    <t>kue3</t>
-  </si>
-  <si>
-    <t>ni2</t>
-  </si>
-  <si>
-    <t>hm5</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>hah8</t>
-  </si>
-  <si>
     <t>白話音</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自余為僇人，居是州，恆惴慄。其隟也，則施施而行，漫漫而游。日與其徒上高山，入深林，窮迴谿，幽泉怪石，無遠不到。到則披草而坐，傾壺而醉，醉則更相枕以臥。臥而夢，意有所極，夢亦同趣。覺而起，起而歸，以為凡是州之山水有異態者，皆我有也，而未始知西山之怪特。
-今年九月二十八日，因坐法華西亭，望西山，始指異之。遂命僕人過湘江，緣染溪，斫榛莽，焚茅茷，窮山之高而止。攀援而登，箕踞而遨，則凡數州之土壤，皆在袵席之下。其高下之勢，岈然窪然，若垤若穴，尺寸千里。攢蹙累積，莫得遯隱。縈青繚白，外與天際，四望如一。然後知是山之特立，不與培塿為類。悠悠乎與顥氣俱，而莫得其涯，洋洋乎與造物者遊，而不知其所窮。引觴滿酌，頹然就醉，不知日之入。蒼然暮色，自遠而至，至無所見，而猶不欲歸。心凝形釋，與萬化冥合。然後知吾嚮之未始游，游於是乎始。故為之文以志。是歲，元和四年也。
-</t>
   </si>
 </sst>
 </file>
@@ -7741,7 +7010,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7851,7 +7120,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>1409</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -7912,7 +7181,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E6D0CEF8-433B-44D1-9BB1-92BE13C5E787}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
@@ -7940,9 +7209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -8051,55 +7318,29 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="54" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>1298</v>
-      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="54"/>
-      <c r="J3" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>1299</v>
-      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>1300</v>
-      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="s">
-        <v>1301</v>
-      </c>
+      <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55" t="s">
-        <v>1410</v>
-      </c>
+      <c r="V3" s="55"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
@@ -8125,51 +7366,21 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>1171</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>1172</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>1173</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>93</v>
-      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
       <c r="S5" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8201,45 +7412,21 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>364</v>
-      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>1302</v>
-      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="54"/>
-      <c r="M7" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="P7" s="54" t="s">
-        <v>437</v>
-      </c>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
-      <c r="R7" s="54" t="s">
-        <v>1303</v>
-      </c>
+      <c r="R7" s="54"/>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
@@ -8268,51 +7455,21 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>1176</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
       <c r="S9" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8344,44 +7501,20 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>1305</v>
-      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="54" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>1307</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>461</v>
-      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="54" t="s">
-        <v>1308</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>1297</v>
-      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
       <c r="V11" s="56"/>
     </row>
@@ -8410,51 +7543,21 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>1180</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>1183</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
       <c r="S13" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8485,47 +7588,21 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>1312</v>
-      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="54" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>1314</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>1315</v>
-      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="54"/>
-      <c r="N15" s="54" t="s">
-        <v>1316</v>
-      </c>
-      <c r="O15" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="P15" s="54" t="s">
-        <v>1317</v>
-      </c>
-      <c r="Q15" s="54" t="s">
-        <v>1318</v>
-      </c>
-      <c r="R15" s="54" t="s">
-        <v>421</v>
-      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -8553,51 +7630,21 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>1189</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>1190</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>210</v>
-      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8628,44 +7675,20 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="54" t="s">
-        <v>1319</v>
-      </c>
+      <c r="D19" s="54"/>
       <c r="E19" s="54"/>
-      <c r="F19" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>382</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>1320</v>
-      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="54" t="s">
-        <v>1320</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="M19" s="54" t="s">
-        <v>1321</v>
-      </c>
-      <c r="N19" s="54" t="s">
-        <v>1322</v>
-      </c>
-      <c r="O19" s="54" t="s">
-        <v>1323</v>
-      </c>
-      <c r="P19" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q19" s="54" t="s">
-        <v>1324</v>
-      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
       <c r="V19" s="56"/>
     </row>
@@ -8694,51 +7717,21 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="61" t="s">
-        <v>1194</v>
-      </c>
-      <c r="N21" s="61" t="s">
-        <v>1195</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P21" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="61" t="s">
-        <v>1197</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>30</v>
-      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
       <c r="S21" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8769,45 +7762,21 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>1326</v>
-      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="54"/>
-      <c r="H23" s="54" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>1328</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K23" s="54" t="s">
-        <v>54</v>
-      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
-        <v>1326</v>
-      </c>
-      <c r="N23" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="O23" s="54" t="s">
-        <v>472</v>
-      </c>
-      <c r="P23" s="54" t="s">
-        <v>1330</v>
-      </c>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
-      <c r="R23" s="54" t="s">
-        <v>1331</v>
-      </c>
+      <c r="R23" s="54"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -8835,51 +7804,21 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N25" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>1201</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Q25" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>1203</v>
-      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8910,47 +7849,21 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>1332</v>
-      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="54"/>
-      <c r="G27" s="54" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H27" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>483</v>
-      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="54"/>
-      <c r="K27" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="L27" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="54" t="s">
-        <v>1333</v>
-      </c>
-      <c r="N27" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="54" t="s">
-        <v>1299</v>
-      </c>
-      <c r="P27" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q27" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="R27" s="54" t="s">
-        <v>1334</v>
-      </c>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -8986,51 +7899,21 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>1205</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="P29" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>1206</v>
-      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -9069,47 +7952,21 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>381</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>422</v>
-      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="54"/>
-      <c r="I31" s="54" t="s">
-        <v>457</v>
-      </c>
-      <c r="J31" s="54" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K31" s="54" t="s">
-        <v>1328</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>364</v>
-      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="54"/>
-      <c r="N31" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="O31" s="54" t="s">
-        <v>1337</v>
-      </c>
-      <c r="P31" s="54" t="s">
-        <v>1338</v>
-      </c>
-      <c r="Q31" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="R31" s="54" t="s">
-        <v>1339</v>
-      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -9145,51 +8002,21 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="O33" s="61" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P33" s="61" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Q33" s="61" t="s">
-        <v>1211</v>
-      </c>
-      <c r="R33" s="61" t="s">
-        <v>1212</v>
-      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
       <c r="S33" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -9220,18 +8047,10 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>1340</v>
-      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
@@ -9270,26 +8089,12 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
@@ -9329,49 +8134,21 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="54" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>468</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>1400</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>395</v>
-      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
       <c r="L39" s="54"/>
-      <c r="M39" s="54" t="s">
-        <v>1402</v>
-      </c>
-      <c r="N39" s="54" t="s">
-        <v>1319</v>
-      </c>
-      <c r="O39" s="54" t="s">
-        <v>1341</v>
-      </c>
-      <c r="P39" s="54" t="s">
-        <v>1342</v>
-      </c>
-      <c r="Q39" s="54" t="s">
-        <v>1339</v>
-      </c>
-      <c r="R39" s="54" t="s">
-        <v>304</v>
-      </c>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
       <c r="V39" s="56"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9399,51 +8176,21 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>1216</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="61" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N41" s="61" t="s">
-        <v>1191</v>
-      </c>
-      <c r="O41" s="61" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P41" s="61" t="s">
-        <v>1219</v>
-      </c>
-      <c r="Q41" s="61" t="s">
-        <v>1212</v>
-      </c>
-      <c r="R41" s="61" t="s">
-        <v>1220</v>
-      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
       <c r="S41" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -9475,44 +8222,20 @@
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
       <c r="D43" s="54"/>
-      <c r="E43" s="54" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>1305</v>
-      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="54"/>
-      <c r="I43" s="54" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J43" s="54" t="s">
-        <v>1343</v>
-      </c>
-      <c r="K43" s="54" t="s">
-        <v>381</v>
-      </c>
-      <c r="L43" s="54" t="s">
-        <v>338</v>
-      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
       <c r="M43" s="54"/>
-      <c r="N43" s="54" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O43" s="54" t="s">
-        <v>1344</v>
-      </c>
-      <c r="P43" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q43" s="54" t="s">
-        <v>1298</v>
-      </c>
-      <c r="R43" s="54" t="s">
-        <v>1404</v>
-      </c>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
       <c r="V43" s="56"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9540,51 +8263,21 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J45" s="61" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="M45" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Q45" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="R45" s="61" t="s">
-        <v>1226</v>
-      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
       <c r="S45" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -9615,42 +8308,20 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>351</v>
-      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="54"/>
-      <c r="G47" s="54" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H47" s="54" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>1347</v>
-      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="L47" s="54" t="s">
-        <v>1348</v>
-      </c>
-      <c r="M47" s="54" t="s">
-        <v>1349</v>
-      </c>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
       <c r="N47" s="54"/>
-      <c r="O47" s="54" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P47" s="54" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q47" s="54" t="s">
-        <v>1297</v>
-      </c>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
       <c r="V47" s="56"/>
     </row>
@@ -9679,51 +8350,21 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J49" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>1230</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>1231</v>
-      </c>
-      <c r="M49" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="O49" s="61" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P49" s="61" t="s">
-        <v>1234</v>
-      </c>
-      <c r="Q49" s="61" t="s">
-        <v>1235</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>23</v>
-      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
       <c r="S49" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -9754,47 +8395,21 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>440</v>
-      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="54" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L51" s="54" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M51" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="N51" s="54" t="s">
-        <v>410</v>
-      </c>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
       <c r="O51" s="54"/>
-      <c r="P51" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q51" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="R51" s="54" t="s">
-        <v>421</v>
-      </c>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9822,51 +8437,21 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J53" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="61" t="s">
-        <v>1237</v>
-      </c>
-      <c r="L53" s="61" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M53" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="N53" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="O53" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P53" s="61" t="s">
-        <v>1239</v>
-      </c>
-      <c r="Q53" s="61" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R53" s="61" t="s">
-        <v>210</v>
-      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
       <c r="S53" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -9897,47 +8482,21 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="54" t="s">
-        <v>1353</v>
-      </c>
+      <c r="D55" s="54"/>
       <c r="E55" s="54"/>
-      <c r="F55" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>1333</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J55" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="K55" s="54" t="s">
-        <v>1354</v>
-      </c>
-      <c r="L55" s="54" t="s">
-        <v>1297</v>
-      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
       <c r="M55" s="54"/>
-      <c r="N55" s="54" t="s">
-        <v>457</v>
-      </c>
-      <c r="O55" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="P55" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="Q55" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="R55" s="54" t="s">
-        <v>338</v>
-      </c>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
       <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9965,51 +8524,21 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="61" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="61" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J57" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="O57" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="P57" s="61" t="s">
-        <v>1245</v>
-      </c>
-      <c r="Q57" s="61" t="s">
-        <v>1246</v>
-      </c>
-      <c r="R57" s="61" t="s">
-        <v>108</v>
-      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
       <c r="S57" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -10040,45 +8569,21 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54" t="s">
-        <v>1355</v>
-      </c>
+      <c r="D59" s="54"/>
       <c r="E59" s="54"/>
-      <c r="F59" s="54" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>1355</v>
-      </c>
-      <c r="I59" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="J59" s="54" t="s">
-        <v>1356</v>
-      </c>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
       <c r="K59" s="54"/>
-      <c r="L59" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M59" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="N59" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="O59" s="54" t="s">
-        <v>368</v>
-      </c>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
       <c r="P59" s="54"/>
-      <c r="Q59" s="54" t="s">
-        <v>1357</v>
-      </c>
-      <c r="R59" s="54" t="s">
-        <v>1297</v>
-      </c>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
       <c r="V59" s="56"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10106,51 +8611,21 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="G61" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" s="61" t="s">
-        <v>1247</v>
-      </c>
-      <c r="K61" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="61" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M61" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="N61" s="61" t="s">
-        <v>1249</v>
-      </c>
-      <c r="O61" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="P61" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q61" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="R61" s="61" t="s">
-        <v>1250</v>
-      </c>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
       <c r="S61" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -10181,45 +8656,21 @@
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="54" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>1358</v>
-      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
       <c r="F63" s="54"/>
-      <c r="G63" s="54" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I63" s="54" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J63" s="54" t="s">
-        <v>399</v>
-      </c>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
       <c r="K63" s="54"/>
-      <c r="L63" s="54" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M63" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="N63" s="54" t="s">
-        <v>1363</v>
-      </c>
-      <c r="O63" s="54" t="s">
-        <v>363</v>
-      </c>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
       <c r="P63" s="54"/>
-      <c r="Q63" s="54" t="s">
-        <v>1364</v>
-      </c>
-      <c r="R63" s="54" t="s">
-        <v>1365</v>
-      </c>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
       <c r="V63" s="56"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10247,51 +8698,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H65" s="61" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="61" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M65" s="61" t="s">
-        <v>1255</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>1256</v>
-      </c>
-      <c r="O65" s="61" t="s">
-        <v>1257</v>
-      </c>
-      <c r="P65" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q65" s="61" t="s">
-        <v>1258</v>
-      </c>
-      <c r="R65" s="61" t="s">
-        <v>158</v>
-      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
       <c r="S65" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -10322,45 +8743,21 @@
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>396</v>
-      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="54"/>
-      <c r="G67" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H67" s="54" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I67" s="54" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J67" s="54" t="s">
-        <v>1368</v>
-      </c>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
       <c r="K67" s="54"/>
-      <c r="L67" s="54" t="s">
-        <v>1369</v>
-      </c>
-      <c r="M67" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="N67" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="O67" s="54" t="s">
-        <v>326</v>
-      </c>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
       <c r="P67" s="54"/>
-      <c r="Q67" s="54" t="s">
-        <v>1370</v>
-      </c>
-      <c r="R67" s="54" t="s">
-        <v>1326</v>
-      </c>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
       <c r="V67" s="56"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10388,51 +8785,21 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="61" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="F69" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" s="61" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H69" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J69" s="61" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K69" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L69" s="61" t="s">
-        <v>1263</v>
-      </c>
-      <c r="M69" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="N69" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="O69" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="P69" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q69" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="R69" s="61" t="s">
-        <v>1221</v>
-      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
     </row>
@@ -10459,47 +8826,21 @@
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="54" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E71" s="54" t="s">
-        <v>1372</v>
-      </c>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
       <c r="F71" s="54"/>
-      <c r="G71" s="54" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H71" s="54" t="s">
-        <v>1374</v>
-      </c>
-      <c r="I71" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="J71" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71" s="54" t="s">
-        <v>1305</v>
-      </c>
-      <c r="L71" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="M71" s="54" t="s">
-        <v>1340</v>
-      </c>
-      <c r="N71" s="54" t="s">
-        <v>1375</v>
-      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
       <c r="O71" s="54"/>
-      <c r="P71" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q71" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="R71" s="54" t="s">
-        <v>1376</v>
-      </c>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
       <c r="V71" s="56"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10527,51 +8868,21 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="61" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J73" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="K73" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="L73" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="M73" s="61" t="s">
-        <v>1213</v>
-      </c>
-      <c r="N73" s="61" t="s">
-        <v>1265</v>
-      </c>
-      <c r="O73" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P73" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q73" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="R73" s="61" t="s">
-        <v>1266</v>
-      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
     </row>
@@ -10598,47 +8909,21 @@
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>1377</v>
-      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
       <c r="G75" s="54"/>
-      <c r="H75" s="54" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I75" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="J75" s="54" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K75" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="L75" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M75" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="N75" s="54" t="s">
-        <v>316</v>
-      </c>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
       <c r="O75" s="54"/>
-      <c r="P75" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q75" s="54" t="s">
-        <v>1364</v>
-      </c>
-      <c r="R75" s="54" t="s">
-        <v>1365</v>
-      </c>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
       <c r="V75" s="56"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10666,51 +8951,21 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="61" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E77" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G77" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" s="61" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I77" s="61" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J77" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="K77" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" s="61" t="s">
-        <v>1270</v>
-      </c>
-      <c r="M77" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="N77" s="61" t="s">
-        <v>1271</v>
-      </c>
-      <c r="O77" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P77" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q77" s="61" t="s">
-        <v>1258</v>
-      </c>
-      <c r="R77" s="61" t="s">
-        <v>158</v>
-      </c>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
     </row>
@@ -10737,47 +8992,21 @@
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>355</v>
-      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
       <c r="F79" s="54"/>
-      <c r="G79" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="I79" s="54" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J79" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="K79" s="54" t="s">
-        <v>1380</v>
-      </c>
-      <c r="L79" s="54" t="s">
-        <v>1381</v>
-      </c>
-      <c r="M79" s="54" t="s">
-        <v>422</v>
-      </c>
-      <c r="N79" s="54" t="s">
-        <v>437</v>
-      </c>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
       <c r="O79" s="54"/>
-      <c r="P79" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q79" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="R79" s="54" t="s">
-        <v>469</v>
-      </c>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
       <c r="V79" s="56"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10805,51 +9034,21 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="I81" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="J81" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="K81" s="61" t="s">
-        <v>1272</v>
-      </c>
-      <c r="L81" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="M81" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="N81" s="61" t="s">
-        <v>1273</v>
-      </c>
-      <c r="O81" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P81" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q81" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="R81" s="61" t="s">
-        <v>1211</v>
-      </c>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
     </row>
@@ -10876,45 +9075,21 @@
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>1308</v>
-      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
       <c r="G83" s="54"/>
-      <c r="H83" s="54" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I83" s="54" t="s">
-        <v>1297</v>
-      </c>
-      <c r="J83" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="K83" s="54" t="s">
-        <v>1383</v>
-      </c>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
       <c r="L83" s="54"/>
-      <c r="M83" s="54" t="s">
-        <v>1384</v>
-      </c>
-      <c r="N83" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="O83" s="54" t="s">
-        <v>1385</v>
-      </c>
-      <c r="P83" s="54" t="s">
-        <v>1320</v>
-      </c>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
       <c r="Q83" s="54"/>
-      <c r="R83" s="54" t="s">
-        <v>387</v>
-      </c>
+      <c r="R83" s="54"/>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10942,51 +9117,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="61" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F85" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="61" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J85" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="K85" s="61" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L85" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M85" s="61" t="s">
-        <v>1277</v>
-      </c>
-      <c r="N85" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="O85" s="61" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P85" s="61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q85" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="R85" s="61" t="s">
-        <v>168</v>
-      </c>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
     </row>
@@ -11013,44 +9158,20 @@
     <row r="87" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="E87" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="F87" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="G87" s="54" t="s">
-        <v>1306</v>
-      </c>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="54"/>
-      <c r="I87" s="54" t="s">
-        <v>1386</v>
-      </c>
-      <c r="J87" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="K87" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="L87" s="54" t="s">
-        <v>1407</v>
-      </c>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
       <c r="M87" s="54"/>
-      <c r="N87" s="54" t="s">
-        <v>1387</v>
-      </c>
-      <c r="O87" s="54" t="s">
-        <v>1314</v>
-      </c>
-      <c r="P87" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q87" s="54" t="s">
-        <v>49</v>
-      </c>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
       <c r="R87" s="54"/>
       <c r="V87" s="34"/>
     </row>
@@ -11079,51 +9200,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E89" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H89" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="61" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J89" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="K89" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="L89" s="61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="M89" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N89" s="61" t="s">
-        <v>1167</v>
-      </c>
-      <c r="O89" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="P89" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q89" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" s="61" t="s">
-        <v>23</v>
-      </c>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
     </row>
@@ -11150,47 +9241,21 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="54" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F91" s="54" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G91" s="54" t="s">
-        <v>1388</v>
-      </c>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="54"/>
-      <c r="I91" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="J91" s="54" t="s">
-        <v>1389</v>
-      </c>
-      <c r="K91" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="L91" s="54" t="s">
-        <v>1390</v>
-      </c>
-      <c r="M91" s="54" t="s">
-        <v>483</v>
-      </c>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
       <c r="N91" s="54"/>
-      <c r="O91" s="54" t="s">
-        <v>1391</v>
-      </c>
-      <c r="P91" s="54" t="s">
-        <v>1392</v>
-      </c>
-      <c r="Q91" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="R91" s="54" t="s">
-        <v>1407</v>
-      </c>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54"/>
+      <c r="R91" s="54"/>
       <c r="V91" s="34"/>
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -11218,51 +9283,21 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="61" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G93" s="61" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H93" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I93" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J93" s="61" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K93" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="L93" s="61" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M93" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="N93" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="O93" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="P93" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="Q93" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="R93" s="61" t="s">
-        <v>1285</v>
-      </c>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="61"/>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
     </row>
@@ -11290,46 +9325,20 @@
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
       <c r="D95" s="54"/>
-      <c r="E95" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="F95" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="G95" s="54" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H95" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="I95" s="54" t="s">
-        <v>1408</v>
-      </c>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
       <c r="J95" s="54"/>
-      <c r="K95" s="54" t="s">
-        <v>1373</v>
-      </c>
-      <c r="L95" s="54" t="s">
-        <v>1374</v>
-      </c>
-      <c r="M95" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="N95" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="O95" s="54" t="s">
-        <v>1394</v>
-      </c>
-      <c r="P95" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q95" s="54" t="s">
-        <v>1337</v>
-      </c>
-      <c r="R95" s="54" t="s">
-        <v>1338</v>
-      </c>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54"/>
       <c r="V95" s="34"/>
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -11357,51 +9366,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="G97" s="61" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H97" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="I97" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J97" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="L97" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="M97" s="61" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N97" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="O97" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="P97" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q97" s="61" t="s">
-        <v>1209</v>
-      </c>
-      <c r="R97" s="61" t="s">
-        <v>1210</v>
-      </c>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="61"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="61"/>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
     </row>
@@ -11428,44 +9407,20 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="54" t="s">
-        <v>437</v>
-      </c>
+      <c r="D99" s="54"/>
       <c r="E99" s="54"/>
-      <c r="F99" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="G99" s="54" t="s">
-        <v>455</v>
-      </c>
-      <c r="H99" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="I99" s="54" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J99" s="54" t="s">
-        <v>1338</v>
-      </c>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
       <c r="K99" s="54"/>
-      <c r="L99" s="54" t="s">
-        <v>1395</v>
-      </c>
-      <c r="M99" s="54" t="s">
-        <v>1296</v>
-      </c>
-      <c r="N99" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="O99" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="P99" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q99" s="54" t="s">
-        <v>49</v>
-      </c>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
       <c r="R99" s="54"/>
       <c r="V99" s="34"/>
     </row>
@@ -11494,51 +9449,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="G101" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H101" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I101" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="J101" s="61" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K101" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L101" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="M101" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="N101" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="O101" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="P101" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q101" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="R101" s="61" t="s">
-        <v>30</v>
-      </c>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="61"/>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
     </row>
@@ -11565,28 +9490,14 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="54" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E103" s="54" t="s">
-        <v>60</v>
-      </c>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="54"/>
-      <c r="G103" s="54" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H103" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I103" s="54" t="s">
-        <v>1370</v>
-      </c>
-      <c r="J103" s="54" t="s">
-        <v>1398</v>
-      </c>
-      <c r="K103" s="54" t="s">
-        <v>364</v>
-      </c>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
       <c r="L103" s="54"/>
       <c r="M103" s="54"/>
       <c r="N103" s="54"/>
@@ -11621,38 +9532,16 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F105" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" s="61" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H105" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="I105" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="J105" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="K105" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="L105" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="M105" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
       <c r="N105" s="61"/>
       <c r="O105" s="61"/>
       <c r="P105" s="61"/>
@@ -11726,9 +9615,7 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61" t="s">
-        <v>38</v>
-      </c>
+      <c r="D109" s="61"/>
       <c r="E109" s="61"/>
       <c r="F109" s="61"/>
       <c r="G109" s="61"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D2303B-271D-4A78-A6C1-F7A38ED1C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35AB2089-736F-4E3C-9B0C-9C13070E8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1169">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4007,6 +4007,12 @@
   </si>
   <si>
     <t>白話音</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自余為僇人，居是州，恆惴慄。其隟也，則施施而行，漫漫而游。日與其徒上高山，入深林，窮迴谿，幽泉怪石，無遠不到。到則披草而坐，傾壺而醉，醉則更相枕以臥。臥而夢，意有所極，夢亦同趣。覺而起，起而歸，以為凡是州之山水有異態者，皆我有也，而未始知西山之怪特。
+今年九月二十八日，因坐法華西亭，望西山，始指異之。遂命僕人過湘江，緣染溪，斫榛莽，焚茅茷，窮山之高而止。攀援而登，箕踞而遨，則凡數州之土壤，皆在袵席之下。其高下之勢，岈然窪然，若垤若穴，尺寸千里。攢蹙累積，莫得遯隱。縈青繚白，外與天際，四望如一。然後知是山之特立，不與培塿為類。悠悠乎與顥氣俱，而莫得其涯，洋洋乎與造物者遊，而不知其所窮。引觴滿酌，頹然就醉，不知日之入。蒼然暮色，自遠而至，至無所見，而猶不欲歸。心凝形釋，與萬化冥合。然後知吾嚮之未始游，游於是乎始。故為之文以志。是歲，元和四年也。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4408,7 +4414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4600,6 +4606,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7318,7 +7327,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -7340,7 +7349,9 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55"/>
+      <c r="V3" s="55" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
@@ -8153,7 +8164,7 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="60"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35AB2089-736F-4E3C-9B0C-9C13070E8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C688E89F-24BB-4458-AA7D-BC880968E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4007,12 +4007,6 @@
   </si>
   <si>
     <t>白話音</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自余為僇人，居是州，恆惴慄。其隟也，則施施而行，漫漫而游。日與其徒上高山，入深林，窮迴谿，幽泉怪石，無遠不到。到則披草而坐，傾壺而醉，醉則更相枕以臥。臥而夢，意有所極，夢亦同趣。覺而起，起而歸，以為凡是州之山水有異態者，皆我有也，而未始知西山之怪特。
-今年九月二十八日，因坐法華西亭，望西山，始指異之。遂命僕人過湘江，緣染溪，斫榛莽，焚茅茷，窮山之高而止。攀援而登，箕踞而遨，則凡數州之土壤，皆在袵席之下。其高下之勢，岈然窪然，若垤若穴，尺寸千里。攢蹙累積，莫得遯隱。縈青繚白，外與天際，四望如一。然後知是山之特立，不與培塿為類。悠悠乎與顥氣俱，而莫得其涯，洋洋乎與造物者遊，而不知其所窮。引觴滿酌，頹然就醉，不知日之入。蒼然暮色，自遠而至，至無所見，而猶不欲歸。心凝形釋，與萬化冥合。然後知吾嚮之未始游，游於是乎始。故為之文以志。是歲，元和四年也。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7218,7 +7212,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -7327,7 +7324,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -7349,9 +7346,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55" t="s">
-        <v>1168</v>
-      </c>
+      <c r="V3" s="55"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C688E89F-24BB-4458-AA7D-BC880968E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA2AAB6-CBE3-43B6-BBE2-1473533B635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -4598,11 +4598,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4612,7 +4612,151 @@
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{35CF4CF4-6C05-4C83-A404-416353358D27}"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="184">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7013,7 +7157,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7213,7 +7357,7 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -8159,7 +8303,7 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="64"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
@@ -9704,21 +9848,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="63"/>
-      <c r="K113" s="63"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="63"/>
-      <c r="N113" s="63"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="63"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="63"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="64"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="64"/>
+      <c r="N113" s="64"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="64"/>
       <c r="S113" s="20"/>
       <c r="V113" s="7"/>
     </row>
@@ -17068,14 +17212,62 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="171" priority="98">
+    <cfRule type="expression" dxfId="183" priority="110">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="97">
+    <cfRule type="expression" dxfId="182" priority="109">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="181" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="69">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="179" priority="67">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="177" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="65">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:H19 J19:R19">
+    <cfRule type="expression" dxfId="175" priority="63">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="64">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="expression" dxfId="173" priority="61">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="62">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:M27 O27:R27">
+    <cfRule type="expression" dxfId="171" priority="59">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="60">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:I31 K31:R31">
     <cfRule type="expression" dxfId="169" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -17083,15 +17275,15 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="167" priority="55">
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="167" priority="56">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="56">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
+  <conditionalFormatting sqref="D39:R39">
     <cfRule type="expression" dxfId="165" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -17099,15 +17291,15 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="163" priority="51">
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="163" priority="52">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="52">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23">
+  <conditionalFormatting sqref="D47:N47 P47:R47">
     <cfRule type="expression" dxfId="161" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17115,7 +17307,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:R27">
+  <conditionalFormatting sqref="D51:F51 H51:I51 K51:R51">
     <cfRule type="expression" dxfId="159" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17123,23 +17315,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="157" priority="46">
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="expression" dxfId="157" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="45">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:R59">
+    <cfRule type="expression" dxfId="155" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="155" priority="44">
+    <cfRule type="expression" dxfId="154" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="43">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:R39">
+  <conditionalFormatting sqref="D63:R63">
     <cfRule type="expression" dxfId="153" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -17147,15 +17339,15 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="151" priority="40">
+  <conditionalFormatting sqref="D67:R67">
+    <cfRule type="expression" dxfId="151" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="39">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:R47">
+  <conditionalFormatting sqref="D71:R71">
     <cfRule type="expression" dxfId="149" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17163,23 +17355,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="147" priority="35">
+  <conditionalFormatting sqref="D75:R75">
+    <cfRule type="expression" dxfId="147" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="36">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:R79">
+    <cfRule type="expression" dxfId="145" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="145" priority="33">
+    <cfRule type="expression" dxfId="144" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:R59">
+  <conditionalFormatting sqref="D83:R83">
     <cfRule type="expression" dxfId="143" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17187,15 +17379,15 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="141" priority="30">
+  <conditionalFormatting sqref="D87:R87">
+    <cfRule type="expression" dxfId="141" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="29">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:R67">
+  <conditionalFormatting sqref="D91:R91">
     <cfRule type="expression" dxfId="139" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17203,23 +17395,23 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="137" priority="25">
+  <conditionalFormatting sqref="D95:R95">
+    <cfRule type="expression" dxfId="137" priority="26">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="26">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:R99">
+    <cfRule type="expression" dxfId="135" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="135" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="23">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:R79">
+  <conditionalFormatting sqref="D103:R103">
     <cfRule type="expression" dxfId="133" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
@@ -17227,15 +17419,15 @@
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="131" priority="19">
+  <conditionalFormatting sqref="D107:R107">
+    <cfRule type="expression" dxfId="131" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:R87">
+  <conditionalFormatting sqref="D111:R111">
     <cfRule type="expression" dxfId="129" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17243,7 +17435,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91:R91">
+  <conditionalFormatting sqref="D115:R115">
     <cfRule type="expression" dxfId="127" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17251,103 +17443,103 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="125" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="13">
+  <conditionalFormatting sqref="D119:R119">
+    <cfRule type="expression" dxfId="125" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="123" priority="11">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="121" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="9">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="119" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="7">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="117" priority="5">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="115" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="113" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="2">
+    <cfRule type="expression" dxfId="124" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="111" priority="144">
+    <cfRule type="expression" dxfId="123" priority="156">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="143">
+    <cfRule type="expression" dxfId="122" priority="155">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="109" priority="142">
+    <cfRule type="expression" dxfId="121" priority="154">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="141">
+    <cfRule type="expression" dxfId="120" priority="153">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="107" priority="140">
+    <cfRule type="expression" dxfId="119" priority="152">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="139">
+    <cfRule type="expression" dxfId="118" priority="151">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="105" priority="138">
+    <cfRule type="expression" dxfId="117" priority="150">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="137">
+    <cfRule type="expression" dxfId="116" priority="149">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="103" priority="94">
+    <cfRule type="expression" dxfId="115" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="93">
+    <cfRule type="expression" dxfId="114" priority="105">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
+    <cfRule type="expression" dxfId="113" priority="103">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="104">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D283:R283">
+    <cfRule type="expression" dxfId="111" priority="101">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="102">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D287:R287">
+    <cfRule type="expression" dxfId="109" priority="99">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="100">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
+    <cfRule type="expression" dxfId="107" priority="97">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D327:R327">
+    <cfRule type="expression" dxfId="105" priority="95">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="96">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D331:R331">
+    <cfRule type="expression" dxfId="103" priority="93">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
     <cfRule type="expression" dxfId="101" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17355,7 +17547,7 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D283:R283">
+  <conditionalFormatting sqref="D371:R371">
     <cfRule type="expression" dxfId="99" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
@@ -17363,115 +17555,115 @@
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="97" priority="87">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="88">
+  <conditionalFormatting sqref="D375:R375">
+    <cfRule type="expression" dxfId="97" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="95" priority="85">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="86">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="93" priority="83">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="84">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="91" priority="81">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="82">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="89" priority="79">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="80">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="87" priority="77">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="78">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="85" priority="76">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="75">
+    <cfRule type="expression" dxfId="96" priority="87">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="83" priority="74">
+    <cfRule type="expression" dxfId="95" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="73">
+    <cfRule type="expression" dxfId="94" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="81" priority="72">
+    <cfRule type="expression" dxfId="93" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="71">
+    <cfRule type="expression" dxfId="92" priority="83">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="79" priority="70">
+    <cfRule type="expression" dxfId="91" priority="82">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="69">
+    <cfRule type="expression" dxfId="90" priority="81">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="77" priority="68">
+    <cfRule type="expression" dxfId="89" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="67">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="75" priority="63">
+    <cfRule type="expression" dxfId="87" priority="75">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="86" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="73" priority="61">
+    <cfRule type="expression" dxfId="85" priority="73">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="62">
+    <cfRule type="expression" dxfId="84" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="71" priority="59">
+    <cfRule type="expression" dxfId="83" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="60">
+    <cfRule type="expression" dxfId="82" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29107,282 +29299,282 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="69" priority="60">
+    <cfRule type="expression" dxfId="81" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="59">
+    <cfRule type="expression" dxfId="80" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="79" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="78" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="65" priority="55">
+    <cfRule type="expression" dxfId="77" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="56">
+    <cfRule type="expression" dxfId="76" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="75" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="74" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="61" priority="52">
+    <cfRule type="expression" dxfId="73" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="51">
+    <cfRule type="expression" dxfId="72" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="71" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="70" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="69" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="68" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="55" priority="46">
+    <cfRule type="expression" dxfId="67" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="45">
+    <cfRule type="expression" dxfId="66" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="65" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="64" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="63" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="62" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="49" priority="40">
+    <cfRule type="expression" dxfId="61" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="59" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="58" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="57" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="43" priority="34">
+    <cfRule type="expression" dxfId="55" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="54" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="53" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="51" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="29">
+    <cfRule type="expression" dxfId="50" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="47" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="45" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="44" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="43" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="42" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="41" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="39" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="36" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="33" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="31" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="29" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143">
-    <cfRule type="expression" dxfId="9" priority="61">
+    <cfRule type="expression" dxfId="21" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="62">
+    <cfRule type="expression" dxfId="20" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="7" priority="109">
+    <cfRule type="expression" dxfId="19" priority="109">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="110">
+    <cfRule type="expression" dxfId="18" priority="110">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="5" priority="107">
+    <cfRule type="expression" dxfId="17" priority="107">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="108">
+    <cfRule type="expression" dxfId="16" priority="108">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="3" priority="105">
+    <cfRule type="expression" dxfId="15" priority="105">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="106">
+    <cfRule type="expression" dxfId="14" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="1" priority="103">
+    <cfRule type="expression" dxfId="13" priority="103">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="104">
+    <cfRule type="expression" dxfId="12" priority="104">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output7/_working.xlsx
+++ b/output7/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA2AAB6-CBE3-43B6-BBE2-1473533B635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED794EC-A537-4C05-8F0C-8F917E5745E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1306">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4006,14 +4006,567 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白話音</t>
+    <t>文讀音</t>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生不知何許人也，亦不詳其姓字，宅邊有五柳樹，因以為號焉。閑靜少言，不慕榮利。好讀書，不求甚解；每有會意，便欣然忘食。性嗜酒，家貧不能常得。親舊知其如此，或置酒而招之；造飲輒盡，期在必醉。既醉而退，曾不吝情去留。環堵蕭然，不蔽風日；短褐穿結，簞瓢屢空，晏如也。常著文章自娛，頗示己志。忘懷得失，以此自終。
+贊曰：黔婁之妻有言：「不戚戚於貧賤，不汲汲於富貴。」其言茲若人之儔乎？銜觴賦詩，以樂其志，無懷氏之民歟？葛天氏之民歟？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4304,6 +4857,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF9933"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4408,7 +4972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4598,11 +5162,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4612,151 +5183,7 @@
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{35CF4CF4-6C05-4C83-A404-416353358D27}"/>
   </cellStyles>
-  <dxfs count="184">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="172">
     <dxf>
       <font>
         <b/>
@@ -7157,7 +7584,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7328,7 +7755,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E6D0CEF8-433B-44D1-9BB1-92BE13C5E787}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
@@ -7357,8 +7784,8 @@
   <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7468,47 +7895,49 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55"/>
+      <c r="V3" s="55" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
     </row>
@@ -7516,21 +7945,51 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="D5" s="61" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>1180</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>1181</v>
+      </c>
       <c r="S5" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -7562,41 +8021,41 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
     </row>
@@ -7605,21 +8064,51 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
+      <c r="D9" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>1191</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>1194</v>
+      </c>
       <c r="S9" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -7651,40 +8140,40 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
       <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
       <c r="S12" s="18"/>
       <c r="V12" s="56"/>
     </row>
@@ -7693,21 +8182,51 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="D13" s="61" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>1204</v>
+      </c>
       <c r="S13" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -7738,40 +8257,40 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
     </row>
@@ -7780,21 +8299,51 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="D17" s="61" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>1216</v>
+      </c>
       <c r="S17" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -7825,40 +8374,40 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
     </row>
@@ -7867,21 +8416,51 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="D21" s="61" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>1226</v>
+      </c>
       <c r="S21" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -7912,40 +8491,40 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
     </row>
@@ -7954,21 +8533,51 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
+      <c r="D25" s="61" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>1237</v>
+      </c>
       <c r="S25" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -7999,21 +8608,21 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -8022,21 +8631,21 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8049,21 +8658,51 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
+      <c r="D29" s="61" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="O29" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P29" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R29" s="61" t="s">
+        <v>1247</v>
+      </c>
       <c r="S29" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8102,21 +8741,21 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8125,21 +8764,21 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8152,21 +8791,51 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
+      <c r="D33" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M33" s="61" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N33" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O33" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P33" s="61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q33" s="61" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R33" s="61" t="s">
+        <v>1257</v>
+      </c>
       <c r="S33" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8197,40 +8866,40 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
       <c r="V35" s="56"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
       <c r="S36" s="18"/>
       <c r="V36" s="56"/>
     </row>
@@ -8239,21 +8908,51 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
+      <c r="D37" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O37" s="61" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P37" s="61" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q37" s="61" t="s">
+        <v>1265</v>
+      </c>
+      <c r="R37" s="61" t="s">
+        <v>1266</v>
+      </c>
       <c r="S37" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8284,40 +8983,40 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
       <c r="V39" s="56"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
       <c r="S40" s="18"/>
       <c r="V40" s="56"/>
     </row>
@@ -8326,21 +9025,51 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
+      <c r="D41" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K41" s="61" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L41" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="P41" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q41" s="61" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R41" s="61" t="s">
+        <v>1266</v>
+      </c>
       <c r="S41" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8371,9 +9100,9 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
@@ -8390,9 +9119,9 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
@@ -8413,9 +9142,17 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="61" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F45" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="G45" s="61"/>
       <c r="H45" s="61"/>
       <c r="I45" s="61"/>
@@ -8458,40 +9195,40 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
       <c r="V47" s="56"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
       <c r="S48" s="18"/>
       <c r="V48" s="56"/>
     </row>
@@ -8500,21 +9237,51 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
+      <c r="D49" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>1281</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P49" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="Q49" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="R49" s="61" t="s">
+        <v>1283</v>
+      </c>
       <c r="S49" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8545,40 +9312,40 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
     </row>
@@ -8587,21 +9354,51 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
+      <c r="D53" s="61" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K53" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L53" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M53" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N53" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="O53" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="P53" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q53" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="R53" s="61" t="s">
+        <v>1290</v>
+      </c>
       <c r="S53" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8632,40 +9429,40 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
       <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
       <c r="S56" s="18"/>
       <c r="V56" s="56"/>
     </row>
@@ -8674,21 +9471,51 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
+      <c r="D57" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H57" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J57" s="61" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K57" s="61" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M57" s="61" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N57" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O57" s="61" t="s">
+        <v>1297</v>
+      </c>
+      <c r="P57" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q57" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="R57" s="61" t="s">
+        <v>1176</v>
+      </c>
       <c r="S57" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8719,40 +9546,40 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
       <c r="V59" s="56"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
       <c r="S60" s="18"/>
       <c r="V60" s="56"/>
     </row>
@@ -8761,21 +9588,53 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
+      <c r="D61" s="61" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G61" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H61" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I61" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M61" s="61" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N61" s="61" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O61" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P61" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Q61" s="61" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R61" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S61" s="20" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
@@ -8848,7 +9707,9 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61"/>
+      <c r="D65" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
       <c r="G65" s="61"/>
@@ -8935,7 +9796,9 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="61"/>
+      <c r="D69" s="61" t="s">
+        <v>1304</v>
+      </c>
       <c r="E69" s="61"/>
       <c r="F69" s="61"/>
       <c r="G69" s="61"/>
@@ -9848,21 +10711,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="64"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="64"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="63"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
+      <c r="O113" s="63"/>
+      <c r="P113" s="63"/>
+      <c r="Q113" s="63"/>
+      <c r="R113" s="63"/>
       <c r="S113" s="20"/>
       <c r="V113" s="7"/>
     </row>
@@ -17212,459 +18075,411 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="183" priority="110">
+    <cfRule type="expression" dxfId="171" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="109">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="169" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="167" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="71">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="181" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="69">
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="165" priority="69">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="179" priority="67">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="68">
+    <cfRule type="expression" dxfId="164" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="177" priority="66">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="65">
+  <conditionalFormatting sqref="D19:R19">
+    <cfRule type="expression" dxfId="163" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:H19 J19:R19">
-    <cfRule type="expression" dxfId="175" priority="63">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="64">
+    <cfRule type="expression" dxfId="162" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="173" priority="61">
+    <cfRule type="expression" dxfId="161" priority="66">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="65">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="62">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="159" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:M27 O27:R27">
-    <cfRule type="expression" dxfId="171" priority="59">
+  <conditionalFormatting sqref="D31:R31">
+    <cfRule type="expression" dxfId="157" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="60">
+    <cfRule type="expression" dxfId="156" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:I31 K31:R31">
-    <cfRule type="expression" dxfId="169" priority="58">
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="155" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="57">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="167" priority="56">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="55">
+    <cfRule type="expression" dxfId="154" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="165" priority="54">
+    <cfRule type="expression" dxfId="153" priority="57">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="53">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="163" priority="52">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="51">
+    <cfRule type="expression" dxfId="151" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:N47 P47:R47">
-    <cfRule type="expression" dxfId="161" priority="49">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="50">
+    <cfRule type="expression" dxfId="150" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:F51 H51:I51 K51:R51">
-    <cfRule type="expression" dxfId="159" priority="47">
+  <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="149" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="48">
+    <cfRule type="expression" dxfId="148" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:R51">
+    <cfRule type="expression" dxfId="147" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="157" priority="45">
+    <cfRule type="expression" dxfId="145" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="46">
+    <cfRule type="expression" dxfId="144" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="155" priority="43">
+    <cfRule type="expression" dxfId="143" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="44">
+    <cfRule type="expression" dxfId="142" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="153" priority="42">
+    <cfRule type="expression" dxfId="141" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="41">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="151" priority="39">
+    <cfRule type="expression" dxfId="139" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="40">
+    <cfRule type="expression" dxfId="138" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="149" priority="37">
+    <cfRule type="expression" dxfId="137" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="38">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:R75">
+    <cfRule type="expression" dxfId="135" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="147" priority="36">
+  <conditionalFormatting sqref="D79:R79">
+    <cfRule type="expression" dxfId="133" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="35">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="145" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="33">
+    <cfRule type="expression" dxfId="132" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="143" priority="31">
+    <cfRule type="expression" dxfId="131" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="32">
+    <cfRule type="expression" dxfId="130" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="141" priority="29">
+    <cfRule type="expression" dxfId="129" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="139" priority="27">
+    <cfRule type="expression" dxfId="127" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="28">
+    <cfRule type="expression" dxfId="126" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="137" priority="26">
+    <cfRule type="expression" dxfId="125" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="25">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="135" priority="23">
+    <cfRule type="expression" dxfId="123" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="24">
+    <cfRule type="expression" dxfId="122" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="133" priority="22">
+    <cfRule type="expression" dxfId="121" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="21">
+    <cfRule type="expression" dxfId="120" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="131" priority="20">
+    <cfRule type="expression" dxfId="119" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="19">
+    <cfRule type="expression" dxfId="118" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="129" priority="17">
+    <cfRule type="expression" dxfId="117" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="127" priority="15">
+    <cfRule type="expression" dxfId="115" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="16">
+    <cfRule type="expression" dxfId="114" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="125" priority="13">
+    <cfRule type="expression" dxfId="113" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="14">
+    <cfRule type="expression" dxfId="112" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="123" priority="156">
+    <cfRule type="expression" dxfId="111" priority="159">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="160">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="155">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="121" priority="154">
+    <cfRule type="expression" dxfId="109" priority="157">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="158">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="153">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="119" priority="152">
+    <cfRule type="expression" dxfId="107" priority="155">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="156">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="151">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="117" priority="150">
+    <cfRule type="expression" dxfId="105" priority="154">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="149">
+    <cfRule type="expression" dxfId="104" priority="153">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="115" priority="106">
+    <cfRule type="expression" dxfId="103" priority="109">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="110">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="105">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
+    <cfRule type="expression" dxfId="101" priority="108">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="107">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
-    <cfRule type="expression" dxfId="113" priority="103">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="104">
+  <conditionalFormatting sqref="D283:R283">
+    <cfRule type="expression" dxfId="99" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D283:R283">
-    <cfRule type="expression" dxfId="111" priority="101">
+    <cfRule type="expression" dxfId="98" priority="105">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="102">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:R287">
-    <cfRule type="expression" dxfId="109" priority="99">
+    <cfRule type="expression" dxfId="97" priority="104">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="103">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="100">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323">
-    <cfRule type="expression" dxfId="107" priority="97">
+    <cfRule type="expression" dxfId="95" priority="101">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="98">
+    <cfRule type="expression" dxfId="94" priority="102">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D327:R327">
-    <cfRule type="expression" dxfId="105" priority="95">
+    <cfRule type="expression" dxfId="93" priority="100">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="99">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="96">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D331:R331">
-    <cfRule type="expression" dxfId="103" priority="93">
+    <cfRule type="expression" dxfId="91" priority="97">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="94">
+    <cfRule type="expression" dxfId="90" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367">
-    <cfRule type="expression" dxfId="101" priority="91">
+    <cfRule type="expression" dxfId="89" priority="95">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="92">
+    <cfRule type="expression" dxfId="88" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D371:R371">
-    <cfRule type="expression" dxfId="99" priority="89">
+    <cfRule type="expression" dxfId="87" priority="93">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="90">
+    <cfRule type="expression" dxfId="86" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="97" priority="88">
+    <cfRule type="expression" dxfId="85" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="87">
+    <cfRule type="expression" dxfId="84" priority="91">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="95" priority="86">
+    <cfRule type="expression" dxfId="83" priority="90">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="85">
+    <cfRule type="expression" dxfId="82" priority="89">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="93" priority="84">
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="88">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="83">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="91" priority="82">
+    <cfRule type="expression" dxfId="79" priority="86">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="81">
+    <cfRule type="expression" dxfId="78" priority="85">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="89" priority="80">
+    <cfRule type="expression" dxfId="77" priority="83">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="84">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="79">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
-    <cfRule type="expression" dxfId="87" priority="75">
+    <cfRule type="expression" dxfId="75" priority="79">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="74" priority="80">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D463:R463 D467:R467 D471:R471 D475:R475">
-    <cfRule type="expression" dxfId="85" priority="73">
+    <cfRule type="expression" dxfId="73" priority="78">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="77">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479:R479">
-    <cfRule type="expression" dxfId="83" priority="71">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="72">
+    <cfRule type="expression" dxfId="71" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="70" priority="75">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29299,282 +30114,282 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="81" priority="60">
+    <cfRule type="expression" dxfId="69" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="59">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="79" priority="57">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="77" priority="55">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="56">
+    <cfRule type="expression" dxfId="64" priority="56">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="75" priority="54">
+    <cfRule type="expression" dxfId="63" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="53">
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="73" priority="52">
+    <cfRule type="expression" dxfId="61" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="51">
+    <cfRule type="expression" dxfId="60" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="71" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="69" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="47">
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="67" priority="46">
+    <cfRule type="expression" dxfId="55" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="65" priority="43">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="63" priority="42">
+    <cfRule type="expression" dxfId="51" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="41">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="61" priority="40">
+    <cfRule type="expression" dxfId="49" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="39">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="59" priority="37">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="57" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="36">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="33">
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="53" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="26">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="43" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="39" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="29" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143">
-    <cfRule type="expression" dxfId="21" priority="61">
+    <cfRule type="expression" dxfId="9" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="62">
+    <cfRule type="expression" dxfId="8" priority="62">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="19" priority="109">
+    <cfRule type="expression" dxfId="7" priority="109">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="110">
+    <cfRule type="expression" dxfId="6" priority="110">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="17" priority="107">
+    <cfRule type="expression" dxfId="5" priority="107">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="108">
+    <cfRule type="expression" dxfId="4" priority="108">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="15" priority="105">
+    <cfRule type="expression" dxfId="3" priority="105">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="106">
+    <cfRule type="expression" dxfId="2" priority="106">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="13" priority="103">
+    <cfRule type="expression" dxfId="1" priority="103">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="104">
+    <cfRule type="expression" dxfId="0" priority="104">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
